--- a/all_grants.xlsx
+++ b/all_grants.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,10 +494,61 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>RFP - Proposal for Digital Learning Centres – School Program</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | India
+International Development - RFP - Proposal for Digital Learning Centres – School Program, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search ... Read More</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>16-02-2026</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285822</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
           <t>RFQ - Check dam repair and desilting three units at polkampalli village mu...</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>WaterAid India | Sangareddy, Telangana
 International Development - RFQ - Check dam repair and desilting three units at polkampalli village munipalli mandal in sangareddy District, WaterAid India, Telangana - DevNetJobsIndia.org
@@ -511,7 +562,7 @@
 RFP ... Read More</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>• Payment terms and conditions
 :
@@ -606,52 +657,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -681,38 +732,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>16-02-2026</t>
         </is>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287051</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr"/>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>RFQ - Set up STEM Mini Science Lab and Training of Teachers and SMC Members</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>ChildFund India | India
 International Development - RFQ - Set up STEM Mini Science Lab and Training of Teachers and SMC Members, ChildFund India, India - DevNetJobsIndia.org
@@ -732,7 +783,7 @@
 Regis ... Read More</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work / Assignment
 Under the SciXplore STEM Edge Program, ChildFund India intends to establish 3 ICT-enabled STEM Labs in selected government schools in Udaipur, Rajasthan. The selected agency will be responsible for the end-to-end design, supply, installation, training, and maintenance support required to operationalize fully functional STEM learning spaces. The scope encompasses provision of STEM lab equipment, ICT infrastructure, interior development, initial teacher capacity building, and post-installation support for maintenance of the models. The details of the components are as follows-
@@ -861,52 +912,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -936,207 +987,9 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>16-02-2026</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287058</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring Agency to develop data protection policy, SOPs, and various d...</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Jhpiego | India
-International Development - RFP - Hiring Agency to develop data protection policy, SOPs, and various documents &amp; templates to comply with the new Digital Personal Data Privacy..., Jhpiego, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resum ... Read More</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>• Section 4 - Scope of Work
-Section 5 –
-Vendor Information Form– Standard   Template
-Section 6 - Standard   Template of Technical Service Contract
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-jhpin.procurement(at)jhpiego.org
-Download Attachment:
-RFP Hiring Agency to develop data protection policy SOPs and documents  template-FINAL.pdf
-Download Attachment:
-Pre-bid meeting.doc
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-16 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
-Apply by:
-18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
-Apply by:
-26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -1149,7 +1002,7 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285791</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287058</t>
         </is>
       </c>
     </row>
@@ -1162,61 +1015,10 @@
       <c r="B5" s="1" t="inlineStr"/>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>RFP - Proposal for Digital Learning Centres – School Program</t>
+          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - Proposal for Digital Learning Centres – School Program, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search ... Read More</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>16-02-2026</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285822</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>Parmarth Samaj Sevi Sansthan | India
 International Development - RFP - River Health and Water Dependency Assessment  Betwa River Basin, Parmarth Samaj Sevi Sansthan, India - DevNetJobsIndia.org
@@ -1233,7 +1035,7 @@
 Jobse ... Read More</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work
 The selected research agency/institution will be responsible for:
@@ -1351,52 +1153,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -1426,22 +1228,220 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2026</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285964</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring Agency to develop data protection policy, SOPs, and various d...</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Jhpiego | India
+International Development - RFP - Hiring Agency to develop data protection policy, SOPs, and various documents &amp; templates to comply with the new Digital Personal Data Privacy..., Jhpiego, India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resum ... Read More</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>• Section 4 - Scope of Work
+Section 5 –
+Vendor Information Form– Standard   Template
+Section 6 - Standard   Template of Technical Service Contract
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+jhpin.procurement(at)jhpiego.org
+Download Attachment:
+RFP Hiring Agency to develop data protection policy SOPs and documents-Final Extension.doc
+Download Attachment:
+Pre-bid meeting.doc
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+18 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
+Apply by:
+18 Mar 2026
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
+Apply by:
+26 Feb 2026
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>17-02-2026</t>
+          <t>18-02-2026</t>
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285964</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285791</t>
         </is>
       </c>
     </row>
@@ -1619,52 +1619,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -1805,52 +1805,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -2015,52 +2015,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -2118,455 +2118,10 @@
       <c r="B10" s="1" t="inlineStr"/>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>RFP - Gender Integration within in “Climate Resilient Agriculture based Li...</t>
+          <t>TOR : Study on Functionality and Sustainability of Grey Water Management (...</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Vijayavahini Charitable Foundation - Supported By Tata Trusts | Asifabad District, Telangana
-International Development - RFP - Gender Integration within in “Climate Resilient Agriculture based Livelihoods for Asifabad District” Project, Vijayavahini Charitable Foundation - Supported By Tata Trusts, ... Read More</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>• Scope of Work:
-The key tasks for this assignment will be undertaken in close collaboration with VCF
-project team
-Undertaking situation analysis / baseline study (self or with 3rd party support)
-Preparing action plan (inception report) for next three years support to handhold VCF in Asifabad on building Gender Component
-Providing training/capacity building of local team (
-team strengthen of 40 including
-Community Resource persons) in handling gender issues on ground; this training will repeat in every quarter/six monthly
-Monitoring/onsite support visit by Resource person/agency to project location: bimonthly
-Hosting team for exploratory visits to existing programs across state/particular district
-Deputing resource persons for supporting implementation team in project location
-Organising workshops related to strengthening gender component for program team as well as for beneficiaries
-Strengthening community leadership among workers, with an emphasis on building collective voice, peer leadership, and local champions who can sustain interventions beyond the project period.
-Conducting midline/endline study to find out the changes in gender component within the project
-Duration of services:
-The finalized agency/institution/consultant is expected to deliver services for a period of
-36
-months from
-March
-202
-6
-to
-February
-202
-9
-• Eligibility and Qualification Criteria
-Registered NGO or Section 8 company with proven expertise in Women Empowerment, Livelihoods and FPO development.
-Must possess a valid 12A, 80G certificates
-Minimum 3 years of relevant experience or demonstrated work on above subjects
-Proven experience in working with rural or tribal communities, preferably in Telangana
-Minimum annual turnover of INR 20 lakhs in any of the past three financial years.
-Qualified team with expertise in FPO governance, Gender empowerment, Livelihoods work, strengthening communities.
-Proposal Submission
-Interested agencies are requested to submit a detail proposal including Financials for 36 months to
-contact@vijayavahini.org
-with the subject line “RFP – Women Empowerment”. The Technical Proposal should include organization profile, relevant experience, methodology, proposed team, and work plan. The Financial Proposal should include fee structure, expenses, and applicable taxes.
-• Evaluation Criteria
-• The selection process will follow Quality and Cost-Based Selection (QCBS) with 70% weightage for technical and 30% for financial proposals.
-Evaluation parameters:
-• • Organizational profile and relevant experience – 20 points
-• Approach and methodology – 30 points
-• Past assignments – 20 points
-• Team qualifications and experience – 20 points
-• Financial proposal – 10 points
-Payment Terms
-50% upon signing of contract and submission of inception report.
-25% in the 2
-nd
-year start (13
-th
-month) of the work and submission of the first year report
-20% in the 3
-rd
-year start (25
-th
-month) of the work and submission of the second year report
-5% closer of the project and submission of final report (36
-th
-month)
-• General Terms and Conditions
-VCF reserves the right to accept or reject any proposal without assigning reasons. The consultant shall maintain confidentiality and adhere to VCF’s ethical standards and data protection policy. All outputs, training materials, and documents produced under this consultancy shall remain the property of VCF.
-Issued by:
-Vijayavahini Charitable Foundation (VCF)
-CNR Complex, 3rd Floor, Sri Ramachandra Nagar, Vijayawada, Andhra Pradesh – 520008
-Email:
-contact@vijayavahini.org
-Website:
-www.vijayavahini.org
-• Job Email ID:
-contact(at)vijayavahini.org
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-20 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
-Apply by:
-18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
-Apply by:
-26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Safety</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285744</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
-International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>• Scope of work
-The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
-Key responsibilities include:
-Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
-• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
-Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
-Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
-Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
-Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
-Deliverables:
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-woscaprocurement(at)gmail.com
-Download Attachment:
-RFP.docx
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-20 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
-Apply by:
-18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
-Apply by:
-26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>TOR : Study on Functionality and Sustainability of Grey Water Management (...</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>Water For People India | West Bengal
 International Development - TOR : Study on Functionality and Sustainability of Grey Water Management (GWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
@@ -2578,43 +2133,43 @@
 Value Membership ... Read More</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>Climate, Governance, Learning</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="I10" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285954</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>ToR - End-to-End Digital Marketing Agency for ChildFund India</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>ChildFund India | India
 International Development - ToR - End-to-End Digital Marketing Agency for ChildFund India, ChildFund India, India - DevNetJobsIndia.org
@@ -2635,7 +2190,7 @@
 Jobseekers ... Read More</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>• 5. Scope of Work / Assignment
 The scope includes, but is not limited to, the following components:
@@ -2819,52 +2374,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -2894,38 +2449,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285899</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>TOR : Study on Functionality and Sustainability of Solid Waste Management ...</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>Water For People India | West Bengal
 International Development - TOR : Study on Functionality and Sustainability of Solid Waste Management (SWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
@@ -2937,76 +2492,70 @@
 Value Membershi ... Read More</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>Climate, Governance, Learning</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I12" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285952</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>Americares India Foundation | Jaipur, Rajasthan
-International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Bro ... Read More</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>• PROPOSAL EVALUATION CRITERIA
-Proposals will be evaluated based on:
-Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
-Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
-Quality of Proposal (40%): Clarity, completeness, and alignment with scope
-References and Past Performance (10%): Feedback from prior engagements
-Please submit quotation in soft copy over email to Itisha Vasisht at
-ivasisht@americares.org
-and Priyanka Londhe at
-plondhe@americares.org
-with the subject line “Proposal for conducting NCD baseline in Jaipur”.
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
+International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>• Scope of work
+The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
+Key responsibilities include:
+Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
+• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
+Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
+Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
+Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
+Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
+Deliverables:
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+woscaprocurement(at)gmail.com
 Download Attachment:
-NCDISHAA baseline RFP (Jaipur).v2.pdf
+RFP.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-22 Feb 2026
+20 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -3068,52 +2617,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -3143,71 +2692,120 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>22-02-2026</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>20-02-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Jhpiego | India
-International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login ... Read More</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>• Section 4 - Scope of Work
-Section 5 –
-Vendor Information Form– Standard   Template
-Section 6 - Standard   Template of Technical Service Contract
-For detailed information, please check the complete version of the RFP attached below.
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Gender Integration within in “Climate Resilient Agriculture based Li...</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Vijayavahini Charitable Foundation - Supported By Tata Trusts | Asifabad District, Telangana
+International Development - RFP - Gender Integration within in “Climate Resilient Agriculture based Livelihoods for Asifabad District” Project, Vijayavahini Charitable Foundation - Supported By Tata Trusts, ... Read More</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>• Scope of Work:
+The key tasks for this assignment will be undertaken in close collaboration with VCF
+project team
+Undertaking situation analysis / baseline study (self or with 3rd party support)
+Preparing action plan (inception report) for next three years support to handhold VCF in Asifabad on building Gender Component
+Providing training/capacity building of local team (
+team strengthen of 40 including
+Community Resource persons) in handling gender issues on ground; this training will repeat in every quarter/six monthly
+Monitoring/onsite support visit by Resource person/agency to project location: bimonthly
+Hosting team for exploratory visits to existing programs across state/particular district
+Deputing resource persons for supporting implementation team in project location
+Organising workshops related to strengthening gender component for program team as well as for beneficiaries
+Strengthening community leadership among workers, with an emphasis on building collective voice, peer leadership, and local champions who can sustain interventions beyond the project period.
+Conducting midline/endline study to find out the changes in gender component within the project
+Duration of services:
+The finalized agency/institution/consultant is expected to deliver services for a period of
+36
+months from
+March
+202
+6
+to
+February
+202
+9
+• Eligibility and Qualification Criteria
+Registered NGO or Section 8 company with proven expertise in Women Empowerment, Livelihoods and FPO development.
+Must possess a valid 12A, 80G certificates
+Minimum 3 years of relevant experience or demonstrated work on above subjects
+Proven experience in working with rural or tribal communities, preferably in Telangana
+Minimum annual turnover of INR 20 lakhs in any of the past three financial years.
+Qualified team with expertise in FPO governance, Gender empowerment, Livelihoods work, strengthening communities.
+Proposal Submission
+Interested agencies are requested to submit a detail proposal including Financials for 36 months to
+contact@vijayavahini.org
+with the subject line “RFP – Women Empowerment”. The Technical Proposal should include organization profile, relevant experience, methodology, proposed team, and work plan. The Financial Proposal should include fee structure, expenses, and applicable taxes.
+• Evaluation Criteria
+• The selection process will follow Quality and Cost-Based Selection (QCBS) with 70% weightage for technical and 30% for financial proposals.
+Evaluation parameters:
+• • Organizational profile and relevant experience – 20 points
+• Approach and methodology – 30 points
+• Past assignments – 20 points
+• Team qualifications and experience – 20 points
+• Financial proposal – 10 points
+Payment Terms
+50% upon signing of contract and submission of inception report.
+25% in the 2
+nd
+year start (13
+th
+month) of the work and submission of the first year report
+20% in the 3
+rd
+year start (25
+th
+month) of the work and submission of the second year report
+5% closer of the project and submission of final report (36
+th
+month)
+• General Terms and Conditions
+VCF reserves the right to accept or reject any proposal without assigning reasons. The consultant shall maintain confidentiality and adhere to VCF’s ethical standards and data protection policy. All outputs, training materials, and documents produced under this consultancy shall remain the property of VCF.
+Issued by:
+Vijayavahini Charitable Foundation (VCF)
+CNR Complex, 3rd Floor, Sri Ramachandra Nagar, Vijayawada, Andhra Pradesh – 520008
+Email:
+contact@vijayavahini.org
+Website:
+www.vijayavahini.org
 • Job Email ID:
-jhpin.procurement(at)jhpiego.org
-Download Attachment:
-RFP - Hiring agency for the implementation of biosecurity.pdf
+contact(at)vijayavahini.org
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-22 Feb 2026
+20 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -3269,52 +2867,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -3344,9 +2942,411 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Safety</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>20-02-2026</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285744</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Jhpiego | India
+International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login ... Read More</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>• Section 4 - Scope of Work
+Section 5 –
+Vendor Information Form– Standard   Template
+Section 6 - Standard   Template of Technical Service Contract
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+jhpin.procurement(at)jhpiego.org
+Download Attachment:
+RFP - Hiring agency for the implementation of biosecurity.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+22 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
+Apply by:
+18 Mar 2026
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
+Apply by:
+26 Feb 2026
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>22-02-2026</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Americares India Foundation | Jaipur, Rajasthan
+International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Bro ... Read More</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>• PROPOSAL EVALUATION CRITERIA
+Proposals will be evaluated based on:
+Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
+Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
+Quality of Proposal (40%): Clarity, completeness, and alignment with scope
+References and Past Performance (10%): Feedback from prior engagements
+Please submit quotation in soft copy over email to Itisha Vasisht at
+ivasisht@americares.org
+and Priyanka Londhe at
+plondhe@americares.org
+with the subject line “Proposal for conducting NCD baseline in Jaipur”.
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+NCDISHAA baseline RFP (Jaipur).v2.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+22 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
+Apply by:
+18 Mar 2026
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
+Apply by:
+26 Feb 2026
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
         </is>
       </c>
     </row>
@@ -3423,10 +3423,436 @@
       <c r="B18" s="1" t="inlineStr"/>
       <c r="C18" s="1" t="inlineStr">
         <is>
+          <t>Operations Expert</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>The Voluntary Health Services (VHS) | Delhi
+International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login
+|
+Register
+Jobseekers Log ... Read More</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Essential Qualifications:
+Any Medical Graduate (MBBS/BDS) with Post Graduation Degree/Diploma (DNB, MD, MPH, DPH) in Public Health/Community Medicine/ Preventive &amp; Social Medicine/Epidemiology (FETP)/ EIS.
+OR
+Any Science Graduate with Doctorate in Public Health and (PhD/DSc or equivalent) or PhD in Public Health/Bio Sciences.
+Essential Experience:
+This position requires five (5) years of experience working on public health programs out of which at least three (3) years of experience at national level on disease surveillance focused on outbreak prone diseases including management of public health emergencies or the public health aspect of disaster management, Health Emergency Operations Centres (HEOC) or Emergency Operations Centres (EOC) or Control room/War Room
+Desirable Experience:
+Working experience in Public Safety/Security agencies
+.
+Subject
+matter
+expert with public health or disaster management or related background
+Working experience for health sector preparedness for disasters like flood, cyclone, earthquake etc.
+Demonstrated capability in managing advanced technologies, systems (including plans, policies, and procedures), and workforce.
+Age limit:
+The maximum age limit is 62 years for the above position (relaxation of 05 years for those candidates who have working experience in military/paramilitary/ law enforcement agencies).
+Period of engagement:
+This appointment shall purely be on a contractual basis. The initial contract will be made till Sep 2026, which may be extended based on performance evaluation.
+Remuneration:
+Competitive r
+emuneration commensurate with qualifications and experience, and aligned with prevailing Project norms
+Place of work:
+National Centre for Disease Control (NCDC), Directorate General of Health Services (Dte.GHS), Ministry of Health and Family Welfare (MoHFW), Government of India (GoI)
+• How to apply
+• Job Email ID: admin(at)vhsprojects.org
+• Job Email ID:
+admin(at)vhsprojects.org
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+23 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
+Apply by:
+18 Mar 2026
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
+Apply by:
+26 Feb 2026
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>23-02-2026</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Catholic Health Association of India (CHAI) | Karnataka
+International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
+• Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
+We request you to submit your offer as per the specifications detailed in Annexure 1 and the site details provided in Annexure 2. Please submit the cost details as per Annexure 3 and the organizational information as outlined in Annexure 4.
+About CHAI:
+The Catholic Health Association of India (CHAI) is a Network of 3572 Healthcare and Social Service Institutions across India. The network is divided into 11 regional units spanning the length and breadth of the country. By serving 21 million (approximately 1.5% of India’s population) patients annually across the country, most of them poor, CHAI plays a vital role in Indian healthcare. The network’s national reach and deep grassroots presence are a unique and formidable asset, made even stronger by the profound commitment of its volunteers.
+CHAI is a not-for-profit organization that works in various areas of health care, touching the lives of 12 million marginalized people every year. Leveraging the scale and reach of the network of its member institutions, CHAI has been successful in implementing a wide variety of projects in Community Health, Communicable Diseases, Non-Communicable Diseases, Palliative Care, Disability, Disaster Intervention and Strengthening of the Healthcare System.
+Address:
+The Catholic Health Association of India
+157/6, Staff Road, Gunrock Enclave,
+Secunderabad – 500009, Telangana
+REQUIREMENT :
+CHAI hereby invites eligible vendors to bid through this Request for Proposal (RFP) for carrying out the Supply, Installation, Testing and Commissioning including 5 years operation, comprehensive warranty, and maintenance of Grid Connected Rooftop Solar with Net-metering arrangement of total tentative capacity of 40 kWp solar photovolatic to be installed at St. Philomena’s Hospital in Bengaluru, Karnataka. Facility information is detailed in Annexure 2.
+• As part of the proposal, we request you to provide necessary details in Annexure 3 and 4, in accordance with information stipulated under the Terms and Conditions and specifications in Annexure 1 and 2.
+You are requested to revert back with your proposal/quotation on the following email addresses:
+chaipc@chai-india.org
+,
+The communication should be received by CHAI on or before
+23rd February 2026
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+Annexures for RfP.docx
+Download Attachment:
+RfP_Terms of Reference_solar.docx
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+23 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
+Apply by:
+18 Mar 2026
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
+Apply by:
+26 Feb 2026
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>23-02-2026</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
           <t>Public Health Specialist (Planning Section)</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>The Voluntary Health Services (VHS) | Delhi
 International Development - Public Health Specialist (Planning Section), The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
@@ -3444,7 +3870,7 @@
 Login ... Read More</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>• Last date to apply
 February 23, 2026
@@ -3578,52 +4004,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -3653,41 +4079,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>Governance, Safety</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G20" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="I20" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285813</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr"/>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Operations Expert</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>The Voluntary Health Services (VHS) | Delhi
-International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Gujarat
+International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -3695,51 +4121,28 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login
-|
-Register
-Jobseekers Log ... Read More</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Essential Qualifications:
-Any Medical Graduate (MBBS/BDS) with Post Graduation Degree/Diploma (DNB, MD, MPH, DPH) in Public Health/Community Medicine/ Preventive &amp; Social Medicine/Epidemiology (FETP)/ EIS.
-OR
-Any Science Graduate with Doctorate in Public Health and (PhD/DSc or equivalent) or PhD in Public Health/Bio Sciences.
-Essential Experience:
-This position requires five (5) years of experience working on public health programs out of which at least three (3) years of experience at national level on disease surveillance focused on outbreak prone diseases including management of public health emergencies or the public health aspect of disaster management, Health Emergency Operations Centres (HEOC) or Emergency Operations Centres (EOC) or Control room/War Room
-Desirable Experience:
-Working experience in Public Safety/Security agencies
-.
-Subject
-matter
-expert with public health or disaster management or related background
-Working experience for health sector preparedness for disasters like flood, cyclone, earthquake etc.
-Demonstrated capability in managing advanced technologies, systems (including plans, policies, and procedures), and workforce.
-Age limit:
-The maximum age limit is 62 years for the above position (relaxation of 05 years for those candidates who have working experience in military/paramilitary/ law enforcement agencies).
-Period of engagement:
-This appointment shall purely be on a contractual basis. The initial contract will be made till Sep 2026, which may be extended based on performance evaluation.
-Remuneration:
-Competitive r
-emuneration commensurate with qualifications and experience, and aligned with prevailing Project norms
-Place of work:
-National Centre for Disease Control (NCDC), Directorate General of Health Services (Dte.GHS), Ministry of Health and Family Welfare (MoHFW), Government of India (GoI)
-• How to apply
-• Job Email ID: admin(at)vhsprojects.org
+RFPs/Tender ... Read More</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-admin(at)vhsprojects.org
+rfp.lehs(at)wadhwaniai.org
+Download Attachment:
+RFP for English Annotation of Student Voice Recordings 1.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-23 Feb 2026
+27 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -3801,52 +4204,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -3876,73 +4279,71 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>27-02-2026</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr"/>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Catholic Health Association of India (CHAI) | Karnataka
-International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
-• Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
-We request you to submit your offer as per the specifications detailed in Annexure 1 and the site details provided in Annexure 2. Please submit the cost details as per Annexure 3 and the organizational information as outlined in Annexure 4.
-About CHAI:
-The Catholic Health Association of India (CHAI) is a Network of 3572 Healthcare and Social Service Institutions across India. The network is divided into 11 regional units spanning the length and breadth of the country. By serving 21 million (approximately 1.5% of India’s population) patients annually across the country, most of them poor, CHAI plays a vital role in Indian healthcare. The network’s national reach and deep grassroots presence are a unique and formidable asset, made even stronger by the profound commitment of its volunteers.
-CHAI is a not-for-profit organization that works in various areas of health care, touching the lives of 12 million marginalized people every year. Leveraging the scale and reach of the network of its member institutions, CHAI has been successful in implementing a wide variety of projects in Community Health, Communicable Diseases, Non-Communicable Diseases, Palliative Care, Disability, Disaster Intervention and Strengthening of the Healthcare System.
-Address:
-The Catholic Health Association of India
-157/6, Staff Road, Gunrock Enclave,
-Secunderabad – 500009, Telangana
-REQUIREMENT :
-CHAI hereby invites eligible vendors to bid through this Request for Proposal (RFP) for carrying out the Supply, Installation, Testing and Commissioning including 5 years operation, comprehensive warranty, and maintenance of Grid Connected Rooftop Solar with Net-metering arrangement of total tentative capacity of 40 kWp solar photovolatic to be installed at St. Philomena’s Hospital in Bengaluru, Karnataka. Facility information is detailed in Annexure 2.
-• As part of the proposal, we request you to provide necessary details in Annexure 3 and 4, in accordance with information stipulated under the Terms and Conditions and specifications in Annexure 1 and 2.
-You are requested to revert back with your proposal/quotation on the following email addresses:
-chaipc@chai-india.org
-,
-The communication should be received by CHAI on or before
-23rd February 2026
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Odisha
+International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-Annexures for RfP.docx
-Download Attachment:
-RfP_Terms of Reference_solar.docx
+RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-23 Feb 2026
+27 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -4004,52 +4405,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -4079,38 +4480,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F22" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>27-02-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Proposal Development Associate</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>Academy of Management Studies (AMS) | Uttar Pradesh
 International Development - Proposal Development Associate, Academy of Management Studies (AMS), Uttar Pradesh - DevNetJobsIndia.org
@@ -4128,7 +4529,7 @@
 Lo ... Read More</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>• Eligibility
 PG in any discipline
@@ -4329,52 +4730,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -4404,38 +4805,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H23" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I23" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285725</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>Centre for Catalyzing Change (C3) | India
 International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
@@ -4445,7 +4846,7 @@
 Registe ... Read More</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>• b. Proposal Submission Guidelines
 The applicant should submit the Technical and Financial Proposal in two separate pdf documents
@@ -4524,52 +4925,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -4599,45 +5000,45 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>02-03-2026</t>
         </is>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H24" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="I24" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr"/>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Servic...</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>Small Industries Development Bank of India (SIDBI) | India
 International Development - EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Services under Programmes for Development and Impact, Small Industries Development Bank of India (SIDBI), India - DevNetJobsIndia.org
 Jobseekers ... Read More</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>• Please      note that all the information required as per the documents required for      responding to EOI needs to be provided. Incomplete information in these      areas may lead to non-selection.
 Modification      And/ Or Withdrawal of documents:
@@ -4766,52 +5167,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -4841,38 +5242,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>06-03-2026</t>
         </is>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H25" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="I25" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287084</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr"/>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>Associate (Programme Management)</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>Indian Institute For Human Settlements (Iihs) | Karnataka
 International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
@@ -4888,7 +5289,7 @@
 Events ... Read More</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
 • To apply
@@ -4971,52 +5372,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -5046,38 +5447,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F26" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G26" s="1" t="inlineStr">
         <is>
           <t>07-03-2026</t>
         </is>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H26" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="I26" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285747</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
 International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
@@ -5091,53 +5492,54 @@
 RFPs ... Read More</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F27" s="1" t="inlineStr">
         <is>
           <t>Climate, Governance</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H27" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="I27" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr"/>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr"/>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
-International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Regis ... Read More</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+Register
+Ho ... Read More</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>• Proposal Requirements
 1. Company Background and Details
@@ -5147,9 +5549,9 @@
 Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
 For detailed information, please check the complete version of the RFP attached below.
 Download Attachment:
-Standalone ISA RFP Technical Evaluation Response Template (1).docx
+Standalone IC RFP Technical Evaluation Response Template.docx
 Download Attachment:
-Telugu_Standalone ISA RFP Technical Evaluation Response Template.docx
+Telugu_Standalone IC RFP Technical Evaluation Response Template.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -5216,52 +5618,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -5291,49 +5693,48 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H28" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
-International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Register
-Ho ... Read More</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
+Regis ... Read More</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>• Proposal Requirements
 1. Company Background and Details
@@ -5343,9 +5744,9 @@
 Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
 For detailed information, please check the complete version of the RFP attached below.
 Download Attachment:
-Standalone IC RFP Technical Evaluation Response Template.docx
+Standalone ISA RFP Technical Evaluation Response Template (1).docx
 Download Attachment:
-Telugu_Standalone IC RFP Technical Evaluation Response Template.docx
+Telugu_Standalone ISA RFP Technical Evaluation Response Template.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -5412,52 +5813,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -5487,38 +5888,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H29" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="I27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr"/>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr"/>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>Specialist – Financial Management and Compliance</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Financial Management and Compliance, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -5532,7 +5933,7 @@
 RFPs/T ... Read More</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>• will play a vital role in a program which seeks to strengthen the internal capacities of non-profit organizations in India across three building blocks of institutional functioning: governance, financial management, and compliance. These areas are deeply interconnected and together determine how effectively an organization operates, delivers programs and meets the expectations of its stakeholders. This position demands expertise in specific areas related to governance, compliance, and financial management, contributing essential guidance and support to strengthen the capabilities of participating organizations.
 Job Responsibilities:
@@ -5639,52 +6040,52 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Admin Officer
-Quest Alliance
-Location:
-India
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
 Apply by:
 18 Mar 2026
-Fundraising &amp; Partnerships Executive (5 years)
-Synergie
-Location:
-Uttar Pradesh, Karnataka
-Apply by:
-18 Mar 2026
-Consultant (Stitching Trainer)
-Shubh Trust
-Location:
-Delhi
-Apply by:
-18 Feb 2026
-Project Manager - Livelihoods and Skill Developme...
-Mahila Abhivruddhi Society, Andhra Pradesh (APMAS)
-Location:
-Andhra Pradesh
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
 Apply by:
 26 Feb 2026
-Accounts and Finance Officer
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Arogya Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-Programme Manager – Nandghar Project
-Social Revival Group of Urban Rural and Tribal (S...
-Location:
-Chhattisgarh
-Apply by:
-14 Mar 2026
-HR Coordinator
-Maitrayana Charity Foundation
-Location:
-Delhi
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
 Apply by:
 20 Feb 2026
 Jobseekers
@@ -5714,103 +6115,240 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F30" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G30" s="1" t="inlineStr">
         <is>
           <t>13-03-2026</t>
         </is>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H30" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="I30" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287015</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr"/>
-      <c r="H29" s="1" t="inlineStr"/>
-      <c r="I29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr"/>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G30" s="1" t="inlineStr"/>
-      <c r="H30" s="1" t="inlineStr"/>
-      <c r="I30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
+          <t>DevNetJobsIndia</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr"/>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
+          <t>RFP - Big IC+ISA RFP - Selection of a Service Provider for Supply, Instal...</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>EAII Advisors Pvt Ltd | Andhra Pradesh
+International Development - RFP - Big IC+ISA RFP -  Selection of a Service Provider for Supply, Installation and Operation &amp; Maintenance of 150 ILC Devices and Capacity Building., EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+Jobseekers:
+Login
+| ... Read More</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>• 2. Purpose of the RFP:
+2.1  EAII is soliciting bids for:
+(a) Supply, installation and operation &amp; maintenance of ILC Devices, which includes procurement of parts required to build ILC Devices, build &amp; install ILC Devices, chlorine dose adjustment, and operation &amp; maintenance (O&amp;M) of ILC devices
+1
+.
+An International non-profit organization incorporated and headquartered in the District of Columbia, USA.
+2
+. SVS systems are typically a groundwater-based system that is not treated via a centralized site. If treatment is occurring in SVS it is likely the result of a local government initiative or market-purchased bleaching powders by the local water committee
+3
+. ILC Device is a tablet-based dosers technology to consistently and safely dose drinking water with chlorine at SVS system.
+along with supply of chlorine tablets and PPE Kits for a period of up to four (4) years across a total of 150 SVS sites; and
+(b) Capacity building of community leaders to conduct Community Engagement Activities in their respective villages for the initial duration of 1 year at each of the 150 sites. Towards this,
+the Service Provider’s role extends beyond technical
+responsibilities to supply, install and maintain the ILC Devices (as per para (a) above) and includes onboarding Gram Panchayats (GPs), sensitizing GPs and community leaders, supporting GPs in selection of five Village Motivators (VMs) from each village, conducting training of VMs on conducting Community Engagement activities independently, and providing handholding support to VMs in proactively addressing any pushbacks from the community to drive adoption of chlorinated drinking water thereby building community trust and ownership of the device.
+Bidder’s Intent to Submit Bid:
+6.1 Prospective Bidders are requested to submit their intent to submit bid via email
+procurement@eaiiadvisors.in
+with subject line
+&lt;Intent to Submit Bid – RFP No. EAII/ISW/2026/IC-002
+up to the date mentioned in ITB Para 3 above.
+6.2 Such prospective Bidders who have submitted their intent to submit bid as above, shall be included in any communication related to bidding process, including responses to clarification requests, amendment and addendum issued subsequent to RFP publication.
+6.3 Submission of intent to submit by prospective bidders is not mandatory. The prospective Bidders who could not submit their intent to submit up to the date mentioned in ITB Para 3 above, or decide not to submit intent to submit bid, can still participate in the bidding.
+Big IC+ISA RFP -
+Selection of a Service Provider for Supply, Installation and Operation &amp; Maintenance of 150 In-Line Chlorination (ILC) Devices and Capacity Building of Community Leaders to conduct Community Engagement Activities to ensure Safe Drinking Water to Rural Households in Andhra Pradesh RFP is now live on
+Google Drive link
+EAII Advisors Pvt Ltd
+Location
+: Andhra Pradesh, India
+Apply by
+: 16
+th
+March 2026
+For detailed information and application instructions,
+click here
+.
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+16 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+CSR Fundraising Manager
+PadCare Labs Pvt. Ltd
+Location:
+Maharashtra
+Apply by:
+18 Mar 2026
+Director
+SAHAY
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Programme Coordinator (2600351)
+Food and Agriculture Organization of the United N...
+Location:
+Delhi
+Apply by:
+02 Mar 2026
+District Programme Lead
+Transform Rural India (TRI)
+Location:
+Madhya Pradesh
+Apply by:
+26 Feb 2026
+State Consultant –WASH in schools, Karnataka
+Inductus Limited
+Location:
+Karnataka
+Apply by:
+23 Feb 2026
+State Consultant – Child Vulnerability Analysis, ...
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – CRVS and Social Registry
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+State Consultant – Social Protection
+Inductus Limited
+Location:
+Bihar
+Apply by:
+20 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr"/>
-      <c r="H31" s="1" t="inlineStr"/>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>16-03-2026</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>28</v>
+      </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287172</t>
         </is>
       </c>
     </row>
@@ -5823,21 +6361,21 @@
       <c r="B32" s="1" t="inlineStr"/>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
+          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr"/>
       <c r="H32" s="1" t="inlineStr"/>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
         </is>
       </c>
     </row>
@@ -5850,21 +6388,21 @@
       <c r="B33" s="1" t="inlineStr"/>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
+          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr"/>
       <c r="H33" s="1" t="inlineStr"/>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -5877,7 +6415,7 @@
       <c r="B34" s="1" t="inlineStr"/>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
+          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -5891,7 +6429,7 @@
       <c r="H34" s="1" t="inlineStr"/>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
         </is>
       </c>
     </row>
@@ -5904,21 +6442,21 @@
       <c r="B35" s="1" t="inlineStr"/>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
+          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr"/>
       <c r="H35" s="1" t="inlineStr"/>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -5931,7 +6469,7 @@
       <c r="B36" s="1" t="inlineStr"/>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
+          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -5945,7 +6483,7 @@
       <c r="H36" s="1" t="inlineStr"/>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
         </is>
       </c>
     </row>
@@ -5958,21 +6496,21 @@
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
+          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr"/>
       <c r="H37" s="1" t="inlineStr"/>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
         </is>
       </c>
     </row>
@@ -5985,21 +6523,21 @@
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
+          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr"/>
       <c r="H38" s="1" t="inlineStr"/>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
         </is>
       </c>
     </row>
@@ -6012,21 +6550,21 @@
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
+          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr"/>
       <c r="H39" s="1" t="inlineStr"/>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
         </is>
       </c>
     </row>
@@ -6039,21 +6577,21 @@
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
+          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr"/>
       <c r="H40" s="1" t="inlineStr"/>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6604,7 @@
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
+          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
@@ -6080,7 +6618,7 @@
       <c r="H41" s="1" t="inlineStr"/>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6631,7 @@
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
+          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -6107,7 +6645,7 @@
       <c r="H42" s="1" t="inlineStr"/>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
         </is>
       </c>
     </row>
@@ -6120,21 +6658,21 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
+          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr"/>
       <c r="H43" s="1" t="inlineStr"/>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6685,7 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -6161,7 +6699,7 @@
       <c r="H44" s="1" t="inlineStr"/>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6712,7 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -6188,7 +6726,7 @@
       <c r="H45" s="1" t="inlineStr"/>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
         </is>
       </c>
     </row>
@@ -6201,21 +6739,21 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr"/>
       <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
         </is>
       </c>
     </row>
@@ -6228,7 +6766,7 @@
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
+          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -6242,94 +6780,74 @@
       <c r="H47" s="1" t="inlineStr"/>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
+          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t>10th Feb, 2026</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr"/>
       <c r="H48" s="1" t="inlineStr"/>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
+          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="inlineStr">
-        <is>
-          <t>10th Feb, 2026</t>
-        </is>
-      </c>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr"/>
       <c r="H49" s="1" t="inlineStr"/>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
+          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -6339,15 +6857,11 @@
           <t>Learning</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
-        <is>
-          <t>15th Dec, 2025</t>
-        </is>
-      </c>
+      <c r="G50" s="1" t="inlineStr"/>
       <c r="H50" s="1" t="inlineStr"/>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
+          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
         </is>
       </c>
     </row>
@@ -6364,25 +6878,25 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>10th Nov, 2025</t>
+          <t>10th Feb, 2026</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr"/>
       <c r="I51" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
         </is>
       </c>
     </row>
@@ -6399,25 +6913,25 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>31st Oct, 2025</t>
+          <t>10th Feb, 2026</t>
         </is>
       </c>
       <c r="H52" s="1" t="inlineStr"/>
       <c r="I52" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
         </is>
       </c>
     </row>
@@ -6434,25 +6948,25 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
+          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>21st May, 2025</t>
+          <t>15th Dec, 2025</t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr"/>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
         </is>
       </c>
     </row>
@@ -6469,25 +6983,25 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
+          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>10th Nov, 2025</t>
         </is>
       </c>
       <c r="H54" s="1" t="inlineStr"/>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
         </is>
       </c>
     </row>
@@ -6504,25 +7018,25 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>31st Oct, 2025</t>
         </is>
       </c>
       <c r="H55" s="1" t="inlineStr"/>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
         </is>
       </c>
     </row>
@@ -6539,25 +7053,25 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>21st May, 2025</t>
         </is>
       </c>
       <c r="H56" s="1" t="inlineStr"/>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
         </is>
       </c>
     </row>
@@ -6574,14 +7088,14 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
@@ -6592,205 +7106,229 @@
       <c r="H57" s="1" t="inlineStr"/>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Nagpur Metro Rail</t>
+          <t>HCL Foundation</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Tender/RFP</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : T1PD-02/2026 Date: 11/02/2026 — Tender Notice No : T1PD-02/2026 Date: 11/02/2026 EoI Ref No : T1PD-02/2026 Date: 11/02/2026 Selection of Consultant for Preparation of Transit Oriented Development Plan, Local Area Master Plan and Multi-Modal Integration Plan for Thane Integral Ring Metro Project.</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>Notice Inviting Tender</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
-        </is>
-      </c>
+          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G58" s="1" t="inlineStr"/>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
       <c r="H58" s="1" t="inlineStr"/>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Nagpur Metro Rail</t>
+          <t>HCL Foundation</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Tender/RFP</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 — Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 EoI Ref No : N1-CRF-13/2026  Date:16.01.2026 Construction of State Institute of Disaster Management (SIDM) at Nagpur (MIHAN)</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>Notice Inviting Tender</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
-        </is>
-      </c>
+          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
-        </is>
-      </c>
-      <c r="G59" s="1" t="inlineStr"/>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
       <c r="H59" s="1" t="inlineStr"/>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Nagpur Metro Rail</t>
+          <t>HCL Foundation</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>Tender/RFP</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 — Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 EoI Ref No : T1-024/DDC-03/2025  Date: 12.12.2025 Detailed Design Consultancy Services for the Detailed Design of Architectural and Tunnel Ventilation System (TVS) , including SES Simulation and CFD Simulation of Stations and Tunnel; Environmental Control System (ECS); Building Management System (BMS); and E&amp;M Services for two (02) Underground Stations i) Thane Junction and ii) New Thane of the Thane Integral Ring Metro Project (Section Length: Approx 3 km including ramps)</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>Notice Inviting Tender</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
-        </is>
-      </c>
+          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
-        </is>
-      </c>
-      <c r="G60" s="1" t="inlineStr"/>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
       <c r="H60" s="1" t="inlineStr"/>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>NIUA</t>
+          <t>Nagpur Metro Rail</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>Tender</t>
+          <t>Tender/RFP</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="1" t="inlineStr"/>
+          <t>Tender Notice No : T1PD-02/2026 Date: 11/02/2026 — Tender Notice No : T1PD-02/2026 Date: 11/02/2026 EoI Ref No : T1PD-02/2026 Date: 11/02/2026 Selection of Consultant for Preparation of Transit Oriented Development Plan, Local Area Master Plan and Multi-Modal Integration Plan for Thane Integral Ring Metro Project.</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Notice Inviting Tender</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
+        </is>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
       <c r="G61" s="1" t="inlineStr"/>
       <c r="H61" s="1" t="inlineStr"/>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+          <t>https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>NIUA</t>
+          <t>Nagpur Metro Rail</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Tender</t>
+          <t>Tender/RFP</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="1" t="inlineStr"/>
+          <t>Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 — Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 EoI Ref No : N1-CRF-13/2026  Date:16.01.2026 Construction of State Institute of Disaster Management (SIDM) at Nagpur (MIHAN)</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Notice Inviting Tender</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
       <c r="G62" s="1" t="inlineStr"/>
       <c r="H62" s="1" t="inlineStr"/>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
+          <t>https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>NIUA</t>
+          <t>Nagpur Metro Rail</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Tender</t>
+          <t>Tender/RFP</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="1" t="inlineStr"/>
+          <t>Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 — Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 EoI Ref No : T1-024/DDC-03/2025  Date: 12.12.2025 Detailed Design Consultancy Services for the Detailed Design of Architectural and Tunnel Ventilation System (TVS) , including SES Simulation and CFD Simulation of Stations and Tunnel; Environmental Control System (ECS); Building Management System (BMS); and E&amp;M Services for two (02) Underground Stations i) Thane Junction and ii) New Thane of the Thane Integral Ring Metro Project (Section Length: Approx 3 km including ramps)</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Notice Inviting Tender</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Safety</t>
+        </is>
+      </c>
       <c r="G63" s="1" t="inlineStr"/>
       <c r="H63" s="1" t="inlineStr"/>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+          <t>https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
         </is>
       </c>
     </row>
@@ -6807,7 +7345,7 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>RfP_SRTW.pdf</t>
+          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
@@ -6817,7 +7355,7 @@
       <c r="H64" s="1" t="inlineStr"/>
       <c r="I64" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
         </is>
       </c>
     </row>
@@ -6834,7 +7372,7 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
+          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
@@ -6844,7 +7382,7 @@
       <c r="H65" s="1" t="inlineStr"/>
       <c r="I65" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
         </is>
       </c>
     </row>
@@ -6861,7 +7399,7 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -6871,7 +7409,7 @@
       <c r="H66" s="1" t="inlineStr"/>
       <c r="I66" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
         </is>
       </c>
     </row>
@@ -6888,7 +7426,7 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
+          <t>RfP_SRTW.pdf</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -6898,7 +7436,7 @@
       <c r="H67" s="1" t="inlineStr"/>
       <c r="I67" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
         </is>
       </c>
     </row>
@@ -6915,7 +7453,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8666471.pdf</t>
+          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -6925,7 +7463,7 @@
       <c r="H68" s="1" t="inlineStr"/>
       <c r="I68" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
         </is>
       </c>
     </row>
@@ -6942,7 +7480,7 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>corgaudt1.pdf</t>
+          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -6952,7 +7490,7 @@
       <c r="H69" s="1" t="inlineStr"/>
       <c r="I69" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
         </is>
       </c>
     </row>
@@ -6969,7 +7507,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>Corrigendum6959493.pdf</t>
+          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -6979,7 +7517,7 @@
       <c r="H70" s="1" t="inlineStr"/>
       <c r="I70" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
         </is>
       </c>
     </row>
@@ -6996,7 +7534,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>ADDENDUM6959493.pdf</t>
+          <t>GeM-Bidding-8666471.pdf</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -7006,7 +7544,7 @@
       <c r="H71" s="1" t="inlineStr"/>
       <c r="I71" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
         </is>
       </c>
     </row>
@@ -7023,7 +7561,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
+          <t>corgaudt1.pdf</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -7033,7 +7571,7 @@
       <c r="H72" s="1" t="inlineStr"/>
       <c r="I72" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
         </is>
       </c>
     </row>
@@ -7050,7 +7588,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
+          <t>Corrigendum6959493.pdf</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -7060,7 +7598,7 @@
       <c r="H73" s="1" t="inlineStr"/>
       <c r="I73" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7615,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8478801.pdf</t>
+          <t>ADDENDUM6959493.pdf</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -7087,7 +7625,7 @@
       <c r="H74" s="1" t="inlineStr"/>
       <c r="I74" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
         </is>
       </c>
     </row>
@@ -7104,7 +7642,7 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8476974.pdf</t>
+          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -7114,7 +7652,7 @@
       <c r="H75" s="1" t="inlineStr"/>
       <c r="I75" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7669,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8497150.pdf</t>
+          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -7141,7 +7679,7 @@
       <c r="H76" s="1" t="inlineStr"/>
       <c r="I76" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8497150.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7696,7 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>EOI_Empanelment-of_SME_for_the_UrbanShift_Country_Project_040925.pdf</t>
+          <t>GeM-Bidding-8478801.pdf</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -7168,6 +7706,87 @@
       <c r="H77" s="1" t="inlineStr"/>
       <c r="I77" s="1" t="inlineStr">
         <is>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>GeM-Bidding-8476974.pdf</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="1" t="inlineStr"/>
+      <c r="G78" s="1" t="inlineStr"/>
+      <c r="H78" s="1" t="inlineStr"/>
+      <c r="I78" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>GeM-Bidding-8497150.pdf</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr"/>
+      <c r="E79" s="2" t="inlineStr"/>
+      <c r="F79" s="1" t="inlineStr"/>
+      <c r="G79" s="1" t="inlineStr"/>
+      <c r="H79" s="1" t="inlineStr"/>
+      <c r="I79" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8497150.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>EOI_Empanelment-of_SME_for_the_UrbanShift_Country_Project_040925.pdf</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr"/>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="1" t="inlineStr"/>
+      <c r="G80" s="1" t="inlineStr"/>
+      <c r="H80" s="1" t="inlineStr"/>
+      <c r="I80" s="1" t="inlineStr">
+        <is>
           <t>https://niua.in/sites/default/files/tenders/EOI_Empanelment-of_SME_for_the_UrbanShift_Country_Project_040925.pdf</t>
         </is>
       </c>

--- a/all_grants.xlsx
+++ b/all_grants.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,531 +494,10 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RFP - Proposal for Digital Learning Centres – School Program</t>
+          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - Proposal for Digital Learning Centres – School Program, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search ... Read More</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>16-02-2026</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285822</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr"/>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>RFQ - Check dam repair and desilting three units at polkampalli village mu...</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>WaterAid India | Sangareddy, Telangana
-International Development - RFQ - Check dam repair and desilting three units at polkampalli village munipalli mandal in sangareddy District, WaterAid India, Telangana - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFP ... Read More</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>• Payment terms and conditions
-:
-First Instalment
-On   signing of work order
-40%
-2nd Instalment
-After   Desiltation work of check dam
-30%
-After Completion of the work (final payment)
-After   completion of total work as per the estimation
-30%
-Contractors are encouraged to visit the site before submitting quotes, if they have any query as assistance needed to visit the site – they can directly reply to this mail.
-Quotations should submit to : Mail: &lt;
-WAIProcurementAP@wateraid.org
-&gt;
-• Terms and Conditions:
-Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
-Please quote for WaterAid (Jal Seva Charitable Foundation) contributed works only and community contribution part will be taken care by the community - either in cash or kind.
-Details of community contribution and WaterAid contribution is given in enclosed estimations for your reference.
-Regards,
-Procurement team,
-Andhra Pradesh &amp; Telangana.
-For detailed information, please check the complete version of the RFQ attached below.
-Download Attachment:
-Tender invitation - Check dams.pdf
-Download Attachment:
-Estimation (1).xlsx
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-16 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
-Location:
-Karnataka
-Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>16-02-2026</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287051</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>RFQ - Set up STEM Mini Science Lab and Training of Teachers and SMC Members</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>ChildFund India | India
-International Development - RFQ - Set up STEM Mini Science Lab and Training of Teachers and SMC Members, ChildFund India, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login
-|
-Regis ... Read More</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>• Scope of Work / Assignment
-Under the SciXplore STEM Edge Program, ChildFund India intends to establish 3 ICT-enabled STEM Labs in selected government schools in Udaipur, Rajasthan. The selected agency will be responsible for the end-to-end design, supply, installation, training, and maintenance support required to operationalize fully functional STEM learning spaces. The scope encompasses provision of STEM lab equipment, ICT infrastructure, interior development, initial teacher capacity building, and post-installation support for maintenance of the models. The details of the components are as follows-
-1
-. Establishment of STEM Mini Science Lab
-: The selected agency shall be responsible for supplying and installing a fully equipped STEM Mini Science Lab in each of the three identified government schools. Each lab must include a minimum of 90+ curriculum-aligned STEM models covering Physics, Chemistry, Biology, and Mathematics, along with DIY experiment kits and age-appropriate robotics kits. The agency must provide detailed experiment manuals, teacher guidebooks, student activity sheets, safety guidelines, and relevant lab posters. All materials must be durable, child-friendly, and aligned with the state curriculum. Proper cataloguing, labeling, and inventory documentation must be ensured for systematic lab management.
-2. ICT Infrastructure- Interactive Panel and LMS Integration
-: The agency shall supply and install a 64-inch interactive flat panel in each lab, equipped with an inbuilt Learning Management System (LMS) and digital content aligned with the state curriculum from Classes 1 to 12, with a minimum two-year subscription. The scope includes complete installation, mounting, electrical fittings, wiring, configuration, and testing to ensure seamless functionality. The agency must also provide necessary user orientation for teachers, a troubleshooting guide, and technical support within the warranty period to ensure uninterrupted usage of the ICT system.
-3. STEM Lab Infrastructure and Interior Setup
-: The agency shall undertake complete lab readiness, including provision and installation of wall-mounted or modular lab tables, cupboards, magnetic/white boards, PVC flooring, and necessary electrical fittings. The room must be painted and developed with STEM-themed decor to create a vibrant and engaging learning environment aligned with ChildFund India’s branding guidelines. The infrastructure setup should ensure safe movement space for students, organized storage of materials, adequate lighting, and compliance with basic safety standards. The lab must be handed over in fully operational condition.
-4. STEM Hanging Library
-: The agency shall provide hanging or space-efficient library units within each lab and supply a curated collection of STEM-focused books suitable for different grade levels. The books should promote inquiry-based learning, scientific thinking, and innovation. Proper indexing and cataloguing of books must be completed to ensure ease of access and systematic management by the school.
-5. Capacity Building- Teacher Training
-: The agency shall conduct a structured two-day cluster-level training program for selected teachers from all three schools. The training shall focus on effective utilization of STEM lab models, robotics kits, and interactive panels; integration of experiential and activity-based pedagogy into classroom teaching; lab safety protocols; and basic lab management practices. Training materials, handouts, and documentation of attendance and sessions must be provided as part of the deliverables.
-6. Maintenance and After-Sales Support
-: The agency shall provide comprehensive maintenance support for a minimum period of one year covering STEM models, robotics kits, interactive panels, and lab infrastructure components. This includes timely repair or replacement of defective items, periodic review visits, and remote or on-call technical assistance.
-7. Documentation and Reporting
-: The agency shall submit a detailed implementation plan and timeline prior to execution and provide completion reports upon installation, including photographs, inventory lists, warranty documents, and training reports. All documentation must be formally submitted to ChildFund India to confirm compliance with the agreed scope and quality standards.
-4.
-Timeline
-The complete establishment and operationalization of the three SciXplore STEM Edge ICT-enabled STEM Labs shall be completed within one (1) month from the date of issuance of the work order. The selected agency shall ensure parallel execution across all three schools to meet the stipulated timeline.
-5.
-Schedule of Payment
-The payment to the selected agency shall be released in the following tranches, subject to satisfactory completion of agreed deliverables and submission of required documentation:
-20% shall be released upon signing of the contract and submission of the detailed implementation plan.
-60% shall be released upon completion of lab infrastructure setup in all three schools, including installation of STEM equipment, interactive panels with LMS configuration, furniture, electrical work, decor, and submission of installation and inventory reports.
-20% shall be released upon successful completion of the 2-day cluster-level teacher training, submission of training report (including attendance sheets and photographs), and formal handover of fully functional STEM labs.
-6.
-Confidentiality
-• The selected agency shall maintain strict confidentiality of all information, documents, data, reports, designs, financial details, and other materials shared by ChildFund India or generated during the course of this assignment. Such information shall be used solely for the purpose of executing the scope of work under this contract and shall not be disclosed, reproduced, or shared with any third party without prior written consent from ChildFund India.
-7.
-Adherence to Safeguarding Policy
-ChildFund India Safeguarding Policy and Procedures will be strictly followed to safeguard children and adults while undertaking this assignment. ChildFund India has a zero-tolerance policy regarding sexual exploitation, abuse, and harassment (SEAH) and all other forms of harm by its staff, partners, and other representatives in the delivery of its mission and services for children. ChildFund India is committed to creating a safe environment in the workplace as well as in the communities where it delivers programs and services. ChildFund India expects every staff member, partner, and representative to adhere to this commitment and to ensure all organizational policies and standards are followed. Therefore, the agency must sign ChildFund India’s Safeguarding Policy along with signing the contract and adhering to the policy. As per the policy, the agency needs to follow the do-no-harm principles and strategy. Any potential effects that may appear during this assignment will be handled carefully and will need mandatory reporting to Mr. Sukhendu Santra, the Senior Specialist-Child Protection &amp; Advocacy of ChildFund India.
-8.
-Proposal Submission Process:
-Interested agencies must submit the following documents:
-Technical Proposal
-highlighting the detailed implementation plan (within one-month timeline), specifications of minimum 90+ STEM models, DIY and robotics kits, details of the 64-inch interactive panel with inbuilt LMS and 2-year curriculum subscription, lab infrastructure and interior setup plan, maintenance and after-sales support (minimum 1 year), teacher training approach, and product brochures/specification sheets.
-Financial Proposal
-highlighting the total cost for setting up three complete STEM labs along with a detailed cost breakup covering STEM equipment, ICT components, interior works, training, maintenance, taxes, transportation, and all applicable charges.
-Company profile with relevant experience, registration/incorporation certificate, PAN and GST certificates, list of similar assignments with client references, warranty and service commitment letter, and a duly signed and stamped copy of the complete proposal by the authorized signatory.
-Please ensure that all mandatory documents are submitted along with the proposal and budget, as missing documents may impact the evaluation.
-9.
-Agency profile
-The interested agency must demonstrate strong institutional capacity, technical expertise, and relevant experience in establishing STEM and ICT-enabled learning infrastructure in government schools. The profile should highlight-
-6 to 8 years of experience in setting up STEM Labs, ICT Labs, or Smart Classrooms in government schools
-Geographic presence and operational capacity in Rajasthan (preferred)
-Technical team strength, including in-house experts for STEM, ICT installation, and training
-Completion of similar assignments in the last 3–5 years with government departments, CSR partners, or educational institutions
-10.
-• How to Apply:
-Please submit your applications by e-mail to
-centralpurchase2@childfundindia.org
-with above highlighted documents:
-Last day of submission of the proposal is 16
-th
-Feb 2026.
-Only the shortlisted agency will be contacted for further details. For further information, please contact us at the above email.
-Please do mention reference in your quotation i.e. PRA/CFI/DEL/2025-26/050
-*****
-• Job Email ID:
-centralpurchase2(at)childfundindia.org
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-16 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
-Location:
-Karnataka
-Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>16-02-2026</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287058</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Parmarth Samaj Sevi Sansthan | India
 International Development - RFP - River Health and Water Dependency Assessment  Betwa River Basin, Parmarth Samaj Sevi Sansthan, India - DevNetJobsIndia.org
@@ -1035,7 +514,7 @@
 Jobse ... Read More</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work
 The selected research agency/institution will be responsible for:
@@ -1097,6 +576,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -1153,54 +638,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -1228,236 +713,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>17-02-2026</t>
         </is>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285964</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring Agency to develop data protection policy, SOPs, and various d...</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Jhpiego | India
-International Development - RFP - Hiring Agency to develop data protection policy, SOPs, and various documents &amp; templates to comply with the new Digital Personal Data Privacy..., Jhpiego, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resum ... Read More</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>• Section 4 - Scope of Work
-Section 5 –
-Vendor Information Form– Standard   Template
-Section 6 - Standard   Template of Technical Service Contract
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-jhpin.procurement(at)jhpiego.org
-Download Attachment:
-RFP Hiring Agency to develop data protection policy SOPs and documents-Final Extension.doc
-Download Attachment:
-Pre-bid meeting.doc
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-18 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
-Location:
-Karnataka
-Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Safety</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>18-02-2026</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285791</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>SOW - Designing &amp; Typing Work</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Room to Read India | India
 International Development - SOW -  Designing &amp; Typing Work, Room to Read India, India - DevNetJobsIndia.org
@@ -1479,7 +766,7 @@
 Jobseekers Registe ... Read More</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work (SOW) Designing &amp; Typing Work
 About Room to Read
@@ -1563,6 +850,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -1619,54 +912,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -1694,61 +987,79 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>18-02-2026</t>
         </is>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285988</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr"/>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>RFP - for the Upgrade and Strengthen Essential Health Infrastructure Inclu...</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Project Concern International India (PCI India) | India
-International Development - RFP - for the Upgrade and Strengthen Essential Health Infrastructure Including Civil Works, Renovation and Refurbishment of Primary Health Centres, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>• : Due to variations in site conditions and the absence of finalized drawings, detailed Scope of Work (SoW) and Bill of Quantities (BoQ) are not available at this stage. Accordingly, this RFP seeks technical proposals to assess the bidders’ understanding, methodology, and technical capability. Financial proposals shall be invited at a later stage only from technically qualified bidders.
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring Agency to develop data protection policy, SOPs, and various d...</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Jhpiego | India
+International Development - RFP - Hiring Agency to develop data protection policy, SOPs, and various documents &amp; templates to comply with the new Digital Personal Data Privacy..., Jhpiego, India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resum ... Read More</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>• Section 4 - Scope of Work
+Section 5 –
+Vendor Information Form– Standard   Template
+Section 6 - Standard   Template of Technical Service Contract
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-procdelhi(at)pciglobal.in
+jhpin.procurement(at)jhpiego.org
 Download Attachment:
-RFP - 0028.doc
+RFP Hiring Agency to develop data protection policy SOPs and documents-Final Extension.doc
+Download Attachment:
+Pre-bid meeting.doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-19 Feb 2026
+18 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -1805,54 +1116,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -1880,85 +1191,67 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>19-02-2026</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285516</t>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Safety</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>18-02-2026</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285791</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - Audio Quality Annotation of Student Voice Recordings, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jo ... Read More</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>• The selected partner will be responsible for delivering the following within the agreed project timelines and quality standards:
-JSON files of transcriptions of recordings
-(Format will be shared separately via email)
-Each recording to have a separate JSON file, format as specified by Wadhwani AI
-Criteria for Application
-Applicants must meet the following criteria.
-Mandatory:
-Demonstrated team capacity to provide transcriptions in English, demonstrable quality check process
-Preferred:
-Prior experience in transcribing English student speech.
-• Submission Details
-All proposals to this RFP must be received no later than
-&lt;Feb 16th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP:
-Audio Quality Annotation of Student Voice Recordings
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>RFP - for the Upgrade and Strengthen Essential Health Infrastructure Inclu...</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Project Concern International India (PCI India) | India
+International Development - RFP - for the Upgrade and Strengthen Essential Health Infrastructure Including Civil Works, Renovation and Refurbishment of Primary Health Centres, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>• : Due to variations in site conditions and the absence of finalized drawings, detailed Scope of Work (SoW) and Bill of Quantities (BoQ) are not available at this stage. Accordingly, this RFP seeks technical proposals to assess the bidders’ understanding, methodology, and technical capability. Financial proposals shall be invited at a later stage only from technically qualified bidders.
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+procdelhi(at)pciglobal.in
 Download Attachment:
-RFP for Audio Quality Annotation of Student Voice Recordings- Updated.pdf
+RFP - 0028.doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-20 Feb 2026
+19 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -2015,54 +1308,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -2090,38 +1383,86 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>19-02-2026</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285516</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>TOR : Study on Functionality and Sustainability of Solid Waste Management ...</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Water For People India | West Bengal
+International Development - TOR : Study on Functionality and Sustainability of Solid Waste Management (SWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membershi ... Read More</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285876</t>
+      <c r="H6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285952</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>TOR : Study on Functionality and Sustainability of Grey Water Management (...</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Water For People India | West Bengal
 International Development - TOR : Study on Functionality and Sustainability of Grey Water Management (GWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
@@ -2133,43 +1474,43 @@
 Value Membership ... Read More</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Climate, Governance, Learning</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285954</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>ToR - End-to-End Digital Marketing Agency for ChildFund India</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>ChildFund India | India
 International Development - ToR - End-to-End Digital Marketing Agency for ChildFund India, ChildFund India, India - DevNetJobsIndia.org
@@ -2190,7 +1531,7 @@
 Jobseekers ... Read More</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>• 5. Scope of Work / Assignment
 The scope includes, but is not limited to, the following components:
@@ -2318,6 +1659,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -2374,54 +1721,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -2449,108 +1796,75 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285899</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>TOR : Study on Functionality and Sustainability of Solid Waste Management ...</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Water For People India | West Bengal
-International Development - TOR : Study on Functionality and Sustainability of Solid Waste Management (SWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | India
+International Development - RFP - Audio Quality Annotation of Student Voice Recordings, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
 Register
 Home
-Value Membershi ... Read More</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285952</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
-International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>• Scope of work
-The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
-Key responsibilities include:
-Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
-• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
-Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
-Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
-Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
-Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
-Deliverables:
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jo ... Read More</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>• The selected partner will be responsible for delivering the following within the agreed project timelines and quality standards:
+JSON files of transcriptions of recordings
+(Format will be shared separately via email)
+Each recording to have a separate JSON file, format as specified by Wadhwani AI
+Criteria for Application
+Applicants must meet the following criteria.
+Mandatory:
+Demonstrated team capacity to provide transcriptions in English, demonstrable quality check process
+Preferred:
+Prior experience in transcribing English student speech.
+• Submission Details
+All proposals to this RFP must be received no later than
+&lt;Feb 16th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP:
+Audio Quality Annotation of Student Voice Recordings
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-woscaprocurement(at)gmail.com
 Download Attachment:
-RFP.docx
+RFP for Audio Quality Annotation of Student Voice Recordings- Updated.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -2561,6 +1875,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -2617,54 +1937,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -2692,44 +2012,44 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
+      <c r="H9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285876</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>RFP - Gender Integration within in “Climate Resilient Agriculture based Li...</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>Vijayavahini Charitable Foundation - Supported By Tata Trusts | Asifabad District, Telangana
 International Development - RFP - Gender Integration within in “Climate Resilient Agriculture based Livelihoods for Asifabad District” Project, Vijayavahini Charitable Foundation - Supported By Tata Trusts, ... Read More</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work:
 The key tasks for this assignment will be undertaken in close collaboration with VCF
@@ -2811,6 +2131,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -2867,54 +2193,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -2942,38 +2268,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>Climate, Safety</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285744</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>Jhpiego | India
 International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
@@ -2991,7 +2317,7 @@
 Login ... Read More</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>• Section 4 - Scope of Work
 Section 5 –
@@ -3012,6 +2338,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -3068,54 +2400,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -3143,66 +2475,83 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>22-02-2026</t>
         </is>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Americares India Foundation | Jaipur, Rajasthan
-International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>RFP – Content replacement (Hindi to Assamese) in developed flipbooks</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
+International Development - RFP – Content replacement (Hindi to Assamese) in developed flipbooks, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
 Register
 Home
 Value Membership
-Bro ... Read More</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>• PROPOSAL EVALUATION CRITERIA
-Proposals will be evaluated based on:
-Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
-Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
-Quality of Proposal (40%): Clarity, completeness, and alignment with scope
-References and Past Performance (10%): Feedback from prior engagements
-Please submit quotation in soft copy over email to Itisha Vasisht at
-ivasisht@americares.org
-and Priyanka Londhe at
-plondhe@americares.org
-with the subject line “Proposal for conducting NCD baseline in Jaipur”.
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-NCDISHAA baseline RFP (Jaipur).v2.pdf
+Broadcast ... Read More</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>• Scope of Work
+This is to bring to your kind attention that we intend to hire an agency for content replacement from Hindi to Assamese, including the cover page and back cover.
+The pages have already been designed, and the content has been translated
+. The document size is A4.
+The document/flipbooks is anticipated to consist of approximately 600 pages.
+The Terms of Reference are as follows:
+Kindly provide the quotations for Content replacement (Hindi to Assamese) per page, including GST by 22nd Feb 2026.
+After completion the job you have to provide the complete application file with high/low resolution pdfs.
+Kindly provide separate quotations for Content replacement (Hindi to assumes) per page.
+Work must be completed in the given timeline from the date of this order accepted by the vendor.
+MAMTA will pay the amounts to the vendor after the verification application files by MAMTA and submission of the original invoice.
+The taxes will be deducted as per the relevant rules of the Govt. of India.
+Others
+MAMTA HIMC reserves the right to reject all or any quotation(s), wholly or partly, without assigning any reason whatsoever.
+MAMTA HIMC team reserves the right to request the top 3 quotations for an in-person discussion.
+MAMTA reserves the right, in its sole discretion, to conduct negotiations following MAMTA and/donor’s policies and procedures and to request additional information from prospective Bidders to supplement or clarify any aspect of the proposal documents if such revisions will be in the interest of our programs
+Only shortlisted agencies will be contacted.
+MAMTA shall not be legally bound by any award notice issued for this RFQ until an Agreement is duly signed and executed with the winning bidder(s).
+Further details will be shared with shortlisted agencies.
+Agencies are responsible for the submission of their proposals at their own expense and assume all associated risks. MAMTA will not make any payments in this regard.
+• The Agency is obligated to carry out the scope of work diligently and to verify all data with full responsibility.
+MAMTA assumes that the Agency comprehensively understands the scope and objectives of the assignment.
+Quoted fees are expected to cover all expenses, including applicable taxes. The proposal’s validity period shall be 90 days from the submission deadline.
+QUOTATION SUBMISSION
+The Agency shall submit quotations separately for this assignment by 22nd Feb 2026.
+The financial quotations should be sent in soft copy over email at
+rfp@mamtahimc.in
+• by 22nd Feb 2026 with subject line “Quotation for Content replacement (Hindi to Assamese)”. Incomplete applications and applications received after the deadline will not be considered for the selection process. The selection team will only contact applicants who have been shortlisted for the process.
+• MAMTA HIMC has a policy of erasing all confidential information, ideas/concepts submitted in proposals/applications after the selection process is completed. “Confidentiality of Applicants” Mamta shall not be liable to share the list of shortlisted applicants with any party outside the organisation. The organization takes all necessary measures to protect the confidentiality of applicants, and shall not disclose any personal information, process and data related to the application, except as required by law.
+• Job Email ID:
+rfp(at)mamtahimc.in
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -3213,6 +2562,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -3269,54 +2624,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -3344,149 +2699,82 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>22-02-2026</t>
         </is>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
+      <c r="H12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287210</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr"/>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Americares India Foundation | Jaipur, Rajasthan
+International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
 Register
 Home
 Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr"/>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>Operations Expert</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>The Voluntary Health Services (VHS) | Delhi
-International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login
-|
-Register
-Jobseekers Log ... Read More</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Essential Qualifications:
-Any Medical Graduate (MBBS/BDS) with Post Graduation Degree/Diploma (DNB, MD, MPH, DPH) in Public Health/Community Medicine/ Preventive &amp; Social Medicine/Epidemiology (FETP)/ EIS.
-OR
-Any Science Graduate with Doctorate in Public Health and (PhD/DSc or equivalent) or PhD in Public Health/Bio Sciences.
-Essential Experience:
-This position requires five (5) years of experience working on public health programs out of which at least three (3) years of experience at national level on disease surveillance focused on outbreak prone diseases including management of public health emergencies or the public health aspect of disaster management, Health Emergency Operations Centres (HEOC) or Emergency Operations Centres (EOC) or Control room/War Room
-Desirable Experience:
-Working experience in Public Safety/Security agencies
-.
-Subject
-matter
-expert with public health or disaster management or related background
-Working experience for health sector preparedness for disasters like flood, cyclone, earthquake etc.
-Demonstrated capability in managing advanced technologies, systems (including plans, policies, and procedures), and workforce.
-Age limit:
-The maximum age limit is 62 years for the above position (relaxation of 05 years for those candidates who have working experience in military/paramilitary/ law enforcement agencies).
-Period of engagement:
-This appointment shall purely be on a contractual basis. The initial contract will be made till Sep 2026, which may be extended based on performance evaluation.
-Remuneration:
-Competitive r
-emuneration commensurate with qualifications and experience, and aligned with prevailing Project norms
-Place of work:
-National Centre for Disease Control (NCDC), Directorate General of Health Services (Dte.GHS), Ministry of Health and Family Welfare (MoHFW), Government of India (GoI)
-• How to apply
-• Job Email ID: admin(at)vhsprojects.org
-• Job Email ID:
-admin(at)vhsprojects.org
+Bro ... Read More</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>• PROPOSAL EVALUATION CRITERIA
+Proposals will be evaluated based on:
+Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
+Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
+Quality of Proposal (40%): Clarity, completeness, and alignment with scope
+References and Past Performance (10%): Feedback from prior engagements
+Please submit quotation in soft copy over email to Itisha Vasisht at
+ivasisht@americares.org
+and Priyanka Londhe at
+plondhe@americares.org
+with the subject line “Proposal for conducting NCD baseline in Jaipur”.
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+NCDISHAA baseline RFP (Jaipur).v2.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-23 Feb 2026
+22 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -3543,54 +2831,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -3618,241 +2906,89 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>22-02-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | India
+International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
+      <c r="H14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr"/>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Catholic Health Association of India (CHAI) | Karnataka
-International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
-• Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
-We request you to submit your offer as per the specifications detailed in Annexure 1 and the site details provided in Annexure 2. Please submit the cost details as per Annexure 3 and the organizational information as outlined in Annexure 4.
-About CHAI:
-The Catholic Health Association of India (CHAI) is a Network of 3572 Healthcare and Social Service Institutions across India. The network is divided into 11 regional units spanning the length and breadth of the country. By serving 21 million (approximately 1.5% of India’s population) patients annually across the country, most of them poor, CHAI plays a vital role in Indian healthcare. The network’s national reach and deep grassroots presence are a unique and formidable asset, made even stronger by the profound commitment of its volunteers.
-CHAI is a not-for-profit organization that works in various areas of health care, touching the lives of 12 million marginalized people every year. Leveraging the scale and reach of the network of its member institutions, CHAI has been successful in implementing a wide variety of projects in Community Health, Communicable Diseases, Non-Communicable Diseases, Palliative Care, Disability, Disaster Intervention and Strengthening of the Healthcare System.
-Address:
-The Catholic Health Association of India
-157/6, Staff Road, Gunrock Enclave,
-Secunderabad – 500009, Telangana
-REQUIREMENT :
-CHAI hereby invites eligible vendors to bid through this Request for Proposal (RFP) for carrying out the Supply, Installation, Testing and Commissioning including 5 years operation, comprehensive warranty, and maintenance of Grid Connected Rooftop Solar with Net-metering arrangement of total tentative capacity of 40 kWp solar photovolatic to be installed at St. Philomena’s Hospital in Bengaluru, Karnataka. Facility information is detailed in Annexure 2.
-• As part of the proposal, we request you to provide necessary details in Annexure 3 and 4, in accordance with information stipulated under the Terms and Conditions and specifications in Annexure 1 and 2.
-You are requested to revert back with your proposal/quotation on the following email addresses:
-chaipc@chai-india.org
-,
-The communication should be received by CHAI on or before
-23rd February 2026
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-Annexures for RfP.docx
-Download Attachment:
-RfP_Terms of Reference_solar.docx
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-23 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
-Location:
-Karnataka
-Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr"/>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Public Health Specialist (Planning Section)</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>The Voluntary Health Services (VHS) | Delhi
 International Development - Public Health Specialist (Planning Section), The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
@@ -3870,7 +3006,7 @@
 Login ... Read More</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>• Last date to apply
 February 23, 2026
@@ -3948,6 +3084,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -4004,54 +3146,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -4079,41 +3221,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Governance, Safety</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285813</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | Gujarat
-International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Operations Expert</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>The Voluntary Health Services (VHS) | Delhi
+International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -4121,33 +3263,62 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tender ... Read More</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
-For detailed information, please check the complete version of the RFP attached below.
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login
+|
+Register
+Jobseekers Log ... Read More</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Essential Qualifications:
+Any Medical Graduate (MBBS/BDS) with Post Graduation Degree/Diploma (DNB, MD, MPH, DPH) in Public Health/Community Medicine/ Preventive &amp; Social Medicine/Epidemiology (FETP)/ EIS.
+OR
+Any Science Graduate with Doctorate in Public Health and (PhD/DSc or equivalent) or PhD in Public Health/Bio Sciences.
+Essential Experience:
+This position requires five (5) years of experience working on public health programs out of which at least three (3) years of experience at national level on disease surveillance focused on outbreak prone diseases including management of public health emergencies or the public health aspect of disaster management, Health Emergency Operations Centres (HEOC) or Emergency Operations Centres (EOC) or Control room/War Room
+Desirable Experience:
+Working experience in Public Safety/Security agencies
+.
+Subject
+matter
+expert with public health or disaster management or related background
+Working experience for health sector preparedness for disasters like flood, cyclone, earthquake etc.
+Demonstrated capability in managing advanced technologies, systems (including plans, policies, and procedures), and workforce.
+Age limit:
+The maximum age limit is 62 years for the above position (relaxation of 05 years for those candidates who have working experience in military/paramilitary/ law enforcement agencies).
+Period of engagement:
+This appointment shall purely be on a contractual basis. The initial contract will be made till Sep 2026, which may be extended based on performance evaluation.
+Remuneration:
+Competitive r
+emuneration commensurate with qualifications and experience, and aligned with prevailing Project norms
+Place of work:
+National Centre for Disease Control (NCDC), Directorate General of Health Services (Dte.GHS), Ministry of Health and Family Welfare (MoHFW), Government of India (GoI)
+• How to apply
+• Job Email ID: admin(at)vhsprojects.org
 • Job Email ID:
-rfp.lehs(at)wadhwaniai.org
-Download Attachment:
-RFP for English Annotation of Student Voice Recordings 1.pdf
+admin(at)vhsprojects.org
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-27 Feb 2026
+23 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -4204,54 +3375,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -4279,76 +3450,84 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>27-02-2026</t>
-        </is>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>23-02-2026</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | Odisha
-International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Catholic Health Association of India (CHAI) | Karnataka
+International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
+• Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
+We request you to submit your offer as per the specifications detailed in Annexure 1 and the site details provided in Annexure 2. Please submit the cost details as per Annexure 3 and the organizational information as outlined in Annexure 4.
+About CHAI:
+The Catholic Health Association of India (CHAI) is a Network of 3572 Healthcare and Social Service Institutions across India. The network is divided into 11 regional units spanning the length and breadth of the country. By serving 21 million (approximately 1.5% of India’s population) patients annually across the country, most of them poor, CHAI plays a vital role in Indian healthcare. The network’s national reach and deep grassroots presence are a unique and formidable asset, made even stronger by the profound commitment of its volunteers.
+CHAI is a not-for-profit organization that works in various areas of health care, touching the lives of 12 million marginalized people every year. Leveraging the scale and reach of the network of its member institutions, CHAI has been successful in implementing a wide variety of projects in Community Health, Communicable Diseases, Non-Communicable Diseases, Palliative Care, Disability, Disaster Intervention and Strengthening of the Healthcare System.
+Address:
+The Catholic Health Association of India
+157/6, Staff Road, Gunrock Enclave,
+Secunderabad – 500009, Telangana
+REQUIREMENT :
+CHAI hereby invites eligible vendors to bid through this Request for Proposal (RFP) for carrying out the Supply, Installation, Testing and Commissioning including 5 years operation, comprehensive warranty, and maintenance of Grid Connected Rooftop Solar with Net-metering arrangement of total tentative capacity of 40 kWp solar photovolatic to be installed at St. Philomena’s Hospital in Bengaluru, Karnataka. Facility information is detailed in Annexure 2.
+• As part of the proposal, we request you to provide necessary details in Annexure 3 and 4, in accordance with information stipulated under the Terms and Conditions and specifications in Annexure 1 and 2.
+You are requested to revert back with your proposal/quotation on the following email addresses:
+chaipc@chai-india.org
+,
+The communication should be received by CHAI on or before
+23rd February 2026
 For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
+Annexures for RfP.docx
+Download Attachment:
+RfP_Terms of Reference_solar.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-27 Feb 2026
+23 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -4405,54 +3584,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -4480,38 +3659,652 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>23-02-2026</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr"/>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
+International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>• Scope of work
+The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
+Key responsibilities include:
+Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
+• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
+Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
+Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
+Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
+Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
+Deliverables:
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+woscaprocurement(at)gmail.com
+Download Attachment:
+RFP.docx
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+25 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>25-02-2026</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Odisha
+International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+rfp.lehs(at)wadhwaniai.org
+Download Attachment:
+RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+27 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
         <is>
           <t>27-02-2026</t>
         </is>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr"/>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Gujarat
+International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tender ... Read More</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+rfp.lehs(at)wadhwaniai.org
+Download Attachment:
+RFP for English Annotation of Student Voice Recordings 1.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+27 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>27-02-2026</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Proposal Development Associate</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>Academy of Management Studies (AMS) | Uttar Pradesh
 International Development - Proposal Development Associate, Academy of Management Studies (AMS), Uttar Pradesh - DevNetJobsIndia.org
@@ -4529,7 +4322,7 @@
 Lo ... Read More</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>• Eligibility
 PG in any discipline
@@ -4674,6 +4467,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -4730,54 +4529,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -4805,38 +4604,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F21" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G21" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H23" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H21" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285725</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr"/>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr">
         <is>
           <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>Centre for Catalyzing Change (C3) | India
 International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
@@ -4846,7 +4645,7 @@
 Registe ... Read More</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>• b. Proposal Submission Guidelines
 The applicant should submit the Technical and Financial Proposal in two separate pdf documents
@@ -4869,6 +4668,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -4925,54 +4730,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -5000,45 +4805,45 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F22" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>02-03-2026</t>
         </is>
       </c>
-      <c r="H24" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H22" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Servic...</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>Small Industries Development Bank of India (SIDBI) | India
 International Development - EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Services under Programmes for Development and Impact, Small Industries Development Bank of India (SIDBI), India - DevNetJobsIndia.org
 Jobseekers ... Read More</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>• Please      note that all the information required as per the documents required for      responding to EOI needs to be provided. Incomplete information in these      areas may lead to non-selection.
 Modification      And/ Or Withdrawal of documents:
@@ -5111,6 +4916,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -5167,54 +4978,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -5242,38 +5053,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>06-03-2026</t>
         </is>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H23" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287084</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr"/>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>Associate (Programme Management)</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>Indian Institute For Human Settlements (Iihs) | Karnataka
 International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
@@ -5289,7 +5100,7 @@
 Events ... Read More</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
 • To apply
@@ -5316,6 +5127,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -5372,54 +5189,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -5447,88 +5264,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>07-03-2026</t>
         </is>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H24" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285747</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
-International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs ... Read More</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F27" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>09-03-2026</t>
-        </is>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr"/>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -5539,7 +5306,7 @@
 Ho ... Read More</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>• Proposal Requirements
 1. Company Background and Details
@@ -5562,6 +5329,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -5618,54 +5391,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -5693,38 +5466,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H28" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H25" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -5734,7 +5507,7 @@
 Regis ... Read More</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>• Proposal Requirements
 1. Company Background and Details
@@ -5757,6 +5530,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -5813,54 +5592,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -5888,38 +5667,88 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F26" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G26" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H29" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H26" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr"/>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
+International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs ... Read More</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>09-03-2026</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr"/>
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>Specialist – Financial Management and Compliance</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Financial Management and Compliance, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -5933,7 +5762,7 @@
 RFPs/T ... Read More</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>• will play a vital role in a program which seeks to strengthen the internal capacities of non-profit organizations in India across three building blocks of institutional functioning: governance, financial management, and compliance. These areas are deeply interconnected and together determine how effectively an organization operates, delivers programs and meets the expectations of its stakeholders. This position demands expertise in specific areas related to governance, compliance, and financial management, contributing essential guidance and support to strengthen the capabilities of participating organizations.
 Job Responsibilities:
@@ -5984,6 +5813,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -6040,54 +5875,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -6115,38 +5950,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F28" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>13-03-2026</t>
         </is>
       </c>
-      <c r="H30" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H28" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287015</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr"/>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>RFP - Big IC+ISA RFP - Selection of a Service Provider for Supply, Instal...</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP - Big IC+ISA RFP -  Selection of a Service Provider for Supply, Installation and Operation &amp; Maintenance of 150 ILC Devices and Capacity Building., EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -6155,7 +5990,7 @@
 | ... Read More</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>• 2. Purpose of the RFP:
 2.1  EAII is soliciting bids for:
@@ -6202,6 +6037,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Operations Expert
 The Voluntary Health Services (VHS)
 Location:
@@ -6258,54 +6099,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-CSR Fundraising Manager
-PadCare Labs Pvt. Ltd
-Location:
-Maharashtra
-Apply by:
-18 Mar 2026
-Director
-SAHAY
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Programme Coordinator (2600351)
-Food and Agriculture Organization of the United N...
-Location:
-Delhi
-Apply by:
-02 Mar 2026
-District Programme Lead
-Transform Rural India (TRI)
-Location:
-Madhya Pradesh
-Apply by:
-26 Feb 2026
-State Consultant –WASH in schools, Karnataka
-Inductus Limited
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
 Location:
 Karnataka
 Apply by:
-23 Feb 2026
-State Consultant – Child Vulnerability Analysis, ...
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – CRVS and Social Registry
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
-State Consultant – Social Protection
-Inductus Limited
-Location:
-Bihar
-Apply by:
-20 Feb 2026
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
 Jobseekers
 Register
 Login
@@ -6333,22 +6174,255 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>16-03-2026</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287172</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr"/>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Specialist – Communication</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
+International Development - Specialist – Communication, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Eve ... Read More</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist – Communication at FMSF.
+• How to Apply:
+Apply online by clicking on the link:
+https://www.fmsfindia.org.in/apply-now/specialist-communication1
+You’re Resume to be accompanied with:
+Motivational letter justifying suitability for the position – role fitment based on present &amp; past work experience
+Current/last drawn compensation &amp; expected compensation
+CVs without Motivational Letter will not be considered
+FMSF is an Equal Opportunity Employer.
+Please note that only the shortlisted candidates will be contacted.
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+19 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+National Consultant - Monitoring and Evaluation
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Medical Consultant - Field Level
+IPE Global Pvt. Ltd
+Location:
+India
+Apply by:
+15 Mar 2026
+National Consultant - HSS
+IPE Global Pvt. Ltd
+Location:
+Delhi
+Apply by:
+15 Mar 2026
+Officer – Administration
+Ipas Development Foundation (IDF)
+Location:
+Assam
+Apply by:
+04 Mar 2026
+Project Coordinator / Project Associate
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Project Lead / Project Manager
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+19 Mar 2026
+Clinical Pharmacist
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Infection Control Nurse
+Americares India Foundation
+Location:
+Goa
+Apply by:
+19 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>19-03-2026</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287207</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr"/>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr">
-        <is>
-          <t>16-03-2026</t>
-        </is>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>28</v>
-      </c>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr"/>
+      <c r="H31" s="1" t="inlineStr"/>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287172</t>
+          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
         </is>
       </c>
     </row>
@@ -6361,21 +6435,21 @@
       <c r="B32" s="1" t="inlineStr"/>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
+          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr"/>
       <c r="H32" s="1" t="inlineStr"/>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -6388,21 +6462,21 @@
       <c r="B33" s="1" t="inlineStr"/>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
+          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr"/>
       <c r="H33" s="1" t="inlineStr"/>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
         </is>
       </c>
     </row>
@@ -6415,21 +6489,21 @@
       <c r="B34" s="1" t="inlineStr"/>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
+          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr"/>
       <c r="H34" s="1" t="inlineStr"/>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -6442,21 +6516,21 @@
       <c r="B35" s="1" t="inlineStr"/>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
+          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr"/>
       <c r="H35" s="1" t="inlineStr"/>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
         </is>
       </c>
     </row>
@@ -6469,7 +6543,7 @@
       <c r="B36" s="1" t="inlineStr"/>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
+          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -6483,7 +6557,7 @@
       <c r="H36" s="1" t="inlineStr"/>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
         </is>
       </c>
     </row>
@@ -6496,7 +6570,7 @@
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
+          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -6510,7 +6584,7 @@
       <c r="H37" s="1" t="inlineStr"/>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6597,7 @@
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
+          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
@@ -6537,7 +6611,7 @@
       <c r="H38" s="1" t="inlineStr"/>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
         </is>
       </c>
     </row>
@@ -6550,21 +6624,21 @@
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
+          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr"/>
       <c r="H39" s="1" t="inlineStr"/>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6651,7 @@
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
+          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
@@ -6591,7 +6665,7 @@
       <c r="H40" s="1" t="inlineStr"/>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6678,7 @@
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
+          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
@@ -6618,7 +6692,7 @@
       <c r="H41" s="1" t="inlineStr"/>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
         </is>
       </c>
     </row>
@@ -6631,21 +6705,21 @@
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
+          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr"/>
       <c r="H42" s="1" t="inlineStr"/>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
         </is>
       </c>
     </row>
@@ -6658,21 +6732,21 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
+          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr"/>
       <c r="H43" s="1" t="inlineStr"/>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6759,7 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -6699,7 +6773,7 @@
       <c r="H44" s="1" t="inlineStr"/>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
         </is>
       </c>
     </row>
@@ -6712,7 +6786,7 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -6726,7 +6800,7 @@
       <c r="H45" s="1" t="inlineStr"/>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6813,7 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
+          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -6753,7 +6827,7 @@
       <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
@@ -6766,7 +6840,7 @@
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -6780,7 +6854,7 @@
       <c r="H47" s="1" t="inlineStr"/>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
@@ -6793,21 +6867,21 @@
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr"/>
       <c r="H48" s="1" t="inlineStr"/>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
         </is>
       </c>
     </row>
@@ -6820,48 +6894,56 @@
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
+          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr"/>
       <c r="H49" s="1" t="inlineStr"/>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr"/>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G50" s="1" t="inlineStr"/>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>10th Feb, 2026</t>
+        </is>
+      </c>
       <c r="H50" s="1" t="inlineStr"/>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
         </is>
       </c>
     </row>
@@ -6878,7 +6960,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -6896,7 +6978,7 @@
       <c r="H51" s="1" t="inlineStr"/>
       <c r="I51" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
         </is>
       </c>
     </row>
@@ -6913,25 +6995,25 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
+          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>10th Feb, 2026</t>
+          <t>15th Dec, 2025</t>
         </is>
       </c>
       <c r="H52" s="1" t="inlineStr"/>
       <c r="I52" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
         </is>
       </c>
     </row>
@@ -6948,25 +7030,25 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
+          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>15th Dec, 2025</t>
+          <t>10th Nov, 2025</t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr"/>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
         </is>
       </c>
     </row>
@@ -6983,25 +7065,25 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
+          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>10th Nov, 2025</t>
+          <t>31st Oct, 2025</t>
         </is>
       </c>
       <c r="H54" s="1" t="inlineStr"/>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
         </is>
       </c>
     </row>
@@ -7018,25 +7100,25 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>31st Oct, 2025</t>
+          <t>21st May, 2025</t>
         </is>
       </c>
       <c r="H55" s="1" t="inlineStr"/>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
         </is>
       </c>
     </row>
@@ -7053,25 +7135,25 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
+          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>21st May, 2025</t>
+          <t>15th May, 2025</t>
         </is>
       </c>
       <c r="H56" s="1" t="inlineStr"/>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
         </is>
       </c>
     </row>
@@ -7088,14 +7170,14 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
@@ -7106,7 +7188,7 @@
       <c r="H57" s="1" t="inlineStr"/>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
         </is>
       </c>
     </row>
@@ -7123,14 +7205,14 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
@@ -7141,7 +7223,7 @@
       <c r="H58" s="1" t="inlineStr"/>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
         </is>
       </c>
     </row>
@@ -7158,14 +7240,14 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
@@ -7176,42 +7258,46 @@
       <c r="H59" s="1" t="inlineStr"/>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
+          <t>Nagpur Metro Rail</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tender/RFP</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr"/>
-      <c r="E60" s="2" t="inlineStr"/>
+          <t>Tender Notice No : T1PD-02/2026 Date: 11/02/2026 — Tender Notice No : T1PD-02/2026 Date: 11/02/2026 EoI Ref No : T1PD-02/2026 Date: 11/02/2026 Selection of Consultant for Preparation of Transit Oriented Development Plan, Local Area Master Plan and Multi-Modal Integration Plan for Thane Integral Ring Metro Project.</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Notice Inviting Tender</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
+        </is>
+      </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G60" s="1" t="inlineStr">
-        <is>
-          <t>15th May, 2025</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr"/>
       <c r="H60" s="1" t="inlineStr"/>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
+          <t>https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7314,7 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : T1PD-02/2026 Date: 11/02/2026 — Tender Notice No : T1PD-02/2026 Date: 11/02/2026 EoI Ref No : T1PD-02/2026 Date: 11/02/2026 Selection of Consultant for Preparation of Transit Oriented Development Plan, Local Area Master Plan and Multi-Modal Integration Plan for Thane Integral Ring Metro Project.</t>
+          <t>Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 — Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 EoI Ref No : N1-CRF-13/2026  Date:16.01.2026 Construction of State Institute of Disaster Management (SIDM) at Nagpur (MIHAN)</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
@@ -7238,19 +7324,19 @@
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
+          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr"/>
       <c r="H61" s="1" t="inlineStr"/>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
+          <t>https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
         </is>
       </c>
     </row>
@@ -7267,7 +7353,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 — Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 EoI Ref No : N1-CRF-13/2026  Date:16.01.2026 Construction of State Institute of Disaster Management (SIDM) at Nagpur (MIHAN)</t>
+          <t>Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 — Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 EoI Ref No : T1-024/DDC-03/2025  Date: 12.12.2025 Detailed Design Consultancy Services for the Detailed Design of Architectural and Tunnel Ventilation System (TVS) , including SES Simulation and CFD Simulation of Stations and Tunnel; Environmental Control System (ECS); Building Management System (BMS); and E&amp;M Services for two (02) Underground Stations i) Thane Junction and ii) New Thane of the Thane Integral Ring Metro Project (Section Length: Approx 3 km including ramps)</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -7277,58 +7363,46 @@
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
+          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr"/>
       <c r="H62" s="1" t="inlineStr"/>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
+          <t>https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Nagpur Metro Rail</t>
+          <t>NIUA</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Tender/RFP</t>
+          <t>Tender</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 — Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 EoI Ref No : T1-024/DDC-03/2025  Date: 12.12.2025 Detailed Design Consultancy Services for the Detailed Design of Architectural and Tunnel Ventilation System (TVS) , including SES Simulation and CFD Simulation of Stations and Tunnel; Environmental Control System (ECS); Building Management System (BMS); and E&amp;M Services for two (02) Underground Stations i) Thane Junction and ii) New Thane of the Thane Integral Ring Metro Project (Section Length: Approx 3 km including ramps)</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>Notice Inviting Tender</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
-        </is>
-      </c>
-      <c r="F63" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Safety</t>
-        </is>
-      </c>
+          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="1" t="inlineStr"/>
       <c r="G63" s="1" t="inlineStr"/>
       <c r="H63" s="1" t="inlineStr"/>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
         </is>
       </c>
     </row>
@@ -7345,7 +7419,7 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
@@ -7355,7 +7429,7 @@
       <c r="H64" s="1" t="inlineStr"/>
       <c r="I64" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7446,7 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
+          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
@@ -7382,7 +7456,7 @@
       <c r="H65" s="1" t="inlineStr"/>
       <c r="I65" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7473,7 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+          <t>RfP_SRTW.pdf</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -7409,7 +7483,7 @@
       <c r="H66" s="1" t="inlineStr"/>
       <c r="I66" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7500,7 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>RfP_SRTW.pdf</t>
+          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -7436,7 +7510,7 @@
       <c r="H67" s="1" t="inlineStr"/>
       <c r="I67" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
         </is>
       </c>
     </row>
@@ -7453,7 +7527,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
+          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -7463,7 +7537,7 @@
       <c r="H68" s="1" t="inlineStr"/>
       <c r="I68" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
         </is>
       </c>
     </row>
@@ -7480,7 +7554,7 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -7490,7 +7564,7 @@
       <c r="H69" s="1" t="inlineStr"/>
       <c r="I69" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
         </is>
       </c>
     </row>
@@ -7507,7 +7581,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
+          <t>GeM-Bidding-8666471.pdf</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -7517,7 +7591,7 @@
       <c r="H70" s="1" t="inlineStr"/>
       <c r="I70" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7608,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8666471.pdf</t>
+          <t>corgaudt1.pdf</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -7544,7 +7618,7 @@
       <c r="H71" s="1" t="inlineStr"/>
       <c r="I71" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7635,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>corgaudt1.pdf</t>
+          <t>Corrigendum6959493.pdf</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -7571,7 +7645,7 @@
       <c r="H72" s="1" t="inlineStr"/>
       <c r="I72" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
         </is>
       </c>
     </row>
@@ -7588,7 +7662,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Corrigendum6959493.pdf</t>
+          <t>ADDENDUM6959493.pdf</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -7598,7 +7672,7 @@
       <c r="H73" s="1" t="inlineStr"/>
       <c r="I73" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7689,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>ADDENDUM6959493.pdf</t>
+          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -7625,7 +7699,7 @@
       <c r="H74" s="1" t="inlineStr"/>
       <c r="I74" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
         </is>
       </c>
     </row>
@@ -7642,7 +7716,7 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
+          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -7652,7 +7726,7 @@
       <c r="H75" s="1" t="inlineStr"/>
       <c r="I75" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7743,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
+          <t>GeM-Bidding-8478801.pdf</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -7679,7 +7753,7 @@
       <c r="H76" s="1" t="inlineStr"/>
       <c r="I76" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
         </is>
       </c>
     </row>
@@ -7696,7 +7770,7 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8478801.pdf</t>
+          <t>GeM-Bidding-8476974.pdf</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -7706,7 +7780,7 @@
       <c r="H77" s="1" t="inlineStr"/>
       <c r="I77" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7797,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8476974.pdf</t>
+          <t>GeM-Bidding-8497150.pdf</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -7733,7 +7807,7 @@
       <c r="H78" s="1" t="inlineStr"/>
       <c r="I78" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8497150.pdf</t>
         </is>
       </c>
     </row>
@@ -7750,7 +7824,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8497150.pdf</t>
+          <t>EOI_Empanelment-of_SME_for_the_UrbanShift_Country_Project_040925.pdf</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -7760,33 +7834,6 @@
       <c r="H79" s="1" t="inlineStr"/>
       <c r="I79" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8497150.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="inlineStr">
-        <is>
-          <t>EOI_Empanelment-of_SME_for_the_UrbanShift_Country_Project_040925.pdf</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr"/>
-      <c r="E80" s="2" t="inlineStr"/>
-      <c r="F80" s="1" t="inlineStr"/>
-      <c r="G80" s="1" t="inlineStr"/>
-      <c r="H80" s="1" t="inlineStr"/>
-      <c r="I80" s="1" t="inlineStr">
-        <is>
           <t>https://niua.in/sites/default/files/tenders/EOI_Empanelment-of_SME_for_the_UrbanShift_Country_Project_040925.pdf</t>
         </is>
       </c>

--- a/all_grants.xlsx
+++ b/all_grants.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,257 +494,10 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
+          <t>SOW - Designing &amp; Typing Work</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Parmarth Samaj Sevi Sansthan | India
-International Development - RFP - River Health and Water Dependency Assessment  Betwa River Basin, Parmarth Samaj Sevi Sansthan, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobse ... Read More</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>• Scope of Work
-The selected research agency/institution will be responsible for:
-Long-term climate and drought trend analysis.
-Hydrological assessment of river flow regimes.
-Sector-wise water dependency analysis (agriculture, domestic, drinking water).
-Water availability versus demand assessment.
-Water quality and pollution load assessment.
-Identification of degradation hotspots.
-Review of governance and program effectiveness.
-Development of an integrated river health assessment.
-Preparation of solution-oriented recommendations for basin sustainability.
-Expected Deliverables
-Inception report with detailed methodology.
-Climate and drought trend analysis.
-River flow and dependency assessment.
-Water quality and pollution load assessment.
-Demand–supply gap analysis.
-Stretch-wise river health classification and hotspot mapping.
-Draft comprehensive research report.
-Final research report.
-Policy-ready summary and presentation.
-• Eligibility Criteria
-Applicants must demonstrate:
-Proven experience in river basin studies, hydrology, climate research, or water governance.
-Prior work on river flow, drought, or water balance assessments.
-Experience with multidisciplinary teams (hydrologists, climate experts, water quality specialists).
-Submission Requirements
-Interested agencies/institutions must submit:
-1. Technical Proposal
-Understanding of the assignment.
-Proposed methodology.
-Work plan and timelines.
-Team composition and CVs.
-• Organizational profile and relevant experience.
-2. Financial Proposal
-Itemized budget breakdown.
-Personnel costs.
-Fieldwork and travel expenses.
-Data analysis and reporting costs.
-Applicable taxes and other charges.
-Note:
-Technical and Financial proposals must be submitted in separate files.
-• Submission Details
-Proposals must be submitted via email before the deadline.
-Proposal Submission Deadline:
-17 February 2026
-Late submissions will not be considered.
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-Betwa_REQUEST FOR PROPOSAL.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-17 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
-Location:
-Assam
-Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2026</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285964</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr"/>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>SOW - Designing &amp; Typing Work</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Room to Read India | India
 International Development - SOW -  Designing &amp; Typing Work, Room to Read India, India - DevNetJobsIndia.org
@@ -766,7 +519,7 @@
 Jobseekers Registe ... Read More</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work (SOW) Designing &amp; Typing Work
 About Room to Read
@@ -850,6 +603,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -880,12 +639,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -912,54 +665,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -987,38 +740,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>18-02-2026</t>
         </is>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285988</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>RFP - Hiring Agency to develop data protection policy, SOPs, and various d...</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Jhpiego | India
 International Development - RFP - Hiring Agency to develop data protection policy, SOPs, and various documents &amp; templates to comply with the new Digital Personal Data Privacy..., Jhpiego, India - DevNetJobsIndia.org
@@ -1031,7 +784,7 @@
 Broadcast Resum ... Read More</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>• Section 4 - Scope of Work
 Section 5 –
@@ -1054,6 +807,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -1084,12 +843,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -1116,54 +869,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -1191,44 +944,44 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Governance, Safety</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>18-02-2026</t>
         </is>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285791</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>RFP - for the Upgrade and Strengthen Essential Health Infrastructure Inclu...</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Project Concern International India (PCI India) | India
 International Development - RFP - for the Upgrade and Strengthen Essential Health Infrastructure Including Civil Works, Renovation and Refurbishment of Primary Health Centres, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>• : Due to variations in site conditions and the absence of finalized drawings, detailed Scope of Work (SoW) and Bill of Quantities (BoQ) are not available at this stage. Accordingly, this RFP seeks technical proposals to assess the bidders’ understanding, methodology, and technical capability. Financial proposals shall be invited at a later stage only from technically qualified bidders.
 For detailed information, please check the complete version of the RFP attached below.
@@ -1246,6 +999,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -1276,12 +1035,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -1308,54 +1061,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -1383,38 +1136,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>19-02-2026</t>
         </is>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285516</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>TOR : Study on Functionality and Sustainability of Solid Waste Management ...</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Water For People India | West Bengal
 International Development - TOR : Study on Functionality and Sustainability of Solid Waste Management (SWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
@@ -1426,91 +1179,43 @@
 Value Membershi ... Read More</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>Climate, Governance, Learning</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285952</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>TOR : Study on Functionality and Sustainability of Grey Water Management (...</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Water For People India | West Bengal
-International Development - TOR : Study on Functionality and Sustainability of Grey Water Management (GWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership ... Read More</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285954</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr"/>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>ToR - End-to-End Digital Marketing Agency for ChildFund India</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>ChildFund India | India
 International Development - ToR - End-to-End Digital Marketing Agency for ChildFund India, ChildFund India, India - DevNetJobsIndia.org
@@ -1531,7 +1236,7 @@
 Jobseekers ... Read More</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>• 5. Scope of Work / Assignment
 The scope includes, but is not limited to, the following components:
@@ -1659,6 +1364,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -1689,12 +1400,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -1721,54 +1426,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -1796,260 +1501,44 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285899</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - Audio Quality Annotation of Student Voice Recordings, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jo ... Read More</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>• The selected partner will be responsible for delivering the following within the agreed project timelines and quality standards:
-JSON files of transcriptions of recordings
-(Format will be shared separately via email)
-Each recording to have a separate JSON file, format as specified by Wadhwani AI
-Criteria for Application
-Applicants must meet the following criteria.
-Mandatory:
-Demonstrated team capacity to provide transcriptions in English, demonstrable quality check process
-Preferred:
-Prior experience in transcribing English student speech.
-• Submission Details
-All proposals to this RFP must be received no later than
-&lt;Feb 16th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP:
-Audio Quality Annotation of Student Voice Recordings
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-RFP for Audio Quality Annotation of Student Voice Recordings- Updated.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-20 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
-Location:
-Assam
-Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285876</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>RFP - Gender Integration within in “Climate Resilient Agriculture based Li...</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Vijayavahini Charitable Foundation - Supported By Tata Trusts | Asifabad District, Telangana
 International Development - RFP - Gender Integration within in “Climate Resilient Agriculture based Livelihoods for Asifabad District” Project, Vijayavahini Charitable Foundation - Supported By Tata Trusts, ... Read More</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work:
 The key tasks for this assignment will be undertaken in close collaboration with VCF
@@ -2131,6 +1620,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -2161,12 +1656,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -2193,54 +1682,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -2268,41 +1757,89 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Climate, Safety</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285744</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Jhpiego | India
-International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>TOR : Study on Functionality and Sustainability of Grey Water Management (...</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Water For People India | West Bengal
+International Development - TOR : Study on Functionality and Sustainability of Grey Water Management (GWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership ... Read More</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>20-02-2026</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285954</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | India
+International Development - RFP - Audio Quality Annotation of Student Voice Recordings, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -2311,33 +1848,48 @@
 Value Membership
 Broadcast Resume
 RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login ... Read More</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>• Section 4 - Scope of Work
-Section 5 –
-Vendor Information Form– Standard   Template
-Section 6 - Standard   Template of Technical Service Contract
+Search Jo ... Read More</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>• The selected partner will be responsible for delivering the following within the agreed project timelines and quality standards:
+JSON files of transcriptions of recordings
+(Format will be shared separately via email)
+Each recording to have a separate JSON file, format as specified by Wadhwani AI
+Criteria for Application
+Applicants must meet the following criteria.
+Mandatory:
+Demonstrated team capacity to provide transcriptions in English, demonstrable quality check process
+Preferred:
+Prior experience in transcribing English student speech.
+• Submission Details
+All proposals to this RFP must be received no later than
+&lt;Feb 16th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP:
+Audio Quality Annotation of Student Voice Recordings
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-jhpin.procurement(at)jhpiego.org
 Download Attachment:
-RFP - Hiring agency for the implementation of biosecurity.pdf
+RFP for Audio Quality Annotation of Student Voice Recordings- Updated.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-22 Feb 2026
+20 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -2368,12 +1920,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -2400,54 +1946,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -2475,38 +2021,245 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>20-02-2026</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285876</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Jhpiego | India
+International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login ... Read More</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>• Section 4 - Scope of Work
+Section 5 –
+Vendor Information Form– Standard   Template
+Section 6 - Standard   Template of Technical Service Contract
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+jhpin.procurement(at)jhpiego.org
+Download Attachment:
+RFP - Hiring agency for the implementation of biosecurity.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+22 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>22-02-2026</t>
         </is>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>RFP – Content replacement (Hindi to Assamese) in developed flipbooks</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
 International Development - RFP – Content replacement (Hindi to Assamese) in developed flipbooks, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
@@ -2519,7 +2272,7 @@
 Broadcast ... Read More</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work
 This is to bring to your kind attention that we intend to hire an agency for content replacement from Hindi to Assamese, including the cover page and back cover.
@@ -2562,6 +2315,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -2592,12 +2351,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -2624,54 +2377,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -2699,38 +2452,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>22-02-2026</t>
         </is>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287210</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>RFP - Baseline assessment for a community centered intervention to address...</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>Americares India Foundation | Jaipur, Rajasthan
 International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
@@ -2743,7 +2496,7 @@
 Bro ... Read More</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>• PROPOSAL EVALUATION CRITERIA
 Proposals will be evaluated based on:
@@ -2769,6 +2522,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -2799,12 +2558,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -2831,54 +2584,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -2906,89 +2659,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>22-02-2026</t>
         </is>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>Public Health Specialist (Planning Section)</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>The Voluntary Health Services (VHS) | Delhi
 International Development - Public Health Specialist (Planning Section), The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
@@ -3006,7 +2708,7 @@
 Login ... Read More</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>• Last date to apply
 February 23, 2026
@@ -3084,6 +2786,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3114,12 +2822,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -3146,54 +2848,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -3221,38 +2923,247 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>Governance, Safety</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285813</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Catholic Health Association of India (CHAI) | Karnataka
+International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
+• Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
+We request you to submit your offer as per the specifications detailed in Annexure 1 and the site details provided in Annexure 2. Please submit the cost details as per Annexure 3 and the organizational information as outlined in Annexure 4.
+About CHAI:
+The Catholic Health Association of India (CHAI) is a Network of 3572 Healthcare and Social Service Institutions across India. The network is divided into 11 regional units spanning the length and breadth of the country. By serving 21 million (approximately 1.5% of India’s population) patients annually across the country, most of them poor, CHAI plays a vital role in Indian healthcare. The network’s national reach and deep grassroots presence are a unique and formidable asset, made even stronger by the profound commitment of its volunteers.
+CHAI is a not-for-profit organization that works in various areas of health care, touching the lives of 12 million marginalized people every year. Leveraging the scale and reach of the network of its member institutions, CHAI has been successful in implementing a wide variety of projects in Community Health, Communicable Diseases, Non-Communicable Diseases, Palliative Care, Disability, Disaster Intervention and Strengthening of the Healthcare System.
+Address:
+The Catholic Health Association of India
+157/6, Staff Road, Gunrock Enclave,
+Secunderabad – 500009, Telangana
+REQUIREMENT :
+CHAI hereby invites eligible vendors to bid through this Request for Proposal (RFP) for carrying out the Supply, Installation, Testing and Commissioning including 5 years operation, comprehensive warranty, and maintenance of Grid Connected Rooftop Solar with Net-metering arrangement of total tentative capacity of 40 kWp solar photovolatic to be installed at St. Philomena’s Hospital in Bengaluru, Karnataka. Facility information is detailed in Annexure 2.
+• As part of the proposal, we request you to provide necessary details in Annexure 3 and 4, in accordance with information stipulated under the Terms and Conditions and specifications in Annexure 1 and 2.
+You are requested to revert back with your proposal/quotation on the following email addresses:
+chaipc@chai-india.org
+,
+The communication should be received by CHAI on or before
+23rd February 2026
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+Annexures for RfP.docx
+Download Attachment:
+RfP_Terms of Reference_solar.docx
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+23 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>23-02-2026</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Operations Expert</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>The Voluntary Health Services (VHS) | Delhi
 International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
@@ -3273,7 +3184,7 @@
 Jobseekers Log ... Read More</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>• Eligibility Criteria
 Essential Qualifications:
@@ -3313,6 +3224,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3343,12 +3260,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -3375,54 +3286,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -3450,9 +3361,60 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>23-02-2026</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | India
+International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -3461,11 +3423,11 @@
         </is>
       </c>
       <c r="H16" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
         </is>
       </c>
     </row>
@@ -3478,50 +3440,48 @@
       <c r="B17" s="1" t="inlineStr"/>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
+          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Catholic Health Association of India (CHAI) | Karnataka
-International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
+          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
+International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
-• Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
-We request you to submit your offer as per the specifications detailed in Annexure 1 and the site details provided in Annexure 2. Please submit the cost details as per Annexure 3 and the organizational information as outlined in Annexure 4.
-About CHAI:
-The Catholic Health Association of India (CHAI) is a Network of 3572 Healthcare and Social Service Institutions across India. The network is divided into 11 regional units spanning the length and breadth of the country. By serving 21 million (approximately 1.5% of India’s population) patients annually across the country, most of them poor, CHAI plays a vital role in Indian healthcare. The network’s national reach and deep grassroots presence are a unique and formidable asset, made even stronger by the profound commitment of its volunteers.
-CHAI is a not-for-profit organization that works in various areas of health care, touching the lives of 12 million marginalized people every year. Leveraging the scale and reach of the network of its member institutions, CHAI has been successful in implementing a wide variety of projects in Community Health, Communicable Diseases, Non-Communicable Diseases, Palliative Care, Disability, Disaster Intervention and Strengthening of the Healthcare System.
-Address:
-The Catholic Health Association of India
-157/6, Staff Road, Gunrock Enclave,
-Secunderabad – 500009, Telangana
-REQUIREMENT :
-CHAI hereby invites eligible vendors to bid through this Request for Proposal (RFP) for carrying out the Supply, Installation, Testing and Commissioning including 5 years operation, comprehensive warranty, and maintenance of Grid Connected Rooftop Solar with Net-metering arrangement of total tentative capacity of 40 kWp solar photovolatic to be installed at St. Philomena’s Hospital in Bengaluru, Karnataka. Facility information is detailed in Annexure 2.
-• As part of the proposal, we request you to provide necessary details in Annexure 3 and 4, in accordance with information stipulated under the Terms and Conditions and specifications in Annexure 1 and 2.
-You are requested to revert back with your proposal/quotation on the following email addresses:
-chaipc@chai-india.org
-,
-The communication should be received by CHAI on or before
-23rd February 2026
+          <t>• Scope of work
+The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
+Key responsibilities include:
+Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
+• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
+Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
+Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
+Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
+Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
+Deliverables:
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+woscaprocurement(at)gmail.com
 Download Attachment:
-Annexures for RfP.docx
-Download Attachment:
-RfP_Terms of Reference_solar.docx
+RFP.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-23 Feb 2026
+25 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3552,12 +3512,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -3584,54 +3538,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -3661,20 +3615,20 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>23-02-2026</t>
+          <t>25-02-2026</t>
         </is>
       </c>
       <c r="H17" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
         </is>
       </c>
     </row>
@@ -3687,42 +3641,53 @@
       <c r="B18" s="1" t="inlineStr"/>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
-International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
+          <t>Lords Education and Health Society (LEHS) | Gujarat
+International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tender ... Read More</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>• Scope of work
-The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
-Key responsibilities include:
-Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
-• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
-Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
-Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
-Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
-Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
-Deliverables:
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-woscaprocurement(at)gmail.com
+rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-RFP.docx
+RFP for English Annotation of Student Voice Recordings 1.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-25 Feb 2026
+27 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3753,12 +3718,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -3785,54 +3744,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -3862,20 +3821,20 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>25-02-2026</t>
+          <t>27-02-2026</t>
         </is>
       </c>
       <c r="H18" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
         </is>
       </c>
     </row>
@@ -3930,6 +3889,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3960,12 +3925,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -3992,54 +3951,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -4078,7 +4037,7 @@
         </is>
       </c>
       <c r="H19" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
@@ -4095,13 +4054,13 @@
       <c r="B20" s="1" t="inlineStr"/>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+          <t>RFP - for Internal Audit -FES Anand</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Lords Education and Health Society (LEHS) | Gujarat
-International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
+          <t>Foundation for Ecological Security (FES) | Gujarat
+International Development - RFP - for Internal Audit -FES Anand, Foundation for Ecological Security (FES), Gujarat - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -4109,33 +4068,59 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tender ... Read More</t>
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers: ... Read More</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-rfp.lehs(at)wadhwaniai.org
-Download Attachment:
-RFP for English Annotation of Student Voice Recordings 1.pdf
+          <t>• Eligibility Criteria
+Registered CA firm in India with 5+ years NGO audit experience
+Having offices in Vicinity of FES Office locations.
+Familiarity with NGO specific audit norms
+Qualified team with sectoral knowledge
+No conflict of interest with FES
+At least three professional references from client.
+Proposal Must Include
+Audit methodology
+Team composition &amp; CVs
+Past NGO audit experience
+Detailed fee quotations, either state- wise or in Consolidated format.
+Audit timelines
+Declaration of independence
+Contact
+Hemant@fes.org.in
+|
++91 7405396926
+Pankaj Garg:
+pankaj.garg@fes.org.in
+|
++91 9687606949
+Important Dates
+Submission Deadline: February 28th, 2026
+Selection Notification: Within 30 working days
+Please mention “
+Proposal for Internal Audit -FES Anand
+” in the subject line.
+FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-27 Feb 2026
+28 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -4166,12 +4151,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -4198,54 +4177,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -4275,12 +4254,12 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>27-02-2026</t>
+          <t>28-02-2026</t>
         </is>
       </c>
       <c r="H20" s="1" t="n">
@@ -4288,7 +4267,7 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287266</t>
         </is>
       </c>
     </row>
@@ -4301,10 +4280,238 @@
       <c r="B21" s="1" t="inlineStr"/>
       <c r="C21" s="1" t="inlineStr">
         <is>
+          <t>RFP - for Quarterly Internal Audits-State Office</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Foundation for Ecological Security (FES) | India
+International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jo ... Read More</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Registered CA firm in India with 5+ years NGO audit experience
+Having offices in Vicinity of FES Office locations.
+Familiarity with NGO specific audit norms
+Qualified team with sectoral knowledge
+No conflict of interest with FES
+At least three professional references from client.
+Proposal Must Include
+Audit methodology
+Team composition &amp; CVs
+Past NGO audit experience
+Detailed fee quotations, Project/state- wise (Listed above).
+Audit timelines
+Declaration of independence
+Contact
+Vishal Prajapati:
+vishal.prajapati@fes.org.in
+|
++91 7405396926
+Pankaj Garg:
+pankaj.garg@fes.org.in
+|
++91 9687606949
+Important Dates
+Submission Deadline: February 28th, 2025
+Selection Notification: Within 30 working days
+Mention
+“Proposal for Quarterly Internal Audits-State Office
+”
+in the subject Line.
+FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+28 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Mobilization Executive
+PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
+Location:
+Jharkhand
+Apply by:
+18 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
           <t>Proposal Development Associate</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>Academy of Management Studies (AMS) | Uttar Pradesh
 International Development - Proposal Development Associate, Academy of Management Studies (AMS), Uttar Pradesh - DevNetJobsIndia.org
@@ -4322,7 +4529,7 @@
 Lo ... Read More</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>• Eligibility
 PG in any discipline
@@ -4467,6 +4674,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -4497,12 +4710,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -4529,54 +4736,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -4604,38 +4811,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F22" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H21" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285725</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>Centre for Catalyzing Change (C3) | India
 International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
@@ -4645,7 +4852,7 @@
 Registe ... Read More</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>• b. Proposal Submission Guidelines
 The applicant should submit the Technical and Financial Proposal in two separate pdf documents
@@ -4668,6 +4875,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -4698,12 +4911,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -4730,54 +4937,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -4805,45 +5012,45 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>02-03-2026</t>
         </is>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H23" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr"/>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Servic...</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>Small Industries Development Bank of India (SIDBI) | India
 International Development - EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Services under Programmes for Development and Impact, Small Industries Development Bank of India (SIDBI), India - DevNetJobsIndia.org
 Jobseekers ... Read More</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>• Please      note that all the information required as per the documents required for      responding to EOI needs to be provided. Incomplete information in these      areas may lead to non-selection.
 Modification      And/ Or Withdrawal of documents:
@@ -4916,6 +5123,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -4946,12 +5159,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -4978,54 +5185,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -5053,38 +5260,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>06-03-2026</t>
         </is>
       </c>
-      <c r="H23" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H24" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287084</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr"/>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Associate (Programme Management)</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>Indian Institute For Human Settlements (Iihs) | Karnataka
 International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
@@ -5100,7 +5307,7 @@
 Events ... Read More</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
 • To apply
@@ -5127,6 +5334,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5157,12 +5370,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -5189,54 +5396,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -5264,49 +5471,48 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>07-03-2026</t>
         </is>
       </c>
-      <c r="H24" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H25" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285747</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
-International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Register
-Ho ... Read More</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
+Regis ... Read More</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>• Proposal Requirements
 1. Company Background and Details
@@ -5316,9 +5522,9 @@
 Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
 For detailed information, please check the complete version of the RFP attached below.
 Download Attachment:
-Standalone IC RFP Technical Evaluation Response Template.docx
+Standalone ISA RFP Technical Evaluation Response Template (1).docx
 Download Attachment:
-Telugu_Standalone IC RFP Technical Evaluation Response Template.docx
+Telugu_Standalone ISA RFP Technical Evaluation Response Template.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -5329,6 +5535,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5359,12 +5571,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -5391,54 +5597,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -5466,48 +5672,49 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
+      <c r="H26" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr"/>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
-International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Regis ... Read More</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+Register
+Ho ... Read More</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>• Proposal Requirements
 1. Company Background and Details
@@ -5517,9 +5724,9 @@
 Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
 For detailed information, please check the complete version of the RFP attached below.
 Download Attachment:
-Standalone ISA RFP Technical Evaluation Response Template (1).docx
+Standalone IC RFP Technical Evaluation Response Template.docx
 Download Attachment:
-Telugu_Standalone ISA RFP Technical Evaluation Response Template.docx
+Telugu_Standalone IC RFP Technical Evaluation Response Template.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -5530,6 +5737,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5560,12 +5773,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -5592,54 +5799,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -5667,38 +5874,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
+      <c r="H27" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr"/>
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
 International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
@@ -5712,43 +5919,43 @@
 RFPs ... Read More</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F28" s="1" t="inlineStr">
         <is>
           <t>Climate, Governance</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H27" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H28" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr"/>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Specialist – Financial Management and Compliance</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Financial Management and Compliance, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -5762,7 +5969,7 @@
 RFPs/T ... Read More</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>• will play a vital role in a program which seeks to strengthen the internal capacities of non-profit organizations in India across three building blocks of institutional functioning: governance, financial management, and compliance. These areas are deeply interconnected and together determine how effectively an organization operates, delivers programs and meets the expectations of its stakeholders. This position demands expertise in specific areas related to governance, compliance, and financial management, contributing essential guidance and support to strengthen the capabilities of participating organizations.
 Job Responsibilities:
@@ -5813,6 +6020,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5843,12 +6056,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -5875,54 +6082,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -5950,38 +6157,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>13-03-2026</t>
         </is>
       </c>
-      <c r="H28" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H29" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287015</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr"/>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>RFP - Big IC+ISA RFP - Selection of a Service Provider for Supply, Instal...</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP - Big IC+ISA RFP -  Selection of a Service Provider for Supply, Installation and Operation &amp; Maintenance of 150 ILC Devices and Capacity Building., EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -5990,7 +6197,7 @@
 | ... Read More</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>• 2. Purpose of the RFP:
 2.1  EAII is soliciting bids for:
@@ -6037,6 +6244,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -6067,12 +6280,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -6099,54 +6306,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -6174,38 +6381,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F30" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G30" s="1" t="inlineStr">
         <is>
           <t>16-03-2026</t>
         </is>
       </c>
-      <c r="H29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H30" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I30" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287172</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr"/>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr"/>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Specialist – Communication</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Communication, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -6221,7 +6428,7 @@
 Eve ... Read More</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist – Communication at FMSF.
 • How to Apply:
@@ -6243,6 +6450,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
 Specialist – Communication
 Financial Management Service Foundation (FMSF)
 Location:
@@ -6273,12 +6486,6 @@
 Karnataka
 Apply by:
 07 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
 Chief Programs Officer for Project Potential
 Project Potential
 Location:
@@ -6305,54 +6512,54 @@
 18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-National Consultant - Monitoring and Evaluation
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Medical Consultant - Field Level
-IPE Global Pvt. Ltd
-Location:
-India
-Apply by:
-15 Mar 2026
-National Consultant - HSS
-IPE Global Pvt. Ltd
-Location:
-Delhi
-Apply by:
-15 Mar 2026
-Officer – Administration
-Ipas Development Foundation (IDF)
+Project &amp; Operations Manager
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Quality Officer
+SafeCare Services Private Limited
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Senior Consultant- Environmental Sustainability a...
+ChildFund India
+Location:
+Maharashtra
+Apply by:
+26 Feb 2026
+Environmental Policy Advisor
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+04 Mar 2026
+Intern - Support to the Green and Sustainable Dev...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Delhi
+Apply by:
+05 Mar 2026
+Consultant- Adolescent Development &amp; Participatio...
+Inductus Limited
+Location:
+Jammu and Kashmir
+Apply by:
+26 Feb 2026
+Human Resources Associate
+Bharat Rural Livelihoods Foundation (BRLF)
+Location:
+Delhi
+Apply by:
+08 Mar 2026
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
 Location:
 Assam
 Apply by:
-04 Mar 2026
-Project Coordinator / Project Associate
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Project Lead / Project Manager
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-19 Mar 2026
-Clinical Pharmacist
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
-Infection Control Nurse
-Americares India Foundation
-Location:
-Goa
-Apply by:
-19 Mar 2026
+20 Feb 2026
 Jobseekers
 Register
 Login
@@ -6380,49 +6587,22 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>19-03-2026</t>
         </is>
       </c>
-      <c r="H30" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287207</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr"/>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr"/>
-      <c r="H31" s="1" t="inlineStr"/>
-      <c r="I31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
         </is>
       </c>
     </row>
@@ -6435,21 +6615,21 @@
       <c r="B32" s="1" t="inlineStr"/>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
+          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr"/>
       <c r="H32" s="1" t="inlineStr"/>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
         </is>
       </c>
     </row>
@@ -6462,21 +6642,21 @@
       <c r="B33" s="1" t="inlineStr"/>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
+          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr"/>
       <c r="H33" s="1" t="inlineStr"/>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -6489,21 +6669,21 @@
       <c r="B34" s="1" t="inlineStr"/>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
+          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr"/>
       <c r="H34" s="1" t="inlineStr"/>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
         </is>
       </c>
     </row>
@@ -6516,21 +6696,21 @@
       <c r="B35" s="1" t="inlineStr"/>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
+          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr"/>
       <c r="H35" s="1" t="inlineStr"/>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6723,7 @@
       <c r="B36" s="1" t="inlineStr"/>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
+          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -6557,7 +6737,7 @@
       <c r="H36" s="1" t="inlineStr"/>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6750,7 @@
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
+          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -6584,7 +6764,7 @@
       <c r="H37" s="1" t="inlineStr"/>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6777,7 @@
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
+          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
@@ -6611,7 +6791,7 @@
       <c r="H38" s="1" t="inlineStr"/>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
         </is>
       </c>
     </row>
@@ -6624,21 +6804,21 @@
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
+          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr"/>
       <c r="H39" s="1" t="inlineStr"/>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6831,7 @@
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
+          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
@@ -6665,7 +6845,7 @@
       <c r="H40" s="1" t="inlineStr"/>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6858,7 @@
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
+          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
@@ -6692,7 +6872,7 @@
       <c r="H41" s="1" t="inlineStr"/>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
         </is>
       </c>
     </row>
@@ -6705,21 +6885,21 @@
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
+          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr"/>
       <c r="H42" s="1" t="inlineStr"/>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
         </is>
       </c>
     </row>
@@ -6732,21 +6912,21 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
+          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr"/>
       <c r="H43" s="1" t="inlineStr"/>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
         </is>
       </c>
     </row>
@@ -6759,7 +6939,7 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
+          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -6773,7 +6953,7 @@
       <c r="H44" s="1" t="inlineStr"/>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6966,7 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -6800,7 +6980,7 @@
       <c r="H45" s="1" t="inlineStr"/>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
         </is>
       </c>
     </row>
@@ -6813,7 +6993,7 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -6827,7 +7007,7 @@
       <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
         </is>
       </c>
     </row>
@@ -6840,7 +7020,7 @@
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -6854,7 +7034,7 @@
       <c r="H47" s="1" t="inlineStr"/>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
@@ -6867,21 +7047,21 @@
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
+          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr"/>
       <c r="H48" s="1" t="inlineStr"/>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
@@ -6894,56 +7074,48 @@
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
+          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr"/>
       <c r="H49" s="1" t="inlineStr"/>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
+          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G50" s="1" t="inlineStr">
-        <is>
-          <t>10th Feb, 2026</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr"/>
       <c r="H50" s="1" t="inlineStr"/>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
         </is>
       </c>
     </row>
@@ -6960,7 +7132,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -6978,7 +7150,7 @@
       <c r="H51" s="1" t="inlineStr"/>
       <c r="I51" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
         </is>
       </c>
     </row>
@@ -6995,25 +7167,25 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>15th Dec, 2025</t>
+          <t>10th Feb, 2026</t>
         </is>
       </c>
       <c r="H52" s="1" t="inlineStr"/>
       <c r="I52" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
         </is>
       </c>
     </row>
@@ -7030,25 +7202,25 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
+          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>10th Nov, 2025</t>
+          <t>15th Dec, 2025</t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr"/>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
         </is>
       </c>
     </row>
@@ -7065,25 +7237,25 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
+          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>31st Oct, 2025</t>
+          <t>10th Nov, 2025</t>
         </is>
       </c>
       <c r="H54" s="1" t="inlineStr"/>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
         </is>
       </c>
     </row>
@@ -7100,25 +7272,25 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
+          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>21st May, 2025</t>
+          <t>31st Oct, 2025</t>
         </is>
       </c>
       <c r="H55" s="1" t="inlineStr"/>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
         </is>
       </c>
     </row>
@@ -7135,25 +7307,25 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>21st May, 2025</t>
         </is>
       </c>
       <c r="H56" s="1" t="inlineStr"/>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
         </is>
       </c>
     </row>
@@ -7170,14 +7342,14 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
@@ -7188,7 +7360,7 @@
       <c r="H57" s="1" t="inlineStr"/>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
         </is>
       </c>
     </row>
@@ -7205,14 +7377,14 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
@@ -7223,7 +7395,7 @@
       <c r="H58" s="1" t="inlineStr"/>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
         </is>
       </c>
     </row>
@@ -7240,14 +7412,14 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
@@ -7258,46 +7430,42 @@
       <c r="H59" s="1" t="inlineStr"/>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Nagpur Metro Rail</t>
+          <t>HCL Foundation</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>Tender/RFP</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : T1PD-02/2026 Date: 11/02/2026 — Tender Notice No : T1PD-02/2026 Date: 11/02/2026 EoI Ref No : T1PD-02/2026 Date: 11/02/2026 Selection of Consultant for Preparation of Transit Oriented Development Plan, Local Area Master Plan and Multi-Modal Integration Plan for Thane Integral Ring Metro Project.</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>Notice Inviting Tender</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
-        </is>
-      </c>
+          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G60" s="1" t="inlineStr"/>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
       <c r="H60" s="1" t="inlineStr"/>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
         </is>
       </c>
     </row>
@@ -7314,7 +7482,7 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 — Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 EoI Ref No : N1-CRF-13/2026  Date:16.01.2026 Construction of State Institute of Disaster Management (SIDM) at Nagpur (MIHAN)</t>
+          <t>Tender Notice No : T1PD-02/2026 Date: 11/02/2026 — Tender Notice No : T1PD-02/2026 Date: 11/02/2026 EoI Ref No : T1PD-02/2026 Date: 11/02/2026 Selection of Consultant for Preparation of Transit Oriented Development Plan, Local Area Master Plan and Multi-Modal Integration Plan for Thane Integral Ring Metro Project.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
@@ -7324,19 +7492,19 @@
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
+          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr"/>
       <c r="H61" s="1" t="inlineStr"/>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
+          <t>https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7521,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 — Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 EoI Ref No : T1-024/DDC-03/2025  Date: 12.12.2025 Detailed Design Consultancy Services for the Detailed Design of Architectural and Tunnel Ventilation System (TVS) , including SES Simulation and CFD Simulation of Stations and Tunnel; Environmental Control System (ECS); Building Management System (BMS); and E&amp;M Services for two (02) Underground Stations i) Thane Junction and ii) New Thane of the Thane Integral Ring Metro Project (Section Length: Approx 3 km including ramps)</t>
+          <t>Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 — Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 EoI Ref No : N1-CRF-13/2026  Date:16.01.2026 Construction of State Institute of Disaster Management (SIDM) at Nagpur (MIHAN)</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -7363,478 +7531,58 @@
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
+          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr"/>
       <c r="H62" s="1" t="inlineStr"/>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
+          <t>https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>NIUA</t>
+          <t>Nagpur Metro Rail</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Tender</t>
+          <t>Tender/RFP</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="1" t="inlineStr"/>
+          <t>Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 — Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 EoI Ref No : T1-024/DDC-03/2025  Date: 12.12.2025 Detailed Design Consultancy Services for the Detailed Design of Architectural and Tunnel Ventilation System (TVS) , including SES Simulation and CFD Simulation of Stations and Tunnel; Environmental Control System (ECS); Building Management System (BMS); and E&amp;M Services for two (02) Underground Stations i) Thane Junction and ii) New Thane of the Thane Integral Ring Metro Project (Section Length: Approx 3 km including ramps)</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Notice Inviting Tender</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Safety</t>
+        </is>
+      </c>
       <c r="G63" s="1" t="inlineStr"/>
       <c r="H63" s="1" t="inlineStr"/>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C64" s="1" t="inlineStr">
-        <is>
-          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="1" t="inlineStr"/>
-      <c r="G64" s="1" t="inlineStr"/>
-      <c r="H64" s="1" t="inlineStr"/>
-      <c r="I64" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="1" t="inlineStr"/>
-      <c r="G65" s="1" t="inlineStr"/>
-      <c r="H65" s="1" t="inlineStr"/>
-      <c r="I65" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr">
-        <is>
-          <t>RfP_SRTW.pdf</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="1" t="inlineStr"/>
-      <c r="G66" s="1" t="inlineStr"/>
-      <c r="H66" s="1" t="inlineStr"/>
-      <c r="I66" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C67" s="1" t="inlineStr">
-        <is>
-          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr"/>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="1" t="inlineStr"/>
-      <c r="G67" s="1" t="inlineStr"/>
-      <c r="H67" s="1" t="inlineStr"/>
-      <c r="I67" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C68" s="1" t="inlineStr">
-        <is>
-          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr"/>
-      <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="1" t="inlineStr"/>
-      <c r="G68" s="1" t="inlineStr"/>
-      <c r="H68" s="1" t="inlineStr"/>
-      <c r="I68" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
-        <is>
-          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="1" t="inlineStr"/>
-      <c r="G69" s="1" t="inlineStr"/>
-      <c r="H69" s="1" t="inlineStr"/>
-      <c r="I69" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>GeM-Bidding-8666471.pdf</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr"/>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="1" t="inlineStr"/>
-      <c r="G70" s="1" t="inlineStr"/>
-      <c r="H70" s="1" t="inlineStr"/>
-      <c r="I70" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>corgaudt1.pdf</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr"/>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="1" t="inlineStr"/>
-      <c r="G71" s="1" t="inlineStr"/>
-      <c r="H71" s="1" t="inlineStr"/>
-      <c r="I71" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>Corrigendum6959493.pdf</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr"/>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="1" t="inlineStr"/>
-      <c r="G72" s="1" t="inlineStr"/>
-      <c r="H72" s="1" t="inlineStr"/>
-      <c r="I72" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>ADDENDUM6959493.pdf</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr"/>
-      <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="1" t="inlineStr"/>
-      <c r="G73" s="1" t="inlineStr"/>
-      <c r="H73" s="1" t="inlineStr"/>
-      <c r="I73" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr"/>
-      <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="1" t="inlineStr"/>
-      <c r="G74" s="1" t="inlineStr"/>
-      <c r="H74" s="1" t="inlineStr"/>
-      <c r="I74" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr">
-        <is>
-          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr"/>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="1" t="inlineStr"/>
-      <c r="G75" s="1" t="inlineStr"/>
-      <c r="H75" s="1" t="inlineStr"/>
-      <c r="I75" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="inlineStr">
-        <is>
-          <t>GeM-Bidding-8478801.pdf</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="inlineStr"/>
-      <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="1" t="inlineStr"/>
-      <c r="G76" s="1" t="inlineStr"/>
-      <c r="H76" s="1" t="inlineStr"/>
-      <c r="I76" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr">
-        <is>
-          <t>GeM-Bidding-8476974.pdf</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr"/>
-      <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="1" t="inlineStr"/>
-      <c r="G77" s="1" t="inlineStr"/>
-      <c r="H77" s="1" t="inlineStr"/>
-      <c r="I77" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>GeM-Bidding-8497150.pdf</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr"/>
-      <c r="E78" s="2" t="inlineStr"/>
-      <c r="F78" s="1" t="inlineStr"/>
-      <c r="G78" s="1" t="inlineStr"/>
-      <c r="H78" s="1" t="inlineStr"/>
-      <c r="I78" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8497150.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C79" s="1" t="inlineStr">
-        <is>
-          <t>EOI_Empanelment-of_SME_for_the_UrbanShift_Country_Project_040925.pdf</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="inlineStr"/>
-      <c r="E79" s="2" t="inlineStr"/>
-      <c r="F79" s="1" t="inlineStr"/>
-      <c r="G79" s="1" t="inlineStr"/>
-      <c r="H79" s="1" t="inlineStr"/>
-      <c r="I79" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/EOI_Empanelment-of_SME_for_the_UrbanShift_Country_Project_040925.pdf</t>
+          <t>https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
         </is>
       </c>
     </row>

--- a/all_grants.xlsx
+++ b/all_grants.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,115 +494,39 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>SOW - Designing &amp; Typing Work</t>
+          <t>RFP - for the Upgrade and Strengthen Essential Health Infrastructure Inclu...</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Room to Read India | India
-International Development - SOW -  Designing &amp; Typing Work, Room to Read India, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login
-|
-Register
-Jobseekers Login
-Jobseekers Registe ... Read More</t>
+          <t>Project Concern International India (PCI India) | India
+International Development - RFP - for the Upgrade and Strengthen Essential Health Infrastructure Including Civil Works, Renovation and Refurbishment of Primary Health Centres, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>• Scope of Work (SOW) Designing &amp; Typing Work
-About Room to Read
-Room to Read is a global organization transforming the lives of millions of children in low-income communities by focusing on literacy and gender equality in education. Founded in 2000 on the belief that World Change Starts with Educated Children®, our innovative model focuses on deep, systemic transformation within schools during two time periods that are most critical in a child’s schooling: early primary school for literacy acquisition and secondary school for girls’ education. We work in collaboration with local communities, partner organizations, and governments to develop literacy skills and a habit of reading among primary school children and ensure girls can complete secondary school with the skills necessary to negotiate key life decisions.
-Room to Read has benefited 16.8 million children across 38,000 communities in Asia and Africa.
-Overview of designing &amp; typing work
-The primary goal of designing writing, and typing instructional and library materials is to provide high-quality learning resources for children.
-Teachers will use these materials with children during the instruction class and library sessions, hence, dynamic, colorful, and illustrative pictures which support children’s understanding and engagement with stories.
-Key Deliverables
-Page designing and page-setting for text based Instruction Material, including Teacher guide, Student workbook, Manuals, Registers, Diaries, and other related materials.
-Colour page design and page setting for learning materials such as Tarang workbook, worksheets, Booklets, and manuals.
-Page designing and page-setting for Balvatika Instruction Material like Teacher guide, student workbook, and other curricular materials under the program.
-Revision and correction work for existing instruction material. (Work on revisions and corrections in contents/designs only)
-Design of creative communication materials under the Literacy program, including creative flayers, templates, posters and other materials under the Literacy Program
-.
-Special projects:
-To be taken up as and when required apart from this scope related to designing.
-Key Specifications
-Google fonts to be used which can work both in print and digital (websites).
-Copy the translated text (in each language) from the word document and paste it appropriately on the design files.
-Ensure that the alignment and placement of images is done appropriately.
-Ensure all images/illustrations are high resolution and in CMYK.
-Ensure all images/illustrations have bleed where needed.
-Ensure edition and number of copies has been changed as per the information provided.
-Ensure new Room to Read logo to be inserted in all files.
-All files to be named as per GO naming convention.
-All files to be packaged as per GO folder structure requirement and includes: IDML, instructions, PDFs (low resolution and high resolution), fonts, links.
-There will at least four rounds of feedback before approving the final content.
-Press ready files to be delivered with the final package.
-As per the requirement, the vendor or the designer will be asked to work in Room to Read premises. The travel for this will not be reimbursed.
-Final print ready files along with supporting InDesign files, idml files, low-res and high- res pdf with cut mark, links and other materials.
-Duration Will Be Discussed As And When The Project Is Handed Over Contract
-Considering the projects mentioned in the SOW, there might be a possibility of/or we will be splitting the work/projects amongst different vendors considering the timeframe required to complete all the assignments within the given timelines. The vendor will be informed well in advance about the assignment that He/She will be getting.
-Experiences Needed for Assignment:
-Experience in InDesign, Adobe Acrobat, Photoshop.
-Creativity and innovation are a must.
-Ability to work independently and meet the given deadlines and adhere to the RtR guidelines.
-• Technical Evaluation Criteria For The Agency/Consultant
-The agency will be evaluated based on a total score of 30 points across the given parameters. Each parameter will contribute 10 points.
-The technical proposal will be assessed based on the following criteria:
-Demonstrated Experience: Evaluation of the agency's past experience in design and layout of content specifically tailored for children.
-Timelines: Ability to meet timelines around design work.
-Flexibility: Evaluation of the agency’s portfolio to see the varieties of content they have worked on.
-Contract Duration:
-This contract will be valid from 8
-th
-March 2026, to 31st December 2026.
-• HOW TO APPLY
-Proposals are invited from the interested agency for the above assignment and the last date for receiving the proposal is
-18
-th
-February, 2026
-at
-procurement.india@roomtoread.org
-[do not copy anyone from RtR]
-Kindly submit the proposal via emails with following subject lines:
-EMAIL: TECHNICAL PROPOSAL – Designing &amp; Typing Work
-A technical proposal which will outline the way this assignment will be approached.
-Cite relevant work experience and samples of work
-Detailed CV of all the consultants involved in this project
-Read the ToR thoroughly before applying.
-Only Shortlisted agencies will be contacted and might be called for a face-to-face interaction with the panel.
-Any incomplete application or process deviation, the proposals will automatically be rejected.
-Proposals received after the prescribed deadline will not be considered.
-Selected Consultant/agency will be required to sign and abide by the Child Protection policy of Room to Read.
-The TDS will be applicable on the consultancy fee.
-For queries, please contact:
-Kailash Vaishnav
-Kailash.vaishnav@roomtoread.org
+          <t>• : Due to variations in site conditions and the absence of finalized drawings, detailed Scope of Work (SoW) and Bill of Quantities (BoQ) are not available at this stage. Accordingly, this RFP seeks technical proposals to assess the bidders’ understanding, methodology, and technical capability. Financial proposals shall be invited at a later stage only from technically qualified bidders.
+For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-procurement.india(at)roomtoread.org
+procdelhi(at)pciglobal.in
 Download Attachment:
-Advertisement.doc
+RFP - 0028.doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-18 Feb 2026
+19 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -657,62 +581,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -747,7 +665,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>18-02-2026</t>
+          <t>19-02-2026</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
@@ -755,7 +673,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285988</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285516</t>
         </is>
       </c>
     </row>
@@ -768,45 +686,63 @@
       <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>RFP - Hiring Agency to develop data protection policy, SOPs, and various d...</t>
+          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Jhpiego | India
-International Development - RFP - Hiring Agency to develop data protection policy, SOPs, and various documents &amp; templates to comply with the new Digital Personal Data Privacy..., Jhpiego, India - DevNetJobsIndia.org
+          <t>Lords Education and Health Society (LEHS) | India
+International Development - RFP - Audio Quality Annotation of Student Voice Recordings, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
 Register
 Home
 Value Membership
-Broadcast Resum ... Read More</t>
+Broadcast Resume
+RFPs/Tenders
+Search Jo ... Read More</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>• Section 4 - Scope of Work
-Section 5 –
-Vendor Information Form– Standard   Template
-Section 6 - Standard   Template of Technical Service Contract
+          <t>• The selected partner will be responsible for delivering the following within the agreed project timelines and quality standards:
+JSON files of transcriptions of recordings
+(Format will be shared separately via email)
+Each recording to have a separate JSON file, format as specified by Wadhwani AI
+Criteria for Application
+Applicants must meet the following criteria.
+Mandatory:
+Demonstrated team capacity to provide transcriptions in English, demonstrable quality check process
+Preferred:
+Prior experience in transcribing English student speech.
+• Submission Details
+All proposals to this RFP must be received no later than
+&lt;Feb 16th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP:
+Audio Quality Annotation of Student Voice Recordings
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-jhpin.procurement(at)jhpiego.org
 Download Attachment:
-RFP Hiring Agency to develop data protection policy SOPs and documents-Final Extension.doc
-Download Attachment:
-Pre-bid meeting.doc
+RFP for Audio Quality Annotation of Student Voice Recordings- Updated.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-18 Feb 2026
+20 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -861,62 +797,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -946,20 +876,20 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>18-02-2026</t>
+          <t>20-02-2026</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285791</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285876</t>
         </is>
       </c>
     </row>
@@ -972,250 +902,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>RFP - for the Upgrade and Strengthen Essential Health Infrastructure Inclu...</t>
+          <t>ToR - End-to-End Digital Marketing Agency for ChildFund India</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Project Concern International India (PCI India) | India
-International Development - RFP - for the Upgrade and Strengthen Essential Health Infrastructure Including Civil Works, Renovation and Refurbishment of Primary Health Centres, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>• : Due to variations in site conditions and the absence of finalized drawings, detailed Scope of Work (SoW) and Bill of Quantities (BoQ) are not available at this stage. Accordingly, this RFP seeks technical proposals to assess the bidders’ understanding, methodology, and technical capability. Financial proposals shall be invited at a later stage only from technically qualified bidders.
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-procdelhi(at)pciglobal.in
-Download Attachment:
-RFP - 0028.doc
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-19 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
-Location:
-Maharashtra
-Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>19-02-2026</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285516</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>TOR : Study on Functionality and Sustainability of Solid Waste Management ...</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Water For People India | West Bengal
-International Development - TOR : Study on Functionality and Sustainability of Solid Waste Management (SWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membershi ... Read More</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285952</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>ToR - End-to-End Digital Marketing Agency for ChildFund India</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>ChildFund India | India
 International Development - ToR - End-to-End Digital Marketing Agency for ChildFund India, ChildFund India, India - DevNetJobsIndia.org
@@ -1236,7 +926,7 @@
 Jobseekers ... Read More</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>• 5. Scope of Work / Assignment
 The scope includes, but is not limited to, the following components:
@@ -1364,6 +1054,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -1418,62 +1114,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -1501,9 +1191,105 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>20-02-2026</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285899</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>TOR : Study on Functionality and Sustainability of Grey Water Management (...</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Water For People India | West Bengal
+International Development - TOR : Study on Functionality and Sustainability of Grey Water Management (GWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership ... Read More</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>20-02-2026</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285954</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>TOR : Study on Functionality and Sustainability of Solid Waste Management ...</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Water For People India | West Bengal
+International Development - TOR : Study on Functionality and Sustainability of Solid Waste Management (SWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membershi ... Read More</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Climate, Governance, Learning</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -1512,11 +1298,11 @@
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285899</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285952</t>
         </is>
       </c>
     </row>
@@ -1620,6 +1406,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -1674,62 +1466,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -1768,7 +1554,7 @@
         </is>
       </c>
       <c r="H7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
@@ -1785,481 +1571,10 @@
       <c r="B8" s="1" t="inlineStr"/>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOR : Study on Functionality and Sustainability of Grey Water Management (...</t>
+          <t>RFP – Content replacement (Hindi to Assamese) in developed flipbooks</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Water For People India | West Bengal
-International Development - TOR : Study on Functionality and Sustainability of Grey Water Management (GWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership ... Read More</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285954</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - Audio Quality Annotation of Student Voice Recordings, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jo ... Read More</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>• The selected partner will be responsible for delivering the following within the agreed project timelines and quality standards:
-JSON files of transcriptions of recordings
-(Format will be shared separately via email)
-Each recording to have a separate JSON file, format as specified by Wadhwani AI
-Criteria for Application
-Applicants must meet the following criteria.
-Mandatory:
-Demonstrated team capacity to provide transcriptions in English, demonstrable quality check process
-Preferred:
-Prior experience in transcribing English student speech.
-• Submission Details
-All proposals to this RFP must be received no later than
-&lt;Feb 16th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP:
-Audio Quality Annotation of Student Voice Recordings
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-RFP for Audio Quality Annotation of Student Voice Recordings- Updated.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-20 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
-Location:
-Maharashtra
-Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285876</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Jhpiego | India
-International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login ... Read More</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>• Section 4 - Scope of Work
-Section 5 –
-Vendor Information Form– Standard   Template
-Section 6 - Standard   Template of Technical Service Contract
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-jhpin.procurement(at)jhpiego.org
-Download Attachment:
-RFP - Hiring agency for the implementation of biosecurity.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-22 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
-Location:
-Maharashtra
-Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>22-02-2026</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>RFP – Content replacement (Hindi to Assamese) in developed flipbooks</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
 International Development - RFP – Content replacement (Hindi to Assamese) in developed flipbooks, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
@@ -2272,7 +1587,7 @@
 Broadcast ... Read More</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work
 This is to bring to your kind attention that we intend to hire an agency for content replacement from Hindi to Assamese, including the cover page and back cover.
@@ -2315,6 +1630,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -2369,62 +1690,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -2452,66 +1767,66 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>22-02-2026</t>
         </is>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287210</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Americares India Foundation | Jaipur, Rajasthan
-International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Jhpiego | India
+International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
 Register
 Home
 Value Membership
-Bro ... Read More</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>• PROPOSAL EVALUATION CRITERIA
-Proposals will be evaluated based on:
-Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
-Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
-Quality of Proposal (40%): Clarity, completeness, and alignment with scope
-References and Past Performance (10%): Feedback from prior engagements
-Please submit quotation in soft copy over email to Itisha Vasisht at
-ivasisht@americares.org
-and Priyanka Londhe at
-plondhe@americares.org
-with the subject line “Proposal for conducting NCD baseline in Jaipur”.
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login ... Read More</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>• Section 4 - Scope of Work
+Section 5 –
+Vendor Information Form– Standard   Template
+Section 6 - Standard   Template of Technical Service Contract
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+jhpin.procurement(at)jhpiego.org
 Download Attachment:
-NCDISHAA baseline RFP (Jaipur).v2.pdf
+RFP - Hiring agency for the implementation of biosecurity.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -2522,6 +1837,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -2576,62 +1897,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -2659,14 +1974,481 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>22-02-2026</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Americares India Foundation | Jaipur, Rajasthan
+International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Bro ... Read More</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>• PROPOSAL EVALUATION CRITERIA
+Proposals will be evaluated based on:
+Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
+Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
+Quality of Proposal (40%): Clarity, completeness, and alignment with scope
+References and Past Performance (10%): Feedback from prior engagements
+Please submit quotation in soft copy over email to Itisha Vasisht at
+ivasisht@americares.org
+and Priyanka Londhe at
+plondhe@americares.org
+with the subject line “Proposal for conducting NCD baseline in Jaipur”.
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+NCDISHAA baseline RFP (Jaipur).v2.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+22 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
+Location:
+Maharashtra
+Apply by:
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>22-02-2026</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Catholic Health Association of India (CHAI) | Karnataka
+International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
+• Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
+We request you to submit your offer as per the specifications detailed in Annexure 1 and the site details provided in Annexure 2. Please submit the cost details as per Annexure 3 and the organizational information as outlined in Annexure 4.
+About CHAI:
+The Catholic Health Association of India (CHAI) is a Network of 3572 Healthcare and Social Service Institutions across India. The network is divided into 11 regional units spanning the length and breadth of the country. By serving 21 million (approximately 1.5% of India’s population) patients annually across the country, most of them poor, CHAI plays a vital role in Indian healthcare. The network’s national reach and deep grassroots presence are a unique and formidable asset, made even stronger by the profound commitment of its volunteers.
+CHAI is a not-for-profit organization that works in various areas of health care, touching the lives of 12 million marginalized people every year. Leveraging the scale and reach of the network of its member institutions, CHAI has been successful in implementing a wide variety of projects in Community Health, Communicable Diseases, Non-Communicable Diseases, Palliative Care, Disability, Disaster Intervention and Strengthening of the Healthcare System.
+Address:
+The Catholic Health Association of India
+157/6, Staff Road, Gunrock Enclave,
+Secunderabad – 500009, Telangana
+REQUIREMENT :
+CHAI hereby invites eligible vendors to bid through this Request for Proposal (RFP) for carrying out the Supply, Installation, Testing and Commissioning including 5 years operation, comprehensive warranty, and maintenance of Grid Connected Rooftop Solar with Net-metering arrangement of total tentative capacity of 40 kWp solar photovolatic to be installed at St. Philomena’s Hospital in Bengaluru, Karnataka. Facility information is detailed in Annexure 2.
+• As part of the proposal, we request you to provide necessary details in Annexure 3 and 4, in accordance with information stipulated under the Terms and Conditions and specifications in Annexure 1 and 2.
+You are requested to revert back with your proposal/quotation on the following email addresses:
+chaipc@chai-india.org
+,
+The communication should be received by CHAI on or before
+23rd February 2026
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+Annexures for RfP.docx
+Download Attachment:
+RfP_Terms of Reference_solar.docx
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+23 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
+Location:
+Maharashtra
+Apply by:
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>23-02-2026</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | India
+International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>22-02-2026</t>
+          <t>23-02-2026</t>
         </is>
       </c>
       <c r="H12" s="1" t="n">
@@ -2674,7 +2456,7 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
         </is>
       </c>
     </row>
@@ -2687,10 +2469,239 @@
       <c r="B13" s="1" t="inlineStr"/>
       <c r="C13" s="1" t="inlineStr">
         <is>
+          <t>Operations Expert</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>The Voluntary Health Services (VHS) | Delhi
+International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login
+|
+Register
+Jobseekers Log ... Read More</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Essential Qualifications:
+Any Medical Graduate (MBBS/BDS) with Post Graduation Degree/Diploma (DNB, MD, MPH, DPH) in Public Health/Community Medicine/ Preventive &amp; Social Medicine/Epidemiology (FETP)/ EIS.
+OR
+Any Science Graduate with Doctorate in Public Health and (PhD/DSc or equivalent) or PhD in Public Health/Bio Sciences.
+Essential Experience:
+This position requires five (5) years of experience working on public health programs out of which at least three (3) years of experience at national level on disease surveillance focused on outbreak prone diseases including management of public health emergencies or the public health aspect of disaster management, Health Emergency Operations Centres (HEOC) or Emergency Operations Centres (EOC) or Control room/War Room
+Desirable Experience:
+Working experience in Public Safety/Security agencies
+.
+Subject
+matter
+expert with public health or disaster management or related background
+Working experience for health sector preparedness for disasters like flood, cyclone, earthquake etc.
+Demonstrated capability in managing advanced technologies, systems (including plans, policies, and procedures), and workforce.
+Age limit:
+The maximum age limit is 62 years for the above position (relaxation of 05 years for those candidates who have working experience in military/paramilitary/ law enforcement agencies).
+Period of engagement:
+This appointment shall purely be on a contractual basis. The initial contract will be made till Sep 2026, which may be extended based on performance evaluation.
+Remuneration:
+Competitive r
+emuneration commensurate with qualifications and experience, and aligned with prevailing Project norms
+Place of work:
+National Centre for Disease Control (NCDC), Directorate General of Health Services (Dte.GHS), Ministry of Health and Family Welfare (MoHFW), Government of India (GoI)
+• How to apply
+• Job Email ID: admin(at)vhsprojects.org
+• Job Email ID:
+admin(at)vhsprojects.org
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+23 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
+Location:
+Maharashtra
+Apply by:
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>23-02-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
           <t>Public Health Specialist (Planning Section)</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>The Voluntary Health Services (VHS) | Delhi
 International Development - Public Health Specialist (Planning Section), The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
@@ -2708,7 +2719,7 @@
 Login ... Read More</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>• Last date to apply
 February 23, 2026
@@ -2786,6 +2797,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -2840,62 +2857,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -2923,78 +2934,76 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F14" s="1" t="inlineStr">
         <is>
           <t>Governance, Safety</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285813</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Catholic Health Association of India (CHAI) | Karnataka
-International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
-• Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
-We request you to submit your offer as per the specifications detailed in Annexure 1 and the site details provided in Annexure 2. Please submit the cost details as per Annexure 3 and the organizational information as outlined in Annexure 4.
-About CHAI:
-The Catholic Health Association of India (CHAI) is a Network of 3572 Healthcare and Social Service Institutions across India. The network is divided into 11 regional units spanning the length and breadth of the country. By serving 21 million (approximately 1.5% of India’s population) patients annually across the country, most of them poor, CHAI plays a vital role in Indian healthcare. The network’s national reach and deep grassroots presence are a unique and formidable asset, made even stronger by the profound commitment of its volunteers.
-CHAI is a not-for-profit organization that works in various areas of health care, touching the lives of 12 million marginalized people every year. Leveraging the scale and reach of the network of its member institutions, CHAI has been successful in implementing a wide variety of projects in Community Health, Communicable Diseases, Non-Communicable Diseases, Palliative Care, Disability, Disaster Intervention and Strengthening of the Healthcare System.
-Address:
-The Catholic Health Association of India
-157/6, Staff Road, Gunrock Enclave,
-Secunderabad – 500009, Telangana
-REQUIREMENT :
-CHAI hereby invites eligible vendors to bid through this Request for Proposal (RFP) for carrying out the Supply, Installation, Testing and Commissioning including 5 years operation, comprehensive warranty, and maintenance of Grid Connected Rooftop Solar with Net-metering arrangement of total tentative capacity of 40 kWp solar photovolatic to be installed at St. Philomena’s Hospital in Bengaluru, Karnataka. Facility information is detailed in Annexure 2.
-• As part of the proposal, we request you to provide necessary details in Annexure 3 and 4, in accordance with information stipulated under the Terms and Conditions and specifications in Annexure 1 and 2.
-You are requested to revert back with your proposal/quotation on the following email addresses:
-chaipc@chai-india.org
-,
-The communication should be received by CHAI on or before
-23rd February 2026
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
+International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>• Scope of work
+The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
+Key responsibilities include:
+Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
+• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
+Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
+Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
+Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
+Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
+Deliverables:
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+woscaprocurement(at)gmail.com
 Download Attachment:
-Annexures for RfP.docx
-Download Attachment:
-RfP_Terms of Reference_solar.docx
+RFP.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-23 Feb 2026
+25 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3049,62 +3058,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -3132,41 +3135,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>25-02-2026</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Operations Expert</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>The Voluntary Health Services (VHS) | Delhi
-International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Gujarat
+International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -3174,56 +3177,39 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login
-|
-Register
-Jobseekers Log ... Read More</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Essential Qualifications:
-Any Medical Graduate (MBBS/BDS) with Post Graduation Degree/Diploma (DNB, MD, MPH, DPH) in Public Health/Community Medicine/ Preventive &amp; Social Medicine/Epidemiology (FETP)/ EIS.
-OR
-Any Science Graduate with Doctorate in Public Health and (PhD/DSc or equivalent) or PhD in Public Health/Bio Sciences.
-Essential Experience:
-This position requires five (5) years of experience working on public health programs out of which at least three (3) years of experience at national level on disease surveillance focused on outbreak prone diseases including management of public health emergencies or the public health aspect of disaster management, Health Emergency Operations Centres (HEOC) or Emergency Operations Centres (EOC) or Control room/War Room
-Desirable Experience:
-Working experience in Public Safety/Security agencies
-.
-Subject
-matter
-expert with public health or disaster management or related background
-Working experience for health sector preparedness for disasters like flood, cyclone, earthquake etc.
-Demonstrated capability in managing advanced technologies, systems (including plans, policies, and procedures), and workforce.
-Age limit:
-The maximum age limit is 62 years for the above position (relaxation of 05 years for those candidates who have working experience in military/paramilitary/ law enforcement agencies).
-Period of engagement:
-This appointment shall purely be on a contractual basis. The initial contract will be made till Sep 2026, which may be extended based on performance evaluation.
-Remuneration:
-Competitive r
-emuneration commensurate with qualifications and experience, and aligned with prevailing Project norms
-Place of work:
-National Centre for Disease Control (NCDC), Directorate General of Health Services (Dte.GHS), Ministry of Health and Family Welfare (MoHFW), Government of India (GoI)
-• How to apply
-• Job Email ID: admin(at)vhsprojects.org
+RFPs/Tender ... Read More</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-admin(at)vhsprojects.org
+rfp.lehs(at)wadhwaniai.org
+Download Attachment:
+RFP for English Annotation of Student Voice Recordings 1.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-23 Feb 2026
+27 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3278,62 +3264,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -3361,57 +3341,6 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
@@ -3419,15 +3348,15 @@
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>23-02-2026</t>
+          <t>27-02-2026</t>
         </is>
       </c>
       <c r="H16" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
         </is>
       </c>
     </row>
@@ -3440,42 +3369,42 @@
       <c r="B17" s="1" t="inlineStr"/>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
+          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment ...</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
-International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
+          <t>Centre for Environment Education (CEE) | Madhya Pradesh, Maharashtra, Telangana
+International Development - RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG, Centre for Environment Education (CEE), Madhya Pradesh, Maharashtra, Telang ... Read More</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>• Scope of work
-The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
-Key responsibilities include:
-Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
-• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
-Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
-Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
-Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
-Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
-Deliverables:
+          <t>• The project adopts a holistic approach, integrating ecosystem restoration, biodiversity conservation, livelihood strengthening, quality education and capacity building to address the vulnerabilities of marginalized rural populations facing climate change impacts. The quality education work will include improvement in learning outcomes, participation in various competitions, focus on STEM, effective pedagogies, and introduction of 21st century skills (4Cs, problem solving and digital literacy).
+The programme is unique with its multi-regional, multi-faceted and multi-sectoral approach for addressing community needs and restoring the ecosystem that they live in and depend on, exploring convergence where possible. It adopts a planned approach of a ‘zero plus four year’ implementation. The zero-year (Y0) of the programme will end in March 2026.
+A detailed baseline survey in the identified villages and need assessment is being conducted in the zero year, along with some useful community mobilization activities to build trust and goodwill, and strengthen social networks and enable participatory planning.
+The targeted beneficiaries of this programme would be local communities in the identified 35-40 villages specifically including small and marginal farmers, tribal groups, women groups, skilled and unskilled workers, youths, students etc.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-woscaprocurement(at)gmail.com
+purchase(at)ceeindia.org
 Download Attachment:
-RFP.docx
+TOR-CEE-Request for Proposal (RFP) - Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in Agar Malwa District (Madhya Pradesh), Bhimashankar (Manarashtra) and Shadnagar (Telangana.doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-25 Feb 2026
+27 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3530,62 +3459,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -3615,20 +3538,20 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Climate, Governance, Learning</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>25-02-2026</t>
+          <t>27-02-2026</t>
         </is>
       </c>
       <c r="H17" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287317</t>
         </is>
       </c>
     </row>
@@ -3641,13 +3564,13 @@
       <c r="B18" s="1" t="inlineStr"/>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Lords Education and Health Society (LEHS) | Gujarat
-International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
+          <t>Lords Education and Health Society (LEHS) | Odisha
+International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -3655,7 +3578,8 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tender ... Read More</t>
+RFPs/Tenders
+Sear ... Read More</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -3665,13 +3589,13 @@
 &lt;February 27th&gt;.
 The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
 rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
+. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
 Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
 rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-RFP for English Annotation of Student Voice Recordings 1.pdf
+RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -3682,6 +3606,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3736,62 +3666,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -3830,11 +3754,11 @@
         </is>
       </c>
       <c r="H18" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
         </is>
       </c>
     </row>
@@ -3847,217 +3771,10 @@
       <c r="B19" s="1" t="inlineStr"/>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+          <t>RFP - for Internal Audit -FES Anand</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | Odisha
-International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-rfp.lehs(at)wadhwaniai.org
-Download Attachment:
-RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-27 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
-Location:
-Maharashtra
-Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>27-02-2026</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr"/>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>RFP - for Internal Audit -FES Anand</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>Foundation for Ecological Security (FES) | Gujarat
 International Development - RFP - for Internal Audit -FES Anand, Foundation for Ecological Security (FES), Gujarat - DevNetJobsIndia.org
@@ -4074,7 +3791,7 @@
 Jobseekers: ... Read More</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>• Eligibility Criteria
 Registered CA firm in India with 5+ years NGO audit experience
@@ -4115,6 +3832,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -4169,62 +3892,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -4252,38 +3969,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F19" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G19" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287266</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>RFP - for Quarterly Internal Audits-State Office</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>Foundation for Ecological Security (FES) | India
 International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
@@ -4300,7 +4017,7 @@
 Jo ... Read More</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>• Eligibility Criteria
 Registered CA firm in India with 5+ years NGO audit experience
@@ -4343,6 +4060,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -4397,62 +4120,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -4480,38 +4197,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G20" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H21" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Proposal Development Associate</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>Academy of Management Studies (AMS) | Uttar Pradesh
 International Development - Proposal Development Associate, Academy of Management Studies (AMS), Uttar Pradesh - DevNetJobsIndia.org
@@ -4529,7 +4246,7 @@
 Lo ... Read More</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>• Eligibility
 PG in any discipline
@@ -4674,6 +4391,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -4728,62 +4451,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -4811,60 +4528,64 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F21" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G21" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285725</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr"/>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>Centre for Catalyzing Change (C3) | India
-International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Registe ... Read More</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>• b. Proposal Submission Guidelines
-The applicant should submit the Technical and Financial Proposal in two separate pdf documents
-Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
-X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
-All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
-procument@c3india.org
-on or before the proposal submission time
-The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Project Concern International India (PCI India) | India
+International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>• Last   Date for Submission of bids
+02
+nd
+March 2026
+Proposals   to be submitted at
+procdelhi@pciglobal.in
+Receipt of Proposals
+Technical and Financial   proposals should be submitted as separate attachments
+and to be submitted
+in a single email
+attachments.
+NOTE
+:
+(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+procdelhi(at)pciglobal.in
 Download Attachment:
-RFP for education initiatives_C3.pdf
+RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -4875,6 +4596,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -4929,62 +4656,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -5012,6 +4733,207 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>02-03-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Centre for Catalyzing Change (C3) | India
+International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Registe ... Read More</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>• b. Proposal Submission Guidelines
+The applicant should submit the Technical and Financial Proposal in two separate pdf documents
+Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
+X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
+All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
+procument@c3india.org
+on or before the proposal submission time
+The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+RFP for education initiatives_C3.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+02 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
+Location:
+Maharashtra
+Apply by:
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
@@ -5023,7 +4945,7 @@
         </is>
       </c>
       <c r="H23" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
@@ -5123,6 +5045,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5177,62 +5105,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -5271,7 +5193,7 @@
         </is>
       </c>
       <c r="H24" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
@@ -5288,13 +5210,13 @@
       <c r="B25" s="1" t="inlineStr"/>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>Associate (Programme Management)</t>
+          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Indian Institute For Human Settlements (Iihs) | Karnataka
-International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
+          <t>PATH | Assam
+International Development - RFP - Onboarding Agency for Revamping Assam LMIS Dashboard, PATH, Assam - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -5304,36 +5226,114 @@
 Broadcast Resume
 RFPs/Tenders
 Search Jobs
-Events ... Read More</t>
+Events
+Jobseekers:
+Login
+|
+Register
+Jobseekers Login
+Jobseekers Registe ... Read More</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
-• To apply
-If you are interested in exploring this opportunity with us, please fill the online
-application form
-by clicking here. (You can also click on the “
-Apply Now
-” button at the end of the Job Description displayed on the website).
-Contact
-Please write to us at
-hr@iihs.co.in
-if you need any clarifications while filling the online application form.
+          <t>• 3.2. Commercial contracting terms and conditions will be negotiated with the successful supplier at the end of the selection process.
+3.3. By submitting a proposal, the supplier confirms their agreement to abide by the RFP terms and PATH policies, including the
+PATH Code
+of
+Ethics
+a
+nd general practices promoting sustainability, fair trading, health and safety, records management, anti-fraud and corruption, and environmental responsibility.
+3.4. The estimated duration of the contract is 3 months.
+• 4. Solicitation terms and conditions
+4.1.
+Notice of nonbinding solicitation:
+PATH reserves the right to reject any or all bids received in response to this solicitation and is not obligated to accept any proposal.
+4.2.
+Confidentiality:
+Suppliers must treat all information provided by PATH as part of this solicitation as confidential. Unauthorized disclosure of such information may result in PATH seeking appropriate remedies under applicable law.
+4.3.
+Conflict of interest disclosure:
+Suppliers bidding on PATH business (herein referenced as “bidders”) must disclose any actual or potential conflicts of interest to the contact(s) listed in the RFP. Conflicts of interest may exist if a personal relationship with a PATH staff member constitutes a significant financial interest, a board membership, other employment, or ownership or rights in intellectual property that conflict with the supplier’s obligations to PATH. Both suppliers and PATH are safeguarded when actual or perceived conflicts of interest are disclosed. When necessary, PATH will develop a management plan to mitigate potential risks associated with disclosed conflicts of interest.
+4.4.
+Acceptance:
+• A bidder’s submission of a proposal constitutes acceptance of all terms and conditions set forth in the RFP. However, PATH’s acceptance of a proposal does not imply acceptance of its terms and conditions. PATH reserves the right to negotiate the final terms and conditions, as well as the substance of the RFP finalists’ proposals. Additionally, PATH may choose to accept partial components of a proposal if appropriate.
+4.5.
+Right to final negotiations:
+• PATH reserves the right to negotiate the final costs and scope of work and to limit or include third parties in such negotiations at its sole discretion.
+4.6.
+Third-party limitations:
+PATH does not represent, warrant, or act as an agent for any third party as a result of this solicitation. This solicitation does not authorize any third party to bind or commit PATH in any way without express written consent.
+4.7.
+Proposal validity:
+Proposals submitted under this RFP must remain valid for at least 90 days from the submission deadline. The validity period must also be explicitly stated in the proposal.
+4.8.
+Limitation of liability:
+• The terms and conditions outlined in this RFP do not exclude or limit the liability of PATH or the supplier in cases of fraud or other circumstances that result in liability under applicable law.
+4.9.
+Tender costs and liability:
+Bidders are responsible for obtaining all necessary information to prepare their proposal and for covering all costs and expenses incurred during the preparation process. Subject to the “Limitation of liability” section (Section 4.8), bidders acknowledge that by participating in this RFP—including the submission of their proposal—they are not entitled to claim from PATH any costs, expenses, or liabilities incurred during the tender process, regardless of the outcome of their proposal.
+4.10.
+PATH’s variation or termination rights
+: PATH reserves the right to modify or terminate this RFP process with written notice to all suppliers who have submitted proposals. The solicitation process is intended to proceed in accordance with the provisions outlined in this RFP. However, PATH reserves the right to terminate, amend, or modify the process, including time scales or deadlines, with notice to all suppliers who have submitted proposals. Subject to section 4.8, “Limitation of liability,” PATH shall not be held liable for any losses, costs, or expenses resulting from its termination, amendment, or modification to this RFP.
+4.11.
+Joint venture, consortium, or subcontractors:
+The lead supplier submitting a proposal in response to this RFP assumes full responsibility for ensuring compliance with RFP requirements among all members of the joint venture or consortium, including their advisers, subcontractors, and staff.
+4.12.
+Payment and invoicing:
+PATH will process correctly addressed and undisputed invoices within 30 days. Suppliers must ensure that comparable payment terms apply to their downstream parties.
+Advance payment is not preferred
+. If an advance payment is proposed and deviates from industry- or country-standard practices, it must be clearly outlined in the financial proposal submitted to PATH.
+5. Instructions for submission
+5.1.
+PATH contacts:
+All communications regarding this solicitation must be directed to the contacts listed below. Contacting third parties involved in the project, the review panel, or any other party will be considered a conflict of interest and may result in disqualification of the proposal. All required documents must be submitted to the listed contacts by the submission deadline:
+Technical and Financial proposal should be Addressed to: Procurement Officer at
+rfpindia@path.org
+INSTRUCTIONS FOR SUBMITTING THE PROPOSAL:
+FORMAT OF THE PROPOSAL:
+The Bidder should submit the proposal in English. The response to the proposal should be set out in two main parts:
+•
+Part A – Technical Proposal
+•
+Part B – Financial Proposal
+Part A (Technical Proposal) and Part B (Financial Proposal) must be documented and saved separately and efforts to be made for submission in a single email to enable evaluation of Technical Proposal and Financial Proposal independently. Part B (Financial Proposal) MUST BE PASSWORD PROTECTED separately. Please do not include any price information/password to access the Proposal in Part A (Technical Proposal) and/or in any communication (until and unless requested by PATH).
+The subject line of all emails regarding the proposal should read:
+RFP # 2026-016 - Your Company
+Name.
+5.2.
+Confirmation of interest:
+Send a statement acknowledging receipt of this solicitation and your intent to respond (or not) no later than the date specified in the schedule in Section 1. Send the confirmation to the contacts listed in Section 5.1 above.
+5.3.
+Proposal technical content:
+Bidders are advised to provide only the information required. Proposals must be clear, concise, unambiguous, and directly address the stated requirements.
+5.4.
+Selection of shortlist:
+PATH reserves the right to select a shortlist from the bids received. PATH may also interview and discuss specific details with shortlisted candidates.
+5.5.
+Deliberate alteration
+of a PATH requirement as part of your proposal will invalidate the proposal; and for evaluation purposes, the proposal may be deemed to be unresponsive .
+For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-hr(at)iihs.co.in
+rfpindia(at)path.org
 Download Attachment:
-Associate-Programme-Management-–-ASSURE-Lighthouse-Projects.pdf
+Request for Proposal - RFP#2026-016-Onboarding Agency for Revamping Assam LMIS Dashboard.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-07 Mar 2026
+06 Mar 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5388,62 +5388,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -5478,15 +5472,15 @@
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>07-03-2026</t>
+          <t>06-03-2026</t>
         </is>
       </c>
       <c r="H25" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285747</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287335</t>
         </is>
       </c>
     </row>
@@ -5499,42 +5493,58 @@
       <c r="B26" s="1" t="inlineStr"/>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
+          <t>Associate (Programme Management)</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>EAII Advisors Pvt Ltd | Andhra Pradesh
-International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+          <t>Indian Institute For Human Settlements (Iihs) | Karnataka
+International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Regis ... Read More</t>
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events ... Read More</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>• Proposal Requirements
-1. Company Background and Details
-A. Company Profile
-Overview of the firm or firms submitting the bid, including a brief history, information about organizational structure, relevant company financials, location of offices, number of employees, relevant certifications, or any other information that could be pertinent.
-Supplier Response:
-Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
-For detailed information, please check the complete version of the RFP attached below.
+          <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
+• To apply
+If you are interested in exploring this opportunity with us, please fill the online
+application form
+by clicking here. (You can also click on the “
+Apply Now
+” button at the end of the Job Description displayed on the website).
+Contact
+Please write to us at
+hr@iihs.co.in
+if you need any clarifications while filling the online application form.
+• Job Email ID:
+hr(at)iihs.co.in
 Download Attachment:
-Standalone ISA RFP Technical Evaluation Response Template (1).docx
-Download Attachment:
-Telugu_Standalone ISA RFP Technical Evaluation Response Template.docx
+Associate-Programme-Management-–-ASSURE-Lighthouse-Projects.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-09 Mar 2026
+07 Mar 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5589,62 +5599,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -5674,20 +5678,20 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>09-03-2026</t>
+          <t>07-03-2026</t>
         </is>
       </c>
       <c r="H26" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285747</t>
         </is>
       </c>
     </row>
@@ -5700,18 +5704,17 @@
       <c r="B27" s="1" t="inlineStr"/>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
+          <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
-International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Register
-Ho ... Read More</t>
+Regis ... Read More</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -5724,9 +5727,9 @@
 Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
 For detailed information, please check the complete version of the RFP attached below.
 Download Attachment:
-Standalone IC RFP Technical Evaluation Response Template.docx
+Standalone ISA RFP Technical Evaluation Response Template (1).docx
 Download Attachment:
-Telugu_Standalone IC RFP Technical Evaluation Response Template.docx
+Telugu_Standalone ISA RFP Technical Evaluation Response Template.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -5737,6 +5740,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5791,62 +5800,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -5876,7 +5879,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -5885,11 +5888,11 @@
         </is>
       </c>
       <c r="H27" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
         </is>
       </c>
     </row>
@@ -5935,7 +5938,7 @@
         </is>
       </c>
       <c r="H28" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
@@ -5952,10 +5955,459 @@
       <c r="B29" s="1" t="inlineStr"/>
       <c r="C29" s="1" t="inlineStr">
         <is>
+          <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>EAII Advisors Pvt Ltd | Andhra Pradesh
+International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Ho ... Read More</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>• Proposal Requirements
+1. Company Background and Details
+A. Company Profile
+Overview of the firm or firms submitting the bid, including a brief history, information about organizational structure, relevant company financials, location of offices, number of employees, relevant certifications, or any other information that could be pertinent.
+Supplier Response:
+Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+Standalone IC RFP Technical Evaluation Response Template.docx
+Download Attachment:
+Telugu_Standalone IC RFP Technical Evaluation Response Template.docx
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+09 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
+Location:
+Maharashtra
+Apply by:
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>09-03-2026</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr"/>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Study On SC-DMPA In Rajasthan- Clients And Providers Perspectives On...</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Centre For Community Economics And Development Consultants Society- CECOEDECON | Jaipur, Rajasthan
+International Development - RFP - Study On SC-DMPA In Rajasthan- Clients And Providers Perspectives On SC-DMPA In Rajasthan, Centre For Community Economics And Development Consultants Society- CECOEDE ... Read More</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>• Despite India’s achievement of replacement-level fertility, unmet need for contraception—particularly for spacing methods—remains substantial, with modern contraceptive use at 56.4% (2019–21), highlighting persistent gaps in access and choice, especially among vulnerable populations. Expanding the contraceptive method mix through innovative, user-centred approaches is therefore essential to meeting national commitments under FP2030 and the Sustainable Development Goals. In this context, the Government of India’s introduction of subcutaneous DMPA (DMPA-SC) as a self-care option under the National Family Planning Programme in 2023 represents a strategic step toward enhancing women’s autonomy, privacy, and convenience in contraceptive use. Global and national evidence indicates strong feasibility and acceptability of self-administered DMPA-SC among both users and providers; however, successful implementation requires an in-depth understanding of user experiences and health system readiness. This study, to be conducted in Jaipur-1, Jaisalmer and Sawai Madhopur districts of Rajasthan, aims to examine the perspectives &amp; experience of current SC-DMPA users and explore healthcare providers’ views on enabling and generating actionable evidence to inform effective scale-up of SC-DMPA within India’s public health system.
+CECOEDECON, with support from UNFPA, is implementing the roll-out of subcutaneous DMPA (SC-DMPA) in selected pilot districts of Rajasthan in the public health facilities, in collaboration with the Department of Health &amp; Family Welfare, Government of Rajasthan.
+The selected agency will be required to:
+To assess the experiences and perspectives of SC-DMPA users with a focus on service delivery, follow-up mechanisms, continuation, and future contraceptive intentions related to self-administration.
+To examine the perspectives of healthcare providers (including doctors, nurses, and Community Health Officers trained in the study districts) on client acceptance, readiness, and support requirements for SC-DMPA self-administration. (Total more than 250 doctors and 951 nursing staff and CHOs trained in these districts)
+To identify key barriers and facilitating factors at both client and health-system levels influencing the acceptance, effective use, scalability and Future ready system for scalability of SC-DMPA
+• 2. Scope of Work:
+The agency will be responsible for:
+Finalizing study design and methodology in consultation with stakeholders.
+Developing and pre-testing quantitative and qualitative study tools.
+Securing ethical clearance from a recognized Institutional Review Board (IRB).
+Conducting data collection, including:
+Quantitative interviews with a representative sample of SC-DMPA users
+In-depth interviews with doctors, ANMs.
+Data management, including data entry, cleaning, and analysis.
+Preparation and submission of study reports.
+3. Methodology:
+This study will employ quantitative research techniques on a sample of users of SC-DMPA and qualitative techniques of in-depth interviews with the service providers. A representative sample will be drawn from the list of users of SC-DMPA from the three districts. The health care providers will include Doctors, nurses, Auxiliary Nurse Midwives (ANMs), Nurses and CHOs (Total more than 250 doctors and 951 nursing staff and CHOs trained in these districts)
+Sampling: Probability proportional to size sampling will be adopted using the number of SC-DMPA users in Jaisalmer, Sawai Madhupur and Jaipur-1, as size measure (from approx. 15000 users)
+Quantitative data: Interviews with selected SC-DMPA users.
+Qualitative data: In-depth interviews with healthcare providers.
+4. Deliverables:
+Inception report with finalized study design and tools.
+IRB approval.
+Clean dataset (quantitative and qualitative).
+Analytical reports (interim and final).
+Policy brief with actionable recommendations.
+5. Timeline:
+The assignment is expected to be completed within 5 months following contract signing, as per the following tentative schedule:
+Finalization of study design and tool development: March-
+April 2026
+Ethical clearance: May 2026
+Training of investigators – June 2026
+Data collection: July 2026
+Data analysis and reporting: Mid Aug 2026
+6. Required Qualifications of the Agency:
+Proven experience in conducting large-scale health and family planning research studies.
+Expertise in both quantitative and qualitative research methods.
+Familiarity with contraceptive technology, self-care interventions, and public health systems.
+Experience in working with government health systems and familiarity with Rajasthan’s context will be preferred.
+Demonstrated capacity to ensure ethical compliance and data confidentiality.
+Availability of qualified and experienced research team.
+• 7. Proposal Submission Requirements:
+Interested agencies should submit:
+• Organizational profile with relevant experience.
+Detailed technical proposal maximum of 5 pages outlining understanding of the assignment, methodology, sampling approach, data collection plan, team composition, quality assurance, and ethical considerations.
+Financial proposal (separately in INR).
+https://docs.google.com/spreadsheets/d/1Yqiy8FXJeOrAIv_vXiA_whsUG59WtuvY/edit?usp=sharing&amp;ouid=107933350131648505243&amp;rtpof=true&amp;sd=true
+(Please Download Financial proposal format.)
+Timeline for deliverables.
+CVs of key team members.
+• 8. Evaluation Criteria:
+Proposals will be evaluated based on:
+Technical expertise and relevance of prior experience.
+Soundness of proposed methodology and work plan.
+Qualifications of proposed team.
+Financial competitiveness.
+9.  Contact Information:
+In case of any doubt or query the agency can send mail to cecojobs@gmail.com within 7 days of advertisement of the RFP.
+• Job Email ID:
+cecojobs(at)gmail.com
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+11 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
+Location:
+Maharashtra
+Apply by:
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>11-03-2026</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287322</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr"/>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
           <t>Specialist – Financial Management and Compliance</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Financial Management and Compliance, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -5969,7 +6421,7 @@
 RFPs/T ... Read More</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>• will play a vital role in a program which seeks to strengthen the internal capacities of non-profit organizations in India across three building blocks of institutional functioning: governance, financial management, and compliance. These areas are deeply interconnected and together determine how effectively an organization operates, delivers programs and meets the expectations of its stakeholders. This position demands expertise in specific areas related to governance, compliance, and financial management, contributing essential guidance and support to strengthen the capabilities of participating organizations.
 Job Responsibilities:
@@ -6020,6 +6472,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -6074,62 +6532,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -6157,38 +6609,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>13-03-2026</t>
         </is>
       </c>
-      <c r="H29" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H31" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287015</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr"/>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr"/>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>RFP - Big IC+ISA RFP - Selection of a Service Provider for Supply, Instal...</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP - Big IC+ISA RFP -  Selection of a Service Provider for Supply, Installation and Operation &amp; Maintenance of 150 ILC Devices and Capacity Building., EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -6197,7 +6649,7 @@
 | ... Read More</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>• 2. Purpose of the RFP:
 2.1  EAII is soliciting bids for:
@@ -6244,6 +6696,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -6298,62 +6756,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -6381,38 +6833,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F32" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G32" s="1" t="inlineStr">
         <is>
           <t>16-03-2026</t>
         </is>
       </c>
-      <c r="H30" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H32" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287172</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr"/>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr"/>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>Specialist – Communication</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Communication, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -6428,7 +6880,7 @@
 Eve ... Read More</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist – Communication at FMSF.
 • How to Apply:
@@ -6450,6 +6902,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
 Specialist – Financial Management and Compliance
 Financial Management Service Foundation (FMSF)
 Location:
@@ -6504,62 +6962,56 @@
 Delhi
 Apply by:
 22 Feb 2026
-Mobilization Executive
-PanIIT Alumni Reach for Jharkhand (PREJHA) Founda...
-Location:
-Jharkhand
-Apply by:
-18 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Project &amp; Operations Manager
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Quality Officer
-SafeCare Services Private Limited
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Senior Consultant- Environmental Sustainability a...
-ChildFund India
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
 Location:
 Maharashtra
 Apply by:
-26 Feb 2026
-Environmental Policy Advisor
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-04 Mar 2026
-Intern - Support to the Green and Sustainable Dev...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Delhi
-Apply by:
-05 Mar 2026
-Consultant- Adolescent Development &amp; Participatio...
-Inductus Limited
-Location:
-Jammu and Kashmir
-Apply by:
-26 Feb 2026
-Human Resources Associate
-Bharat Rural Livelihoods Foundation (BRLF)
-Location:
-Delhi
-Apply by:
-08 Mar 2026
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Feb 2026
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
 Jobseekers
 Register
 Login
@@ -6587,130 +7039,437 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F33" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G33" s="1" t="inlineStr">
         <is>
           <t>19-03-2026</t>
         </is>
       </c>
-      <c r="H31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H33" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287207</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr"/>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G32" s="1" t="inlineStr"/>
-      <c r="H32" s="1" t="inlineStr"/>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr"/>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G33" s="1" t="inlineStr"/>
-      <c r="H33" s="1" t="inlineStr"/>
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
+          <t>DevNetJobsIndia</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr"/>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
+          <t>Specialist - Grants</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
+International Development - Specialist - Grants, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Job ... Read More</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist - Grants at FMSF.
+You’re Resume to be accompanied with:
+Motivational letter justifying suitability for the position – role fitment based on present &amp; past work experience
+Current/last drawn compensation &amp; expected compensation
+CVs without Motivational Letter will not be considered
+• How to Apply:
+Apply online by clicking on the link
+https://www.fmsfindia.org.in/apply-now/specialist-grants
+FMSF is an Equal Opportunity Employer.
+Please note that only the shortlisted candidates will be contacted.
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+21 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
+Location:
+Maharashtra
+Apply by:
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr"/>
-      <c r="H34" s="1" t="inlineStr"/>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>21-03-2026</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>30</v>
+      </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287318</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
+          <t>DevNetJobsIndia</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr"/>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
+          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical An...</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Ashray Foundation | Korba, Chattisgarh (Delivery Location), Gujarat
+International Development - EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support, Ashray Foundation, Gujarat - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadc ... Read More</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>• Ashray Foundation invites eligible and experienced agencies to submit their Expression of Interest / for the following scope of work:
+Fabrication of Mobile Medical Units (MMUs) – 2 Units
+AI Integration &amp; Medical Equipment for TB screening (Portable X-ray) – 2 Units
+Supply of Hygiene Kits for TB support treatment on a monthly basis.
+Supply of Nutritional Kits
+Supply of Medicines (on actuals)
+Interested agencies are requested to submit their company profile along with the following mandatory documents such as Registration Certificate of the firm, PAN Card, GST Registration Certificate, Udyam Registration Certificate (if available), Bank details (Cancelled Cheque), Relevant work experience in the above-mentioned areas, supported by photographs.
+For agencies applying for the supply of medicines, hygiene kits, and nutritional kits, submission of valid registration required for medical supply
+and statutory licenses and registration required for medical supply,
+necessary approvals are mandatory. The last date for submission of the company profile and required documents is 24 February 2026.
+All documents should be sent via email to:
+tenders@ashrayfoundation.org
+. Note: Incomplete submissions or unclear copies will lead to rejection.
+• Job Email ID:
+tenders(at)ashrayfoundation.org
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+24 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Lead, Partnerships and Communications
+Ibtada
+Location:
+Rajasthan
+Apply by:
+21 Mar 2026
+RFP - Inviting Consultant/agencies for Identifica...
+Passing Gifts Private Limited (PGPL )
+Location:
+India
+Apply by:
+02 Mar 2026
+Individual Consultant– Child Protection Consultan...
+UNICEF
+Location:
+West Bengal
+Apply by:
+28 Feb 2026
+Program Head – Antar Bharati Balgram (Residential...
+India Sponsorship Committee (ISC)
+Location:
+Maharashtra
+Apply by:
+21 Mar 2026
+Manager - School Fundraising
+Smile Foundation
+Location:
+Karnataka
+Apply by:
+21 Mar 2026
+RFP - Hiring an Agency to Conduct Evidence Synthe...
+Project Concern International India (PCI India)
+Location:
+India
+Apply by:
+02 Mar 2026
+Senior Lead, Reading Glasses for Improved Livelih...
+VisionSpring
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Senior Lead, Alternate Channel
+VisionSpring
+Location:
+Delhi, Uttar Pradesh
+Apply by:
+21 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr"/>
-      <c r="H35" s="1" t="inlineStr"/>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>24-03-2026</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>33</v>
+      </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287319</t>
         </is>
       </c>
     </row>
@@ -6723,7 +7482,7 @@
       <c r="B36" s="1" t="inlineStr"/>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
+          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -6737,7 +7496,7 @@
       <c r="H36" s="1" t="inlineStr"/>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
         </is>
       </c>
     </row>
@@ -6750,21 +7509,21 @@
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
+          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr"/>
       <c r="H37" s="1" t="inlineStr"/>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -6777,7 +7536,7 @@
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
+          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
@@ -6791,7 +7550,7 @@
       <c r="H38" s="1" t="inlineStr"/>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
         </is>
       </c>
     </row>
@@ -6804,21 +7563,21 @@
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
+          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr"/>
       <c r="H39" s="1" t="inlineStr"/>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -6831,21 +7590,21 @@
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
+          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr"/>
       <c r="H40" s="1" t="inlineStr"/>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
         </is>
       </c>
     </row>
@@ -6858,21 +7617,21 @@
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
+          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr"/>
       <c r="H41" s="1" t="inlineStr"/>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
         </is>
       </c>
     </row>
@@ -6885,21 +7644,21 @@
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
+          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr"/>
       <c r="H42" s="1" t="inlineStr"/>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
         </is>
       </c>
     </row>
@@ -6912,7 +7671,7 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
+          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -6926,7 +7685,7 @@
       <c r="H43" s="1" t="inlineStr"/>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
         </is>
       </c>
     </row>
@@ -6939,7 +7698,7 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
+          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -6953,7 +7712,7 @@
       <c r="H44" s="1" t="inlineStr"/>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
         </is>
       </c>
     </row>
@@ -6966,7 +7725,7 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
+          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -6980,7 +7739,7 @@
       <c r="H45" s="1" t="inlineStr"/>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
         </is>
       </c>
     </row>
@@ -6993,7 +7752,7 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
+          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -7007,7 +7766,7 @@
       <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
         </is>
       </c>
     </row>
@@ -7020,21 +7779,21 @@
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr"/>
       <c r="H47" s="1" t="inlineStr"/>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7806,7 @@
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -7061,7 +7820,7 @@
       <c r="H48" s="1" t="inlineStr"/>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
         </is>
       </c>
     </row>
@@ -7074,21 +7833,21 @@
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr"/>
       <c r="H49" s="1" t="inlineStr"/>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7860,7 @@
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -7115,147 +7874,115 @@
       <c r="H50" s="1" t="inlineStr"/>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
+          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G51" s="1" t="inlineStr">
-        <is>
-          <t>10th Feb, 2026</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr"/>
       <c r="H51" s="1" t="inlineStr"/>
       <c r="I51" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
+          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G52" s="1" t="inlineStr">
-        <is>
-          <t>10th Feb, 2026</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr"/>
       <c r="H52" s="1" t="inlineStr"/>
       <c r="I52" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
+          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G53" s="1" t="inlineStr">
-        <is>
-          <t>15th Dec, 2025</t>
-        </is>
-      </c>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr"/>
       <c r="H53" s="1" t="inlineStr"/>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
+          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
+          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
-        </is>
-      </c>
-      <c r="G54" s="1" t="inlineStr">
-        <is>
-          <t>10th Nov, 2025</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr"/>
       <c r="H54" s="1" t="inlineStr"/>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
         </is>
       </c>
     </row>
@@ -7272,25 +7999,25 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>31st Oct, 2025</t>
+          <t>10th Feb, 2026</t>
         </is>
       </c>
       <c r="H55" s="1" t="inlineStr"/>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
         </is>
       </c>
     </row>
@@ -7307,25 +8034,25 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>21st May, 2025</t>
+          <t>10th Feb, 2026</t>
         </is>
       </c>
       <c r="H56" s="1" t="inlineStr"/>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
         </is>
       </c>
     </row>
@@ -7342,25 +8069,25 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
+          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>15th Dec, 2025</t>
         </is>
       </c>
       <c r="H57" s="1" t="inlineStr"/>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
         </is>
       </c>
     </row>
@@ -7377,25 +8104,25 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>10th Nov, 2025</t>
         </is>
       </c>
       <c r="H58" s="1" t="inlineStr"/>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
         </is>
       </c>
     </row>
@@ -7412,25 +8139,25 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>31st Oct, 2025</t>
         </is>
       </c>
       <c r="H59" s="1" t="inlineStr"/>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
         </is>
       </c>
     </row>
@@ -7447,142 +8174,165 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>21st May, 2025</t>
         </is>
       </c>
       <c r="H60" s="1" t="inlineStr"/>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Nagpur Metro Rail</t>
+          <t>HCL Foundation</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>Tender/RFP</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : T1PD-02/2026 Date: 11/02/2026 — Tender Notice No : T1PD-02/2026 Date: 11/02/2026 EoI Ref No : T1PD-02/2026 Date: 11/02/2026 Selection of Consultant for Preparation of Transit Oriented Development Plan, Local Area Master Plan and Multi-Modal Integration Plan for Thane Integral Ring Metro Project.</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>Notice Inviting Tender</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
-        </is>
-      </c>
+          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G61" s="1" t="inlineStr"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
       <c r="H61" s="1" t="inlineStr"/>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/NIT_T1PD-02_2026.PDF</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Nagpur Metro Rail</t>
+          <t>HCL Foundation</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Tender/RFP</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 — Tender Notice No : N1-CRF-13/2026  Date:16.01.2026 EoI Ref No : N1-CRF-13/2026  Date:16.01.2026 Construction of State Institute of Disaster Management (SIDM) at Nagpur (MIHAN)</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>Notice Inviting Tender</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
-        </is>
-      </c>
+          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
-        </is>
-      </c>
-      <c r="G62" s="1" t="inlineStr"/>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
       <c r="H62" s="1" t="inlineStr"/>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/SIDM Const NIT.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Nagpur Metro Rail</t>
+          <t>HCL Foundation</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Tender/RFP</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 — Tender Notice No : T1-024/DDC-03/2025  Date: 12.12.2025 EoI Ref No : T1-024/DDC-03/2025  Date: 12.12.2025 Detailed Design Consultancy Services for the Detailed Design of Architectural and Tunnel Ventilation System (TVS) , including SES Simulation and CFD Simulation of Stations and Tunnel; Environmental Control System (ECS); Building Management System (BMS); and E&amp;M Services for two (02) Underground Stations i) Thane Junction and ii) New Thane of the Thane Integral Ring Metro Project (Section Length: Approx 3 km including ramps)</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>Notice Inviting Tender</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>Refer to the document: https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
-        </is>
-      </c>
+          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
-        </is>
-      </c>
-      <c r="G63" s="1" t="inlineStr"/>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
       <c r="H63" s="1" t="inlineStr"/>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t>https://www.metrorailnagpur.com/pdf/NIT-T1-024DDC-03.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
+      <c r="H64" s="1" t="inlineStr"/>
+      <c r="I64" s="1" t="inlineStr">
+        <is>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
         </is>
       </c>
     </row>

--- a/all_grants.xlsx
+++ b/all_grants.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,28 +494,92 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RFP - for the Upgrade and Strengthen Essential Health Infrastructure Inclu...</t>
+          <t>RFP - Gender Integration within in “Climate Resilient Agriculture based Li...</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Project Concern International India (PCI India) | India
-International Development - RFP - for the Upgrade and Strengthen Essential Health Infrastructure Including Civil Works, Renovation and Refurbishment of Primary Health Centres, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
+          <t>Vijayavahini Charitable Foundation - Supported By Tata Trusts | Asifabad District, Telangana
+International Development - RFP - Gender Integration within in “Climate Resilient Agriculture based Livelihoods for Asifabad District” Project, Vijayavahini Charitable Foundation - Supported By Tata Trusts, ... Read More</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>• : Due to variations in site conditions and the absence of finalized drawings, detailed Scope of Work (SoW) and Bill of Quantities (BoQ) are not available at this stage. Accordingly, this RFP seeks technical proposals to assess the bidders’ understanding, methodology, and technical capability. Financial proposals shall be invited at a later stage only from technically qualified bidders.
-For detailed information, please check the complete version of the RFP attached below.
+          <t>• Scope of Work:
+The key tasks for this assignment will be undertaken in close collaboration with VCF
+project team
+Undertaking situation analysis / baseline study (self or with 3rd party support)
+Preparing action plan (inception report) for next three years support to handhold VCF in Asifabad on building Gender Component
+Providing training/capacity building of local team (
+team strengthen of 40 including
+Community Resource persons) in handling gender issues on ground; this training will repeat in every quarter/six monthly
+Monitoring/onsite support visit by Resource person/agency to project location: bimonthly
+Hosting team for exploratory visits to existing programs across state/particular district
+Deputing resource persons for supporting implementation team in project location
+Organising workshops related to strengthening gender component for program team as well as for beneficiaries
+Strengthening community leadership among workers, with an emphasis on building collective voice, peer leadership, and local champions who can sustain interventions beyond the project period.
+Conducting midline/endline study to find out the changes in gender component within the project
+Duration of services:
+The finalized agency/institution/consultant is expected to deliver services for a period of
+36
+months from
+March
+202
+6
+to
+February
+202
+9
+• Eligibility and Qualification Criteria
+Registered NGO or Section 8 company with proven expertise in Women Empowerment, Livelihoods and FPO development.
+Must possess a valid 12A, 80G certificates
+Minimum 3 years of relevant experience or demonstrated work on above subjects
+Proven experience in working with rural or tribal communities, preferably in Telangana
+Minimum annual turnover of INR 20 lakhs in any of the past three financial years.
+Qualified team with expertise in FPO governance, Gender empowerment, Livelihoods work, strengthening communities.
+Proposal Submission
+Interested agencies are requested to submit a detail proposal including Financials for 36 months to
+contact@vijayavahini.org
+with the subject line “RFP – Women Empowerment”. The Technical Proposal should include organization profile, relevant experience, methodology, proposed team, and work plan. The Financial Proposal should include fee structure, expenses, and applicable taxes.
+• Evaluation Criteria
+• The selection process will follow Quality and Cost-Based Selection (QCBS) with 70% weightage for technical and 30% for financial proposals.
+Evaluation parameters:
+• • Organizational profile and relevant experience – 20 points
+• Approach and methodology – 30 points
+• Past assignments – 20 points
+• Team qualifications and experience – 20 points
+• Financial proposal – 10 points
+Payment Terms
+50% upon signing of contract and submission of inception report.
+25% in the 2
+nd
+year start (13
+th
+month) of the work and submission of the first year report
+20% in the 3
+rd
+year start (25
+th
+month) of the work and submission of the second year report
+5% closer of the project and submission of final report (36
+th
+month)
+• General Terms and Conditions
+VCF reserves the right to accept or reject any proposal without assigning reasons. The consultant shall maintain confidentiality and adhere to VCF’s ethical standards and data protection policy. All outputs, training materials, and documents produced under this consultancy shall remain the property of VCF.
+Issued by:
+Vijayavahini Charitable Foundation (VCF)
+CNR Complex, 3rd Floor, Sri Ramachandra Nagar, Vijayawada, Andhra Pradesh – 520008
+Email:
+contact@vijayavahini.org
+Website:
+www.vijayavahini.org
 • Job Email ID:
-procdelhi(at)pciglobal.in
-Download Attachment:
-RFP - 0028.doc
+contact(at)vijayavahini.org
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-19 Feb 2026
+20 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -583,54 +647,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -660,12 +724,12 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Climate, Safety</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>19-02-2026</t>
+          <t>20-02-2026</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
@@ -673,7 +737,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285516</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285744</t>
         </is>
       </c>
     </row>
@@ -686,226 +750,10 @@
       <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
+          <t>ToR - End-to-End Digital Marketing Agency for ChildFund India</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - Audio Quality Annotation of Student Voice Recordings, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jo ... Read More</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>• The selected partner will be responsible for delivering the following within the agreed project timelines and quality standards:
-JSON files of transcriptions of recordings
-(Format will be shared separately via email)
-Each recording to have a separate JSON file, format as specified by Wadhwani AI
-Criteria for Application
-Applicants must meet the following criteria.
-Mandatory:
-Demonstrated team capacity to provide transcriptions in English, demonstrable quality check process
-Preferred:
-Prior experience in transcribing English student speech.
-• Submission Details
-All proposals to this RFP must be received no later than
-&lt;Feb 16th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP:
-Audio Quality Annotation of Student Voice Recordings
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-RFP for Audio Quality Annotation of Student Voice Recordings- Updated.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-20 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
-Location:
-Rajasthan
-Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285876</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>ToR - End-to-End Digital Marketing Agency for ChildFund India</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>ChildFund India | India
 International Development - ToR - End-to-End Digital Marketing Agency for ChildFund India, ChildFund India, India - DevNetJobsIndia.org
@@ -926,7 +774,7 @@
 Jobseekers ... Read More</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>• 5. Scope of Work / Assignment
 The scope includes, but is not limited to, the following components:
@@ -1116,54 +964,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -1191,38 +1039,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285899</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>TOR : Study on Functionality and Sustainability of Grey Water Management (...</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Water For People India | West Bengal
 International Development - TOR : Study on Functionality and Sustainability of Grey Water Management (GWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
@@ -1234,168 +1082,80 @@
 Value Membership ... Read More</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Climate, Governance, Learning</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285954</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>TOR : Study on Functionality and Sustainability of Solid Waste Management ...</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Water For People India | West Bengal
-International Development - TOR : Study on Functionality and Sustainability of Solid Waste Management (SWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | India
+International Development - RFP - Audio Quality Annotation of Student Voice Recordings, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
 Register
 Home
-Value Membershi ... Read More</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285952</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Gender Integration within in “Climate Resilient Agriculture based Li...</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Vijayavahini Charitable Foundation - Supported By Tata Trusts | Asifabad District, Telangana
-International Development - RFP - Gender Integration within in “Climate Resilient Agriculture based Livelihoods for Asifabad District” Project, Vijayavahini Charitable Foundation - Supported By Tata Trusts, ... Read More</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>• Scope of Work:
-The key tasks for this assignment will be undertaken in close collaboration with VCF
-project team
-Undertaking situation analysis / baseline study (self or with 3rd party support)
-Preparing action plan (inception report) for next three years support to handhold VCF in Asifabad on building Gender Component
-Providing training/capacity building of local team (
-team strengthen of 40 including
-Community Resource persons) in handling gender issues on ground; this training will repeat in every quarter/six monthly
-Monitoring/onsite support visit by Resource person/agency to project location: bimonthly
-Hosting team for exploratory visits to existing programs across state/particular district
-Deputing resource persons for supporting implementation team in project location
-Organising workshops related to strengthening gender component for program team as well as for beneficiaries
-Strengthening community leadership among workers, with an emphasis on building collective voice, peer leadership, and local champions who can sustain interventions beyond the project period.
-Conducting midline/endline study to find out the changes in gender component within the project
-Duration of services:
-The finalized agency/institution/consultant is expected to deliver services for a period of
-36
-months from
-March
-202
-6
-to
-February
-202
-9
-• Eligibility and Qualification Criteria
-Registered NGO or Section 8 company with proven expertise in Women Empowerment, Livelihoods and FPO development.
-Must possess a valid 12A, 80G certificates
-Minimum 3 years of relevant experience or demonstrated work on above subjects
-Proven experience in working with rural or tribal communities, preferably in Telangana
-Minimum annual turnover of INR 20 lakhs in any of the past three financial years.
-Qualified team with expertise in FPO governance, Gender empowerment, Livelihoods work, strengthening communities.
-Proposal Submission
-Interested agencies are requested to submit a detail proposal including Financials for 36 months to
-contact@vijayavahini.org
-with the subject line “RFP – Women Empowerment”. The Technical Proposal should include organization profile, relevant experience, methodology, proposed team, and work plan. The Financial Proposal should include fee structure, expenses, and applicable taxes.
-• Evaluation Criteria
-• The selection process will follow Quality and Cost-Based Selection (QCBS) with 70% weightage for technical and 30% for financial proposals.
-Evaluation parameters:
-• • Organizational profile and relevant experience – 20 points
-• Approach and methodology – 30 points
-• Past assignments – 20 points
-• Team qualifications and experience – 20 points
-• Financial proposal – 10 points
-Payment Terms
-50% upon signing of contract and submission of inception report.
-25% in the 2
-nd
-year start (13
-th
-month) of the work and submission of the first year report
-20% in the 3
-rd
-year start (25
-th
-month) of the work and submission of the second year report
-5% closer of the project and submission of final report (36
-th
-month)
-• General Terms and Conditions
-VCF reserves the right to accept or reject any proposal without assigning reasons. The consultant shall maintain confidentiality and adhere to VCF’s ethical standards and data protection policy. All outputs, training materials, and documents produced under this consultancy shall remain the property of VCF.
-Issued by:
-Vijayavahini Charitable Foundation (VCF)
-CNR Complex, 3rd Floor, Sri Ramachandra Nagar, Vijayawada, Andhra Pradesh – 520008
-Email:
-contact@vijayavahini.org
-Website:
-www.vijayavahini.org
-• Job Email ID:
-contact(at)vijayavahini.org
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jo ... Read More</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>• The selected partner will be responsible for delivering the following within the agreed project timelines and quality standards:
+JSON files of transcriptions of recordings
+(Format will be shared separately via email)
+Each recording to have a separate JSON file, format as specified by Wadhwani AI
+Criteria for Application
+Applicants must meet the following criteria.
+Mandatory:
+Demonstrated team capacity to provide transcriptions in English, demonstrable quality check process
+Preferred:
+Prior experience in transcribing English student speech.
+• Submission Details
+All proposals to this RFP must be received no later than
+&lt;Feb 16th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP:
+Audio Quality Annotation of Student Voice Recordings
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+RFP for Audio Quality Annotation of Student Voice Recordings- Updated.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -1468,54 +1228,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -1543,38 +1303,86 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Safety</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>20-02-2026</t>
         </is>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285744</t>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285876</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr"/>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>TOR : Study on Functionality and Sustainability of Solid Waste Management ...</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Water For People India | West Bengal
+International Development - TOR : Study on Functionality and Sustainability of Solid Waste Management (SWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membershi ... Read More</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>20-02-2026</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285952</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>RFP – Content replacement (Hindi to Assamese) in developed flipbooks</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
 International Development - RFP – Content replacement (Hindi to Assamese) in developed flipbooks, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
@@ -1587,7 +1395,7 @@
 Broadcast ... Read More</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work
 This is to bring to your kind attention that we intend to hire an agency for content replacement from Hindi to Assamese, including the cover page and back cover.
@@ -1692,54 +1500,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -1767,66 +1575,66 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>22-02-2026</t>
         </is>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287210</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Jhpiego | India
-International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Americares India Foundation | Jaipur, Rajasthan
+International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
 Register
 Home
 Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login ... Read More</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>• Section 4 - Scope of Work
-Section 5 –
-Vendor Information Form– Standard   Template
-Section 6 - Standard   Template of Technical Service Contract
+Bro ... Read More</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>• PROPOSAL EVALUATION CRITERIA
+Proposals will be evaluated based on:
+Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
+Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
+Quality of Proposal (40%): Clarity, completeness, and alignment with scope
+References and Past Performance (10%): Feedback from prior engagements
+Please submit quotation in soft copy over email to Itisha Vasisht at
+ivasisht@americares.org
+and Priyanka Londhe at
+plondhe@americares.org
+with the subject line “Proposal for conducting NCD baseline in Jaipur”.
 For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-jhpin.procurement(at)jhpiego.org
 Download Attachment:
-RFP - Hiring agency for the implementation of biosecurity.pdf
+NCDISHAA baseline RFP (Jaipur).v2.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -1899,54 +1707,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -1974,251 +1782,44 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>22-02-2026</t>
         </is>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
+      <c r="H8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Americares India Foundation | Jaipur, Rajasthan
-International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Bro ... Read More</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>• PROPOSAL EVALUATION CRITERIA
-Proposals will be evaluated based on:
-Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
-Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
-Quality of Proposal (40%): Clarity, completeness, and alignment with scope
-References and Past Performance (10%): Feedback from prior engagements
-Please submit quotation in soft copy over email to Itisha Vasisht at
-ivasisht@americares.org
-and Priyanka Londhe at
-plondhe@americares.org
-with the subject line “Proposal for conducting NCD baseline in Jaipur”.
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-NCDISHAA baseline RFP (Jaipur).v2.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-22 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
-Location:
-Rajasthan
-Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>22-02-2026</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Catholic Health Association of India (CHAI) | Karnataka
 International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
 • Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
@@ -2315,54 +1916,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -2390,89 +1991,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Operations Expert</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>The Voluntary Health Services (VHS) | Delhi
 International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
@@ -2493,7 +2043,7 @@
 Jobseekers Log ... Read More</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>• Eligibility Criteria
 Essential Qualifications:
@@ -2595,54 +2145,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -2670,38 +2220,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Public Health Specialist (Planning Section)</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>The Voluntary Health Services (VHS) | Delhi
 International Development - Public Health Specialist (Planning Section), The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
@@ -2719,7 +2269,7 @@
 Login ... Read More</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>• Last date to apply
 February 23, 2026
@@ -2859,54 +2409,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -2934,60 +2484,116 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>Governance, Safety</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285813</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
-International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>• Scope of work
-The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
-Key responsibilities include:
-Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
-• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
-Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
-Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
-Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
-Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
-Deliverables:
-For detailed information, please check the complete version of the RFP attached below.
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | India
+International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>23-02-2026</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>RFQ: Construction of New gated check dams, De-siltation, and retrofitting ...</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>WaterAid India | Telangana
+International Development - RFQ: Construction of New gated check dams, De-siltation, and retrofitting of check dam in 6 villages - Telangana, WaterAid India, Telangana - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+S ... Read More</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>• Terms and Conditions:
+Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
+Please quote for WaterAid (Jal Seva Charitable Foundation) contributed works only and community contribution part will be taken care by the community - either in cash or kind.
+Details of community contribution and WaterAid contribution is given in enclosed estimations for your reference.
+Quotation should send to
+WAIProcurementAP@wateraid.org
+For detailed information, please check the complete version of the RFQ attached below.
 • Job Email ID:
-woscaprocurement(at)gmail.com
+waiprocurementap(at)wateraid.org
 Download Attachment:
-RFP.docx
+Tender Notice-JSCF-Jalsankalp-19.02.26_organized1.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -3060,54 +2666,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -3135,70 +2741,65 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>25-02-2026</t>
         </is>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
+      <c r="H13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287375</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | Gujarat
-International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tender ... Read More</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
+International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>• Scope of work
+The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
+Key responsibilities include:
+Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
+• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
+Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
+Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
+Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
+Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
+Deliverables:
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-rfp.lehs(at)wadhwaniai.org
+woscaprocurement(at)gmail.com
 Download Attachment:
-RFP for English Annotation of Student Voice Recordings 1.pdf
+RFP.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-27 Feb 2026
+25 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -3266,54 +2867,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -3341,54 +2942,66 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>27-02-2026</t>
-        </is>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>25-02-2026</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr"/>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment ...</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>Centre for Environment Education (CEE) | Madhya Pradesh, Maharashtra, Telangana
-International Development - RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG, Centre for Environment Education (CEE), Madhya Pradesh, Maharashtra, Telang ... Read More</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>• The project adopts a holistic approach, integrating ecosystem restoration, biodiversity conservation, livelihood strengthening, quality education and capacity building to address the vulnerabilities of marginalized rural populations facing climate change impacts. The quality education work will include improvement in learning outcomes, participation in various competitions, focus on STEM, effective pedagogies, and introduction of 21st century skills (4Cs, problem solving and digital literacy).
-The programme is unique with its multi-regional, multi-faceted and multi-sectoral approach for addressing community needs and restoring the ecosystem that they live in and depend on, exploring convergence where possible. It adopts a planned approach of a ‘zero plus four year’ implementation. The zero-year (Y0) of the programme will end in March 2026.
-A detailed baseline survey in the identified villages and need assessment is being conducted in the zero year, along with some useful community mobilization activities to build trust and goodwill, and strengthen social networks and enable participatory planning.
-The targeted beneficiaries of this programme would be local communities in the identified 35-40 villages specifically including small and marginal farmers, tribal groups, women groups, skilled and unskilled workers, youths, students etc.
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Odisha
+International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-purchase(at)ceeindia.org
+rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-TOR-CEE-Request for Proposal (RFP) - Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in Agar Malwa District (Madhya Pradesh), Bhimashankar (Manarashtra) and Shadnagar (Telangana.doc
+RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -3461,54 +3074,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -3536,66 +3149,54 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>27-02-2026</t>
         </is>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287317</t>
+      <c r="H15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr"/>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | Odisha
-International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment ...</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Centre for Environment Education (CEE) | Madhya Pradesh, Maharashtra, Telangana
+International Development - RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG, Centre for Environment Education (CEE), Madhya Pradesh, Maharashtra, Telang ... Read More</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>• The project adopts a holistic approach, integrating ecosystem restoration, biodiversity conservation, livelihood strengthening, quality education and capacity building to address the vulnerabilities of marginalized rural populations facing climate change impacts. The quality education work will include improvement in learning outcomes, participation in various competitions, focus on STEM, effective pedagogies, and introduction of 21st century skills (4Cs, problem solving and digital literacy).
+The programme is unique with its multi-regional, multi-faceted and multi-sectoral approach for addressing community needs and restoring the ecosystem that they live in and depend on, exploring convergence where possible. It adopts a planned approach of a ‘zero plus four year’ implementation. The zero-year (Y0) of the programme will end in March 2026.
+A detailed baseline survey in the identified villages and need assessment is being conducted in the zero year, along with some useful community mobilization activities to build trust and goodwill, and strengthen social networks and enable participatory planning.
+The targeted beneficiaries of this programme would be local communities in the identified 35-40 villages specifically including small and marginal farmers, tribal groups, women groups, skilled and unskilled workers, youths, students etc.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-rfp.lehs(at)wadhwaniai.org
+purchase(at)ceeindia.org
 Download Attachment:
-RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
+TOR-CEE-Request for Proposal (RFP) - Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in Agar Malwa District (Madhya Pradesh), Bhimashankar (Manarashtra) and Shadnagar (Telangana.doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -3668,54 +3269,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -3743,6 +3344,426 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>27-02-2026</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287317</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>RFP- for Endline Assessment and Impact Evaluation</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>MAMTA Health Institute for Mother and Child (MAMTA) | Odisha
+International Development - RFP-  for Endline Assessment and Impact Evaluation, MAMTA Health Institute for Mother and Child (MAMTA), Odisha - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Ten ... Read More</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>• 3. Purpose of the RFP
+Mamta HIMC invites proposals from qualified research agencies or consulting firms to conduct a third party comprehensive Endline Assessment and Impact Evaluation study for the project titled:
+"Strengthening Community Processes and Govt. Platforms for Quality Home-Based Kangaroo Mother Care (HB-KMC) for LBW Neonates".
+4. Objective of the study:
+The assessment study will aim to evaluate the effectiveness of the community- and facility-based Kangaroo Mother Care (KMC) intervention in improving coverage, quality, and continuation of KMC practices among eligible low birth weight infants. Specifically, it will assess changes in initiation, duration, and adherence to KMC at facility and household levels, as well as improvements in caregiver knowledge, skills, and supportive practices. The impact evaluation will also examine the effect of the intervention on key newborn health outcomes, and assess implementation performance across facility and community platforms.
+Submission and contact information
+Applications should be sent to
+rfp@mamtahimc.in
+with the subject line: “Proposal for Assessment in Odisha” by (27
+th
+February, 2026).
+Queries related to RFP, can be sent to the same email id with subject line “Proposal for Assessment in Odisha query”.
+Queries will be answered till (24
+th
+February, 2026).
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+rfp(at)mamtahimc.in
+Download Attachment:
+Request for Proposal for Endline Survey- NPT KMC.doc
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+27 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
+Location:
+Rajasthan
+Apply by:
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Safety</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>27-02-2026</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287391</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr"/>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Gujarat
+International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tender ... Read More</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+rfp.lehs(at)wadhwaniai.org
+Download Attachment:
+RFP for English Annotation of Student Voice Recordings 1.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+27 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
+Location:
+Rajasthan
+Apply by:
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
@@ -3754,11 +3775,11 @@
         </is>
       </c>
       <c r="H18" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
         </is>
       </c>
     </row>
@@ -3894,54 +3915,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -3980,7 +4001,7 @@
         </is>
       </c>
       <c r="H19" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
@@ -3997,13 +4018,13 @@
       <c r="B20" s="1" t="inlineStr"/>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>RFP - for Quarterly Internal Audits-State Office</t>
+          <t>RFP - Construction of New gated check dams, De-siltation, and retrofittin...</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Foundation for Ecological Security (FES) | India
-International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
+          <t>WaterAid India | Hyderabad, Telangana
+International Development - RFP - Construction of New gated check dams, De-siltation, and  retrofitting of check dam in 6 villages, WaterAid India, Telangana - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -4011,45 +4032,22 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jo ... Read More</t>
+RFPs/Tenders ... Read More</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>• Eligibility Criteria
-Registered CA firm in India with 5+ years NGO audit experience
-Having offices in Vicinity of FES Office locations.
-Familiarity with NGO specific audit norms
-Qualified team with sectoral knowledge
-No conflict of interest with FES
-At least three professional references from client.
-Proposal Must Include
-Audit methodology
-Team composition &amp; CVs
-Past NGO audit experience
-Detailed fee quotations, Project/state- wise (Listed above).
-Audit timelines
-Declaration of independence
-Contact
-Vishal Prajapati:
-vishal.prajapati@fes.org.in
-|
-+91 7405396926
-Pankaj Garg:
-pankaj.garg@fes.org.in
-|
-+91 9687606949
-Important Dates
-Submission Deadline: February 28th, 2025
-Selection Notification: Within 30 working days
-Mention
-“Proposal for Quarterly Internal Audits-State Office
-”
-in the subject Line.
-FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
+          <t>• Terms and Conditions:
+Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
+Quotation should send to
+WAIProcurementAP@wateraid.org
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+WAIProcurementAP(at)wateraid.org
+Download Attachment:
+Tender Invitation - 15  Check dams- Amruthavarshini._compressed.pdf
+Download Attachment:
+Tender Invitation - 15  Check dams- Amruthavarshini..docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -4122,54 +4120,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -4199,7 +4197,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -4208,11 +4206,11 @@
         </is>
       </c>
       <c r="H20" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287360</t>
         </is>
       </c>
     </row>
@@ -4225,10 +4223,286 @@
       <c r="B21" s="1" t="inlineStr"/>
       <c r="C21" s="1" t="inlineStr">
         <is>
+          <t>RFP - for End line Assessment of Access to Iron-Contamination-Free and Flu...</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>WaterAid India | India
+International Development - RFP - for End line Assessment of Access to Iron-Contamination-Free and Fluoride-Contamination-Free Drinking Water, WaterAid India, India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search J ... Read More</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>• 3. Scope of Work
+The selected consultant/firm will undertake the following tasks:
+3.1 Methodology
+The assessment should use a mixed-method approach including:
+Household surveys based on the questionnaire.
+The questionnaire will be provided by JSCF and filling of the questionnaire will not take more than 40 minutes for a household
+. The response from the households to be collected using smartphones.
+Key Informant Interviews (KIIs), (Sarpanches and VWSC members)
+Technical inspection of IRPs and FRPs
+Sampling should include:
+Direct beneficiary households. Questionnaire will be administered with 70 households in 7 villages (list will be provided) of Barkote block of Debagarh District of Odisha and 30 households of 2 villages (list will be provided) of Nuapada District of Odisha.
+Key informant interviews with VWSC members and Sarpanches (2 Sarpanches at Debagarh and 1 at Nuapada)
+3.2 Key Evaluation Questions
+The evaluation should address, but not be limited to:
+Access &amp; Coverage
+What percentage of households are accessing treated water?
+How much time they spend in collecting water?
+Do they collect adequate water for drinking and cooking?
+Water Quality
+Are iron and fluoride levels within permissible standards?
+Is water quality consistent over time?
+Utilization &amp; Behavior Change
+Are households regularly using treated water for drinking and cooking?
+What factors influence adoption or non-use?
+Health Outcomes
+Have there been reported reductions in water-related illnesses?
+Have there been reduction in expenses due to water borne diseases?
+Functionality
+What proportion of IRPs and FRPs are fully functional?
+Are maintenance systems and financial mechanisms in place?
+Capacity of local committees for long-term management?
+Cost-effectiveness
+Is the intervention delivering value for money?
+4. Deliverables
+The consultant/firm will provide:
+Clean Dataset and Analysis Files
+Draft Endline Assessment Report
+Final Endline Assessment Report (incorporating feedback)
+Executive Summary (2 pages)
+Presentation of Findings (PowerPoint format)
+All reports shall be submitted in English.
+5. Duration and Timeline
+The assignment is expected to be completed between 7th March 2026 to 20th March 2026.
+Indicative timeline:
+7th to 9th March 2026, two surveyors conduct survey for 3 days in 7 villages of Barkote block of Debagarh District.
+10th and 11th March 2026, one surveyor conducts survey with 30 families in 2 villages of Komna block of Nuapada District.
+16th March 2026, submission of draft end line assessment report with data set analysis.
+20th March 2026, Submission of final report and PPT.
+6. Qualifications of the Consultant/Firm
+The consultant/firm should have:
+At least 3 years of experience in conducting program evaluations.
+Would have conducted at least 3 program evaluations.
+In case of firm; the firm should be in existence for more than 3 years and valid GST registration for more than 6 months.
+• 7. Proposal Submission Requirements
+Interested consultants/firms should submit:
+7.1 Technical Proposal
+Profile of consultant/Firm (to include incorporation and other relevant registration details to satisfy the statutory requirements)
+Work plan and timeline
+Team composition and CVs
+Past relevant experience
+7.2 Financial Proposal
+Detailed budget limited to Rs 1 lakh for the assignment.
+Payment schedule (to note that no advance will be paid and total payment after deduction of applicable taxes will be made before 31st March 2026)
+• 8. Evaluation Criteria
+Proposals will be evaluated based on:
+Individuals and firms with relevant experience and expertise will be considered. The individual/firm quoting the lowest price and willingness to complete the evaluation within prescribed timeframe will be selected.
+9. Reporting and Supervision
+The consultant/firm will report to State Program Director. Regular progress updates will be required.
+10. Ethical Considerations
+Informed consent must be obtained from all respondents.
+Confidentiality and data protection must be ensured.
+Compliance with national research ethics guidelines.
+Gender-sensitive and inclusive evaluation approach.
+Submission Timeline:
+Please email detail technical and financial proposal before midnight of 28th February 2026 to
+waiprocurementorissa@wateraid.org
+The proposal (Technical and Financial) should be sent in soft copy over email at by 28th Feb 2026 with subject line
+“Request for Proposal (RFP) for End line Assessment of Access to Iron-Contamination-Free and Fluoride-Contamination-Free Drinking Water”.
+• Incomplete applications and applications received after the deadline will not be considered for the selection process. The selection team will only contact applicant that has been selected.
+• Job Email ID:
+waiprocurementorissa(at)wateraid.org
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+28 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
+Location:
+Rajasthan
+Apply by:
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287361</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
           <t>Proposal Development Associate</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>Academy of Management Studies (AMS) | Uttar Pradesh
 International Development - Proposal Development Associate, Academy of Management Studies (AMS), Uttar Pradesh - DevNetJobsIndia.org
@@ -4246,7 +4520,7 @@
 Lo ... Read More</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>• Eligibility
 PG in any discipline
@@ -4453,54 +4727,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -4528,69 +4802,92 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F22" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H21" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285725</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>Project Concern International India (PCI India) | India
-International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>• Last   Date for Submission of bids
-02
-nd
-March 2026
-Proposals   to be submitted at
-procdelhi@pciglobal.in
-Receipt of Proposals
-Technical and Financial   proposals should be submitted as separate attachments
-and to be submitted
-in a single email
-attachments.
-NOTE
-:
-(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-procdelhi(at)pciglobal.in
-Download Attachment:
-RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>RFP - for Quarterly Internal Audits-State Office</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Foundation for Ecological Security (FES) | India
+International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jo ... Read More</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Registered CA firm in India with 5+ years NGO audit experience
+Having offices in Vicinity of FES Office locations.
+Familiarity with NGO specific audit norms
+Qualified team with sectoral knowledge
+No conflict of interest with FES
+At least three professional references from client.
+Proposal Must Include
+Audit methodology
+Team composition &amp; CVs
+Past NGO audit experience
+Detailed fee quotations, Project/state- wise (Listed above).
+Audit timelines
+Declaration of independence
+Contact
+Vishal Prajapati:
+vishal.prajapati@fes.org.in
+|
++91 7405396926
+Pankaj Garg:
+pankaj.garg@fes.org.in
+|
++91 9687606949
+Important Dates
+Submission Deadline: February 28th, 2025
+Selection Notification: Within 30 working days
+Mention
+“Proposal for Quarterly Internal Audits-State Office
+”
+in the subject Line.
+FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-02 Mar 2026
+28 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -4658,54 +4955,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -4733,60 +5030,64 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>02-03-2026</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr"/>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>Centre for Catalyzing Change (C3) | India
-International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Registe ... Read More</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>• b. Proposal Submission Guidelines
-The applicant should submit the Technical and Financial Proposal in two separate pdf documents
-Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
-X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
-All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
-procument@c3india.org
-on or before the proposal submission time
-The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Project Concern International India (PCI India) | India
+International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>• Last   Date for Submission of bids
+02
+nd
+March 2026
+Proposals   to be submitted at
+procdelhi@pciglobal.in
+Receipt of Proposals
+Technical and Financial   proposals should be submitted as separate attachments
+and to be submitted
+in a single email
+attachments.
+NOTE
+:
+(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+procdelhi(at)pciglobal.in
 Download Attachment:
-RFP for education initiatives_C3.pdf
+RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -4859,54 +5160,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -4934,45 +5235,1109 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>02-03-2026</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>RFP - for Website Maintenance and Hosting</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
+International Development - RFP - for Website Maintenance and Hosting, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search ... Read More</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>• 2. Scope of Work
+Website
+Hosting
+Host Mamta’s website,
+www.mamtahimc.in.
+Website hosting must be isolated from
+any
+other
+websites
+or
+applications
+not
+related
+to
+the
+website.
+Designated
+Mamta
+staff
+should
+have
+full
+access permissions
+to
+the
+hosting
+environment.
+The
+hosting
+environment
+must
+have
+monitoring
+and
+threat
+protection
+systems
+in place to monitor for unusual activity and activity patterns and prevent unauthorized access attempts.
+The
+website
+should
+only
+be
+accessible
+through
+HTTPS
+connection
+using
+an
+auto- renewing SSL (TLS) certificate. The certificate must be maintained by the
+Vendor.
+Website
+Maintenance
+Provide
+ongoing
+website
+maintenance,
+including:
+Regular
+updates
+of
+the
+server
+and
+the
+website
+software
+as
+verified
+updates
+and security patches become available.
+Upgrades
+must
+be
+deployed
+to
+Vendor’s
+test
+servers
+and
+tested
+prior
+to
+production
+release.
+Ongoing
+performance
+and
+security
+monitoring.
+Upon
+discovery
+of
+any
+performance
+and/or
+security
+issue,
+notifications must be sent to Client. Performance and security issues are treated as high priority/urgent, and Client is immediately notified by email.
+Routine maintenance of the server and application software, licensing, including third-party integrations such as Single Sign-On, ADP, Google Tag Manager and Analytics,
+and
+other
+third-party
+systems
+as
+applicable
+to
+ensure
+website’s
+optimal and secure performance.
+Daily
+backups.
+User
+Support
+Provide
+ongoing
+website
+user
+support,
+including
+but
+not
+limited
+to:
+Requests
+to
+modify
+or
+update
+content,
+imagery
+and
+templates.
+Add or modify pages, banners, photographs, graphics
+Password
+reset
+assistance.
+Submission of Proposals
+The deadline for submission of proposals is
+2 March, 2026
+. Submissions
+must
+be forwarded in electronic
+format
+only (either
+PDF or
+Microsoft Word and Excel) to
+rfp@mamtahimc.in.
+Offerors must not submit zipped files or drive links. The technical proposal and cost proposal must be sent as separate attachments. Please mention RFP Name in the e-mail subject line. Offerors are responsible for
+ensuring that
+their
+offers are received in
+accordance with
+the
+instructions stated herein.
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+rfp(at)mamtahimc.in
+Download Attachment:
+Request for Proposal for Website_19022026.doc
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+02 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
+Location:
+Rajasthan
+Apply by:
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>02-03-2026</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287390</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Jhpiego | India
+International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login ... Read More</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>• Section 4 - Scope of Work
+Section 5 –
+Vendor Information Form– Standard   Template
+Section 6 - Standard   Template of Technical Service Contract
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+jhpin.procurement(at)jhpiego.org
+Download Attachment:
+RFP - Hiring agency for the implementation of biosecurity.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+02 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
+Location:
+Rajasthan
+Apply by:
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>02-03-2026</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Centre for Catalyzing Change (C3) | India
+International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Registe ... Read More</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>• b. Proposal Submission Guidelines
+The applicant should submit the Technical and Financial Proposal in two separate pdf documents
+Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
+X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
+All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
+procument@c3india.org
+on or before the proposal submission time
+The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+RFP for education initiatives_C3.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+02 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
+Location:
+Rajasthan
+Apply by:
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>02-03-2026</t>
         </is>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr"/>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaire...</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Parmarth Samaj Sevi Sansthan | Jhansi, Uttar Pradesh
+International Development - RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool, Parmarth Samaj Sevi Sansthan, Uttar Pradesh - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Mem ... Read More</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>• Introduction and context:
+Parmarth Samaj Sevi Sansthan
+is a grassroots organization dedicated to water crisis mitigation in the water-stressed Bundelkhand region of UP &amp; MP since 1996 intending to bring qualitative improvement and changes in the lives of the vulnerable people. Parmarth’s strength is its strong community connection and its commitment to the betterment of downtrodden society. Parmarth works with various stakeholders; institutions, corporate entities, the government, local communities, and individuals to provide timely interventions in water conservation, environment protection, village development, sustainable agriculture, river rejuvenation, sanitation &amp; and waste management, women empowerment, education, and skill development.
+About the project, including project duration
+The project
+Women 4 Water
+Welthungerhilfe
+(WHH) and BMZ
+(Germany). Along with India, it is being implemented by  Parmarth in UP.
+Objective-
+Women's participation and influence in water governance and management will be strengthened, improving access to clean water and more equitable distribution of water resources for rural populations in India.
+Outcome-
+In selected districts of Uttar Pradesh, Bihar and Jharkhand of Selected Blocks, gender equality is being integrated and institutionalized into local self-governance institutions and public water management programs.
+Project area details-
+We are working within  222-gram panchayats across Three state Uttar Pradesh, Bihar, Jharkahnd. The majority of the population in these areas belongs to underprivileged communities, with agriculture being their primary source of livelihood. Our efforts are focused on improving the women's socio-economic conditions of these communities by addressing their unique challenges and needs.
+1-     Background of the Assignment-
+We are implementing development programs focused on community empowerment, water security, gender equality, and governance strengthening. To strengthen Monitoring, Evaluation, Accountability, and Learning (MEAL) systems, the organization seeks to develop standardized digital questionnaires and processes aligned with the approved Monitoring Framework (2023–2027) and integrate them into the CommCare platform.
+2-     Objectives of the assignment
+The primary objective of this assignment is:
+To develop a comprehensive set of structured questionnaires aligned with the approved MEAL indicators.
+To design a standardized Mentoring process framework, including case management for digital data collection using the CommCare tool.
+To ensure indicator-wise data flow, reporting structure, and dashboard readiness.
+Handholding support for data collection.
+• 3. Scope of Work
+The selected Resource Person/Agency will be responsible for the following:
+3.1 Review and Alignment
+Review the existing Monitoring Framework (2023–2027).
+Map all output, outcome, and impact indicators.
+Identify data collection frequency, sources, and verification mechanisms.
+3.2 Questionnaire Development
+Analysis of baseline questionnaire and monitoring format to develop questionnaire
+Ensure questionnaires are: Indicator-linked , Logically sequenced, Gender-sensitive and inclusive ,Compatible with digital platforms (CommCare-ready structure)
+3.3 CommCare Tool Structuring
+Convert questionnaires into CommCare-compatible formats.
+A section on Case Management and follow-up:
+a case-based tracking system in CommCare for:
+EWRs / Jal Sahelis / VWSCs / Community leaders (as relevant); Household-level follow-up (if required)
+*Case lifecycle stages (opened → verified → action → resolved → closed)
+*Registration and follow-up forms. - Linkage between cases and events/trainings/meetings
+Define:
+Skip logic, Validation rules, Data constraints, Mandatory fields, Ensure user-friendly data entry structure.
+3.4 MEAL Process Development
+Develop a clear data flow mechanism from field to dashboard.
+Define roles and responsibilities for:
+Data collection, Data verification, Data validation, Data reporting
+Develop a guideline for data collection and quality assurance.
+3.5 Capacity Building
+Conduct orientation/training (online/offline)
+for staff on
+:
+Use of tools, Indicator understanding, Form navigation.
+4.  METHODOLOGY
+Review of MEAL framework, logframe, and indicators for tool finalisation.
+5. Deliverables
+The Resource Person/Agency is expected to submit:
+Inception Report (with work plan and methodology)
+Review the existing document and standardise the questionnaire
+Develop a data flow matrix for Commcare.
+Develop guidelines for field data collection.
+Filed testing through CommCare and synchronise functionality.
+Assignment completion report.
+6. Duration of Assignment
+The assignment is expected to be completed within 30–45 days from the date of contract signing.
+A detailed timeline with milestones should be proposed by the applicant.
+• 7. Eligibility Criteria
+Interested applicants must:
+Have proven experience in MEAL system development.
+Have experience working with digital data collection tools (preferably CommCare).
+Demonstrate experience in development sector programs (Water, Governance, Gender, Livelihood, etc.).
+Have at least 5+ years of relevant experience.
+Provide samples of similar assignments completed.
+Proposal Submission Process
+Offers will be accepted by individual consultants, commercial companies, NGOs and academics until the fill-in date.
+Applicants have to provide
+a technical and financial offer
+The
+technical part
+of the offer should include reference to the perceived feasibility of the ToR. It should also include a brief description of the overall design and methodology of the evaluation and a workplan/adaptations to the timeline at hand (maximum 4 pages).
+The Consultant’s choice of country/countries for tendering must be clearly mentioned in the proposal
+.
+The
+financial part
+includes a proposed budget for the complete evaluation. It should state the fees per working day (plus the respective
+GST
+, if applicable), the number of working days proposed and other costs. Proof of professional registration and taxation is also required (e.g. by providing the evaluator(s) tax number).
+• Selection Criteria
+Financial proposal (40%)
+Technical proposal (60%) incl. (a) survey design, (b) experience and track record of the consultant engaging in similar assignments, and (c) knowledge of the region.
+Timeline
+Assignment Fees &amp; Reimbursement of Costs:
+20% upon submission of Inception Report
+30% upon submission of Draft Tools &amp; CommCare Structure
+50% upon final approval and submission of all deliverables
+Terms of Payments:
+As per the payment schedule, payment will be transferred through NEFT and cheque. TDS will be conducted as per income tax norms.
+Confidentiality
+- The parties will treat all discussions and documents relating to this TOR as confidential. Any document, tools, templates, pictures, video clips, etc. developed through this assignment is the property of Parmarth and will have sole ownership of it.
+Note- For more information , please see the annexure.
+Contact Information
+:
+helpdesk.parmarth@parmarthsanstha.in
+copy to
+pssshrjhansi@gmail.com
+Deadline for Submission
+: 03 March, 2026
+• Job Email ID:
+helpdesk.parmarth(at)parmarthsanstha.in
+Download Attachment:
+Annexure.docx
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+03 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
+Location:
+Rajasthan
+Apply by:
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2026</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="I23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287368</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr"/>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Servic...</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>Small Industries Development Bank of India (SIDBI) | India
 International Development - EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Services under Programmes for Development and Impact, Small Industries Development Bank of India (SIDBI), India - DevNetJobsIndia.org
 Jobseekers ... Read More</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>• Please      note that all the information required as per the documents required for      responding to EOI needs to be provided. Incomplete information in these      areas may lead to non-selection.
 Modification      And/ Or Withdrawal of documents:
@@ -5107,54 +6472,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -5182,38 +6547,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>06-03-2026</t>
         </is>
       </c>
-      <c r="H24" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H29" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287084</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr"/>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>PATH | Assam
 International Development - RFP - Onboarding Agency for Revamping Assam LMIS Dashboard, PATH, Assam - DevNetJobsIndia.org
@@ -5235,7 +6600,7 @@
 Jobseekers Registe ... Read More</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>• 3.2. Commercial contracting terms and conditions will be negotiated with the successful supplier at the end of the selection process.
 3.3. By submitting a proposal, the supplier confirms their agreement to abide by the RFP terms and PATH policies, including the
@@ -5390,54 +6755,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -5465,38 +6830,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F30" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G30" s="1" t="inlineStr">
         <is>
           <t>06-03-2026</t>
         </is>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H30" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287335</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr"/>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr"/>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Associate (Programme Management)</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>Indian Institute For Human Settlements (Iihs) | Karnataka
 International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
@@ -5512,7 +6877,7 @@
 Events ... Read More</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
 • To apply
@@ -5601,54 +6966,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -5676,65 +7041,121 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>07-03-2026</t>
         </is>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H31" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285747</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>EAII Advisors Pvt Ltd | Andhra Pradesh
-International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+      <c r="B32" s="1" t="inlineStr"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Deutsche Welthungerhilfe | India
+International Development - RFP - Final Evaluation of the Bhoomi Ka Programme, Deutsche Welthungerhilfe, India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Regis ... Read More</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>• Proposal Requirements
-1. Company Background and Details
-A. Company Profile
-Overview of the firm or firms submitting the bid, including a brief history, information about organizational structure, relevant company financials, location of offices, number of employees, relevant certifications, or any other information that could be pertinent.
-Supplier Response:
-Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
-For detailed information, please check the complete version of the RFP attached below.
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login
+|
+Register
+Jobs ... Read More</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>• INTRODUCTION AND CONTEXT
+Country:
+India
+Programme Title:
+Bhoomi Ka   –Co-creating Clean, Green and Fair Food Systems
+Programme No. :
+IND 1398
+Programme Holder /   Contracting Authority:
+Welthungerhilfe (WHH)
+Donor(s):
+BMZ
+Programme Period:
+02/11/2022-   30/06/2026
+Geographical   Coverage:
+7 states across India   (across programme supported FPOs, ecopreneurs, and farmer collectives)
+Welthungerhilfe (WHH) is a German, non-profit organisation working in the field of international development cooperation and emergency aid. The organisation is dedicated to achieving food security and addressing the root causes of poverty, and for over 55 years has supported voluntary and civil society partner organisations in rural India. (
+www.welthungerhilfeindia.org
+)
+1.1 About the Project
+Welthungerhilfe and its partners initiated Bhoomi Ka as a multi-stakeholder platform to strengthen agroecological and organic food value chains in India. The programme operates across selected districts in Jharkhand, Odisha, West Bengal, Madhya Pradesh, Rajasthan, Punjab and Uttarakhand, with market linkages developed in nearby urban centres such as Ranchi, Jamshedpur, Bhubaneswar, Kolkata, Indore, Bhopal, Udaipur, Amritsar and Ranikhet.
+The programme works with 100 Farmer Producer Organisations (FPOs) representing around 10,000 smallholder households, and 100 ecopreneurs/SMEs engaged in processing, retail and marketing of organic products. Of these, 20 FPOs and 20 ecopreneurs receive intensive support to develop ‘lighthouse’ agroecological value chains. The Bhoomi Ka platform further connects producers, enterprises, consumers, service providers and policy actors to strengthen an integrated food systems approach.
+1.2 Direct and Indirect Beneficiaries
+DIRECT BENEFICIARIES
+1. 100 Farmer Producer Organisations (FPOs)
+Representing approximately 10,000 smallholder households (~45,000 people)
+Majority from disadvantaged tribal populations
+Cultivating less than 2 hectares on average
+Linked to 2–3 agroecological value chains
+Preferably marketing PGS-certified products
+2. 100 Ecopreneurs / SMEs / Food Start-ups
+Organic processors, retailers, restaurants, organic markets
+Employing 1–3 people on average
+Value-driven enterprises promoting Clean, Green and Fair principles
+3. 20 FPOs and 20 Ecopreneurs (Intensive Support / Lighthouse Value Chains)
+Receiving mentoring, coaching, networking and business development support
+4. 5,000 Bhoomi Ka Platform Users
+Including producers, enterprises, consumer groups, service providers, experts and CSOs
+Total direct reach: Over 6,200 primary actors, including institutional stakeholders.
+INDIRECT BENEFICIARIES
+Approximately 10,000 smallholder households benefitting from strengthened value chains
+Around 10,000 urban consumers accessing organic products
+Up to 1 million consumers reached through campaigns, food festivals, dialogues and awareness initiatives
+Government departments and policy actors benefitting from improved models and policy advocacy
+• Submission Details
+Proposals should be submitted electronically in PDF format to
+shruti.pandey@welthungerhilfe.de
+with CC to
+renita.rajora@welthungerhilfe.de
+Last date for submission
+8 March 2026
+Queries, if any, may be sent to
+shruti.pandey@welthungerhilfe.de
+WHH reserves the right to accept or reject any proposal and to cancel the RFP process at any stage without assigning any reason
+For detailed information, please check the complete version of the RFP attached below
 Download Attachment:
-Standalone ISA RFP Technical Evaluation Response Template (1).docx
-Download Attachment:
-Telugu_Standalone ISA RFP Technical Evaluation Response Template.docx
+TOR_Final Evaluation of Bhoomi Ka  Final SP.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-09 Mar 2026
+08 Mar 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -5802,54 +7223,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -5877,88 +7298,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>09-03-2026</t>
-        </is>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>08-03-2026</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287384</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr"/>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
-International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs ... Read More</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>09-03-2026</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr"/>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -5969,7 +7340,7 @@
 Ho ... Read More</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>• Proposal Requirements
 1. Company Background and Details
@@ -6054,54 +7425,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -6129,44 +7500,493 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F33" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G33" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H29" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H33" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr"/>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr"/>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring of an International Audit Firm</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
+International Development - RFP - Hiring of an International Audit Firm, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tender ... Read More</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>• Job Email ID:
+tender.projects(at)cdri.world
+Download Attachment:
+RFP-Hiring International Audit Firm-20 Feb'26.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+09 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
+Location:
+Rajasthan
+Apply by:
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>09-03-2026</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287382</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr"/>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
+International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs ... Read More</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>09-03-2026</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr"/>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>EAII Advisors Pvt Ltd | Andhra Pradesh
+International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Regis ... Read More</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>• Proposal Requirements
+1. Company Background and Details
+A. Company Profile
+Overview of the firm or firms submitting the bid, including a brief history, information about organizational structure, relevant company financials, location of offices, number of employees, relevant certifications, or any other information that could be pertinent.
+Supplier Response:
+Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+Standalone ISA RFP Technical Evaluation Response Template (1).docx
+Download Attachment:
+Telugu_Standalone ISA RFP Technical Evaluation Response Template.docx
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+09 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
+Location:
+Rajasthan
+Apply by:
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>09-03-2026</t>
+        </is>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr"/>
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>RFP - Study On SC-DMPA In Rajasthan- Clients And Providers Perspectives On...</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>Centre For Community Economics And Development Consultants Society- CECOEDECON | Jaipur, Rajasthan
 International Development - RFP - Study On SC-DMPA In Rajasthan- Clients And Providers Perspectives On SC-DMPA In Rajasthan, Centre For Community Economics And Development Consultants Society- CECOEDE ... Read More</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>• Despite India’s achievement of replacement-level fertility, unmet need for contraception—particularly for spacing methods—remains substantial, with modern contraceptive use at 56.4% (2019–21), highlighting persistent gaps in access and choice, especially among vulnerable populations. Expanding the contraceptive method mix through innovative, user-centred approaches is therefore essential to meeting national commitments under FP2030 and the Sustainable Development Goals. In this context, the Government of India’s introduction of subcutaneous DMPA (DMPA-SC) as a self-care option under the National Family Planning Programme in 2023 represents a strategic step toward enhancing women’s autonomy, privacy, and convenience in contraceptive use. Global and national evidence indicates strong feasibility and acceptability of self-administered DMPA-SC among both users and providers; however, successful implementation requires an in-depth understanding of user experiences and health system readiness. This study, to be conducted in Jaipur-1, Jaisalmer and Sawai Madhopur districts of Rajasthan, aims to examine the perspectives &amp; experience of current SC-DMPA users and explore healthcare providers’ views on enabling and generating actionable evidence to inform effective scale-up of SC-DMPA within India’s public health system.
 CECOEDECON, with support from UNFPA, is implementing the roll-out of subcutaneous DMPA (SC-DMPA) in selected pilot districts of Rajasthan in the public health facilities, in collaboration with the Department of Health &amp; Family Welfare, Government of Rajasthan.
@@ -6301,54 +8121,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -6376,38 +8196,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F37" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G37" s="1" t="inlineStr">
         <is>
           <t>11-03-2026</t>
         </is>
       </c>
-      <c r="H30" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H37" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287322</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr"/>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr"/>
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>Specialist – Financial Management and Compliance</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Financial Management and Compliance, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -6421,7 +8241,7 @@
 RFPs/T ... Read More</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>• will play a vital role in a program which seeks to strengthen the internal capacities of non-profit organizations in India across three building blocks of institutional functioning: governance, financial management, and compliance. These areas are deeply interconnected and together determine how effectively an organization operates, delivers programs and meets the expectations of its stakeholders. This position demands expertise in specific areas related to governance, compliance, and financial management, contributing essential guidance and support to strengthen the capabilities of participating organizations.
 Job Responsibilities:
@@ -6534,54 +8354,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -6609,38 +8429,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F38" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G38" s="1" t="inlineStr">
         <is>
           <t>13-03-2026</t>
         </is>
       </c>
-      <c r="H31" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H38" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="I38" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287015</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr"/>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr"/>
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>RFP - Big IC+ISA RFP - Selection of a Service Provider for Supply, Instal...</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP - Big IC+ISA RFP -  Selection of a Service Provider for Supply, Installation and Operation &amp; Maintenance of 150 ILC Devices and Capacity Building., EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -6649,7 +8469,7 @@
 | ... Read More</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>• 2. Purpose of the RFP:
 2.1  EAII is soliciting bids for:
@@ -6758,54 +8578,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -6833,38 +8653,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F39" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G39" s="1" t="inlineStr">
         <is>
           <t>16-03-2026</t>
         </is>
       </c>
-      <c r="H32" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H39" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="I39" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287172</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr"/>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr"/>
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>Specialist – Communication</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Communication, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -6880,7 +8700,7 @@
 Eve ... Read More</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist – Communication at FMSF.
 • How to Apply:
@@ -6964,54 +8784,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -7039,38 +8859,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F40" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G40" s="1" t="inlineStr">
         <is>
           <t>19-03-2026</t>
         </is>
       </c>
-      <c r="H33" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H40" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I40" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287207</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr"/>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr"/>
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>Specialist - Grants</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist - Grants, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -7087,7 +8907,7 @@
 Job ... Read More</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist - Grants at FMSF.
 You’re Resume to be accompanied with:
@@ -7171,54 +8991,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -7246,38 +9066,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F41" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G41" s="1" t="inlineStr">
         <is>
           <t>21-03-2026</t>
         </is>
       </c>
-      <c r="H34" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H41" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287318</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr"/>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr"/>
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical An...</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>Ashray Foundation | Korba, Chattisgarh (Delivery Location), Gujarat
 International Development - EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support, Ashray Foundation, Gujarat - DevNetJobsIndia.org
@@ -7290,7 +9110,7 @@
 Broadc ... Read More</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>• Ashray Foundation invites eligible and experienced agencies to submit their Expression of Interest / for the following scope of work:
 Fabrication of Mobile Medical Units (MMUs) – 2 Units
@@ -7379,54 +9199,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Lead, Partnerships and Communications
-Ibtada
+Procurement Specialist
+Assam Health Infrastructure Development &amp; Managem...
+Location:
+Assam
+Apply by:
+20 Mar 2026
+Independence Program Manager – (Female candidate ...
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+Head of Care (Female Candidate Only – Residential)
+The Baale Mane Trust
+Location:
+India
+Apply by:
+22 Mar 2026
+RFP - Final Evaluation of the Bhoomi Ka Programme
+Deutsche Welthungerhilfe
+Location:
+India
+Apply by:
+08 Mar 2026
+RFP - Hiring of an International Audit Firm
+Coalition for Disaster Resilient Infrastructure (...
+Location:
+India
+Apply by:
+09 Mar 2026
+CEO, India Labourline
+India Labourline
+Location:
+Karnataka
+Apply by:
+08 Mar 2026
+Associate Manager / Manager - Monitoring &amp; Evalua...
+Americares India Foundation
 Location:
 Rajasthan
 Apply by:
-21 Mar 2026
-RFP - Inviting Consultant/agencies for Identifica...
-Passing Gifts Private Limited (PGPL )
-Location:
-India
-Apply by:
-02 Mar 2026
-Individual Consultant– Child Protection Consultan...
-UNICEF
-Location:
-West Bengal
-Apply by:
-28 Feb 2026
-Program Head – Antar Bharati Balgram (Residential...
-India Sponsorship Committee (ISC)
-Location:
-Maharashtra
-Apply by:
-21 Mar 2026
-Manager - School Fundraising
-Smile Foundation
-Location:
-Karnataka
-Apply by:
-21 Mar 2026
-RFP - Hiring an Agency to Conduct Evidence Synthe...
-Project Concern International India (PCI India)
-Location:
-India
-Apply by:
-02 Mar 2026
-Senior Lead, Reading Glasses for Improved Livelih...
-VisionSpring
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Senior Lead, Alternate Channel
-VisionSpring
-Location:
-Delhi, Uttar Pradesh
-Apply by:
-21 Mar 2026
+22 Mar 2026
+RFQ: Construction of New gated check dams, De-sil...
+WaterAid India
+Location:
+Telangana
+Apply by:
+25 Feb 2026
 Jobseekers
 Register
 Login
@@ -7454,211 +9274,22 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F42" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G42" s="1" t="inlineStr">
         <is>
           <t>24-03-2026</t>
         </is>
       </c>
-      <c r="H35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H42" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287319</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr"/>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G36" s="1" t="inlineStr"/>
-      <c r="H36" s="1" t="inlineStr"/>
-      <c r="I36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="inlineStr"/>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr"/>
-      <c r="H37" s="1" t="inlineStr"/>
-      <c r="I37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="inlineStr"/>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G38" s="1" t="inlineStr"/>
-      <c r="H38" s="1" t="inlineStr"/>
-      <c r="I38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr"/>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="inlineStr"/>
-      <c r="H39" s="1" t="inlineStr"/>
-      <c r="I39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="inlineStr"/>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="inlineStr"/>
-      <c r="H40" s="1" t="inlineStr"/>
-      <c r="I40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr"/>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="inlineStr"/>
-      <c r="H41" s="1" t="inlineStr"/>
-      <c r="I41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr"/>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr"/>
-      <c r="H42" s="1" t="inlineStr"/>
-      <c r="I42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
         </is>
       </c>
     </row>
@@ -7671,7 +9302,7 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
+          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -7685,7 +9316,7 @@
       <c r="H43" s="1" t="inlineStr"/>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
         </is>
       </c>
     </row>
@@ -7698,7 +9329,7 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
+          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -7712,7 +9343,7 @@
       <c r="H44" s="1" t="inlineStr"/>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -7725,21 +9356,21 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
+          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr"/>
       <c r="H45" s="1" t="inlineStr"/>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
         </is>
       </c>
     </row>
@@ -7752,7 +9383,7 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
+          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -7766,7 +9397,7 @@
       <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -7779,7 +9410,7 @@
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
+          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -7793,7 +9424,7 @@
       <c r="H47" s="1" t="inlineStr"/>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
         </is>
       </c>
     </row>
@@ -7806,21 +9437,21 @@
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
+          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr"/>
       <c r="H48" s="1" t="inlineStr"/>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
         </is>
       </c>
     </row>
@@ -7833,21 +9464,21 @@
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
+          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr"/>
       <c r="H49" s="1" t="inlineStr"/>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
         </is>
       </c>
     </row>
@@ -7860,21 +9491,21 @@
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
+          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr"/>
       <c r="H50" s="1" t="inlineStr"/>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
         </is>
       </c>
     </row>
@@ -7887,7 +9518,7 @@
       <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -7901,7 +9532,7 @@
       <c r="H51" s="1" t="inlineStr"/>
       <c r="I51" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
         </is>
       </c>
     </row>
@@ -7914,7 +9545,7 @@
       <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -7928,7 +9559,7 @@
       <c r="H52" s="1" t="inlineStr"/>
       <c r="I52" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
         </is>
       </c>
     </row>
@@ -7941,21 +9572,21 @@
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
+          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr"/>
       <c r="H53" s="1" t="inlineStr"/>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
         </is>
       </c>
     </row>
@@ -7968,108 +9599,88 @@
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
+          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr"/>
       <c r="H54" s="1" t="inlineStr"/>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
+          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr">
-        <is>
-          <t>10th Feb, 2026</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr"/>
       <c r="H55" s="1" t="inlineStr"/>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G56" s="1" t="inlineStr">
-        <is>
-          <t>10th Feb, 2026</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr"/>
       <c r="H56" s="1" t="inlineStr"/>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -8079,155 +9690,119 @@
           <t>Learning</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
-        <is>
-          <t>15th Dec, 2025</t>
-        </is>
-      </c>
+      <c r="G57" s="1" t="inlineStr"/>
       <c r="H57" s="1" t="inlineStr"/>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr"/>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
+          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
-        </is>
-      </c>
-      <c r="G58" s="1" t="inlineStr">
-        <is>
-          <t>10th Nov, 2025</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr"/>
       <c r="H58" s="1" t="inlineStr"/>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
+          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G59" s="1" t="inlineStr">
-        <is>
-          <t>31st Oct, 2025</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr"/>
       <c r="H59" s="1" t="inlineStr"/>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
+          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
-        </is>
-      </c>
-      <c r="G60" s="1" t="inlineStr">
-        <is>
-          <t>21st May, 2025</t>
-        </is>
-      </c>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr"/>
       <c r="H60" s="1" t="inlineStr"/>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
+          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
+          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G61" s="1" t="inlineStr">
-        <is>
-          <t>15th May, 2025</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr"/>
       <c r="H61" s="1" t="inlineStr"/>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
+          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
         </is>
       </c>
     </row>
@@ -8244,7 +9819,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
@@ -8256,13 +9831,13 @@
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>10th Feb, 2026</t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr"/>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
         </is>
       </c>
     </row>
@@ -8279,25 +9854,25 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>10th Feb, 2026</t>
         </is>
       </c>
       <c r="H63" s="1" t="inlineStr"/>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
         </is>
       </c>
     </row>
@@ -8314,25 +9889,783 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>15th Dec, 2025</t>
         </is>
       </c>
       <c r="H64" s="1" t="inlineStr"/>
       <c r="I64" s="1" t="inlineStr">
         <is>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr"/>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>10th Nov, 2025</t>
+        </is>
+      </c>
+      <c r="H65" s="1" t="inlineStr"/>
+      <c r="I65" s="1" t="inlineStr">
+        <is>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>31st Oct, 2025</t>
+        </is>
+      </c>
+      <c r="H66" s="1" t="inlineStr"/>
+      <c r="I66" s="1" t="inlineStr">
+        <is>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr"/>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>21st May, 2025</t>
+        </is>
+      </c>
+      <c r="H67" s="1" t="inlineStr"/>
+      <c r="I67" s="1" t="inlineStr">
+        <is>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr"/>
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
+      <c r="H68" s="1" t="inlineStr"/>
+      <c r="I68" s="1" t="inlineStr">
+        <is>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
+      <c r="H69" s="1" t="inlineStr"/>
+      <c r="I69" s="1" t="inlineStr">
+        <is>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
+      <c r="H70" s="1" t="inlineStr"/>
+      <c r="I70" s="1" t="inlineStr">
+        <is>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
+      <c r="H71" s="1" t="inlineStr"/>
+      <c r="I71" s="1" t="inlineStr">
+        <is>
           <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="1" t="inlineStr"/>
+      <c r="G72" s="1" t="inlineStr"/>
+      <c r="H72" s="1" t="inlineStr"/>
+      <c r="I72" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr"/>
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="1" t="inlineStr"/>
+      <c r="G73" s="1" t="inlineStr"/>
+      <c r="H73" s="1" t="inlineStr"/>
+      <c r="I73" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>RfP_IGMP_Response to Pre-Bid Queries_200226.pdf</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr"/>
+      <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="1" t="inlineStr"/>
+      <c r="G74" s="1" t="inlineStr"/>
+      <c r="H74" s="1" t="inlineStr"/>
+      <c r="I74" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/RfP_IGMP_Response%20to%20Pre-Bid%20Queries_200226.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>Corrigendum_1_RfP_IGMP.pdf</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr"/>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="1" t="inlineStr"/>
+      <c r="G75" s="1" t="inlineStr"/>
+      <c r="H75" s="1" t="inlineStr"/>
+      <c r="I75" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/Corrigendum_1_RfP_IGMP.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="1" t="inlineStr"/>
+      <c r="G76" s="1" t="inlineStr"/>
+      <c r="H76" s="1" t="inlineStr"/>
+      <c r="I76" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr"/>
+      <c r="E77" s="2" t="inlineStr"/>
+      <c r="F77" s="1" t="inlineStr"/>
+      <c r="G77" s="1" t="inlineStr"/>
+      <c r="H77" s="1" t="inlineStr"/>
+      <c r="I77" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>RfP_SRTW.pdf</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="1" t="inlineStr"/>
+      <c r="G78" s="1" t="inlineStr"/>
+      <c r="H78" s="1" t="inlineStr"/>
+      <c r="I78" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr"/>
+      <c r="E79" s="2" t="inlineStr"/>
+      <c r="F79" s="1" t="inlineStr"/>
+      <c r="G79" s="1" t="inlineStr"/>
+      <c r="H79" s="1" t="inlineStr"/>
+      <c r="I79" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr"/>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="1" t="inlineStr"/>
+      <c r="G80" s="1" t="inlineStr"/>
+      <c r="H80" s="1" t="inlineStr"/>
+      <c r="I80" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr"/>
+      <c r="E81" s="2" t="inlineStr"/>
+      <c r="F81" s="1" t="inlineStr"/>
+      <c r="G81" s="1" t="inlineStr"/>
+      <c r="H81" s="1" t="inlineStr"/>
+      <c r="I81" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>GeM-Bidding-8666471.pdf</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr"/>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="1" t="inlineStr"/>
+      <c r="G82" s="1" t="inlineStr"/>
+      <c r="H82" s="1" t="inlineStr"/>
+      <c r="I82" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>corgaudt1.pdf</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr"/>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="1" t="inlineStr"/>
+      <c r="G83" s="1" t="inlineStr"/>
+      <c r="H83" s="1" t="inlineStr"/>
+      <c r="I83" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>Corrigendum6959493.pdf</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr"/>
+      <c r="E84" s="2" t="inlineStr"/>
+      <c r="F84" s="1" t="inlineStr"/>
+      <c r="G84" s="1" t="inlineStr"/>
+      <c r="H84" s="1" t="inlineStr"/>
+      <c r="I84" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>ADDENDUM6959493.pdf</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr"/>
+      <c r="E85" s="2" t="inlineStr"/>
+      <c r="F85" s="1" t="inlineStr"/>
+      <c r="G85" s="1" t="inlineStr"/>
+      <c r="H85" s="1" t="inlineStr"/>
+      <c r="I85" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr"/>
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="1" t="inlineStr"/>
+      <c r="G86" s="1" t="inlineStr"/>
+      <c r="H86" s="1" t="inlineStr"/>
+      <c r="I86" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr"/>
+      <c r="E87" s="2" t="inlineStr"/>
+      <c r="F87" s="1" t="inlineStr"/>
+      <c r="G87" s="1" t="inlineStr"/>
+      <c r="H87" s="1" t="inlineStr"/>
+      <c r="I87" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>GeM-Bidding-8478801.pdf</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr"/>
+      <c r="E88" s="2" t="inlineStr"/>
+      <c r="F88" s="1" t="inlineStr"/>
+      <c r="G88" s="1" t="inlineStr"/>
+      <c r="H88" s="1" t="inlineStr"/>
+      <c r="I88" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>GeM-Bidding-8476974.pdf</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr"/>
+      <c r="E89" s="2" t="inlineStr"/>
+      <c r="F89" s="1" t="inlineStr"/>
+      <c r="G89" s="1" t="inlineStr"/>
+      <c r="H89" s="1" t="inlineStr"/>
+      <c r="I89" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>GeM-Bidding-8497150.pdf</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr"/>
+      <c r="E90" s="2" t="inlineStr"/>
+      <c r="F90" s="1" t="inlineStr"/>
+      <c r="G90" s="1" t="inlineStr"/>
+      <c r="H90" s="1" t="inlineStr"/>
+      <c r="I90" s="1" t="inlineStr">
+        <is>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8497150.pdf</t>
         </is>
       </c>
     </row>

--- a/all_grants.xlsx
+++ b/all_grants.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,92 +494,43 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RFP - Gender Integration within in “Climate Resilient Agriculture based Li...</t>
+          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Vijayavahini Charitable Foundation - Supported By Tata Trusts | Asifabad District, Telangana
-International Development - RFP - Gender Integration within in “Climate Resilient Agriculture based Livelihoods for Asifabad District” Project, Vijayavahini Charitable Foundation - Supported By Tata Trusts, ... Read More</t>
+          <t>Americares India Foundation | Jaipur, Rajasthan
+International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Bro ... Read More</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>• Scope of Work:
-The key tasks for this assignment will be undertaken in close collaboration with VCF
-project team
-Undertaking situation analysis / baseline study (self or with 3rd party support)
-Preparing action plan (inception report) for next three years support to handhold VCF in Asifabad on building Gender Component
-Providing training/capacity building of local team (
-team strengthen of 40 including
-Community Resource persons) in handling gender issues on ground; this training will repeat in every quarter/six monthly
-Monitoring/onsite support visit by Resource person/agency to project location: bimonthly
-Hosting team for exploratory visits to existing programs across state/particular district
-Deputing resource persons for supporting implementation team in project location
-Organising workshops related to strengthening gender component for program team as well as for beneficiaries
-Strengthening community leadership among workers, with an emphasis on building collective voice, peer leadership, and local champions who can sustain interventions beyond the project period.
-Conducting midline/endline study to find out the changes in gender component within the project
-Duration of services:
-The finalized agency/institution/consultant is expected to deliver services for a period of
-36
-months from
-March
-202
-6
-to
-February
-202
-9
-• Eligibility and Qualification Criteria
-Registered NGO or Section 8 company with proven expertise in Women Empowerment, Livelihoods and FPO development.
-Must possess a valid 12A, 80G certificates
-Minimum 3 years of relevant experience or demonstrated work on above subjects
-Proven experience in working with rural or tribal communities, preferably in Telangana
-Minimum annual turnover of INR 20 lakhs in any of the past three financial years.
-Qualified team with expertise in FPO governance, Gender empowerment, Livelihoods work, strengthening communities.
-Proposal Submission
-Interested agencies are requested to submit a detail proposal including Financials for 36 months to
-contact@vijayavahini.org
-with the subject line “RFP – Women Empowerment”. The Technical Proposal should include organization profile, relevant experience, methodology, proposed team, and work plan. The Financial Proposal should include fee structure, expenses, and applicable taxes.
-• Evaluation Criteria
-• The selection process will follow Quality and Cost-Based Selection (QCBS) with 70% weightage for technical and 30% for financial proposals.
-Evaluation parameters:
-• • Organizational profile and relevant experience – 20 points
-• Approach and methodology – 30 points
-• Past assignments – 20 points
-• Team qualifications and experience – 20 points
-• Financial proposal – 10 points
-Payment Terms
-50% upon signing of contract and submission of inception report.
-25% in the 2
-nd
-year start (13
-th
-month) of the work and submission of the first year report
-20% in the 3
-rd
-year start (25
-th
-month) of the work and submission of the second year report
-5% closer of the project and submission of final report (36
-th
-month)
-• General Terms and Conditions
-VCF reserves the right to accept or reject any proposal without assigning reasons. The consultant shall maintain confidentiality and adhere to VCF’s ethical standards and data protection policy. All outputs, training materials, and documents produced under this consultancy shall remain the property of VCF.
-Issued by:
-Vijayavahini Charitable Foundation (VCF)
-CNR Complex, 3rd Floor, Sri Ramachandra Nagar, Vijayawada, Andhra Pradesh – 520008
-Email:
-contact@vijayavahini.org
-Website:
-www.vijayavahini.org
-• Job Email ID:
-contact(at)vijayavahini.org
+          <t>• PROPOSAL EVALUATION CRITERIA
+Proposals will be evaluated based on:
+Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
+Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
+Quality of Proposal (40%): Clarity, completeness, and alignment with scope
+References and Past Performance (10%): Feedback from prior engagements
+Please submit quotation in soft copy over email to Itisha Vasisht at
+ivasisht@americares.org
+and Priyanka Londhe at
+plondhe@americares.org
+with the subject line “Proposal for conducting NCD baseline in Jaipur”.
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+NCDISHAA baseline RFP (Jaipur).v2.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-20 Feb 2026
+22 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -647,54 +598,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -724,20 +675,20 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Climate, Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>20-02-2026</t>
+          <t>22-02-2026</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285744</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
         </is>
       </c>
     </row>
@@ -750,639 +701,10 @@
       <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>ToR - End-to-End Digital Marketing Agency for ChildFund India</t>
+          <t>RFP – Content replacement (Hindi to Assamese) in developed flipbooks</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>ChildFund India | India
-International Development - ToR - End-to-End Digital Marketing Agency for ChildFund India, ChildFund India, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login
-|
-Register
-Jobseekers ... Read More</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>• 5. Scope of Work / Assignment
-The scope includes, but is not limited to, the following components:
-5.1 Website &amp; Landing Page Optimisation
-Audit and optimise existing websites and donation journeys.
-Design and test new landing pages for:
-Monthly Giving Program (MGP)
-One-time donations.
-Improve UX/UI and conversion rates.
-Implement analytics, tagging, and donation tracking.
-Recommend and execute CRO initiatives.
-5.2 Search Engine Optimisation (SEO)
-On-Page SEO
-Keyword research and mapping.
-Technical audits and fixes.
-Metadata and site-speed improvements.
-Content optimisation.
-Off-Page SEO
-Authority-building and backlink strategies.
-Measurement
-Keyword ranking movement.
-Organic traffic growth.
-SEO-driven conversions.
-5.3 Paid Advertising &amp; Performance Marketing
-Campaign Setup
-Creation and configuration of advertising accounts.
-Search, Display, and Social campaigns.
-Audience and keyword research.
-Ad copy and banner creative development.
-Bid strategy and geo-targeting.
-Conversion-tracking integration.
-Landing-page selection.
-Ongoing Management
-Automation and optimisation.
-Adaptation to platform and market changes.
-Channel expansion recommendations.
-Launch of test campaigns.
-Optimisation
-A/B testing of creatives.
-Keyword refinement.
-Bid optimisation.
-Performance analysis.
-Remarketing
-Display and social retargeting.
-Audience segmentation.
-Re-engagement journeys for past visitors and donors.
-5.4 Social Media Marketing
-Content &amp; Creative
-Static posts, reels, carousels, GIFs, and campaign creatives.
-Mission-aligned storytelling.
-Management
-Posting calendars.
-Community moderation.
-Page optimisation.
-Insights &amp; Support
-Audience research.
-Competitor benchmarking.
-Trend analysis.
-Campaign backend support.
-Reporting
-Monthly dashboards.
-Engagement and growth analysis.
-5.5 Data, Tracking &amp; Analytics
-Funnel-wise KPI dashboards.
-Attribution modelling.
-CPA / ROI analysis.
-Monthly and quarterly reports.
-Strategic insights for scale-up.
-6. Key Deliverables
-The agency shall provide:
-Annual digital roadmap.
-Monthly content calendars.
-Creative assets.
-SEO audit reports.
-Paid media plans.
-Analytics dashboards.
-Campaign proposals.
-Quarterly strategy reviews.
-7. Governance &amp; Reporting
-Dedicated account manager.
-Monthly performance review meetings.
-Quarterly strategic workshops.
-Written reports within five working days of month-end.
-Escalation matrix.
-8. Commercials &amp; Exclusions
-Unless otherwise agreed:
-GST will be applicable as per law.
-Retainer excludes:
-Media spends.
-Stock images.
-Photography / videography.
-Influencer fees.
-Google Ad Grants management shall be treated as a separate scope.
-WhatsApp-based marketing may be considered optional.
-9. Confidentiality &amp; Compliance
-All data and outputs shall remain the property of ChildFund India.
-The agency must sign and adhere to ChildFund India’s Child Safeguarding Policy.
-Compliance with data-protection and donor-privacy regulations is mandatory.
-• 10. Proposal Submission Requirements
-Interested agencies must submit:
-Organisational profile.
-Relevant NGO or fundraising experience.
-Proposed methodology and execution plan.
-Team structure.
-Budget break-up.
-Timelines.
-Samples of similar work.
-Interested evaluators/agencies are requested to submit their technical and financial proposals to
-centralpurchase2@childfundindia.org
-by 20th February 2026.
-ChildFund India reserves the right to modify this ToR based on programmatic and contextual requirements.
-Please do mention reference in your proposal i.e.
-PRA/CFI/BAN/2025-26/044
-• Job Email ID:
-centralpurchase2(at)childfundindia.org
-Download Attachment:
-TERMS OF REFERENCE.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-20 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285899</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>TOR : Study on Functionality and Sustainability of Grey Water Management (...</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Water For People India | West Bengal
-International Development - TOR : Study on Functionality and Sustainability of Grey Water Management (GWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership ... Read More</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285954</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - Audio Quality Annotation of Student Voice Recordings, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jo ... Read More</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>• The selected partner will be responsible for delivering the following within the agreed project timelines and quality standards:
-JSON files of transcriptions of recordings
-(Format will be shared separately via email)
-Each recording to have a separate JSON file, format as specified by Wadhwani AI
-Criteria for Application
-Applicants must meet the following criteria.
-Mandatory:
-Demonstrated team capacity to provide transcriptions in English, demonstrable quality check process
-Preferred:
-Prior experience in transcribing English student speech.
-• Submission Details
-All proposals to this RFP must be received no later than
-&lt;Feb 16th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP:
-Audio Quality Annotation of Student Voice Recordings
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-RFP for Audio Quality Annotation of Student Voice Recordings- Updated.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-20 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285876</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>TOR : Study on Functionality and Sustainability of Solid Waste Management ...</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Water For People India | West Bengal
-International Development - TOR : Study on Functionality and Sustainability of Solid Waste Management (SWM) Systems in Rural West Bengal under SBM(G) 2.0, Water For People India, West Bengal - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membershi ... Read More</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>20-02-2026</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285952</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>RFP – Content replacement (Hindi to Assamese) in developed flipbooks</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
 International Development - RFP – Content replacement (Hindi to Assamese) in developed flipbooks, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
@@ -1395,7 +717,7 @@
 Broadcast ... Read More</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work
 This is to bring to your kind attention that we intend to hire an agency for content replacement from Hindi to Assamese, including the cover page and back cover.
@@ -1500,54 +822,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -1575,251 +897,44 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>22-02-2026</t>
         </is>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287210</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr"/>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Americares India Foundation | Jaipur, Rajasthan
-International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Bro ... Read More</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>• PROPOSAL EVALUATION CRITERIA
-Proposals will be evaluated based on:
-Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
-Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
-Quality of Proposal (40%): Clarity, completeness, and alignment with scope
-References and Past Performance (10%): Feedback from prior engagements
-Please submit quotation in soft copy over email to Itisha Vasisht at
-ivasisht@americares.org
-and Priyanka Londhe at
-plondhe@americares.org
-with the subject line “Proposal for conducting NCD baseline in Jaipur”.
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-NCDISHAA baseline RFP (Jaipur).v2.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-22 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>22-02-2026</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Catholic Health Association of India (CHAI) | Karnataka
 International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
 • Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
@@ -1916,54 +1031,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -1991,41 +1106,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Operations Expert</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>The Voluntary Health Services (VHS) | Delhi
-International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | India
+International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -2034,224 +1149,46 @@
 Value Membership
 Broadcast Resume
 RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login
-|
-Register
-Jobseekers Log ... Read More</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Essential Qualifications:
-Any Medical Graduate (MBBS/BDS) with Post Graduation Degree/Diploma (DNB, MD, MPH, DPH) in Public Health/Community Medicine/ Preventive &amp; Social Medicine/Epidemiology (FETP)/ EIS.
-OR
-Any Science Graduate with Doctorate in Public Health and (PhD/DSc or equivalent) or PhD in Public Health/Bio Sciences.
-Essential Experience:
-This position requires five (5) years of experience working on public health programs out of which at least three (3) years of experience at national level on disease surveillance focused on outbreak prone diseases including management of public health emergencies or the public health aspect of disaster management, Health Emergency Operations Centres (HEOC) or Emergency Operations Centres (EOC) or Control room/War Room
-Desirable Experience:
-Working experience in Public Safety/Security agencies
-.
-Subject
-matter
-expert with public health or disaster management or related background
-Working experience for health sector preparedness for disasters like flood, cyclone, earthquake etc.
-Demonstrated capability in managing advanced technologies, systems (including plans, policies, and procedures), and workforce.
-Age limit:
-The maximum age limit is 62 years for the above position (relaxation of 05 years for those candidates who have working experience in military/paramilitary/ law enforcement agencies).
-Period of engagement:
-This appointment shall purely be on a contractual basis. The initial contract will be made till Sep 2026, which may be extended based on performance evaluation.
-Remuneration:
-Competitive r
-emuneration commensurate with qualifications and experience, and aligned with prevailing Project norms
-Place of work:
-National Centre for Disease Control (NCDC), Directorate General of Health Services (Dte.GHS), Ministry of Health and Family Welfare (MoHFW), Government of India (GoI)
-• How to apply
-• Job Email ID: admin(at)vhsprojects.org
-• Job Email ID:
-admin(at)vhsprojects.org
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-23 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
+      <c r="H5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Public Health Specialist (Planning Section)</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>The Voluntary Health Services (VHS) | Delhi
 International Development - Public Health Specialist (Planning Section), The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
@@ -2269,7 +1206,7 @@
 Login ... Read More</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>• Last date to apply
 February 23, 2026
@@ -2409,54 +1346,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -2484,41 +1421,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>Governance, Safety</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285813</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Operations Expert</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>The Voluntary Health Services (VHS) | Delhi
+International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -2527,78 +1464,50 @@
 Value Membership
 Broadcast Resume
 RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>RFQ: Construction of New gated check dams, De-siltation, and retrofitting ...</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>WaterAid India | Telangana
-International Development - RFQ: Construction of New gated check dams, De-siltation, and retrofitting of check dam in 6 villages - Telangana, WaterAid India, Telangana - DevNetJobsIndia.org
+Search Jobs
+Events
 Jobseekers:
 Login
 |
 Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-S ... Read More</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>• Terms and Conditions:
-Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
-Please quote for WaterAid (Jal Seva Charitable Foundation) contributed works only and community contribution part will be taken care by the community - either in cash or kind.
-Details of community contribution and WaterAid contribution is given in enclosed estimations for your reference.
-Quotation should send to
-WAIProcurementAP@wateraid.org
-For detailed information, please check the complete version of the RFQ attached below.
+Jobseekers Log ... Read More</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Essential Qualifications:
+Any Medical Graduate (MBBS/BDS) with Post Graduation Degree/Diploma (DNB, MD, MPH, DPH) in Public Health/Community Medicine/ Preventive &amp; Social Medicine/Epidemiology (FETP)/ EIS.
+OR
+Any Science Graduate with Doctorate in Public Health and (PhD/DSc or equivalent) or PhD in Public Health/Bio Sciences.
+Essential Experience:
+This position requires five (5) years of experience working on public health programs out of which at least three (3) years of experience at national level on disease surveillance focused on outbreak prone diseases including management of public health emergencies or the public health aspect of disaster management, Health Emergency Operations Centres (HEOC) or Emergency Operations Centres (EOC) or Control room/War Room
+Desirable Experience:
+Working experience in Public Safety/Security agencies
+.
+Subject
+matter
+expert with public health or disaster management or related background
+Working experience for health sector preparedness for disasters like flood, cyclone, earthquake etc.
+Demonstrated capability in managing advanced technologies, systems (including plans, policies, and procedures), and workforce.
+Age limit:
+The maximum age limit is 62 years for the above position (relaxation of 05 years for those candidates who have working experience in military/paramilitary/ law enforcement agencies).
+Period of engagement:
+This appointment shall purely be on a contractual basis. The initial contract will be made till Sep 2026, which may be extended based on performance evaluation.
+Remuneration:
+Competitive r
+emuneration commensurate with qualifications and experience, and aligned with prevailing Project norms
+Place of work:
+National Centre for Disease Control (NCDC), Directorate General of Health Services (Dte.GHS), Ministry of Health and Family Welfare (MoHFW), Government of India (GoI)
+• How to apply
+• Job Email ID: admin(at)vhsprojects.org
 • Job Email ID:
-waiprocurementap(at)wateraid.org
-Download Attachment:
-Tender Notice-JSCF-Jalsankalp-19.02.26_organized1.pdf
+admin(at)vhsprojects.org
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-25 Feb 2026
+23 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -2666,54 +1575,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -2741,60 +1650,65 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>25-02-2026</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287375</t>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>23-02-2026</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
-International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>• Scope of work
-The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
-Key responsibilities include:
-Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
-• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
-Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
-Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
-Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
-Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
-Deliverables:
-For detailed information, please check the complete version of the RFP attached below.
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>RFQ: Construction of New gated check dams, De-siltation, and retrofitting ...</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>WaterAid India | Telangana
+International Development - RFQ: Construction of New gated check dams, De-siltation, and retrofitting of check dam in 6 villages - Telangana, WaterAid India, Telangana - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+S ... Read More</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>• Terms and Conditions:
+Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
+Please quote for WaterAid (Jal Seva Charitable Foundation) contributed works only and community contribution part will be taken care by the community - either in cash or kind.
+Details of community contribution and WaterAid contribution is given in enclosed estimations for your reference.
+Quotation should send to
+WAIProcurementAP@wateraid.org
+For detailed information, please check the complete version of the RFQ attached below.
 • Job Email ID:
-woscaprocurement(at)gmail.com
+waiprocurementap(at)wateraid.org
 Download Attachment:
-RFP.docx
+Tender Notice-JSCF-Jalsankalp-19.02.26_organized1.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -2867,54 +1781,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -2942,71 +1856,65 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>25-02-2026</t>
         </is>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
+      <c r="H8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287375</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | Odisha
-International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
+International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>• Scope of work
+The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
+Key responsibilities include:
+Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
+• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
+Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
+Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
+Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
+Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
+Deliverables:
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-rfp.lehs(at)wadhwaniai.org
+woscaprocurement(at)gmail.com
 Download Attachment:
-RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
+RFP.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-27 Feb 2026
+25 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -3074,54 +1982,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -3149,54 +2057,66 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>27-02-2026</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>25-02-2026</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment ...</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Centre for Environment Education (CEE) | Madhya Pradesh, Maharashtra, Telangana
-International Development - RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG, Centre for Environment Education (CEE), Madhya Pradesh, Maharashtra, Telang ... Read More</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>• The project adopts a holistic approach, integrating ecosystem restoration, biodiversity conservation, livelihood strengthening, quality education and capacity building to address the vulnerabilities of marginalized rural populations facing climate change impacts. The quality education work will include improvement in learning outcomes, participation in various competitions, focus on STEM, effective pedagogies, and introduction of 21st century skills (4Cs, problem solving and digital literacy).
-The programme is unique with its multi-regional, multi-faceted and multi-sectoral approach for addressing community needs and restoring the ecosystem that they live in and depend on, exploring convergence where possible. It adopts a planned approach of a ‘zero plus four year’ implementation. The zero-year (Y0) of the programme will end in March 2026.
-A detailed baseline survey in the identified villages and need assessment is being conducted in the zero year, along with some useful community mobilization activities to build trust and goodwill, and strengthen social networks and enable participatory planning.
-The targeted beneficiaries of this programme would be local communities in the identified 35-40 villages specifically including small and marginal farmers, tribal groups, women groups, skilled and unskilled workers, youths, students etc.
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Odisha
+International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-purchase(at)ceeindia.org
+rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-TOR-CEE-Request for Proposal (RFP) - Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in Agar Malwa District (Madhya Pradesh), Bhimashankar (Manarashtra) and Shadnagar (Telangana.doc
+RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -3269,54 +2189,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -3344,41 +2264,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>27-02-2026</t>
         </is>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287317</t>
+      <c r="H10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr"/>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>RFP- for Endline Assessment and Impact Evaluation</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>MAMTA Health Institute for Mother and Child (MAMTA) | Odisha
-International Development - RFP-  for Endline Assessment and Impact Evaluation, MAMTA Health Institute for Mother and Child (MAMTA), Odisha - DevNetJobsIndia.org
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Gujarat
+International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -3386,31 +2306,23 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Ten ... Read More</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>• 3. Purpose of the RFP
-Mamta HIMC invites proposals from qualified research agencies or consulting firms to conduct a third party comprehensive Endline Assessment and Impact Evaluation study for the project titled:
-"Strengthening Community Processes and Govt. Platforms for Quality Home-Based Kangaroo Mother Care (HB-KMC) for LBW Neonates".
-4. Objective of the study:
-The assessment study will aim to evaluate the effectiveness of the community- and facility-based Kangaroo Mother Care (KMC) intervention in improving coverage, quality, and continuation of KMC practices among eligible low birth weight infants. Specifically, it will assess changes in initiation, duration, and adherence to KMC at facility and household levels, as well as improvements in caregiver knowledge, skills, and supportive practices. The impact evaluation will also examine the effect of the intervention on key newborn health outcomes, and assess implementation performance across facility and community platforms.
-Submission and contact information
-Applications should be sent to
-rfp@mamtahimc.in
-with the subject line: “Proposal for Assessment in Odisha” by (27
-th
-February, 2026).
-Queries related to RFP, can be sent to the same email id with subject line “Proposal for Assessment in Odisha query”.
-Queries will be answered till (24
-th
-February, 2026).
+RFPs/Tender ... Read More</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-rfp(at)mamtahimc.in
+rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-Request for Proposal for Endline Survey- NPT KMC.doc
+RFP for English Annotation of Student Voice Recordings 1.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -3483,54 +2395,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -3558,65 +2470,54 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Safety</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>27-02-2026</t>
         </is>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287391</t>
+      <c r="H11" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr"/>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | Gujarat
-International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tender ... Read More</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment ...</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Centre for Environment Education (CEE) | Madhya Pradesh, Maharashtra, Telangana
+International Development - RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG, Centre for Environment Education (CEE), Madhya Pradesh, Maharashtra, Telang ... Read More</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>• The project adopts a holistic approach, integrating ecosystem restoration, biodiversity conservation, livelihood strengthening, quality education and capacity building to address the vulnerabilities of marginalized rural populations facing climate change impacts. The quality education work will include improvement in learning outcomes, participation in various competitions, focus on STEM, effective pedagogies, and introduction of 21st century skills (4Cs, problem solving and digital literacy).
+The programme is unique with its multi-regional, multi-faceted and multi-sectoral approach for addressing community needs and restoring the ecosystem that they live in and depend on, exploring convergence where possible. It adopts a planned approach of a ‘zero plus four year’ implementation. The zero-year (Y0) of the programme will end in March 2026.
+A detailed baseline survey in the identified villages and need assessment is being conducted in the zero year, along with some useful community mobilization activities to build trust and goodwill, and strengthen social networks and enable participatory planning.
+The targeted beneficiaries of this programme would be local communities in the identified 35-40 villages specifically including small and marginal farmers, tribal groups, women groups, skilled and unskilled workers, youths, students etc.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-rfp.lehs(at)wadhwaniai.org
+purchase(at)ceeindia.org
 Download Attachment:
-RFP for English Annotation of Student Voice Recordings 1.pdf
+TOR-CEE-Request for Proposal (RFP) - Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in Agar Malwa District (Madhya Pradesh), Bhimashankar (Manarashtra) and Shadnagar (Telangana.doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -3689,54 +2590,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -3764,38 +2665,457 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>27-02-2026</t>
         </is>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287317</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>RFP- for Endline Assessment and Impact Evaluation</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>MAMTA Health Institute for Mother and Child (MAMTA) | Odisha
+International Development - RFP-  for Endline Assessment and Impact Evaluation, MAMTA Health Institute for Mother and Child (MAMTA), Odisha - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Ten ... Read More</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>• 3. Purpose of the RFP
+Mamta HIMC invites proposals from qualified research agencies or consulting firms to conduct a third party comprehensive Endline Assessment and Impact Evaluation study for the project titled:
+"Strengthening Community Processes and Govt. Platforms for Quality Home-Based Kangaroo Mother Care (HB-KMC) for LBW Neonates".
+4. Objective of the study:
+The assessment study will aim to evaluate the effectiveness of the community- and facility-based Kangaroo Mother Care (KMC) intervention in improving coverage, quality, and continuation of KMC practices among eligible low birth weight infants. Specifically, it will assess changes in initiation, duration, and adherence to KMC at facility and household levels, as well as improvements in caregiver knowledge, skills, and supportive practices. The impact evaluation will also examine the effect of the intervention on key newborn health outcomes, and assess implementation performance across facility and community platforms.
+Submission and contact information
+Applications should be sent to
+rfp@mamtahimc.in
+with the subject line: “Proposal for Assessment in Odisha” by (27
+th
+February, 2026).
+Queries related to RFP, can be sent to the same email id with subject line “Proposal for Assessment in Odisha query”.
+Queries will be answered till (24
+th
+February, 2026).
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+rfp(at)mamtahimc.in
+Download Attachment:
+Request for Proposal for Endline Survey- NPT KMC.doc
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+27 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
+Apply by:
+20 Mar 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Safety</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>27-02-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287391</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Construction of New gated check dams, De-siltation, and retrofittin...</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>WaterAid India | Hyderabad, Telangana
+International Development - RFP - Construction of New gated check dams, De-siltation, and  retrofitting of check dam in 6 villages, WaterAid India, Telangana - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders ... Read More</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>• Terms and Conditions:
+Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
+Quotation should send to
+WAIProcurementAP@wateraid.org
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+WAIProcurementAP(at)wateraid.org
+Download Attachment:
+Tender Invitation - 15  Check dams- Amruthavarshini._compressed.pdf
+Download Attachment:
+Tender Invitation - 15  Check dams- Amruthavarshini..docx
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+28 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
+Apply by:
+20 Mar 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287360</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr"/>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>RFP - for Internal Audit -FES Anand</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>Foundation for Ecological Security (FES) | Gujarat
 International Development - RFP - for Internal Audit -FES Anand, Foundation for Ecological Security (FES), Gujarat - DevNetJobsIndia.org
@@ -3812,7 +3132,7 @@
 Jobseekers: ... Read More</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>• Eligibility Criteria
 Registered CA firm in India with 5+ years NGO audit experience
@@ -3915,54 +3235,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -3990,41 +3310,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H19" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287266</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr"/>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Construction of New gated check dams, De-siltation, and retrofittin...</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>WaterAid India | Hyderabad, Telangana
-International Development - RFP - Construction of New gated check dams, De-siltation, and  retrofitting of check dam in 6 villages, WaterAid India, Telangana - DevNetJobsIndia.org
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>RFP - for Quarterly Internal Audits-State Office</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Foundation for Ecological Security (FES) | India
+International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -4032,22 +3352,45 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tenders ... Read More</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>• Terms and Conditions:
-Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
-Quotation should send to
-WAIProcurementAP@wateraid.org
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-WAIProcurementAP(at)wateraid.org
-Download Attachment:
-Tender Invitation - 15  Check dams- Amruthavarshini._compressed.pdf
-Download Attachment:
-Tender Invitation - 15  Check dams- Amruthavarshini..docx
+RFPs/Tenders
+Search Jobs
+Events
+Jo ... Read More</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Registered CA firm in India with 5+ years NGO audit experience
+Having offices in Vicinity of FES Office locations.
+Familiarity with NGO specific audit norms
+Qualified team with sectoral knowledge
+No conflict of interest with FES
+At least three professional references from client.
+Proposal Must Include
+Audit methodology
+Team composition &amp; CVs
+Past NGO audit experience
+Detailed fee quotations, Project/state- wise (Listed above).
+Audit timelines
+Declaration of independence
+Contact
+Vishal Prajapati:
+vishal.prajapati@fes.org.in
+|
++91 7405396926
+Pankaj Garg:
+pankaj.garg@fes.org.in
+|
++91 9687606949
+Important Dates
+Submission Deadline: February 28th, 2025
+Selection Notification: Within 30 working days
+Mention
+“Proposal for Quarterly Internal Audits-State Office
+”
+in the subject Line.
+FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -4120,54 +3463,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -4195,38 +3538,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287360</t>
+      <c r="H16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>RFP - for End line Assessment of Access to Iron-Contamination-Free and Flu...</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>WaterAid India | India
 International Development - RFP - for End line Assessment of Access to Iron-Contamination-Free and Fluoride-Contamination-Free Drinking Water, WaterAid India, India - DevNetJobsIndia.org
@@ -4241,7 +3584,7 @@
 Search J ... Read More</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>• 3. Scope of Work
 The selected consultant/firm will undertake the following tasks:
@@ -4396,54 +3739,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -4471,38 +3814,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H21" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287361</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr"/>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>Proposal Development Associate</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>Academy of Management Studies (AMS) | Uttar Pradesh
 International Development - Proposal Development Associate, Academy of Management Studies (AMS), Uttar Pradesh - DevNetJobsIndia.org
@@ -4520,7 +3863,7 @@
 Lo ... Read More</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>• Eligibility
 PG in any discipline
@@ -4727,54 +4070,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -4802,92 +4145,65 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F18" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G18" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285725</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr"/>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>RFP - for Quarterly Internal Audits-State Office</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>Foundation for Ecological Security (FES) | India
-International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
+      <c r="B19" s="1" t="inlineStr"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Centre for Catalyzing Change (C3) | India
+International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jo ... Read More</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Registered CA firm in India with 5+ years NGO audit experience
-Having offices in Vicinity of FES Office locations.
-Familiarity with NGO specific audit norms
-Qualified team with sectoral knowledge
-No conflict of interest with FES
-At least three professional references from client.
-Proposal Must Include
-Audit methodology
-Team composition &amp; CVs
-Past NGO audit experience
-Detailed fee quotations, Project/state- wise (Listed above).
-Audit timelines
-Declaration of independence
-Contact
-Vishal Prajapati:
-vishal.prajapati@fes.org.in
-|
-+91 7405396926
-Pankaj Garg:
-pankaj.garg@fes.org.in
-|
-+91 9687606949
-Important Dates
-Submission Deadline: February 28th, 2025
-Selection Notification: Within 30 working days
-Mention
-“Proposal for Quarterly Internal Audits-State Office
-”
-in the subject Line.
-FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
+Registe ... Read More</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>• b. Proposal Submission Guidelines
+The applicant should submit the Technical and Financial Proposal in two separate pdf documents
+Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
+X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
+All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
+procument@c3india.org
+on or before the proposal submission time
+The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+RFP for education initiatives_C3.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-28 Feb 2026
+02 Mar 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -4955,54 +4271,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -5030,243 +4346,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>28-02-2026</t>
-        </is>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>02-03-2026</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr"/>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>Project Concern International India (PCI India) | India
-International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>• Last   Date for Submission of bids
-02
-nd
-March 2026
-Proposals   to be submitted at
-procdelhi@pciglobal.in
-Receipt of Proposals
-Technical and Financial   proposals should be submitted as separate attachments
-and to be submitted
-in a single email
-attachments.
-NOTE
-:
-(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-procdelhi(at)pciglobal.in
-Download Attachment:
-RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-02 Mar 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>02-03-2026</t>
-        </is>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>RFP - for Website Maintenance and Hosting</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
 International Development - RFP - for Website Maintenance and Hosting, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
@@ -5281,7 +4392,7 @@
 Search ... Read More</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>• 2. Scope of Work
 Website
@@ -5515,54 +4626,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -5590,66 +4701,64 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G20" s="1" t="inlineStr">
         <is>
           <t>02-03-2026</t>
         </is>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287390</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr"/>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Jhpiego | India
-International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login ... Read More</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>• Section 4 - Scope of Work
-Section 5 –
-Vendor Information Form– Standard   Template
-Section 6 - Standard   Template of Technical Service Contract
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Project Concern International India (PCI India) | India
+International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>• Last   Date for Submission of bids
+02
+nd
+March 2026
+Proposals   to be submitted at
+procdelhi@pciglobal.in
+Receipt of Proposals
+Technical and Financial   proposals should be submitted as separate attachments
+and to be submitted
+in a single email
+attachments.
+NOTE
+:
+(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-jhpin.procurement(at)jhpiego.org
+procdelhi(at)pciglobal.in
 Download Attachment:
-RFP - Hiring agency for the implementation of biosecurity.pdf
+RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -5722,54 +4831,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -5797,60 +4906,66 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F21" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G21" s="1" t="inlineStr">
         <is>
           <t>02-03-2026</t>
         </is>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
+      <c r="H21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>Centre for Catalyzing Change (C3) | India
-International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Jhpiego | India
+International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Registe ... Read More</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>• b. Proposal Submission Guidelines
-The applicant should submit the Technical and Financial Proposal in two separate pdf documents
-Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
-X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
-All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
-procument@c3india.org
-on or before the proposal submission time
-The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login ... Read More</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>• Section 4 - Scope of Work
+Section 5 –
+Vendor Information Form– Standard   Template
+Section 6 - Standard   Template of Technical Service Contract
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+jhpin.procurement(at)jhpiego.org
 Download Attachment:
-RFP for education initiatives_C3.pdf
+RFP - Hiring agency for the implementation of biosecurity.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -5923,54 +5038,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -5998,38 +5113,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
         <is>
           <t>02-03-2026</t>
         </is>
       </c>
-      <c r="H27" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
+      <c r="H22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr"/>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaire...</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>Parmarth Samaj Sevi Sansthan | Jhansi, Uttar Pradesh
 International Development - RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool, Parmarth Samaj Sevi Sansthan, Uttar Pradesh - DevNetJobsIndia.org
@@ -6041,7 +5156,7 @@
 Value Mem ... Read More</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>• Introduction and context:
 Parmarth Samaj Sevi Sansthan
@@ -6224,54 +5339,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -6299,286 +5414,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>03-03-2026</t>
         </is>
       </c>
-      <c r="H28" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287368</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Servic...</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>Small Industries Development Bank of India (SIDBI) | India
-International Development - EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Services under Programmes for Development and Impact, Small Industries Development Bank of India (SIDBI), India - DevNetJobsIndia.org
-Jobseekers ... Read More</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>• Please      note that all the information required as per the documents required for      responding to EOI needs to be provided. Incomplete information in these      areas may lead to non-selection.
-Modification      And/ Or Withdrawal of documents:
-Documents once submitted will      be treated as final and no further correspondence will be entertained. No      document shall be modified after the deadline for submission of documents      in response to the EOI. Also, no Respondent shall be allowed to withdraw      any document, if the Respondent happens to be a successful      Respondent.
-SIDBI      has the right to reject any or all documents received without assigning      any reason whatsoever.
-NOTE:
-SIDBI SHALL NOT BE RESPONSIBLE FOR NON-RECEIPT / NON-DELIVERY OF THE DOCUMENTS DUE TO ANY REASON, WHATSOEVER.
-Critical Information
-Events
-Particular / Date and Time
-Tender No
-SIDBI/REOI/68279
-Tender Issue Date
-13/02/2026
-Last date for seeking Clarification on EOI document
-20/02/2026
-All queries relating to the EoI must be in writing only   and to be sent via
-email on.
-pdi@sidbi.in
-and
-mayankp@sidbi.in
-Pre EOI meeting
-25/02/2026
-The meeting shall be virtual / online over MS Teams Call.   Meeting Link will be shared separately to all the bidder
-Last date for submission of EoI
-06/03/2026
-Bids to submitted through email only at:
-pdi@sidbi.in
-and
-mayankp@sidbi.in
-Independent External Monitor
-Shri Sanjay Kumar Srivastava, IAS (Retd.),
-Apartment T-6 B,
-Windsor Court, DLF Phase-IV
-Gurgaon-122009
-Mobile No-9910059472
-E-mail:
-sksrivastava7854@rediffmail.com
-Dr. Parvez Hayat, IPS (Retd.),
-B-4/69- A, Safdarjung Enclave
-New Delhi-110029
-Mobile-9810134469
-E-Mail:
-phayatips@gmail.com
-• Contact details of SIDBI officials
-Shri Mohammed Adil Ahsan
-Asst. General Manager,
-Programmes for Development &amp; Impact [PDI]
-SIDBI Tower, 15, Ashok Marg, Lucknow – 226001
-Ph: 0522-4261631
-Email:
-mdadil@sidbi.in
-Shri Mayank Prakash
-Theme Leader – Monitoring &amp; Evaluation
-Programmes for Development &amp; Impact [PDI]
-SIDBI Tower, 15, Ashok Marg, Lucknow – 226001
-Ph: 0522 - 4259 626
-Email
-mayankp@sidbi.in
-For detailed information, please check the complete version of the EoI attached below.
-Download Attachment:
-EOI for empanelment of Imapact assesment agencies_1202026.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-06 Mar 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
-Apply by:
-20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>06-03-2026</t>
-        </is>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287084</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr"/>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>PATH | Assam
 International Development - RFP - Onboarding Agency for Revamping Assam LMIS Dashboard, PATH, Assam - DevNetJobsIndia.org
@@ -6600,7 +5467,7 @@
 Jobseekers Registe ... Read More</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>• 3.2. Commercial contracting terms and conditions will be negotiated with the successful supplier at the end of the selection process.
 3.3. By submitting a proposal, the supplier confirms their agreement to abide by the RFP terms and PATH policies, including the
@@ -6755,54 +5622,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -6830,75 +5697,112 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>06-03-2026</t>
         </is>
       </c>
-      <c r="H30" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H24" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287335</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr"/>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>Associate (Programme Management)</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>Indian Institute For Human Settlements (Iihs) | Karnataka
-International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events ... Read More</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
-• To apply
-If you are interested in exploring this opportunity with us, please fill the online
-application form
-by clicking here. (You can also click on the “
-Apply Now
-” button at the end of the Job Description displayed on the website).
-Contact
-Please write to us at
-hr@iihs.co.in
-if you need any clarifications while filling the online application form.
-• Job Email ID:
-hr(at)iihs.co.in
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Servic...</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Small Industries Development Bank of India (SIDBI) | India
+International Development - EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Services under Programmes for Development and Impact, Small Industries Development Bank of India (SIDBI), India - DevNetJobsIndia.org
+Jobseekers ... Read More</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>• Please      note that all the information required as per the documents required for      responding to EOI needs to be provided. Incomplete information in these      areas may lead to non-selection.
+Modification      And/ Or Withdrawal of documents:
+Documents once submitted will      be treated as final and no further correspondence will be entertained. No      document shall be modified after the deadline for submission of documents      in response to the EOI. Also, no Respondent shall be allowed to withdraw      any document, if the Respondent happens to be a successful      Respondent.
+SIDBI      has the right to reject any or all documents received without assigning      any reason whatsoever.
+NOTE:
+SIDBI SHALL NOT BE RESPONSIBLE FOR NON-RECEIPT / NON-DELIVERY OF THE DOCUMENTS DUE TO ANY REASON, WHATSOEVER.
+Critical Information
+Events
+Particular / Date and Time
+Tender No
+SIDBI/REOI/68279
+Tender Issue Date
+13/02/2026
+Last date for seeking Clarification on EOI document
+20/02/2026
+All queries relating to the EoI must be in writing only   and to be sent via
+email on.
+pdi@sidbi.in
+and
+mayankp@sidbi.in
+Pre EOI meeting
+25/02/2026
+The meeting shall be virtual / online over MS Teams Call.   Meeting Link will be shared separately to all the bidder
+Last date for submission of EoI
+06/03/2026
+Bids to submitted through email only at:
+pdi@sidbi.in
+and
+mayankp@sidbi.in
+Independent External Monitor
+Shri Sanjay Kumar Srivastava, IAS (Retd.),
+Apartment T-6 B,
+Windsor Court, DLF Phase-IV
+Gurgaon-122009
+Mobile No-9910059472
+E-mail:
+sksrivastava7854@rediffmail.com
+Dr. Parvez Hayat, IPS (Retd.),
+B-4/69- A, Safdarjung Enclave
+New Delhi-110029
+Mobile-9810134469
+E-Mail:
+phayatips@gmail.com
+• Contact details of SIDBI officials
+Shri Mohammed Adil Ahsan
+Asst. General Manager,
+Programmes for Development &amp; Impact [PDI]
+SIDBI Tower, 15, Ashok Marg, Lucknow – 226001
+Ph: 0522-4261631
+Email:
+mdadil@sidbi.in
+Shri Mayank Prakash
+Theme Leader – Monitoring &amp; Evaluation
+Programmes for Development &amp; Impact [PDI]
+SIDBI Tower, 15, Ashok Marg, Lucknow – 226001
+Ph: 0522 - 4259 626
+Email
+mayankp@sidbi.in
+For detailed information, please check the complete version of the EoI attached below.
 Download Attachment:
-Associate-Programme-Management-–-ASSURE-Lighthouse-Projects.pdf
+EOI for empanelment of Imapact assesment agencies_1202026.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-07 Mar 2026
+06 Mar 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -6966,54 +5870,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -7041,38 +5945,249 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>06-03-2026</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287084</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Associate (Programme Management)</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Indian Institute For Human Settlements (Iihs) | Karnataka
+International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events ... Read More</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
+• To apply
+If you are interested in exploring this opportunity with us, please fill the online
+application form
+by clicking here. (You can also click on the “
+Apply Now
+” button at the end of the Job Description displayed on the website).
+Contact
+Please write to us at
+hr@iihs.co.in
+if you need any clarifications while filling the online application form.
+• Job Email ID:
+hr(at)iihs.co.in
+Download Attachment:
+Associate-Programme-Management-–-ASSURE-Lighthouse-Projects.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+07 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Manager - Delhi Chapter
+Ullas Trust
+Location:
+Delhi
+Apply by:
+22 Feb 2026
+Latest Jobs
+Post your highlighted jobs here
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
+Apply by:
+20 Mar 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G26" s="1" t="inlineStr">
         <is>
           <t>07-03-2026</t>
         </is>
       </c>
-      <c r="H31" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H26" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285747</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr"/>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>Deutsche Welthungerhilfe | India
 International Development - RFP - Final Evaluation of the Bhoomi Ka Programme, Deutsche Welthungerhilfe, India - DevNetJobsIndia.org
@@ -7093,7 +6208,7 @@
 Jobs ... Read More</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>• INTRODUCTION AND CONTEXT
 Country:
@@ -7223,54 +6338,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -7298,61 +6413,107 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F27" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>08-03-2026</t>
         </is>
       </c>
-      <c r="H32" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H27" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287384</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr"/>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>EAII Advisors Pvt Ltd | Andhra Pradesh
-International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+      <c r="B28" s="1" t="inlineStr"/>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
+International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
 Register
-Ho ... Read More</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>• Proposal Requirements
-1. Company Background and Details
-A. Company Profile
-Overview of the firm or firms submitting the bid, including a brief history, information about organizational structure, relevant company financials, location of offices, number of employees, relevant certifications, or any other information that could be pertinent.
-Supplier Response:
-Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
-For detailed information, please check the complete version of the RFP attached below.
+Home
+Value Membership
+Broadcast Resume
+RFPs ... Read More</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>09-03-2026</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring of an International Audit Firm</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
+International Development - RFP - Hiring of an International Audit Firm, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tender ... Read More</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>• Job Email ID:
+tender.projects(at)cdri.world
 Download Attachment:
-Standalone IC RFP Technical Evaluation Response Template.docx
-Download Attachment:
-Telugu_Standalone IC RFP Technical Evaluation Response Template.docx
+RFP-Hiring International Audit Firm-20 Feb'26.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -7425,54 +6586,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -7500,57 +6661,61 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H33" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
+      <c r="H29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287382</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr"/>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring of an International Audit Firm</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
-International Development - RFP - Hiring of an International Audit Firm, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
+      <c r="B30" s="1" t="inlineStr"/>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>EAII Advisors Pvt Ltd | Andhra Pradesh
+International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
 Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tender ... Read More</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>• Job Email ID:
-tender.projects(at)cdri.world
+Ho ... Read More</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>• Proposal Requirements
+1. Company Background and Details
+A. Company Profile
+Overview of the firm or firms submitting the bid, including a brief history, information about organizational structure, relevant company financials, location of offices, number of employees, relevant certifications, or any other information that could be pertinent.
+Supplier Response:
+Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
+For detailed information, please check the complete version of the RFP attached below.
 Download Attachment:
-RFP-Hiring International Audit Firm-20 Feb'26.pdf
+Standalone IC RFP Technical Evaluation Response Template.docx
+Download Attachment:
+Telugu_Standalone IC RFP Technical Evaluation Response Template.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -7623,54 +6788,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -7698,88 +6863,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H34" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287382</t>
+      <c r="H30" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr"/>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
-International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs ... Read More</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance</t>
-        </is>
-      </c>
-      <c r="G35" s="1" t="inlineStr">
-        <is>
-          <t>09-03-2026</t>
-        </is>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr"/>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr"/>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -7789,7 +6904,7 @@
 Regis ... Read More</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>• Proposal Requirements
 1. Company Background and Details
@@ -7874,54 +6989,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -7949,44 +7064,44 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H36" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H31" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr"/>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr"/>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>RFP - Study On SC-DMPA In Rajasthan- Clients And Providers Perspectives On...</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>Centre For Community Economics And Development Consultants Society- CECOEDECON | Jaipur, Rajasthan
 International Development - RFP - Study On SC-DMPA In Rajasthan- Clients And Providers Perspectives On SC-DMPA In Rajasthan, Centre For Community Economics And Development Consultants Society- CECOEDE ... Read More</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>• Despite India’s achievement of replacement-level fertility, unmet need for contraception—particularly for spacing methods—remains substantial, with modern contraceptive use at 56.4% (2019–21), highlighting persistent gaps in access and choice, especially among vulnerable populations. Expanding the contraceptive method mix through innovative, user-centred approaches is therefore essential to meeting national commitments under FP2030 and the Sustainable Development Goals. In this context, the Government of India’s introduction of subcutaneous DMPA (DMPA-SC) as a self-care option under the National Family Planning Programme in 2023 represents a strategic step toward enhancing women’s autonomy, privacy, and convenience in contraceptive use. Global and national evidence indicates strong feasibility and acceptability of self-administered DMPA-SC among both users and providers; however, successful implementation requires an in-depth understanding of user experiences and health system readiness. This study, to be conducted in Jaipur-1, Jaisalmer and Sawai Madhopur districts of Rajasthan, aims to examine the perspectives &amp; experience of current SC-DMPA users and explore healthcare providers’ views on enabling and generating actionable evidence to inform effective scale-up of SC-DMPA within India’s public health system.
 CECOEDECON, with support from UNFPA, is implementing the roll-out of subcutaneous DMPA (SC-DMPA) in selected pilot districts of Rajasthan in the public health facilities, in collaboration with the Department of Health &amp; Family Welfare, Government of Rajasthan.
@@ -8121,54 +7236,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -8196,38 +7311,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F32" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G32" s="1" t="inlineStr">
         <is>
           <t>11-03-2026</t>
         </is>
       </c>
-      <c r="H37" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H32" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287322</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr"/>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr"/>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>Specialist – Financial Management and Compliance</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Financial Management and Compliance, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -8241,7 +7356,7 @@
 RFPs/T ... Read More</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>• will play a vital role in a program which seeks to strengthen the internal capacities of non-profit organizations in India across three building blocks of institutional functioning: governance, financial management, and compliance. These areas are deeply interconnected and together determine how effectively an organization operates, delivers programs and meets the expectations of its stakeholders. This position demands expertise in specific areas related to governance, compliance, and financial management, contributing essential guidance and support to strengthen the capabilities of participating organizations.
 Job Responsibilities:
@@ -8354,54 +7469,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -8429,38 +7544,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F33" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G33" s="1" t="inlineStr">
         <is>
           <t>13-03-2026</t>
         </is>
       </c>
-      <c r="H38" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H33" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287015</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr"/>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr"/>
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>RFP - Big IC+ISA RFP - Selection of a Service Provider for Supply, Instal...</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP - Big IC+ISA RFP -  Selection of a Service Provider for Supply, Installation and Operation &amp; Maintenance of 150 ILC Devices and Capacity Building., EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -8469,7 +7584,7 @@
 | ... Read More</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>• 2. Purpose of the RFP:
 2.1  EAII is soliciting bids for:
@@ -8578,54 +7693,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -8653,38 +7768,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F34" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G34" s="1" t="inlineStr">
         <is>
           <t>16-03-2026</t>
         </is>
       </c>
-      <c r="H39" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H34" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287172</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr"/>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr"/>
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>Specialist – Communication</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Communication, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -8700,7 +7815,7 @@
 Eve ... Read More</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist – Communication at FMSF.
 • How to Apply:
@@ -8784,54 +7899,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -8859,38 +7974,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F35" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G35" s="1" t="inlineStr">
         <is>
           <t>19-03-2026</t>
         </is>
       </c>
-      <c r="H40" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H35" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287207</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr"/>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr"/>
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>Specialist - Grants</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist - Grants, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -8907,7 +8022,7 @@
 Job ... Read More</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist - Grants at FMSF.
 You’re Resume to be accompanied with:
@@ -8991,54 +8106,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -9066,38 +8181,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F36" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G36" s="1" t="inlineStr">
         <is>
           <t>21-03-2026</t>
         </is>
       </c>
-      <c r="H41" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H36" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287318</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr"/>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr"/>
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical An...</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>Ashray Foundation | Korba, Chattisgarh (Delivery Location), Gujarat
 International Development - EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support, Ashray Foundation, Gujarat - DevNetJobsIndia.org
@@ -9110,7 +8225,7 @@
 Broadc ... Read More</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>• Ashray Foundation invites eligible and experienced agencies to submit their Expression of Interest / for the following scope of work:
 Fabrication of Mobile Medical Units (MMUs) – 2 Units
@@ -9199,54 +8314,54 @@
 22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Procurement Specialist
-Assam Health Infrastructure Development &amp; Managem...
-Location:
-Assam
+Program Management Associate
+(Value Members only)
+Location:
+Maharashtra
+Apply by:
+07 Mar 2026
+Field Co-Ordinator
+Shakti Organisation
+Location:
+Odisha
+Apply by:
+21 Mar 2026
+HR Manager
+Arpan Seva Sansthan
+Location:
+Rajasthan
+Apply by:
+28 Feb 2026
+Consultant In The Textile Waste Management Sector
+Ikaai India
+Location:
+India
+Apply by:
+07 Mar 2026
+Senior Manager
+(Value Members only)
+Location:
+Delhi, Haryana
+Apply by:
+07 Mar 2026
+Block Coordinator
+Jagori Rural Charitable Trust
+Location:
+Himachal Pradesh
+Apply by:
+15 Mar 2026
+Mobilizer
+Yuva Parivartan
+Location:
+Maharashtra
 Apply by:
 20 Mar 2026
-Independence Program Manager – (Female candidate ...
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-Head of Care (Female Candidate Only – Residential)
-The Baale Mane Trust
-Location:
-India
-Apply by:
-22 Mar 2026
-RFP - Final Evaluation of the Bhoomi Ka Programme
-Deutsche Welthungerhilfe
-Location:
-India
-Apply by:
-08 Mar 2026
-RFP - Hiring of an International Audit Firm
-Coalition for Disaster Resilient Infrastructure (...
-Location:
-India
-Apply by:
-09 Mar 2026
-CEO, India Labourline
-India Labourline
-Location:
-Karnataka
-Apply by:
-08 Mar 2026
-Associate Manager / Manager - Monitoring &amp; Evalua...
-Americares India Foundation
-Location:
-Rajasthan
-Apply by:
-22 Mar 2026
-RFQ: Construction of New gated check dams, De-sil...
-WaterAid India
-Location:
-Telangana
-Apply by:
-25 Feb 2026
+Social Media &amp; Digital Marketing Expert
+Aawahan
+Location:
+Uttar Pradesh
+Apply by:
+10 Mar 2026
 Jobseekers
 Register
 Login
@@ -9274,22 +8389,157 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>24-03-2026</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287319</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr"/>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr"/>
+      <c r="H38" s="1" t="inlineStr"/>
+      <c r="I38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr"/>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr"/>
+      <c r="H39" s="1" t="inlineStr"/>
+      <c r="I39" s="1" t="inlineStr">
+        <is>
+          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr"/>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr"/>
+      <c r="H40" s="1" t="inlineStr"/>
+      <c r="I40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr"/>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr"/>
+      <c r="H41" s="1" t="inlineStr"/>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr"/>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>24-03-2026</t>
-        </is>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>32</v>
-      </c>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr"/>
+      <c r="H42" s="1" t="inlineStr"/>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287319</t>
+          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
         </is>
       </c>
     </row>
@@ -9302,7 +8552,7 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
+          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -9316,7 +8566,7 @@
       <c r="H43" s="1" t="inlineStr"/>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
         </is>
       </c>
     </row>
@@ -9329,21 +8579,21 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
+          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr"/>
       <c r="H44" s="1" t="inlineStr"/>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
         </is>
       </c>
     </row>
@@ -9356,7 +8606,7 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
+          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -9370,7 +8620,7 @@
       <c r="H45" s="1" t="inlineStr"/>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
         </is>
       </c>
     </row>
@@ -9383,7 +8633,7 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
+          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -9397,7 +8647,7 @@
       <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
         </is>
       </c>
     </row>
@@ -9410,21 +8660,21 @@
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
+          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr"/>
       <c r="H47" s="1" t="inlineStr"/>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
         </is>
       </c>
     </row>
@@ -9437,21 +8687,21 @@
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
+          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr"/>
       <c r="H48" s="1" t="inlineStr"/>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
         </is>
       </c>
     </row>
@@ -9464,7 +8714,7 @@
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
+          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -9478,7 +8728,7 @@
       <c r="H49" s="1" t="inlineStr"/>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
         </is>
       </c>
     </row>
@@ -9491,21 +8741,21 @@
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
+          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr"/>
       <c r="H50" s="1" t="inlineStr"/>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
         </is>
       </c>
     </row>
@@ -9518,7 +8768,7 @@
       <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -9532,7 +8782,7 @@
       <c r="H51" s="1" t="inlineStr"/>
       <c r="I51" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
         </is>
       </c>
     </row>
@@ -9545,7 +8795,7 @@
       <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -9559,7 +8809,7 @@
       <c r="H52" s="1" t="inlineStr"/>
       <c r="I52" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
         </is>
       </c>
     </row>
@@ -9572,7 +8822,7 @@
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
+          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -9586,7 +8836,7 @@
       <c r="H53" s="1" t="inlineStr"/>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
@@ -9599,21 +8849,21 @@
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
+          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr"/>
       <c r="H54" s="1" t="inlineStr"/>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
@@ -9626,21 +8876,21 @@
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
+          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr"/>
       <c r="H55" s="1" t="inlineStr"/>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
         </is>
       </c>
     </row>
@@ -9653,7 +8903,7 @@
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
+          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
@@ -9667,74 +8917,94 @@
       <c r="H56" s="1" t="inlineStr"/>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr"/>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G57" s="1" t="inlineStr"/>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>10th Feb, 2026</t>
+        </is>
+      </c>
       <c r="H57" s="1" t="inlineStr"/>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="inlineStr"/>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G58" s="1" t="inlineStr"/>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>10th Feb, 2026</t>
+        </is>
+      </c>
       <c r="H58" s="1" t="inlineStr"/>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="inlineStr"/>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
@@ -9744,65 +9014,85 @@
           <t>Learning</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr"/>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>15th Dec, 2025</t>
+        </is>
+      </c>
       <c r="H59" s="1" t="inlineStr"/>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="inlineStr"/>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
+          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G60" s="1" t="inlineStr"/>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>10th Nov, 2025</t>
+        </is>
+      </c>
       <c r="H60" s="1" t="inlineStr"/>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="inlineStr"/>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
+          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G61" s="1" t="inlineStr"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>31st Oct, 2025</t>
+        </is>
+      </c>
       <c r="H61" s="1" t="inlineStr"/>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
         </is>
       </c>
     </row>
@@ -9819,25 +9109,25 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>10th Feb, 2026</t>
+          <t>21st May, 2025</t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr"/>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
         </is>
       </c>
     </row>
@@ -9854,25 +9144,25 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
+          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>10th Feb, 2026</t>
+          <t>15th May, 2025</t>
         </is>
       </c>
       <c r="H63" s="1" t="inlineStr"/>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
         </is>
       </c>
     </row>
@@ -9889,25 +9179,25 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>15th Dec, 2025</t>
+          <t>15th May, 2025</t>
         </is>
       </c>
       <c r="H64" s="1" t="inlineStr"/>
       <c r="I64" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
         </is>
       </c>
     </row>
@@ -9924,25 +9214,25 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
+          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>10th Nov, 2025</t>
+          <t>15th May, 2025</t>
         </is>
       </c>
       <c r="H65" s="1" t="inlineStr"/>
       <c r="I65" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
         </is>
       </c>
     </row>
@@ -9959,200 +9249,160 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
+          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>31st Oct, 2025</t>
+          <t>15th May, 2025</t>
         </is>
       </c>
       <c r="H66" s="1" t="inlineStr"/>
       <c r="I66" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
+          <t>NIUA</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tender</t>
         </is>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
+          <t>Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Climate</t>
-        </is>
-      </c>
-      <c r="G67" s="1" t="inlineStr">
-        <is>
-          <t>21st May, 2025</t>
-        </is>
-      </c>
+      <c r="F67" s="1" t="inlineStr"/>
+      <c r="G67" s="1" t="inlineStr"/>
       <c r="H67" s="1" t="inlineStr"/>
       <c r="I67" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
+          <t>https://niua.in/sites/default/files/tenders/Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
+          <t>NIUA</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tender</t>
         </is>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
+          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G68" s="1" t="inlineStr">
-        <is>
-          <t>15th May, 2025</t>
-        </is>
-      </c>
+      <c r="F68" s="1" t="inlineStr"/>
+      <c r="G68" s="1" t="inlineStr"/>
       <c r="H68" s="1" t="inlineStr"/>
       <c r="I68" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
+          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
+          <t>NIUA</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tender</t>
         </is>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+          <t>RfP_IGMP_Response to Pre-Bid Queries_200226.pdf</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="1" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G69" s="1" t="inlineStr">
-        <is>
-          <t>15th May, 2025</t>
-        </is>
-      </c>
+      <c r="F69" s="1" t="inlineStr"/>
+      <c r="G69" s="1" t="inlineStr"/>
       <c r="H69" s="1" t="inlineStr"/>
       <c r="I69" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP_IGMP_Response%20to%20Pre-Bid%20Queries_200226.pdf</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
+          <t>NIUA</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tender</t>
         </is>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+          <t>Corrigendum_1_RfP_IGMP.pdf</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G70" s="1" t="inlineStr">
-        <is>
-          <t>15th May, 2025</t>
-        </is>
-      </c>
+      <c r="F70" s="1" t="inlineStr"/>
+      <c r="G70" s="1" t="inlineStr"/>
       <c r="H70" s="1" t="inlineStr"/>
       <c r="I70" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
+          <t>https://niua.in/sites/default/files/tenders/Corrigendum_1_RfP_IGMP.pdf</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
+          <t>NIUA</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tender</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
       <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="1" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G71" s="1" t="inlineStr">
-        <is>
-          <t>15th May, 2025</t>
-        </is>
-      </c>
+      <c r="F71" s="1" t="inlineStr"/>
+      <c r="G71" s="1" t="inlineStr"/>
       <c r="H71" s="1" t="inlineStr"/>
       <c r="I71" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
+          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
         </is>
       </c>
     </row>
@@ -10169,7 +9419,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
+          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -10179,7 +9429,7 @@
       <c r="H72" s="1" t="inlineStr"/>
       <c r="I72" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
         </is>
       </c>
     </row>
@@ -10196,7 +9446,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+          <t>RfP_SRTW.pdf</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -10206,7 +9456,7 @@
       <c r="H73" s="1" t="inlineStr"/>
       <c r="I73" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
         </is>
       </c>
     </row>
@@ -10223,7 +9473,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>RfP_IGMP_Response to Pre-Bid Queries_200226.pdf</t>
+          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -10233,7 +9483,7 @@
       <c r="H74" s="1" t="inlineStr"/>
       <c r="I74" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP_IGMP_Response%20to%20Pre-Bid%20Queries_200226.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
         </is>
       </c>
     </row>
@@ -10250,7 +9500,7 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>Corrigendum_1_RfP_IGMP.pdf</t>
+          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -10260,7 +9510,7 @@
       <c r="H75" s="1" t="inlineStr"/>
       <c r="I75" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Corrigendum_1_RfP_IGMP.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
         </is>
       </c>
     </row>
@@ -10277,7 +9527,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
+          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -10287,7 +9537,7 @@
       <c r="H76" s="1" t="inlineStr"/>
       <c r="I76" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
         </is>
       </c>
     </row>
@@ -10304,7 +9554,7 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+          <t>GeM-Bidding-8666471.pdf</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -10314,7 +9564,7 @@
       <c r="H77" s="1" t="inlineStr"/>
       <c r="I77" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
         </is>
       </c>
     </row>
@@ -10331,7 +9581,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>RfP_SRTW.pdf</t>
+          <t>corgaudt1.pdf</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -10341,7 +9591,7 @@
       <c r="H78" s="1" t="inlineStr"/>
       <c r="I78" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
         </is>
       </c>
     </row>
@@ -10358,7 +9608,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
+          <t>Corrigendum6959493.pdf</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -10368,7 +9618,7 @@
       <c r="H79" s="1" t="inlineStr"/>
       <c r="I79" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
         </is>
       </c>
     </row>
@@ -10385,7 +9635,7 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+          <t>ADDENDUM6959493.pdf</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -10395,7 +9645,7 @@
       <c r="H80" s="1" t="inlineStr"/>
       <c r="I80" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
         </is>
       </c>
     </row>
@@ -10412,7 +9662,7 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
+          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -10422,7 +9672,7 @@
       <c r="H81" s="1" t="inlineStr"/>
       <c r="I81" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
         </is>
       </c>
     </row>
@@ -10439,7 +9689,7 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8666471.pdf</t>
+          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -10449,7 +9699,7 @@
       <c r="H82" s="1" t="inlineStr"/>
       <c r="I82" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
         </is>
       </c>
     </row>
@@ -10466,7 +9716,7 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>corgaudt1.pdf</t>
+          <t>GeM-Bidding-8478801.pdf</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -10476,7 +9726,7 @@
       <c r="H83" s="1" t="inlineStr"/>
       <c r="I83" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
         </is>
       </c>
     </row>
@@ -10493,7 +9743,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>Corrigendum6959493.pdf</t>
+          <t>GeM-Bidding-8476974.pdf</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -10503,7 +9753,7 @@
       <c r="H84" s="1" t="inlineStr"/>
       <c r="I84" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
         </is>
       </c>
     </row>
@@ -10520,7 +9770,7 @@
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>ADDENDUM6959493.pdf</t>
+          <t>GeM-Bidding-8497150.pdf</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -10530,141 +9780,6 @@
       <c r="H85" s="1" t="inlineStr"/>
       <c r="I85" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr"/>
-      <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="1" t="inlineStr"/>
-      <c r="G86" s="1" t="inlineStr"/>
-      <c r="H86" s="1" t="inlineStr"/>
-      <c r="I86" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C87" s="1" t="inlineStr">
-        <is>
-          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr"/>
-      <c r="E87" s="2" t="inlineStr"/>
-      <c r="F87" s="1" t="inlineStr"/>
-      <c r="G87" s="1" t="inlineStr"/>
-      <c r="H87" s="1" t="inlineStr"/>
-      <c r="I87" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C88" s="1" t="inlineStr">
-        <is>
-          <t>GeM-Bidding-8478801.pdf</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr"/>
-      <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="1" t="inlineStr"/>
-      <c r="G88" s="1" t="inlineStr"/>
-      <c r="H88" s="1" t="inlineStr"/>
-      <c r="I88" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C89" s="1" t="inlineStr">
-        <is>
-          <t>GeM-Bidding-8476974.pdf</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr"/>
-      <c r="E89" s="2" t="inlineStr"/>
-      <c r="F89" s="1" t="inlineStr"/>
-      <c r="G89" s="1" t="inlineStr"/>
-      <c r="H89" s="1" t="inlineStr"/>
-      <c r="I89" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C90" s="1" t="inlineStr">
-        <is>
-          <t>GeM-Bidding-8497150.pdf</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="inlineStr"/>
-      <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="1" t="inlineStr"/>
-      <c r="G90" s="1" t="inlineStr"/>
-      <c r="H90" s="1" t="inlineStr"/>
-      <c r="I90" s="1" t="inlineStr">
-        <is>
           <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8497150.pdf</t>
         </is>
       </c>

--- a/all_grants.xlsx
+++ b/all_grants.xlsx
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="H5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="H7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="H8" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="H9" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="H10" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="H11" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="H12" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="H13" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="H14" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="H15" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="H16" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="H17" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="H18" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="H19" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="H20" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="H21" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="H22" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         </is>
       </c>
       <c r="H23" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="H24" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="H25" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="H26" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="H27" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="H28" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="H29" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         </is>
       </c>
       <c r="H30" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="H31" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="H32" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="H33" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         </is>
       </c>
       <c r="H34" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         </is>
       </c>
       <c r="H35" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="H36" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="H37" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>

--- a/all_grants.xlsx
+++ b/all_grants.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,447 +494,16 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RFP - Baseline assessment for a community centered intervention to address...</t>
+          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Americares India Foundation | Jaipur, Rajasthan
-International Development - RFP - Baseline assessment for a community centered intervention to address Non-Communicable Disease burden, Americares India Foundation, Rajasthan - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Bro ... Read More</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>• PROPOSAL EVALUATION CRITERIA
-Proposals will be evaluated based on:
-Cost-Effectiveness (20%): Competitive pricing while meeting quality standards
-Experience and Capacity (30%): Relevant experience, team size, and ability to undertake baseline assessment
-Quality of Proposal (40%): Clarity, completeness, and alignment with scope
-References and Past Performance (10%): Feedback from prior engagements
-Please submit quotation in soft copy over email to Itisha Vasisht at
-ivasisht@americares.org
-and Priyanka Londhe at
-plondhe@americares.org
-with the subject line “Proposal for conducting NCD baseline in Jaipur”.
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-NCDISHAA baseline RFP (Jaipur).v2.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-22 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
-Location:
-India
-Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>22-02-2026</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285788</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr"/>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>RFP – Content replacement (Hindi to Assamese) in developed flipbooks</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
-International Development - RFP – Content replacement (Hindi to Assamese) in developed flipbooks, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast ... Read More</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>• Scope of Work
-This is to bring to your kind attention that we intend to hire an agency for content replacement from Hindi to Assamese, including the cover page and back cover.
-The pages have already been designed, and the content has been translated
-. The document size is A4.
-The document/flipbooks is anticipated to consist of approximately 600 pages.
-The Terms of Reference are as follows:
-Kindly provide the quotations for Content replacement (Hindi to Assamese) per page, including GST by 22nd Feb 2026.
-After completion the job you have to provide the complete application file with high/low resolution pdfs.
-Kindly provide separate quotations for Content replacement (Hindi to assumes) per page.
-Work must be completed in the given timeline from the date of this order accepted by the vendor.
-MAMTA will pay the amounts to the vendor after the verification application files by MAMTA and submission of the original invoice.
-The taxes will be deducted as per the relevant rules of the Govt. of India.
-Others
-MAMTA HIMC reserves the right to reject all or any quotation(s), wholly or partly, without assigning any reason whatsoever.
-MAMTA HIMC team reserves the right to request the top 3 quotations for an in-person discussion.
-MAMTA reserves the right, in its sole discretion, to conduct negotiations following MAMTA and/donor’s policies and procedures and to request additional information from prospective Bidders to supplement or clarify any aspect of the proposal documents if such revisions will be in the interest of our programs
-Only shortlisted agencies will be contacted.
-MAMTA shall not be legally bound by any award notice issued for this RFQ until an Agreement is duly signed and executed with the winning bidder(s).
-Further details will be shared with shortlisted agencies.
-Agencies are responsible for the submission of their proposals at their own expense and assume all associated risks. MAMTA will not make any payments in this regard.
-• The Agency is obligated to carry out the scope of work diligently and to verify all data with full responsibility.
-MAMTA assumes that the Agency comprehensively understands the scope and objectives of the assignment.
-Quoted fees are expected to cover all expenses, including applicable taxes. The proposal’s validity period shall be 90 days from the submission deadline.
-QUOTATION SUBMISSION
-The Agency shall submit quotations separately for this assignment by 22nd Feb 2026.
-The financial quotations should be sent in soft copy over email at
-rfp@mamtahimc.in
-• by 22nd Feb 2026 with subject line “Quotation for Content replacement (Hindi to Assamese)”. Incomplete applications and applications received after the deadline will not be considered for the selection process. The selection team will only contact applicants who have been shortlisted for the process.
-• MAMTA HIMC has a policy of erasing all confidential information, ideas/concepts submitted in proposals/applications after the selection process is completed. “Confidentiality of Applicants” Mamta shall not be liable to share the list of shortlisted applicants with any party outside the organisation. The organization takes all necessary measures to protect the confidentiality of applicants, and shall not disclose any personal information, process and data related to the application, except as required by law.
-• Job Email ID:
-rfp(at)mamtahimc.in
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-22 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
-Location:
-India
-Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>22-02-2026</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287210</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Catholic Health Association of India (CHAI) | Karnataka
 International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
 • Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
@@ -1023,62 +592,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -1106,38 +669,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Lords Education and Health Society (LEHS) | India
 International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
@@ -1152,43 +715,43 @@
 Sear ... Read More</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Public Health Specialist (Planning Section)</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>The Voluntary Health Services (VHS) | Delhi
 International Development - Public Health Specialist (Planning Section), The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
@@ -1206,7 +769,7 @@
 Login ... Read More</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>• Last date to apply
 February 23, 2026
@@ -1338,62 +901,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -1421,38 +978,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>Governance, Safety</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285813</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Operations Expert</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>The Voluntary Health Services (VHS) | Delhi
 International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
@@ -1473,7 +1030,7 @@
 Jobseekers Log ... Read More</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>• Eligibility Criteria
 Essential Qualifications:
@@ -1567,62 +1124,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -1650,38 +1201,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>23-02-2026</t>
         </is>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr"/>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>RFQ: Construction of New gated check dams, De-siltation, and retrofitting ...</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>WaterAid India | Telangana
 International Development - RFQ: Construction of New gated check dams, De-siltation, and retrofitting of check dam in 6 villages - Telangana, WaterAid India, Telangana - DevNetJobsIndia.org
@@ -1696,7 +1247,7 @@
 S ... Read More</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>• Terms and Conditions:
 Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
@@ -1773,62 +1324,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -1856,44 +1401,44 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>25-02-2026</t>
         </is>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287375</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
 International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>• Scope of work
 The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
@@ -1974,62 +1519,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -2057,66 +1596,54 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>25-02-2026</t>
         </is>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | Odisha
-International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment ...</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Centre for Environment Education (CEE) | Madhya Pradesh, Maharashtra, Telangana
+International Development - RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG, Centre for Environment Education (CEE), Madhya Pradesh, Maharashtra, Telang ... Read More</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>• The project adopts a holistic approach, integrating ecosystem restoration, biodiversity conservation, livelihood strengthening, quality education and capacity building to address the vulnerabilities of marginalized rural populations facing climate change impacts. The quality education work will include improvement in learning outcomes, participation in various competitions, focus on STEM, effective pedagogies, and introduction of 21st century skills (4Cs, problem solving and digital literacy).
+The programme is unique with its multi-regional, multi-faceted and multi-sectoral approach for addressing community needs and restoring the ecosystem that they live in and depend on, exploring convergence where possible. It adopts a planned approach of a ‘zero plus four year’ implementation. The zero-year (Y0) of the programme will end in March 2026.
+A detailed baseline survey in the identified villages and need assessment is being conducted in the zero year, along with some useful community mobilization activities to build trust and goodwill, and strengthen social networks and enable participatory planning.
+The targeted beneficiaries of this programme would be local communities in the identified 35-40 villages specifically including small and marginal farmers, tribal groups, women groups, skilled and unskilled workers, youths, students etc.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-rfp.lehs(at)wadhwaniai.org
+purchase(at)ceeindia.org
 Download Attachment:
-RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
+TOR-CEE-Request for Proposal (RFP) - Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in Agar Malwa District (Madhya Pradesh), Bhimashankar (Manarashtra) and Shadnagar (Telangana.doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -2181,62 +1708,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -2264,38 +1785,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>27-02-2026</t>
         </is>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
+      <c r="H8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287317</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Lords Education and Health Society (LEHS) | Gujarat
 International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
@@ -2309,7 +1830,7 @@
 RFPs/Tender ... Read More</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>• Submission Details
 All proposals to this RFP must be received no later than
@@ -2387,62 +1908,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -2470,54 +1985,73 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>27-02-2026</t>
         </is>
       </c>
-      <c r="H11" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment ...</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Centre for Environment Education (CEE) | Madhya Pradesh, Maharashtra, Telangana
-International Development - RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG, Centre for Environment Education (CEE), Madhya Pradesh, Maharashtra, Telang ... Read More</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>• The project adopts a holistic approach, integrating ecosystem restoration, biodiversity conservation, livelihood strengthening, quality education and capacity building to address the vulnerabilities of marginalized rural populations facing climate change impacts. The quality education work will include improvement in learning outcomes, participation in various competitions, focus on STEM, effective pedagogies, and introduction of 21st century skills (4Cs, problem solving and digital literacy).
-The programme is unique with its multi-regional, multi-faceted and multi-sectoral approach for addressing community needs and restoring the ecosystem that they live in and depend on, exploring convergence where possible. It adopts a planned approach of a ‘zero plus four year’ implementation. The zero-year (Y0) of the programme will end in March 2026.
-A detailed baseline survey in the identified villages and need assessment is being conducted in the zero year, along with some useful community mobilization activities to build trust and goodwill, and strengthen social networks and enable participatory planning.
-The targeted beneficiaries of this programme would be local communities in the identified 35-40 villages specifically including small and marginal farmers, tribal groups, women groups, skilled and unskilled workers, youths, students etc.
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>RFP- for Endline Assessment and Impact Evaluation</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>MAMTA Health Institute for Mother and Child (MAMTA) | Odisha
+International Development - RFP-  for Endline Assessment and Impact Evaluation, MAMTA Health Institute for Mother and Child (MAMTA), Odisha - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Ten ... Read More</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>• 3. Purpose of the RFP
+Mamta HIMC invites proposals from qualified research agencies or consulting firms to conduct a third party comprehensive Endline Assessment and Impact Evaluation study for the project titled:
+"Strengthening Community Processes and Govt. Platforms for Quality Home-Based Kangaroo Mother Care (HB-KMC) for LBW Neonates".
+4. Objective of the study:
+The assessment study will aim to evaluate the effectiveness of the community- and facility-based Kangaroo Mother Care (KMC) intervention in improving coverage, quality, and continuation of KMC practices among eligible low birth weight infants. Specifically, it will assess changes in initiation, duration, and adherence to KMC at facility and household levels, as well as improvements in caregiver knowledge, skills, and supportive practices. The impact evaluation will also examine the effect of the intervention on key newborn health outcomes, and assess implementation performance across facility and community platforms.
+Submission and contact information
+Applications should be sent to
+rfp@mamtahimc.in
+with the subject line: “Proposal for Assessment in Odisha” by (27
+th
+February, 2026).
+Queries related to RFP, can be sent to the same email id with subject line “Proposal for Assessment in Odisha query”.
+Queries will be answered till (24
+th
+February, 2026).
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-purchase(at)ceeindia.org
+rfp(at)mamtahimc.in
 Download Attachment:
-TOR-CEE-Request for Proposal (RFP) - Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in Agar Malwa District (Madhya Pradesh), Bhimashankar (Manarashtra) and Shadnagar (Telangana.doc
+Request for Proposal for Endline Survey- NPT KMC.doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -2582,62 +2116,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -2665,41 +2193,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Safety</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>27-02-2026</t>
         </is>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287317</t>
+      <c r="H10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287391</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>RFP- for Endline Assessment and Impact Evaluation</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>MAMTA Health Institute for Mother and Child (MAMTA) | Odisha
-International Development - RFP-  for Endline Assessment and Impact Evaluation, MAMTA Health Institute for Mother and Child (MAMTA), Odisha - DevNetJobsIndia.org
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Odisha
+International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -2707,31 +2235,24 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Ten ... Read More</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>• 3. Purpose of the RFP
-Mamta HIMC invites proposals from qualified research agencies or consulting firms to conduct a third party comprehensive Endline Assessment and Impact Evaluation study for the project titled:
-"Strengthening Community Processes and Govt. Platforms for Quality Home-Based Kangaroo Mother Care (HB-KMC) for LBW Neonates".
-4. Objective of the study:
-The assessment study will aim to evaluate the effectiveness of the community- and facility-based Kangaroo Mother Care (KMC) intervention in improving coverage, quality, and continuation of KMC practices among eligible low birth weight infants. Specifically, it will assess changes in initiation, duration, and adherence to KMC at facility and household levels, as well as improvements in caregiver knowledge, skills, and supportive practices. The impact evaluation will also examine the effect of the intervention on key newborn health outcomes, and assess implementation performance across facility and community platforms.
-Submission and contact information
-Applications should be sent to
-rfp@mamtahimc.in
-with the subject line: “Proposal for Assessment in Odisha” by (27
-th
-February, 2026).
-Queries related to RFP, can be sent to the same email id with subject line “Proposal for Assessment in Odisha query”.
-Queries will be answered till (24
-th
-February, 2026).
+RFPs/Tenders
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-rfp(at)mamtahimc.in
+rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-Request for Proposal for Endline Survey- NPT KMC.doc
+RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -2796,62 +2317,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -2879,697 +2394,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Safety</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>27-02-2026</t>
         </is>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287391</t>
+      <c r="H11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Construction of New gated check dams, De-siltation, and retrofittin...</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>WaterAid India | Hyderabad, Telangana
-International Development - RFP - Construction of New gated check dams, De-siltation, and  retrofitting of check dam in 6 villages, WaterAid India, Telangana - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders ... Read More</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>• Terms and Conditions:
-Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
-Quotation should send to
-WAIProcurementAP@wateraid.org
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-WAIProcurementAP(at)wateraid.org
-Download Attachment:
-Tender Invitation - 15  Check dams- Amruthavarshini._compressed.pdf
-Download Attachment:
-Tender Invitation - 15  Check dams- Amruthavarshini..docx
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-28 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
-Location:
-India
-Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>28-02-2026</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287360</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>RFP - for Internal Audit -FES Anand</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>Foundation for Ecological Security (FES) | Gujarat
-International Development - RFP - for Internal Audit -FES Anand, Foundation for Ecological Security (FES), Gujarat - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers: ... Read More</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Registered CA firm in India with 5+ years NGO audit experience
-Having offices in Vicinity of FES Office locations.
-Familiarity with NGO specific audit norms
-Qualified team with sectoral knowledge
-No conflict of interest with FES
-At least three professional references from client.
-Proposal Must Include
-Audit methodology
-Team composition &amp; CVs
-Past NGO audit experience
-Detailed fee quotations, either state- wise or in Consolidated format.
-Audit timelines
-Declaration of independence
-Contact
-Hemant@fes.org.in
-|
-+91 7405396926
-Pankaj Garg:
-pankaj.garg@fes.org.in
-|
-+91 9687606949
-Important Dates
-Submission Deadline: February 28th, 2026
-Selection Notification: Within 30 working days
-Please mention “
-Proposal for Internal Audit -FES Anand
-” in the subject line.
-FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-28 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
-Location:
-India
-Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>28-02-2026</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287266</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>RFP - for Quarterly Internal Audits-State Office</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Foundation for Ecological Security (FES) | India
-International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jo ... Read More</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Registered CA firm in India with 5+ years NGO audit experience
-Having offices in Vicinity of FES Office locations.
-Familiarity with NGO specific audit norms
-Qualified team with sectoral knowledge
-No conflict of interest with FES
-At least three professional references from client.
-Proposal Must Include
-Audit methodology
-Team composition &amp; CVs
-Past NGO audit experience
-Detailed fee quotations, Project/state- wise (Listed above).
-Audit timelines
-Declaration of independence
-Contact
-Vishal Prajapati:
-vishal.prajapati@fes.org.in
-|
-+91 7405396926
-Pankaj Garg:
-pankaj.garg@fes.org.in
-|
-+91 9687606949
-Important Dates
-Submission Deadline: February 28th, 2025
-Selection Notification: Within 30 working days
-Mention
-“Proposal for Quarterly Internal Audits-State Office
-”
-in the subject Line.
-FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-28 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
-Location:
-India
-Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>28-02-2026</t>
-        </is>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr"/>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>RFP - for End line Assessment of Access to Iron-Contamination-Free and Flu...</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>WaterAid India | India
 International Development - RFP - for End line Assessment of Access to Iron-Contamination-Free and Fluoride-Contamination-Free Drinking Water, WaterAid India, India - DevNetJobsIndia.org
@@ -3584,7 +2440,7 @@
 Search J ... Read More</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>• 3. Scope of Work
 The selected consultant/firm will undertake the following tasks:
@@ -3731,62 +2587,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -3814,38 +2664,459 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287361</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr"/>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Construction of New gated check dams, De-siltation, and retrofittin...</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>WaterAid India | Hyderabad, Telangana
+International Development - RFP - Construction of New gated check dams, De-siltation, and  retrofitting of check dam in 6 villages, WaterAid India, Telangana - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders ... Read More</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>• Terms and Conditions:
+Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
+Quotation should send to
+WAIProcurementAP@wateraid.org
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+WAIProcurementAP(at)wateraid.org
+Download Attachment:
+Tender Invitation - 15  Check dams- Amruthavarshini._compressed.pdf
+Download Attachment:
+Tender Invitation - 15  Check dams- Amruthavarshini..docx
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+28 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
+Location:
+India
+Apply by:
+27 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287360</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>RFP - for Quarterly Internal Audits-State Office</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Foundation for Ecological Security (FES) | India
+International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jo ... Read More</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Registered CA firm in India with 5+ years NGO audit experience
+Having offices in Vicinity of FES Office locations.
+Familiarity with NGO specific audit norms
+Qualified team with sectoral knowledge
+No conflict of interest with FES
+At least three professional references from client.
+Proposal Must Include
+Audit methodology
+Team composition &amp; CVs
+Past NGO audit experience
+Detailed fee quotations, Project/state- wise (Listed above).
+Audit timelines
+Declaration of independence
+Contact
+Vishal Prajapati:
+vishal.prajapati@fes.org.in
+|
++91 7405396926
+Pankaj Garg:
+pankaj.garg@fes.org.in
+|
++91 9687606949
+Important Dates
+Submission Deadline: February 28th, 2025
+Selection Notification: Within 30 working days
+Mention
+“Proposal for Quarterly Internal Audits-State Office
+”
+in the subject Line.
+FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+28 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
+Location:
+India
+Apply by:
+27 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Proposal Development Associate</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>Academy of Management Studies (AMS) | Uttar Pradesh
 International Development - Proposal Development Associate, Academy of Management Studies (AMS), Uttar Pradesh - DevNetJobsIndia.org
@@ -3863,7 +3134,7 @@
 Lo ... Read More</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>• Eligibility
 PG in any discipline
@@ -4062,62 +3333,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -4145,65 +3410,90 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H18" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285725</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr"/>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Centre for Catalyzing Change (C3) | India
-International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>RFP - for Internal Audit -FES Anand</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Foundation for Ecological Security (FES) | Gujarat
+International Development - RFP - for Internal Audit -FES Anand, Foundation for Ecological Security (FES), Gujarat - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Registe ... Read More</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>• b. Proposal Submission Guidelines
-The applicant should submit the Technical and Financial Proposal in two separate pdf documents
-Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
-X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
-All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
-procument@c3india.org
-on or before the proposal submission time
-The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
-For detailed information, please check the complete version of the RFP attached below.
-Download Attachment:
-RFP for education initiatives_C3.pdf
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers: ... Read More</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Registered CA firm in India with 5+ years NGO audit experience
+Having offices in Vicinity of FES Office locations.
+Familiarity with NGO specific audit norms
+Qualified team with sectoral knowledge
+No conflict of interest with FES
+At least three professional references from client.
+Proposal Must Include
+Audit methodology
+Team composition &amp; CVs
+Past NGO audit experience
+Detailed fee quotations, either state- wise or in Consolidated format.
+Audit timelines
+Declaration of independence
+Contact
+Hemant@fes.org.in
+|
++91 7405396926
+Pankaj Garg:
+pankaj.garg@fes.org.in
+|
++91 9687606949
+Important Dates
+Submission Deadline: February 28th, 2026
+Selection Notification: Within 30 working days
+Please mention “
+Proposal for Internal Audit -FES Anand
+” in the subject line.
+FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-02 Mar 2026
+28 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
@@ -4263,62 +3553,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -4346,9 +3630,604 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287266</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Centre for Catalyzing Change (C3) | India
+International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Registe ... Read More</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>• b. Proposal Submission Guidelines
+The applicant should submit the Technical and Financial Proposal in two separate pdf documents
+Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
+X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
+All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
+procument@c3india.org
+on or before the proposal submission time
+The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+RFP for education initiatives_C3.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+02 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
+Location:
+India
+Apply by:
+27 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>02-03-2026</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr"/>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Project Concern International India (PCI India) | India
+International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>• Last   Date for Submission of bids
+02
+nd
+March 2026
+Proposals   to be submitted at
+procdelhi@pciglobal.in
+Receipt of Proposals
+Technical and Financial   proposals should be submitted as separate attachments
+and to be submitted
+in a single email
+attachments.
+NOTE
+:
+(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+procdelhi(at)pciglobal.in
+Download Attachment:
+RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+02 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
+Location:
+India
+Apply by:
+27 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>02-03-2026</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Jhpiego | India
+International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login ... Read More</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>• Section 4 - Scope of Work
+Section 5 –
+Vendor Information Form– Standard   Template
+Section 6 - Standard   Template of Technical Service Contract
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+jhpin.procurement(at)jhpiego.org
+Download Attachment:
+RFP - Hiring agency for the implementation of biosecurity.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+02 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
+Location:
+India
+Apply by:
+27 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -4357,11 +4236,11 @@
         </is>
       </c>
       <c r="H19" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
         </is>
       </c>
     </row>
@@ -4618,62 +4497,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -4712,7 +4585,7 @@
         </is>
       </c>
       <c r="H20" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
@@ -4729,422 +4602,10 @@
       <c r="B21" s="1" t="inlineStr"/>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
+          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaire...</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>Project Concern International India (PCI India) | India
-International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>• Last   Date for Submission of bids
-02
-nd
-March 2026
-Proposals   to be submitted at
-procdelhi@pciglobal.in
-Receipt of Proposals
-Technical and Financial   proposals should be submitted as separate attachments
-and to be submitted
-in a single email
-attachments.
-NOTE
-:
-(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-procdelhi(at)pciglobal.in
-Download Attachment:
-RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-02 Mar 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
-Location:
-India
-Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G21" s="1" t="inlineStr">
-        <is>
-          <t>02-03-2026</t>
-        </is>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>Jhpiego | India
-International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login ... Read More</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>• Section 4 - Scope of Work
-Section 5 –
-Vendor Information Form– Standard   Template
-Section 6 - Standard   Template of Technical Service Contract
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-jhpin.procurement(at)jhpiego.org
-Download Attachment:
-RFP - Hiring agency for the implementation of biosecurity.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-02 Mar 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
-Latest Jobs
-Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
-Location:
-India
-Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>02-03-2026</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr"/>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaire...</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>Parmarth Samaj Sevi Sansthan | Jhansi, Uttar Pradesh
 International Development - RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool, Parmarth Samaj Sevi Sansthan, Uttar Pradesh - DevNetJobsIndia.org
@@ -5156,7 +4617,7 @@
 Value Mem ... Read More</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>• Introduction and context:
 Parmarth Samaj Sevi Sansthan
@@ -5331,62 +4792,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -5414,22 +4869,478 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2026</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287368</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>RFQ - for Case Study</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
+International Development - RFQ - for Case Study, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseeke ... Read More</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>• Scope of Work
+Mamta–HIMC
+invites quotations from qualified individuals or agencies to develop case studies documenting key program activities. The case studies will be developed focusing on the following components:
+Munni Campaign
+AJJA Campaign
+Pari Campaign
+K4 Campaign
+SJSM
+Routine Sessions
+Breastfeeding
+The selected individual/agency will be required to work across 8–10 districts, with case study selection across seven states/districts as follows:
+One in Uttar Pradesh (UP)
+One in Himachal Pradesh
+One in Rajasthan
+One in Bihar
+One in Assam
+One in Gadchiroli (Maharashtra)
+One in Odisha
+The case studies will focus on documenting the activities listed above, highlighting implementation processes, key achievements, challenges, and best practices.
+Terms of Reference
+Develop
+7 case studies per event
+across each of the 8–10 selected districts.
+Quotations must include a
+breakdown of costs
+for each item (including food, transport, accommodation, and GST).
+The assignment must be
+completed within two months
+from the date of contract acceptance.
+Payment will be released
+upon submission of original documentation
+and
+invoice verification
+.
+Applicable
+tax deductions
+will be made in accordance with Government of India regulations.
+Others
+MAMTA HIMC reserves the right to reject all or any quotation(s), wholly or partly, without assigning any reason whatsoever.
+MAMTA HIMC team reserves the right to request the top 3 quotations for an in-person discussion.
+MAMTA reserves the right, in its sole discretion, to conduct negotiations in accordance with MAMTA and/donor’s policies and procedures and to request additional information from prospective Bidders to supplement or clarify any aspect of the proposal documents if such revisions will be in the interest of our programs
+Only shortlisted agencies will be contacted.
+MAMTA shall not be legally bound by any award notice issued for this RFQ until an Agreement is duly signed and executed with the winning bidder(s).
+Further details will be shared with shortlisted agencies.
+Application Process –
+All applicants (company/agency/institutional) if applicable, should follow the Government of India guidelines/policy for the Prevention of Sexual Harassment (PoSH) at the workplace. As part of the application process, you are required to share the status of the Internal Complaints Committee (ICC). If the committee is not incorporated, then under what criteria is it not enacted?
+Interested agencies/organizations/individuals must submit the proposal for the
+Case Study
+, highlighting the process, portfolio of past work, financial proposal and the timeline for the project. The technical and financial quotations should be sent in soft copy over email at
+rfp@mamtahimc.in
+by
+4
+th
+March 2026 with subject line “Quotation for
+Case Study
+Development for Campaign Activities
+”.
+• The quotations should be made separately for the state of Uttar Pradesh, Rajasthan, Maharashtra, Delhi, Odisha, Himachal Pradesh, Bihar and Jharkhand. We encourage local vendors to apply. Incomplete applications and applications received after the deadline will not be considered for the selection process.
+The selection team will only contact applicants who have been shortlisted for the process.
+• Mamta HIMC has a policy of erasing all confidential information, ideas/concepts submitted in proposals/applications after the selection process is completed.
+"Confidentiality of Applicants"
+Mamta shall not be liable to share the list of shortlisted applicants with any party outside the organization. The organization takes all necessary measures to protect the confidentiality of applicants, and shall not disclose any personal information, process, and data related to the application, except as required by law.
+• Job Email ID:
+rfp(at)mamtahimc.in
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+04 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
+Location:
+India
+Apply by:
+27 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>04-03-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287442</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>RFP- #2026-IN-01- Agency for economic Impact Analysis</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>PATH | Delhi
+International Development - RFP- #2026-IN-01- Agency for economic Impact Analysis, PATH, Delhi - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login
+|
+Register
+Jobseekers Login
+Jobseekers Register
+Job ... Read More</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>• Job Email ID:
+rfpindia(at)path.org
+Download Attachment:
+Request for Proposal - RFP#2026-IN-01- Agency for economic Impact Analysis.doc
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+05 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
+Location:
+India
+Apply by:
+27 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>03-03-2026</t>
+          <t>05-03-2026</t>
         </is>
       </c>
       <c r="H23" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287368</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287460</t>
         </is>
       </c>
     </row>
@@ -5442,10 +5353,347 @@
       <c r="B24" s="1" t="inlineStr"/>
       <c r="C24" s="1" t="inlineStr">
         <is>
+          <t>RFP - Training of Volunteers &amp; Help Desk Operators</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Ghoghardiha Prakhand Swarajya Vikas Sangh (GPSVS) | Bihar, Jharkhand
+International Development - RFP - Training of Volunteers &amp; Help Desk Operators, Ghoghardiha Prakhand Swarajya Vikas Sangh (GPSVS), Bihar, Jharkhand - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast ... Read More</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>• 3. Scope of Work
+The selected agency/consultant will undertake the following:
+3.1 Training Needs Refinement &amp; Curriculum Design
+Review project documents, volunteer roles, and Help Desk functions in
+Bihar context
+.
+Finalise
+training framework, modules, session plans, and learning outcomes
+in consultation with
+GPSVS
+.
+Prepare
+bilingual training materials (Hindi &amp; English where required)
+.
+3.2 Multi-Phase Training Delivery
+The assignment will include
+three structured training phases
+:
+Phase 1 – Orientation &amp; Capacity Building Training
+Foundation-level training for selected volunteers and Help Desk Operators.
+Coverage of:
+government schemes and social protection,
+labour rights and safe migration,
+grievance redressal systems,
+documentation and facilitation processes,
+communication and community mobilisation skills.
+Phase 2 – Refresher Training
+Conducted after initial field implementation.
+Focus on:
+problem solving from real case experiences,
+strengthening facilitation quality and reporting,
+addressing field-level gaps,
+reinforcing convergence with departments and institutions in Bihar.
+Phase 3 – Final Training on Sustainability &amp; Institutionalisation
+Focus on
+long-term sustainability of volunteer and Help Desk systems
+.
+Coverage of:
+strengthening community ownership,
+institutional linkages and referral pathways,
+documentation, data use, and accountability,
+continuation of services beyond the project duration.
+3.3 Mentorship &amp; Handholding Support
+Provide
+structured post-training mentorship
+to volunteers and Help Desk Operators in Bihar.
+Support trainees in:
+resolving real beneficiary cases,
+improving documentation and reporting quality,
+strengthening Help Desk service delivery,
+ensuring sustained application of training learning.
+Submit
+mentorship progress notes and final mentorship report
+.
+3.4 Documentation &amp; Reporting
+The agency will submit:
+training reports with attendance, photographs, and session summaries,
+participant learning assessment results,
+mentorship documentation, and
+a
+final consolidated completion report
+with key learnings and recommendations for Bihar.
+4. Key Deliverables
+Inception note with
+training design, modules, and schedule
+Finalised
+training curriculum and materials
+Completion of:
+Orientation &amp; Capacity Building Training
+Refresher Training
+Final Sustainability Training
+Mentorship implementation and report
+Final
+training completion and learning report
+5. Duration of the Assignment
+Total expected duration:
+6–7 months
+, including:
+preparation and curriculum development,
+delivery of three training phases, and
+mentorship and reporting.
+6. Budget
+The
+budget for this assignment is INR 3,00,000 (Rupees Three Lakh only)
+, aligned with current market standards for professional
+training design, delivery, mentorship, and documentation
+.
+• 7. Eligibility Criteria
+Essential
+Demonstrated experience in
+capacity building, training delivery, or community institution strengthening
+.
+Similar assignments
+with NGOs, CSOs, government programmes, or development agencies.
+Expertise in:
+government schemes and entitlements,
+labour rights / migration, and
+community facilitation systems.
+Desirable
+Familiarity with
+Bihar socio-economic and migration context
+.
+Availability of
+qualified trainers and field mentors
+.
+• 8. Proposal Submission Requirements
+Technical Proposal
+Understanding of the assignment
+Proposed
+training methodology, phased plan, and timeline
+Team composition and trainer/mentor profiles
+Relevant past experience and sample work
+Financial Proposal
+Detailed
+cost breakup within INR 3,00,000
+Taxes clearly indicated
+Quotation validity of
+minimum 60 days
+• 9. Submission Details
+Submission Email:
+amangpsvs@gmail.com
+and
+aparna.lall@welthungerhilfe.de
+CC:
+gpsvsjp@gmail.com
+and
+renita.rajora@welthungerhilfe.de
+Subject Line:
+Application – Training of Volunteers &amp; Help Desk Operators (IND 1389 – Bihar)
+Deadline:
+5
+th
+March 2026
+Only
+shortlisted applicants
+will be contacted.
+• 10. Selection Process
+Proposals will be evaluated through a
+technical and financial assessment
+conducted by the
+procurement committee of GPSVS
+, in alignment with
+donor procurement guidelines
+.
+Shortlisted applicants may be invited for
+clarification or presentation
+prior to final selection.
+The decision of GPSVS will be
+final and binding
+.
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+05 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Operations Expert
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Public Health Specialist (Planning Section)
+The Voluntary Health Services (VHS)
+Location:
+Delhi
+Apply by:
+23 Feb 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
+Location:
+India
+Apply by:
+27 Feb 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>05-03-2026</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287444</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
           <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>PATH | Assam
 International Development - RFP - Onboarding Agency for Revamping Assam LMIS Dashboard, PATH, Assam - DevNetJobsIndia.org
@@ -5467,7 +5715,7 @@
 Jobseekers Registe ... Read More</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>• 3.2. Commercial contracting terms and conditions will be negotiated with the successful supplier at the end of the selection process.
 3.3. By submitting a proposal, the supplier confirms their agreement to abide by the RFP terms and PATH policies, including the
@@ -5614,62 +5862,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -5697,45 +5939,45 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>06-03-2026</t>
         </is>
       </c>
-      <c r="H24" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H25" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287335</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Servic...</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>Small Industries Development Bank of India (SIDBI) | India
 International Development - EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Services under Programmes for Development and Impact, Small Industries Development Bank of India (SIDBI), India - DevNetJobsIndia.org
 Jobseekers ... Read More</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>• Please      note that all the information required as per the documents required for      responding to EOI needs to be provided. Incomplete information in these      areas may lead to non-selection.
 Modification      And/ Or Withdrawal of documents:
@@ -5862,62 +6104,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -5945,38 +6181,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F26" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G26" s="1" t="inlineStr">
         <is>
           <t>06-03-2026</t>
         </is>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H26" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287084</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr"/>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Associate (Programme Management)</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>Indian Institute For Human Settlements (Iihs) | Karnataka
 International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
@@ -5992,7 +6228,7 @@
 Events ... Read More</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
 • To apply
@@ -6073,62 +6309,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -6156,38 +6386,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F27" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>07-03-2026</t>
         </is>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H27" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285747</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr"/>
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>Deutsche Welthungerhilfe | India
 International Development - RFP - Final Evaluation of the Bhoomi Ka Programme, Deutsche Welthungerhilfe, India - DevNetJobsIndia.org
@@ -6208,7 +6438,7 @@
 Jobs ... Read More</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>• INTRODUCTION AND CONTEXT
 Country:
@@ -6330,62 +6560,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -6413,72 +6637,22 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F28" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>08-03-2026</t>
         </is>
       </c>
-      <c r="H27" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H28" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287384</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr"/>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
-International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs ... Read More</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>09-03-2026</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
         </is>
       </c>
     </row>
@@ -6578,62 +6752,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -6672,7 +6840,7 @@
         </is>
       </c>
       <c r="H29" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
@@ -6780,62 +6948,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -6874,7 +7036,7 @@
         </is>
       </c>
       <c r="H30" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
@@ -6891,10 +7053,60 @@
       <c r="B31" s="1" t="inlineStr"/>
       <c r="C31" s="1" t="inlineStr">
         <is>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
+International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs ... Read More</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>09-03-2026</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
           <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -6904,7 +7116,7 @@
 Regis ... Read More</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>• Proposal Requirements
 1. Company Background and Details
@@ -6981,62 +7193,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -7064,44 +7270,44 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F32" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G32" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H31" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H32" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr"/>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr"/>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>RFP - Study On SC-DMPA In Rajasthan- Clients And Providers Perspectives On...</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>Centre For Community Economics And Development Consultants Society- CECOEDECON | Jaipur, Rajasthan
 International Development - RFP - Study On SC-DMPA In Rajasthan- Clients And Providers Perspectives On SC-DMPA In Rajasthan, Centre For Community Economics And Development Consultants Society- CECOEDE ... Read More</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>• Despite India’s achievement of replacement-level fertility, unmet need for contraception—particularly for spacing methods—remains substantial, with modern contraceptive use at 56.4% (2019–21), highlighting persistent gaps in access and choice, especially among vulnerable populations. Expanding the contraceptive method mix through innovative, user-centred approaches is therefore essential to meeting national commitments under FP2030 and the Sustainable Development Goals. In this context, the Government of India’s introduction of subcutaneous DMPA (DMPA-SC) as a self-care option under the National Family Planning Programme in 2023 represents a strategic step toward enhancing women’s autonomy, privacy, and convenience in contraceptive use. Global and national evidence indicates strong feasibility and acceptability of self-administered DMPA-SC among both users and providers; however, successful implementation requires an in-depth understanding of user experiences and health system readiness. This study, to be conducted in Jaipur-1, Jaisalmer and Sawai Madhopur districts of Rajasthan, aims to examine the perspectives &amp; experience of current SC-DMPA users and explore healthcare providers’ views on enabling and generating actionable evidence to inform effective scale-up of SC-DMPA within India’s public health system.
 CECOEDECON, with support from UNFPA, is implementing the roll-out of subcutaneous DMPA (SC-DMPA) in selected pilot districts of Rajasthan in the public health facilities, in collaboration with the Department of Health &amp; Family Welfare, Government of Rajasthan.
@@ -7228,62 +7434,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -7311,38 +7511,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F33" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G33" s="1" t="inlineStr">
         <is>
           <t>11-03-2026</t>
         </is>
       </c>
-      <c r="H32" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H33" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287322</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr"/>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr"/>
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>Specialist – Financial Management and Compliance</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Financial Management and Compliance, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -7356,7 +7556,7 @@
 RFPs/T ... Read More</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>• will play a vital role in a program which seeks to strengthen the internal capacities of non-profit organizations in India across three building blocks of institutional functioning: governance, financial management, and compliance. These areas are deeply interconnected and together determine how effectively an organization operates, delivers programs and meets the expectations of its stakeholders. This position demands expertise in specific areas related to governance, compliance, and financial management, contributing essential guidance and support to strengthen the capabilities of participating organizations.
 Job Responsibilities:
@@ -7461,62 +7661,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -7544,38 +7738,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F34" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G34" s="1" t="inlineStr">
         <is>
           <t>13-03-2026</t>
         </is>
       </c>
-      <c r="H33" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H34" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287015</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr"/>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr"/>
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>RFP - Big IC+ISA RFP - Selection of a Service Provider for Supply, Instal...</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP - Big IC+ISA RFP -  Selection of a Service Provider for Supply, Installation and Operation &amp; Maintenance of 150 ILC Devices and Capacity Building., EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -7584,7 +7778,7 @@
 | ... Read More</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>• 2. Purpose of the RFP:
 2.1  EAII is soliciting bids for:
@@ -7685,62 +7879,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -7768,38 +7956,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F35" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G35" s="1" t="inlineStr">
         <is>
           <t>16-03-2026</t>
         </is>
       </c>
-      <c r="H34" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H35" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287172</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr"/>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr"/>
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>Specialist – Communication</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Communication, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -7815,7 +8003,7 @@
 Eve ... Read More</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist – Communication at FMSF.
 • How to Apply:
@@ -7891,62 +8079,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -7974,38 +8156,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F36" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G36" s="1" t="inlineStr">
         <is>
           <t>19-03-2026</t>
         </is>
       </c>
-      <c r="H35" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H36" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287207</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr"/>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr"/>
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>Specialist - Grants</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist - Grants, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -8022,7 +8204,7 @@
 Job ... Read More</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist - Grants at FMSF.
 You’re Resume to be accompanied with:
@@ -8098,62 +8280,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -8181,38 +8357,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F37" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G37" s="1" t="inlineStr">
         <is>
           <t>21-03-2026</t>
         </is>
       </c>
-      <c r="H36" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H37" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287318</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr"/>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr"/>
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical An...</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>Ashray Foundation | Korba, Chattisgarh (Delivery Location), Gujarat
 International Development - EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support, Ashray Foundation, Gujarat - DevNetJobsIndia.org
@@ -8225,7 +8401,7 @@
 Broadc ... Read More</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>• Ashray Foundation invites eligible and experienced agencies to submit their Expression of Interest / for the following scope of work:
 Fabrication of Mobile Medical Units (MMUs) – 2 Units
@@ -8306,62 +8482,56 @@
 Bihar
 Apply by:
 11 Mar 2026
-Program Manager - Delhi Chapter
-Ullas Trust
-Location:
-Delhi
-Apply by:
-22 Feb 2026
 Latest Jobs
 Post your highlighted jobs here
-Program Management Associate
-(Value Members only)
-Location:
-Maharashtra
-Apply by:
-07 Mar 2026
-Field Co-Ordinator
-Shakti Organisation
-Location:
-Odisha
-Apply by:
-21 Mar 2026
-HR Manager
-Arpan Seva Sansthan
-Location:
-Rajasthan
-Apply by:
-28 Feb 2026
-Consultant In The Textile Waste Management Sector
-Ikaai India
+Individual Consultant  - Consultant for triple El...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Strengthen...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant - Consultant for Promoting ...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Support SmSA, DoE and IC...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Individual Consultant -  Consultant for climate c...
+UNICEF
+Location:
+Rajasthan
+Apply by:
+02 Mar 2026
+Optometrist / Ophthalmic Technician
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+District Project Manager - Nellore
+Operation Eyesight Universal (India)
+Location:
+Andhra Pradesh
+Apply by:
+08 Mar 2026
+Consultant - Livelihoods Strategy Review and Futu...
+ChildFund India
 Location:
 India
 Apply by:
-07 Mar 2026
-Senior Manager
-(Value Members only)
-Location:
-Delhi, Haryana
-Apply by:
-07 Mar 2026
-Block Coordinator
-Jagori Rural Charitable Trust
-Location:
-Himachal Pradesh
-Apply by:
-15 Mar 2026
-Mobilizer
-Yuva Parivartan
-Location:
-Maharashtra
-Apply by:
-20 Mar 2026
-Social Media &amp; Digital Marketing Expert
-Aawahan
-Location:
-Uttar Pradesh
-Apply by:
-10 Mar 2026
+27 Feb 2026
 Jobseekers
 Register
 Login
@@ -8389,49 +8559,22 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F38" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G38" s="1" t="inlineStr">
         <is>
           <t>24-03-2026</t>
         </is>
       </c>
-      <c r="H37" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H38" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I38" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287319</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="inlineStr"/>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G38" s="1" t="inlineStr"/>
-      <c r="H38" s="1" t="inlineStr"/>
-      <c r="I38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
         </is>
       </c>
     </row>
@@ -8444,21 +8587,21 @@
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
+          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr"/>
       <c r="H39" s="1" t="inlineStr"/>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
         </is>
       </c>
     </row>
@@ -8471,21 +8614,21 @@
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
+          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr"/>
       <c r="H40" s="1" t="inlineStr"/>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -8498,21 +8641,21 @@
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
+          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr"/>
       <c r="H41" s="1" t="inlineStr"/>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
         </is>
       </c>
     </row>
@@ -8525,21 +8668,21 @@
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
+          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr"/>
       <c r="H42" s="1" t="inlineStr"/>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -8552,7 +8695,7 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
+          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -8566,7 +8709,7 @@
       <c r="H43" s="1" t="inlineStr"/>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8722,7 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
+          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -8593,7 +8736,7 @@
       <c r="H44" s="1" t="inlineStr"/>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8749,7 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
+          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -8620,7 +8763,7 @@
       <c r="H45" s="1" t="inlineStr"/>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
         </is>
       </c>
     </row>
@@ -8633,21 +8776,21 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
+          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr"/>
       <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
         </is>
       </c>
     </row>
@@ -8660,7 +8803,7 @@
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
+          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -8674,7 +8817,7 @@
       <c r="H47" s="1" t="inlineStr"/>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
         </is>
       </c>
     </row>
@@ -8687,7 +8830,7 @@
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
+          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -8701,7 +8844,7 @@
       <c r="H48" s="1" t="inlineStr"/>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
         </is>
       </c>
     </row>
@@ -8714,21 +8857,21 @@
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
+          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr"/>
       <c r="H49" s="1" t="inlineStr"/>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
         </is>
       </c>
     </row>
@@ -8741,21 +8884,21 @@
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
+          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr"/>
       <c r="H50" s="1" t="inlineStr"/>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
         </is>
       </c>
     </row>
@@ -8768,7 +8911,7 @@
       <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
+          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -8782,7 +8925,7 @@
       <c r="H51" s="1" t="inlineStr"/>
       <c r="I51" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
         </is>
       </c>
     </row>
@@ -8795,7 +8938,7 @@
       <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -8809,7 +8952,7 @@
       <c r="H52" s="1" t="inlineStr"/>
       <c r="I52" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
         </is>
       </c>
     </row>
@@ -8822,7 +8965,7 @@
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -8836,7 +8979,7 @@
       <c r="H53" s="1" t="inlineStr"/>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
         </is>
       </c>
     </row>
@@ -8849,7 +8992,7 @@
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -8863,7 +9006,7 @@
       <c r="H54" s="1" t="inlineStr"/>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
@@ -8876,21 +9019,21 @@
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
+          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr"/>
       <c r="H55" s="1" t="inlineStr"/>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
@@ -8903,56 +9046,48 @@
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
+          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr"/>
       <c r="H56" s="1" t="inlineStr"/>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
+          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G57" s="1" t="inlineStr">
-        <is>
-          <t>10th Feb, 2026</t>
-        </is>
-      </c>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr"/>
       <c r="H57" s="1" t="inlineStr"/>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
         </is>
       </c>
     </row>
@@ -8969,7 +9104,7 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -8987,7 +9122,7 @@
       <c r="H58" s="1" t="inlineStr"/>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
         </is>
       </c>
     </row>
@@ -9004,25 +9139,25 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>15th Dec, 2025</t>
+          <t>10th Feb, 2026</t>
         </is>
       </c>
       <c r="H59" s="1" t="inlineStr"/>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
         </is>
       </c>
     </row>
@@ -9039,25 +9174,25 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
+          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>10th Nov, 2025</t>
+          <t>15th Dec, 2025</t>
         </is>
       </c>
       <c r="H60" s="1" t="inlineStr"/>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
         </is>
       </c>
     </row>
@@ -9074,25 +9209,25 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
+          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>31st Oct, 2025</t>
+          <t>10th Nov, 2025</t>
         </is>
       </c>
       <c r="H61" s="1" t="inlineStr"/>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
         </is>
       </c>
     </row>
@@ -9109,25 +9244,25 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
+          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>21st May, 2025</t>
+          <t>31st Oct, 2025</t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr"/>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
         </is>
       </c>
     </row>
@@ -9144,25 +9279,25 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>15th May, 2025</t>
+          <t>21st May, 2025</t>
         </is>
       </c>
       <c r="H63" s="1" t="inlineStr"/>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
         </is>
       </c>
     </row>
@@ -9179,14 +9314,14 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
@@ -9197,7 +9332,7 @@
       <c r="H64" s="1" t="inlineStr"/>
       <c r="I64" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
         </is>
       </c>
     </row>
@@ -9214,14 +9349,14 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
@@ -9232,7 +9367,7 @@
       <c r="H65" s="1" t="inlineStr"/>
       <c r="I65" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
         </is>
       </c>
     </row>
@@ -9249,14 +9384,14 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
@@ -9267,34 +9402,42 @@
       <c r="H66" s="1" t="inlineStr"/>
       <c r="I66" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>NIUA</t>
+          <t>HCL Foundation</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>Tender</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
+          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="1" t="inlineStr"/>
-      <c r="G67" s="1" t="inlineStr"/>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>15th May, 2025</t>
+        </is>
+      </c>
       <c r="H67" s="1" t="inlineStr"/>
       <c r="I67" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
         </is>
       </c>
     </row>
@@ -9311,7 +9454,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+          <t>Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -9321,7 +9464,7 @@
       <c r="H68" s="1" t="inlineStr"/>
       <c r="I68" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
         </is>
       </c>
     </row>
@@ -9338,7 +9481,7 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>RfP_IGMP_Response to Pre-Bid Queries_200226.pdf</t>
+          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -9348,7 +9491,7 @@
       <c r="H69" s="1" t="inlineStr"/>
       <c r="I69" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP_IGMP_Response%20to%20Pre-Bid%20Queries_200226.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
         </is>
       </c>
     </row>
@@ -9365,7 +9508,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>Corrigendum_1_RfP_IGMP.pdf</t>
+          <t>RfP_IGMP_Response to Pre-Bid Queries_200226.pdf</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -9375,7 +9518,7 @@
       <c r="H70" s="1" t="inlineStr"/>
       <c r="I70" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Corrigendum_1_RfP_IGMP.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP_IGMP_Response%20to%20Pre-Bid%20Queries_200226.pdf</t>
         </is>
       </c>
     </row>
@@ -9392,7 +9535,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
+          <t>Corrigendum_1_RfP_IGMP.pdf</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -9402,7 +9545,7 @@
       <c r="H71" s="1" t="inlineStr"/>
       <c r="I71" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Corrigendum_1_RfP_IGMP.pdf</t>
         </is>
       </c>
     </row>
@@ -9419,7 +9562,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -9429,7 +9572,7 @@
       <c r="H72" s="1" t="inlineStr"/>
       <c r="I72" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9589,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>RfP_SRTW.pdf</t>
+          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -9456,7 +9599,7 @@
       <c r="H73" s="1" t="inlineStr"/>
       <c r="I73" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
         </is>
       </c>
     </row>
@@ -9473,7 +9616,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
+          <t>RfP_SRTW.pdf</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -9483,7 +9626,7 @@
       <c r="H74" s="1" t="inlineStr"/>
       <c r="I74" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9643,7 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -9510,7 +9653,7 @@
       <c r="H75" s="1" t="inlineStr"/>
       <c r="I75" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
         </is>
       </c>
     </row>
@@ -9527,7 +9670,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
+          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -9537,7 +9680,7 @@
       <c r="H76" s="1" t="inlineStr"/>
       <c r="I76" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
         </is>
       </c>
     </row>
@@ -9554,7 +9697,7 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8666471.pdf</t>
+          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -9564,7 +9707,7 @@
       <c r="H77" s="1" t="inlineStr"/>
       <c r="I77" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
         </is>
       </c>
     </row>
@@ -9581,7 +9724,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>corgaudt1.pdf</t>
+          <t>GeM-Bidding-8666471.pdf</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -9591,7 +9734,7 @@
       <c r="H78" s="1" t="inlineStr"/>
       <c r="I78" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9751,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>Corrigendum6959493.pdf</t>
+          <t>corgaudt1.pdf</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -9618,7 +9761,7 @@
       <c r="H79" s="1" t="inlineStr"/>
       <c r="I79" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9778,7 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>ADDENDUM6959493.pdf</t>
+          <t>Corrigendum6959493.pdf</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -9645,7 +9788,7 @@
       <c r="H80" s="1" t="inlineStr"/>
       <c r="I80" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
         </is>
       </c>
     </row>
@@ -9662,7 +9805,7 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
+          <t>ADDENDUM6959493.pdf</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -9672,7 +9815,7 @@
       <c r="H81" s="1" t="inlineStr"/>
       <c r="I81" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
         </is>
       </c>
     </row>
@@ -9689,7 +9832,7 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
+          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -9699,7 +9842,7 @@
       <c r="H82" s="1" t="inlineStr"/>
       <c r="I82" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9859,7 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8478801.pdf</t>
+          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -9726,7 +9869,7 @@
       <c r="H83" s="1" t="inlineStr"/>
       <c r="I83" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
         </is>
       </c>
     </row>
@@ -9743,7 +9886,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8476974.pdf</t>
+          <t>GeM-Bidding-8478801.pdf</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -9753,7 +9896,7 @@
       <c r="H84" s="1" t="inlineStr"/>
       <c r="I84" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
         </is>
       </c>
     </row>
@@ -9770,7 +9913,7 @@
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8497150.pdf</t>
+          <t>GeM-Bidding-8476974.pdf</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -9780,6 +9923,33 @@
       <c r="H85" s="1" t="inlineStr"/>
       <c r="I85" s="1" t="inlineStr">
         <is>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>NIUA</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Tender</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>GeM-Bidding-8497150.pdf</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr"/>
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="1" t="inlineStr"/>
+      <c r="G86" s="1" t="inlineStr"/>
+      <c r="H86" s="1" t="inlineStr"/>
+      <c r="I86" s="1" t="inlineStr">
+        <is>
           <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8497150.pdf</t>
         </is>
       </c>

--- a/all_grants.xlsx
+++ b/all_grants.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,50 +494,53 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maint...</t>
+          <t>RFQ: Construction of New gated check dams, De-siltation, and retrofitting ...</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Catholic Health Association of India (CHAI) | Karnataka
-International Development - RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar, Catholic Health Association of India (CHAI), Karnataka - DevNetJobsIndia.org ... Read More</t>
+          <t>WaterAid India | Telangana
+International Development - RFQ: Construction of New gated check dams, De-siltation, and retrofitting of check dam in 6 villages - Telangana, WaterAid India, Telangana - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+S ... Read More</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>• CHAI invites bids for the Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar (with Net metering) at St. Philomena’s Hospital in Bengaluru, Karnataka (Approx. total size 40 kWp) as per specification given in Scope of Work of Bid Document.
-• Catholic Health Association of India (CHAI) is inviting potential suppliers, with good repute and ability to supply the following required materials and services through procurement method Quality-cum-Cost Based Selection (QCBS). Supplier Selection Processes shall be based on supplier’s ability to offer the most cost effective &amp; competitive rate with high product quality, compliance with technical specifications and requirements, and timely delivery of goods/services.
-We request you to submit your offer as per the specifications detailed in Annexure 1 and the site details provided in Annexure 2. Please submit the cost details as per Annexure 3 and the organizational information as outlined in Annexure 4.
-About CHAI:
-The Catholic Health Association of India (CHAI) is a Network of 3572 Healthcare and Social Service Institutions across India. The network is divided into 11 regional units spanning the length and breadth of the country. By serving 21 million (approximately 1.5% of India’s population) patients annually across the country, most of them poor, CHAI plays a vital role in Indian healthcare. The network’s national reach and deep grassroots presence are a unique and formidable asset, made even stronger by the profound commitment of its volunteers.
-CHAI is a not-for-profit organization that works in various areas of health care, touching the lives of 12 million marginalized people every year. Leveraging the scale and reach of the network of its member institutions, CHAI has been successful in implementing a wide variety of projects in Community Health, Communicable Diseases, Non-Communicable Diseases, Palliative Care, Disability, Disaster Intervention and Strengthening of the Healthcare System.
-Address:
-The Catholic Health Association of India
-157/6, Staff Road, Gunrock Enclave,
-Secunderabad – 500009, Telangana
-REQUIREMENT :
-CHAI hereby invites eligible vendors to bid through this Request for Proposal (RFP) for carrying out the Supply, Installation, Testing and Commissioning including 5 years operation, comprehensive warranty, and maintenance of Grid Connected Rooftop Solar with Net-metering arrangement of total tentative capacity of 40 kWp solar photovolatic to be installed at St. Philomena’s Hospital in Bengaluru, Karnataka. Facility information is detailed in Annexure 2.
-• As part of the proposal, we request you to provide necessary details in Annexure 3 and 4, in accordance with information stipulated under the Terms and Conditions and specifications in Annexure 1 and 2.
-You are requested to revert back with your proposal/quotation on the following email addresses:
-chaipc@chai-india.org
-,
-The communication should be received by CHAI on or before
-23rd February 2026
-For detailed information, please check the complete version of the RFP attached below.
+          <t>• Terms and Conditions:
+Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
+Please quote for WaterAid (Jal Seva Charitable Foundation) contributed works only and community contribution part will be taken care by the community - either in cash or kind.
+Details of community contribution and WaterAid contribution is given in enclosed estimations for your reference.
+Quotation should send to
+WAIProcurementAP@wateraid.org
+For detailed information, please check the complete version of the RFQ attached below.
+• Job Email ID:
+waiprocurementap(at)wateraid.org
 Download Attachment:
-Annexures for RfP.docx
-Download Attachment:
-RfP_Terms of Reference_solar.docx
+Tender Notice-JSCF-Jalsankalp-19.02.26_organized1.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-23 Feb 2026
+25 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -550,24 +553,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -594,54 +579,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -671,20 +656,20 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>23-02-2026</t>
+          <t>25-02-2026</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285914</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287375</t>
         </is>
       </c>
     </row>
@@ -697,156 +682,48 @@
       <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>RFP - For Pilot Testing and Deployment of AgriVaani Application</t>
+          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Lords Education and Health Society (LEHS) | India
-International Development - RFP - For Pilot Testing and Deployment of AgriVaani Application, Lords Education and Health Society (LEHS), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
+          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
+International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285889</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Public Health Specialist (Planning Section)</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>The Voluntary Health Services (VHS) | Delhi
-International Development - Public Health Specialist (Planning Section), The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login ... Read More</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>• Last date to apply
-February 23, 2026
-About VHS:
-The
-Voluntary Health Services (VHS) Chennai supported by Centers for Disease Control and Prevention (CDC) on
-“Accelerating Sustainability of Public Health Systems in India to Prevent, Detect, and Respond to Infectious Disease Outbreaks and Other Public Health Emergencies”
-(named as VHS-CDC Project NIRANTAR).
-The Project NIRANTAR will
-primarily focus on strengthening: a) Workforce Development capacity (WFD); b) One Health (OH); c) Emergency Management and Response Capacity (EMR) &amp; Border Health (BH); d) Implementation of the IHR Monitoring and Evaluation Framework (IHR); and e) Implementation of public health programs (supporting development of an oversight committee).
-The project is currently looking for a
-Public Health Specialist (Planning Section)
-to fulfil the following responsibilities.
-Responsibilities
-Responsible for collecting, evaluating, and disseminating information; developing the jurisdiction’s Action Plan and Situational Status in coordination with other functions; maintaining all EOC documentation.
-Creates or compiles contingency plans for priority threats based on risk assessment and maintains roster of relevant stakeholders who are involved in these plans
-Conducts After Action Reviews and finalizes After Action Report for any national incidents. Supports jurisdictions with AARs as needed.
-Establishes training and exercise schedule for PHEOC staff and jurisdictions (drills, TTX, functional exercises) to test plans
-Ensures that the following responsibilities of the Planning Section are addressed as required:
-Collect, analyze, and display situation information including developing and communicating operational information.
-Prepare periodic Situation Reports
-Prepare and distribute EOC Action Plan and facilitate Action Planning process.
-Prepare protocols for surveillance at community and hospital facilities.
-Track Resources including staff and equipment if applicables
-Developing and documenting objectives, strategies and incident action plans
-Conduct Advance Planning activities including predicting the probable evolution of events and report.
-Document and maintain files on all EOC activities including incident documentation.
-Provide technical support services to the various EOC sections and branches.
-Establishes the appropriate level of organization for the Planning Section.
-Exercises overall responsibility for the coordination of branch / unit activities within the section.
-Support competency-building training for Public Health Emergency Operations Centres (PHEOCs) and emergency management personnel, ensuring systematic training evaluation, mentoring, and follow-up support.
-Keeps the PHEOC Incharge informed of significant issues affecting the Planning Section.
-In coordination with the other Section Chiefs, ensures that Status Reports are completed and utilized as a basis for EOC Situation Reports, and EOC Action Plans.
-Prepares and maintains resource status boards and displays current status and location of tactical resources. Identifying the technical expertise (Subject Matter Experts) that is needed during the response.
-Developing plans for demobilization
-Identifies inaccuracies and conflicting reports.
-Coordinates activities with technical areas (sub-committees) and logistics to capture and centralize resource status information.
-Responsible for planning and implementation of five-tiered Public Health Emergency and Disaster management- Professional Development Programme (PHEDM-PDP) including PHEM Fellowship
-Develop, revise, update and test PHEDM curriculum, incorporating strategic feedback for adaptation, replication, and continuous improvement in content, methodology, and learning outcomes.
-Responsible for planning, development and implementation of RRT and RCCE Training Curriculum
-Responsible for rolling out the training in the identified states which will be decided in discussion with key stakeholders.
-Any other work assigned by the reporting officer.
-• Eligibility Criteria
-Essential Qualifications:
-Any Medical Graduate (MBBS/BDS) with Post Graduation Degree/Diploma (DNB, MD, MPH, DPH) in Public Health/Community Medicine/ Preventive &amp; Social Medicine/Epidemiology (FETP)/ EIS.
-OR
-Any Science Graduate with Doctorate in Public Health and (PhD/DSc or equivalent) or PhD in Public Health/Bio Sciences.
-Essential Experience:
-At least 5 years of post-qualification work experience in the field of public health and disaster management such as management and Planning of Emergency operations Centres or Control room/War Room
-Desirable Experience:
-Working experience of designing and implementing Simulation Exercises.
-Working experience with government health sector preferably Integrated Disease Surveillance Programme, NCDC or EMR Division/Disaster Management Cell, MoHFW or in Public Safety/Security agencies.
-Working experience for health sector preparedness for disasters like flood, cyclone, earthquake etc.
-Demonstrated capability in managing advanced technologies, systems (including plans, policies, and procedures), and workforce.
-Age limit:
-The maximum age limit is 62 years for the above position
-Period of engagement:
-This appointment shall purely be on a contractual basis. The initial contract will be made till Sep 2026, which may be extended based on performance evaluation.
-Remuneration:
-Competitive r
-emuneration commensurate with qualifications and experience, and aligned with prevailing Project norms
-Place of work:
-National Centre for Disease Control (NCDC), Directorate General of Health Services (Dte.GHS), Ministry of Health and Family Welfare (MoHFW), Government of India (GoI)
-• How to apply
-• Job Email ID: admin(at)vhsprojects.org
+          <t>• Scope of work
+The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
+Key responsibilities include:
+Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
+• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
+Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
+Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
+Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
+Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
+Deliverables:
+For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-admin(at)vhsprojects.org
+woscaprocurement(at)gmail.com
+Download Attachment:
+RFP.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-23 Feb 2026
+25 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -859,24 +736,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -903,54 +762,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -978,41 +837,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Safety</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285813</t>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>25-02-2026</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Operations Expert</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>The Voluntary Health Services (VHS) | Delhi
-International Development - Operations Expert, The Voluntary Health Services (VHS), Delhi - DevNetJobsIndia.org
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Gujarat
+International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -1020,56 +879,39 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login
-|
-Register
-Jobseekers Log ... Read More</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Essential Qualifications:
-Any Medical Graduate (MBBS/BDS) with Post Graduation Degree/Diploma (DNB, MD, MPH, DPH) in Public Health/Community Medicine/ Preventive &amp; Social Medicine/Epidemiology (FETP)/ EIS.
-OR
-Any Science Graduate with Doctorate in Public Health and (PhD/DSc or equivalent) or PhD in Public Health/Bio Sciences.
-Essential Experience:
-This position requires five (5) years of experience working on public health programs out of which at least three (3) years of experience at national level on disease surveillance focused on outbreak prone diseases including management of public health emergencies or the public health aspect of disaster management, Health Emergency Operations Centres (HEOC) or Emergency Operations Centres (EOC) or Control room/War Room
-Desirable Experience:
-Working experience in Public Safety/Security agencies
-.
-Subject
-matter
-expert with public health or disaster management or related background
-Working experience for health sector preparedness for disasters like flood, cyclone, earthquake etc.
-Demonstrated capability in managing advanced technologies, systems (including plans, policies, and procedures), and workforce.
-Age limit:
-The maximum age limit is 62 years for the above position (relaxation of 05 years for those candidates who have working experience in military/paramilitary/ law enforcement agencies).
-Period of engagement:
-This appointment shall purely be on a contractual basis. The initial contract will be made till Sep 2026, which may be extended based on performance evaluation.
-Remuneration:
-Competitive r
-emuneration commensurate with qualifications and experience, and aligned with prevailing Project norms
-Place of work:
-National Centre for Disease Control (NCDC), Directorate General of Health Services (Dte.GHS), Ministry of Health and Family Welfare (MoHFW), Government of India (GoI)
-• How to apply
-• Job Email ID: admin(at)vhsprojects.org
+RFPs/Tender ... Read More</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-admin(at)vhsprojects.org
+rfp.lehs(at)wadhwaniai.org
+Download Attachment:
+RFP for English Annotation of Student Voice Recordings 1.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-23 Feb 2026
+27 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -1082,24 +924,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -1126,54 +950,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -1201,41 +1025,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>23-02-2026</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285812</t>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>27-02-2026</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>RFQ: Construction of New gated check dams, De-siltation, and retrofitting ...</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>WaterAid India | Telangana
-International Development - RFQ: Construction of New gated check dams, De-siltation, and retrofitting of check dam in 6 villages - Telangana, WaterAid India, Telangana - DevNetJobsIndia.org
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Lords Education and Health Society (LEHS) | Odisha
+International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -1244,32 +1068,39 @@
 Value Membership
 Broadcast Resume
 RFPs/Tenders
-S ... Read More</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>• Terms and Conditions:
-Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
-Please quote for WaterAid (Jal Seva Charitable Foundation) contributed works only and community contribution part will be taken care by the community - either in cash or kind.
-Details of community contribution and WaterAid contribution is given in enclosed estimations for your reference.
-Quotation should send to
-WAIProcurementAP@wateraid.org
-For detailed information, please check the complete version of the RFQ attached below.
+Sear ... Read More</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>• Submission Details
+All proposals to this RFP must be received no later than
+&lt;February 27th&gt;.
+The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
+rfp.lehs@wadhwaniai.org
+. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
+Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-waiprocurementap(at)wateraid.org
+rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-Tender Notice-JSCF-Jalsankalp-19.02.26_organized1.pdf
+RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-25 Feb 2026
+27 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -1282,24 +1113,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -1326,54 +1139,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -1401,70 +1214,89 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>25-02-2026</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287375</t>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>27-02-2026</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
-International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>• Scope of work
-The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
-Key responsibilities include:
-Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
-• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
-Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
-Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
-Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
-Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
-Deliverables:
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>RFP- for Endline Assessment and Impact Evaluation</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>MAMTA Health Institute for Mother and Child (MAMTA) | Odisha
+International Development - RFP-  for Endline Assessment and Impact Evaluation, MAMTA Health Institute for Mother and Child (MAMTA), Odisha - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Ten ... Read More</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>• 3. Purpose of the RFP
+Mamta HIMC invites proposals from qualified research agencies or consulting firms to conduct a third party comprehensive Endline Assessment and Impact Evaluation study for the project titled:
+"Strengthening Community Processes and Govt. Platforms for Quality Home-Based Kangaroo Mother Care (HB-KMC) for LBW Neonates".
+4. Objective of the study:
+The assessment study will aim to evaluate the effectiveness of the community- and facility-based Kangaroo Mother Care (KMC) intervention in improving coverage, quality, and continuation of KMC practices among eligible low birth weight infants. Specifically, it will assess changes in initiation, duration, and adherence to KMC at facility and household levels, as well as improvements in caregiver knowledge, skills, and supportive practices. The impact evaluation will also examine the effect of the intervention on key newborn health outcomes, and assess implementation performance across facility and community platforms.
+Submission and contact information
+Applications should be sent to
+rfp@mamtahimc.in
+with the subject line: “Proposal for Assessment in Odisha” by (27
+th
+February, 2026).
+Queries related to RFP, can be sent to the same email id with subject line “Proposal for Assessment in Odisha query”.
+Queries will be answered till (24
+th
+February, 2026).
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-woscaprocurement(at)gmail.com
+rfp(at)mamtahimc.in
 Download Attachment:
-RFP.docx
+Request for Proposal for Endline Survey- NPT KMC.doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-25 Feb 2026
+27 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -1477,24 +1309,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -1521,54 +1335,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -1596,44 +1410,44 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>25-02-2026</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Safety</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>27-02-2026</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287391</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr"/>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment ...</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Centre for Environment Education (CEE) | Madhya Pradesh, Maharashtra, Telangana
 International Development - RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG, Centre for Environment Education (CEE), Madhya Pradesh, Maharashtra, Telang ... Read More</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>• The project adopts a holistic approach, integrating ecosystem restoration, biodiversity conservation, livelihood strengthening, quality education and capacity building to address the vulnerabilities of marginalized rural populations facing climate change impacts. The quality education work will include improvement in learning outcomes, participation in various competitions, focus on STEM, effective pedagogies, and introduction of 21st century skills (4Cs, problem solving and digital literacy).
 The programme is unique with its multi-regional, multi-faceted and multi-sectoral approach for addressing community needs and restoring the ecosystem that they live in and depend on, exploring convergence where possible. It adopts a planned approach of a ‘zero plus four year’ implementation. The zero-year (Y0) of the programme will end in March 2026.
@@ -1654,6 +1468,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -1666,24 +1486,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -1710,54 +1512,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -1785,41 +1587,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Climate, Governance, Learning</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>27-02-2026</t>
         </is>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287317</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | Gujarat
-International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Construction of New gated check dams, De-siltation, and retrofittin...</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>WaterAid India | Hyderabad, Telangana
+International Development - RFP - Construction of New gated check dams, De-siltation, and  retrofitting of check dam in 6 villages, WaterAid India, Telangana - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -1827,33 +1629,38 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tender ... Read More</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
+RFPs/Tenders ... Read More</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>• Terms and Conditions:
+Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
+Quotation should send to
+WAIProcurementAP@wateraid.org
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-rfp.lehs(at)wadhwaniai.org
+WAIProcurementAP(at)wateraid.org
 Download Attachment:
-RFP for English Annotation of Student Voice Recordings 1.pdf
+Tender Invitation - 15  Check dams- Amruthavarshini._compressed.pdf
+Download Attachment:
+Tender Invitation - 15  Check dams- Amruthavarshini..docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-27 Feb 2026
+28 Feb 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -1866,24 +1673,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -1910,54 +1699,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -1985,447 +1774,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>27-02-2026</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="n">
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287360</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>RFP- for Endline Assessment and Impact Evaluation</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>MAMTA Health Institute for Mother and Child (MAMTA) | Odisha
-International Development - RFP-  for Endline Assessment and Impact Evaluation, MAMTA Health Institute for Mother and Child (MAMTA), Odisha - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Ten ... Read More</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>• 3. Purpose of the RFP
-Mamta HIMC invites proposals from qualified research agencies or consulting firms to conduct a third party comprehensive Endline Assessment and Impact Evaluation study for the project titled:
-"Strengthening Community Processes and Govt. Platforms for Quality Home-Based Kangaroo Mother Care (HB-KMC) for LBW Neonates".
-4. Objective of the study:
-The assessment study will aim to evaluate the effectiveness of the community- and facility-based Kangaroo Mother Care (KMC) intervention in improving coverage, quality, and continuation of KMC practices among eligible low birth weight infants. Specifically, it will assess changes in initiation, duration, and adherence to KMC at facility and household levels, as well as improvements in caregiver knowledge, skills, and supportive practices. The impact evaluation will also examine the effect of the intervention on key newborn health outcomes, and assess implementation performance across facility and community platforms.
-Submission and contact information
-Applications should be sent to
-rfp@mamtahimc.in
-with the subject line: “Proposal for Assessment in Odisha” by (27
-th
-February, 2026).
-Queries related to RFP, can be sent to the same email id with subject line “Proposal for Assessment in Odisha query”.
-Queries will be answered till (24
-th
-February, 2026).
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-rfp(at)mamtahimc.in
-Download Attachment:
-Request for Proposal for Endline Survey- NPT KMC.doc
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-27 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Latest Jobs
-Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
-Location:
-India
-Apply by:
-27 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Safety</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>27-02-2026</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287391</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Lords Education and Health Society (LEHS) | Odisha
-International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>• Submission Details
-All proposals to this RFP must be received no later than
-&lt;February 27th&gt;.
-The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
-rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
-Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-rfp.lehs(at)wadhwaniai.org
-Download Attachment:
-RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-27 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Latest Jobs
-Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
-Location:
-India
-Apply by:
-27 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>Learning, Safety</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>27-02-2026</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>RFP - for End line Assessment of Access to Iron-Contamination-Free and Flu...</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>WaterAid India | India
 International Development - RFP - for End line Assessment of Access to Iron-Contamination-Free and Fluoride-Contamination-Free Drinking Water, WaterAid India, India - DevNetJobsIndia.org
@@ -2440,7 +1820,7 @@
 Search J ... Read More</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>• 3. Scope of Work
 The selected consultant/firm will undertake the following tasks:
@@ -2533,6 +1913,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -2545,24 +1931,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -2589,54 +1957,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -2664,41 +2032,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287361</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Construction of New gated check dams, De-siltation, and retrofittin...</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>WaterAid India | Hyderabad, Telangana
-International Development - RFP - Construction of New gated check dams, De-siltation, and  retrofitting of check dam in 6 villages, WaterAid India, Telangana - DevNetJobsIndia.org
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>RFP - for Internal Audit -FES Anand</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Foundation for Ecological Security (FES) | Gujarat
+International Development - RFP - for Internal Audit -FES Anand, Foundation for Ecological Security (FES), Gujarat - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -2706,22 +2074,43 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tenders ... Read More</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>• Terms and Conditions:
-Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
-Quotation should send to
-WAIProcurementAP@wateraid.org
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-WAIProcurementAP(at)wateraid.org
-Download Attachment:
-Tender Invitation - 15  Check dams- Amruthavarshini._compressed.pdf
-Download Attachment:
-Tender Invitation - 15  Check dams- Amruthavarshini..docx
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers: ... Read More</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Registered CA firm in India with 5+ years NGO audit experience
+Having offices in Vicinity of FES Office locations.
+Familiarity with NGO specific audit norms
+Qualified team with sectoral knowledge
+No conflict of interest with FES
+At least three professional references from client.
+Proposal Must Include
+Audit methodology
+Team composition &amp; CVs
+Past NGO audit experience
+Detailed fee quotations, either state- wise or in Consolidated format.
+Audit timelines
+Declaration of independence
+Contact
+Hemant@fes.org.in
+|
++91 7405396926
+Pankaj Garg:
+pankaj.garg@fes.org.in
+|
++91 9687606949
+Important Dates
+Submission Deadline: February 28th, 2026
+Selection Notification: Within 30 working days
+Please mention “
+Proposal for Internal Audit -FES Anand
+” in the subject line.
+FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -2732,6 +2121,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -2744,24 +2139,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -2788,54 +2165,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -2863,38 +2240,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287360</t>
+      <c r="H10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287266</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>RFP - for Quarterly Internal Audits-State Office</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>Foundation for Ecological Security (FES) | India
 International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
@@ -2911,7 +2288,7 @@
 Jo ... Read More</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>• Eligibility Criteria
 Registered CA firm in India with 5+ years NGO audit experience
@@ -2954,6 +2331,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -2966,24 +2349,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -3010,54 +2375,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -3085,38 +2450,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Proposal Development Associate</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>Academy of Management Studies (AMS) | Uttar Pradesh
 International Development - Proposal Development Associate, Academy of Management Studies (AMS), Uttar Pradesh - DevNetJobsIndia.org
@@ -3134,7 +2499,7 @@
 Lo ... Read More</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>• Eligibility
 PG in any discipline
@@ -3279,6 +2644,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3291,24 +2662,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -3335,54 +2688,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -3410,95 +2763,76 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>Governance, Learning</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285725</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>RFP - for Internal Audit -FES Anand</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>Foundation for Ecological Security (FES) | Gujarat
-International Development - RFP - for Internal Audit -FES Anand, Foundation for Ecological Security (FES), Gujarat - DevNetJobsIndia.org
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Centre for Catalyzing Change (C3) | India
+International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers: ... Read More</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Registered CA firm in India with 5+ years NGO audit experience
-Having offices in Vicinity of FES Office locations.
-Familiarity with NGO specific audit norms
-Qualified team with sectoral knowledge
-No conflict of interest with FES
-At least three professional references from client.
-Proposal Must Include
-Audit methodology
-Team composition &amp; CVs
-Past NGO audit experience
-Detailed fee quotations, either state- wise or in Consolidated format.
-Audit timelines
-Declaration of independence
-Contact
-Hemant@fes.org.in
-|
-+91 7405396926
-Pankaj Garg:
-pankaj.garg@fes.org.in
-|
-+91 9687606949
-Important Dates
-Submission Deadline: February 28th, 2026
-Selection Notification: Within 30 working days
-Please mention “
-Proposal for Internal Audit -FES Anand
-” in the subject line.
-FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
+Registe ... Read More</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>• b. Proposal Submission Guidelines
+The applicant should submit the Technical and Financial Proposal in two separate pdf documents
+Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
+X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
+All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
+procument@c3india.org
+on or before the proposal submission time
+The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
+For detailed information, please check the complete version of the RFP attached below.
+Download Attachment:
+RFP for education initiatives_C3.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-28 Feb 2026
+02 Mar 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3511,24 +2845,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -3555,54 +2871,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -3630,60 +2946,68 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>28-02-2026</t>
-        </is>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287266</t>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>02-03-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr"/>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>Centre for Catalyzing Change (C3) | India
-International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Jhpiego | India
+International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Registe ... Read More</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>• b. Proposal Submission Guidelines
-The applicant should submit the Technical and Financial Proposal in two separate pdf documents
-Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
-X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
-All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
-procument@c3india.org
-on or before the proposal submission time
-The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login ... Read More</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>• Section 4 - Scope of Work
+Section 5 –
+Vendor Information Form– Standard   Template
+Section 6 - Standard   Template of Technical Service Contract
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+jhpin.procurement(at)jhpiego.org
 Download Attachment:
-RFP for education initiatives_C3.pdf
+RFP - Hiring agency for the implementation of biosecurity.pdf
+Download Attachment:
+MOM - Pre-bid.doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -3694,6 +3018,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -3706,24 +3036,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -3750,54 +3062,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -3825,438 +3137,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>02-03-2026</t>
         </is>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
+      <c r="H14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr"/>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Project Concern International India (PCI India) | India
-International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>• Last   Date for Submission of bids
-02
-nd
-March 2026
-Proposals   to be submitted at
-procdelhi@pciglobal.in
-Receipt of Proposals
-Technical and Financial   proposals should be submitted as separate attachments
-and to be submitted
-in a single email
-attachments.
-NOTE
-:
-(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-procdelhi(at)pciglobal.in
-Download Attachment:
-RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-02 Mar 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Latest Jobs
-Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
-Location:
-India
-Apply by:
-27 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
-        <is>
-          <t>02-03-2026</t>
-        </is>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr"/>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring Agency/Organisation for the implementation of biosecurity at ...</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Jhpiego | India
-International Development - RFP - Hiring Agency/Organisation for the implementation of biosecurity at human – Animal interfaces, Jhpiego, India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login ... Read More</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>• Section 4 - Scope of Work
-Section 5 –
-Vendor Information Form– Standard   Template
-Section 6 - Standard   Template of Technical Service Contract
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-jhpin.procurement(at)jhpiego.org
-Download Attachment:
-RFP - Hiring agency for the implementation of biosecurity.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-02 Mar 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Latest Jobs
-Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
-Location:
-India
-Apply by:
-27 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>02-03-2026</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287080</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr"/>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>RFP - for Website Maintenance and Hosting</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
 International Development - RFP - for Website Maintenance and Hosting, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
@@ -4271,7 +3183,7 @@
 Search ... Read More</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>• 2. Scope of Work
 Website
@@ -4443,6 +3355,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -4455,24 +3373,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -4499,54 +3399,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -4574,38 +3474,225 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>02-03-2026</t>
         </is>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287390</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Project Concern International India (PCI India) | India
+International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>• Last   Date for Submission of bids
+02
+nd
+March 2026
+Proposals   to be submitted at
+procdelhi@pciglobal.in
+Receipt of Proposals
+Technical and Financial   proposals should be submitted as separate attachments
+and to be submitted
+in a single email
+attachments.
+NOTE
+:
+(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+procdelhi(at)pciglobal.in
+Download Attachment:
+RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+02 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Teacher
+Initiative Sewa Foundation
+Location:
+India
+Apply by:
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>02-03-2026</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaire...</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>Parmarth Samaj Sevi Sansthan | Jhansi, Uttar Pradesh
 International Development - RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool, Parmarth Samaj Sevi Sansthan, Uttar Pradesh - DevNetJobsIndia.org
@@ -4617,7 +3704,7 @@
 Value Mem ... Read More</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>• Introduction and context:
 Parmarth Samaj Sevi Sansthan
@@ -4738,6 +3825,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -4750,24 +3843,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -4794,54 +3869,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -4869,38 +3944,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>03-03-2026</t>
         </is>
       </c>
-      <c r="H21" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287368</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr"/>
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>RFQ - for Case Study</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>MAMTA Health Institute for Mother and Child (MAMTA) | India
 International Development - RFQ - for Case Study, MAMTA Health Institute for Mother and Child (MAMTA), India - DevNetJobsIndia.org
@@ -4917,7 +3992,7 @@
 Jobseeke ... Read More</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>• Scope of Work
 Mamta–HIMC
@@ -4993,6 +4068,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5005,24 +4086,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -5049,54 +4112,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -5124,239 +4187,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F18" s="1" t="inlineStr">
         <is>
           <t>Safety</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G18" s="1" t="inlineStr">
         <is>
           <t>04-03-2026</t>
         </is>
       </c>
-      <c r="H22" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H18" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287442</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr"/>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>RFP- #2026-IN-01- Agency for economic Impact Analysis</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>PATH | Delhi
-International Development - RFP- #2026-IN-01- Agency for economic Impact Analysis, PATH, Delhi - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers:
-Login
-|
-Register
-Jobseekers Login
-Jobseekers Register
-Job ... Read More</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>• Job Email ID:
-rfpindia(at)path.org
-Download Attachment:
-Request for Proposal - RFP#2026-IN-01- Agency for economic Impact Analysis.doc
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-05 Mar 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Latest Jobs
-Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
-Location:
-India
-Apply by:
-27 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>05-03-2026</t>
-        </is>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287460</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr"/>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr"/>
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>RFP - Training of Volunteers &amp; Help Desk Operators</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>Ghoghardiha Prakhand Swarajya Vikas Sangh (GPSVS) | Bihar, Jharkhand
 International Development - RFP - Training of Volunteers &amp; Help Desk Operators, Ghoghardiha Prakhand Swarajya Vikas Sangh (GPSVS), Bihar, Jharkhand - DevNetJobsIndia.org
@@ -5369,7 +4231,7 @@
 Broadcast ... Read More</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>• 3. Scope of Work
 The selected agency/consultant will undertake the following:
@@ -5531,6 +4393,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5543,24 +4411,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -5587,54 +4437,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -5662,38 +4512,703 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F19" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G19" s="1" t="inlineStr">
         <is>
           <t>05-03-2026</t>
         </is>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287444</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>ToR - State And National Level Consolidation Study On Government Schemes, ...</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Life Education And Development Support (Leads) And Ghoghardiha Prakhand Swarajya Vikas Sangh (GPSVS) | Jharkhand, Bihar
+International Development - ToR - State And National Level Consolidation Study On Government Schemes, Labour Rights &amp; Grievance Mechanisms - Safe Employment Guidebooks..., Life Ed ... Read More</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>• 3. Scope of Work
+The consultant/agency will adopt a policy-research and systems-analysis approach encompassing the following components:
+3.1 State &amp; National Policy Mapping
+Review relevant government schemes, labour laws, operational guidelines, and institutional mandates.
+Conduct comparative analysis of state and national policy frameworks affecting migrant and unorganised workers.
+Map implementation pathways, departmental roles, and convergence structures.
+3.2 Access Pathway &amp; Exclusion Analysis
+• Examine eligibility criteria, documentation requirements, approval timelines, and rejection points.
+Identify systemic barriers affecting migrant access to entitlements and services.
+Analyse exclusion patterns linked to migration vulnerability and livelihood insecurity.
+3.3 Review of Grievance Redressal Mechanisms
+Map complaint systems, escalation hierarchies, and response timelines at state and national levels.
+Assess field-level effectiveness, accessibility, and usability.
+Identify gaps between policy provisions and implementation realities.
+3.4 Development of Safe Employment Guidebook
+Consolidate state and national provisions into structured, user-friendly knowledge.
+Develop two comprehensive Safe Employment Guidebooks (Hindi &amp; English) covering:
+safe migration processes and precautions,
+labour rights, entitlements, and protections,
+access to government schemes and grievance systems,
+contextual chapters on Jharkhand and Bihar.
+3.5 Validation and Finalisation
+Present draft outputs to LEADS, GPSVS, and WHH for technical review.
+Incorporate feedback and revisions.
+Submit final research report and two complete Safe Employment Guidebooks.
+4. Expected Deliverables
+Inception report with methodology and detailed work plan
+State and national policy mapping document
+Draft analytical research report
+Draft Safe Employment Guidebooks (Hindi &amp; English)
+Final Safe Employment Guidebooks in Hindi and English including Jharkhand &amp; Bihar chapters
+Final validated research report.
+5. Duration and Level of Effort
+The assignment is expected to be completed within 10 weeks from contract signing, with clearly defined review milestones and iterative consultation with programme stakeholders.
+6. Profile of the Consultant / Agency
+Essential
+Demonstrated experience in policy research, migration, labour rights, or social protection.
+Similar assignments with NGOs, CSOs, research institutions, or development agencies.
+Strong analytical writing, documentation, and publication development capacity.
+Desirable
+Experience with EU or internationally funded development programmes.
+Familiarity with migration contexts in Bihar, Jharkhand, or eastern India.
+Ability to produce high-quality bilingual (Hindi &amp; English) knowledge resources.
+7. Application Process
+Interested applicants should submit:
+Technical Proposal
+Understanding of the assignment
+Proposed methodology, timeline, and work plan
+Team composition and relevant experience
+Samples of previous research or publication work
+Financial Proposal
+Detailed professional fee structure
+Applicable taxes clearly indicated
+Validity of quotation (minimum 60 days)
+• 8. Submission Details
+Submission Email:
+amangpsvs@gmail.com
+,
+manishleadsjh@gmail.com
+and
+aparna.lall@welthungerhilfe.de
+CC:
+leadsindiajh@gmail.com
+;
+gpsvsjp@gmail.com
+; and
+renita.rajora@welthungerhilfe.de
+Subject
+: Application – State &amp; National Consolidation Study (IND 1389)
+Locations
+: Jharkhand: Khunti, Simdega, Ramgarh, Bihar: Madhubani, Supaul, Darbhanga
+Deadline
+: 5th March 2026
+9. Budget
+The budget for this assignment is INR 5,00,000 (Rupees Five Lakh only) inclusive all taxes.
+• 10. Selection Process
+Proposals will be assessed through a technical and financial evaluation process conducted by the procurement committee.
+Shortlisted applicants may be invited for clarification or presentation prior to final selection. The decision of the committee shall be final and binding.
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+05 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Teacher
+Initiative Sewa Foundation
+Location:
+India
+Apply by:
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>05-03-2026</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287504</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>RFP- #2026-IN-01- Agency for economic Impact Analysis</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>PATH | Delhi
+International Development - RFP- #2026-IN-01- Agency for economic Impact Analysis, PATH, Delhi - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers:
+Login
+|
+Register
+Jobseekers Login
+Jobseekers Register
+Job ... Read More</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>• Job Email ID:
+rfpindia(at)path.org
+Download Attachment:
+Request for Proposal - RFP#2026-IN-01- Agency for economic Impact Analysis.doc
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+05 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Teacher
+Initiative Sewa Foundation
+Location:
+India
+Apply by:
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>05-03-2026</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287460</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Servic...</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Small Industries Development Bank of India (SIDBI) | India
+International Development - EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Services under Programmes for Development and Impact, Small Industries Development Bank of India (SIDBI), India - DevNetJobsIndia.org
+Jobseekers ... Read More</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>• Please      note that all the information required as per the documents required for      responding to EOI needs to be provided. Incomplete information in these      areas may lead to non-selection.
+Modification      And/ Or Withdrawal of documents:
+Documents once submitted will      be treated as final and no further correspondence will be entertained. No      document shall be modified after the deadline for submission of documents      in response to the EOI. Also, no Respondent shall be allowed to withdraw      any document, if the Respondent happens to be a successful      Respondent.
+SIDBI      has the right to reject any or all documents received without assigning      any reason whatsoever.
+NOTE:
+SIDBI SHALL NOT BE RESPONSIBLE FOR NON-RECEIPT / NON-DELIVERY OF THE DOCUMENTS DUE TO ANY REASON, WHATSOEVER.
+Critical Information
+Events
+Particular / Date and Time
+Tender No
+SIDBI/REOI/68279
+Tender Issue Date
+13/02/2026
+Last date for seeking Clarification on EOI document
+20/02/2026
+All queries relating to the EoI must be in writing only   and to be sent via
+email on.
+pdi@sidbi.in
+and
+mayankp@sidbi.in
+Pre EOI meeting
+25/02/2026
+The meeting shall be virtual / online over MS Teams Call.   Meeting Link will be shared separately to all the bidder
+Last date for submission of EoI
+06/03/2026
+Bids to submitted through email only at:
+pdi@sidbi.in
+and
+mayankp@sidbi.in
+Independent External Monitor
+Shri Sanjay Kumar Srivastava, IAS (Retd.),
+Apartment T-6 B,
+Windsor Court, DLF Phase-IV
+Gurgaon-122009
+Mobile No-9910059472
+E-mail:
+sksrivastava7854@rediffmail.com
+Dr. Parvez Hayat, IPS (Retd.),
+B-4/69- A, Safdarjung Enclave
+New Delhi-110029
+Mobile-9810134469
+E-Mail:
+phayatips@gmail.com
+• Contact details of SIDBI officials
+Shri Mohammed Adil Ahsan
+Asst. General Manager,
+Programmes for Development &amp; Impact [PDI]
+SIDBI Tower, 15, Ashok Marg, Lucknow – 226001
+Ph: 0522-4261631
+Email:
+mdadil@sidbi.in
+Shri Mayank Prakash
+Theme Leader – Monitoring &amp; Evaluation
+Programmes for Development &amp; Impact [PDI]
+SIDBI Tower, 15, Ashok Marg, Lucknow – 226001
+Ph: 0522 - 4259 626
+Email
+mayankp@sidbi.in
+For detailed information, please check the complete version of the EoI attached below.
+Download Attachment:
+EOI for empanelment of Imapact assesment agencies_1202026.pdf
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+06 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+Teacher
+Initiative Sewa Foundation
+Location:
+India
+Apply by:
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>06-03-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287444</t>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287084</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>PATH | Assam
 International Development - RFP - Onboarding Agency for Revamping Assam LMIS Dashboard, PATH, Assam - DevNetJobsIndia.org
@@ -5715,7 +5230,7 @@
 Jobseekers Registe ... Read More</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>• 3.2. Commercial contracting terms and conditions will be negotiated with the successful supplier at the end of the selection process.
 3.3. By submitting a proposal, the supplier confirms their agreement to abide by the RFP terms and PATH policies, including the
@@ -5808,6 +5323,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -5820,24 +5341,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -5864,54 +5367,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -5939,117 +5442,86 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>06-03-2026</t>
         </is>
       </c>
-      <c r="H25" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287335</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr"/>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Servic...</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Small Industries Development Bank of India (SIDBI) | India
-International Development - EoI - For Empanelment of agencies for Impact Assessment/ Evaluation Services under Programmes for Development and Impact, Small Industries Development Bank of India (SIDBI), India - DevNetJobsIndia.org
-Jobseekers ... Read More</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>• Please      note that all the information required as per the documents required for      responding to EOI needs to be provided. Incomplete information in these      areas may lead to non-selection.
-Modification      And/ Or Withdrawal of documents:
-Documents once submitted will      be treated as final and no further correspondence will be entertained. No      document shall be modified after the deadline for submission of documents      in response to the EOI. Also, no Respondent shall be allowed to withdraw      any document, if the Respondent happens to be a successful      Respondent.
-SIDBI      has the right to reject any or all documents received without assigning      any reason whatsoever.
-NOTE:
-SIDBI SHALL NOT BE RESPONSIBLE FOR NON-RECEIPT / NON-DELIVERY OF THE DOCUMENTS DUE TO ANY REASON, WHATSOEVER.
-Critical Information
-Events
-Particular / Date and Time
-Tender No
-SIDBI/REOI/68279
-Tender Issue Date
-13/02/2026
-Last date for seeking Clarification on EOI document
-20/02/2026
-All queries relating to the EoI must be in writing only   and to be sent via
-email on.
-pdi@sidbi.in
-and
-mayankp@sidbi.in
-Pre EOI meeting
-25/02/2026
-The meeting shall be virtual / online over MS Teams Call.   Meeting Link will be shared separately to all the bidder
-Last date for submission of EoI
-06/03/2026
-Bids to submitted through email only at:
-pdi@sidbi.in
-and
-mayankp@sidbi.in
-Independent External Monitor
-Shri Sanjay Kumar Srivastava, IAS (Retd.),
-Apartment T-6 B,
-Windsor Court, DLF Phase-IV
-Gurgaon-122009
-Mobile No-9910059472
-E-mail:
-sksrivastava7854@rediffmail.com
-Dr. Parvez Hayat, IPS (Retd.),
-B-4/69- A, Safdarjung Enclave
-New Delhi-110029
-Mobile-9810134469
-E-Mail:
-phayatips@gmail.com
-• Contact details of SIDBI officials
-Shri Mohammed Adil Ahsan
-Asst. General Manager,
-Programmes for Development &amp; Impact [PDI]
-SIDBI Tower, 15, Ashok Marg, Lucknow – 226001
-Ph: 0522-4261631
-Email:
-mdadil@sidbi.in
-Shri Mayank Prakash
-Theme Leader – Monitoring &amp; Evaluation
-Programmes for Development &amp; Impact [PDI]
-SIDBI Tower, 15, Ashok Marg, Lucknow – 226001
-Ph: 0522 - 4259 626
-Email
-mayankp@sidbi.in
-For detailed information, please check the complete version of the EoI attached below.
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Associate (Programme Management)</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Indian Institute For Human Settlements (Iihs) | Karnataka
+International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events ... Read More</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
+• To apply
+If you are interested in exploring this opportunity with us, please fill the online
+application form
+by clicking here. (You can also click on the “
+Apply Now
+” button at the end of the Job Description displayed on the website).
+Contact
+Please write to us at
+hr@iihs.co.in
+if you need any clarifications while filling the online application form.
+• Job Email ID:
+hr(at)iihs.co.in
 Download Attachment:
-EOI for empanelment of Imapact assesment agencies_1202026.pdf
+Associate-Programme-Management-–-ASSURE-Lighthouse-Projects.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
 Apply by:
-06 Mar 2026
+07 Mar 2026
 Access all the jobs and get ahead!
 Subscribe to Value Membership Now!
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -6062,24 +5534,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -6106,54 +5560,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -6181,243 +5635,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
-        <is>
-          <t>06-03-2026</t>
-        </is>
-      </c>
-      <c r="H26" s="1" t="n">
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>07-03-2026</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="I26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287084</t>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285747</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>Associate (Programme Management)</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>Indian Institute For Human Settlements (Iihs) | Karnataka
-International Development - Associate (Programme Management), Indian Institute For Human Settlements (Iihs), Karnataka - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events ... Read More</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>• IIHS is an equal opportunity employer that encourages women, people with disabilities and those from economically and socially excluded communities with the requisite skills and qualifications to apply for positions.
-• To apply
-If you are interested in exploring this opportunity with us, please fill the online
-application form
-by clicking here. (You can also click on the “
-Apply Now
-” button at the end of the Job Description displayed on the website).
-Contact
-Please write to us at
-hr@iihs.co.in
-if you need any clarifications while filling the online application form.
-• Job Email ID:
-hr(at)iihs.co.in
-Download Attachment:
-Associate-Programme-Management-–-ASSURE-Lighthouse-Projects.pdf
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-07 Mar 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Latest Jobs
-Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
-Location:
-India
-Apply by:
-27 Feb 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F27" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>07-03-2026</t>
-        </is>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285747</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr"/>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>Deutsche Welthungerhilfe | India
 International Development - RFP - Final Evaluation of the Bhoomi Ka Programme, Deutsche Welthungerhilfe, India - DevNetJobsIndia.org
@@ -6438,7 +5687,7 @@
 Jobs ... Read More</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>• INTRODUCTION AND CONTEXT
 Country:
@@ -6506,6 +5755,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -6518,24 +5773,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -6562,54 +5799,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -6637,41 +5874,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>08-03-2026</t>
         </is>
       </c>
-      <c r="H28" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H25" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287384</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Hiring of an International Audit Firm</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
-International Development - RFP - Hiring of an International Audit Firm, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
+International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -6679,15 +5916,69 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tender ... Read More</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>• Job Email ID:
-tender.projects(at)cdri.world
+RFPs ... Read More</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>Climate, Governance</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>09-03-2026</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>EAII Advisors Pvt Ltd | Andhra Pradesh
+International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Ho ... Read More</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>• Proposal Requirements
+1. Company Background and Details
+A. Company Profile
+Overview of the firm or firms submitting the bid, including a brief history, information about organizational structure, relevant company financials, location of offices, number of employees, relevant certifications, or any other information that could be pertinent.
+Supplier Response:
+Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
+For detailed information, please check the complete version of the RFP attached below.
 Download Attachment:
-RFP-Hiring International Audit Firm-20 Feb'26.pdf
+Standalone IC RFP Technical Evaluation Response Template.docx
+Download Attachment:
+Telugu_Standalone IC RFP Technical Evaluation Response Template.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -6698,6 +5989,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -6710,24 +6007,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -6754,54 +6033,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -6829,49 +6108,48 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H29" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287382</t>
+      <c r="H27" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr"/>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablet...</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr"/>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
-International Development - RFP For The Contractors To Procure, Build, Install, Supply Chlorine Tablets, Operate And Maintain Tablet-Based In Line Chlorination Devices, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
+International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
-Register
-Ho ... Read More</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
+Regis ... Read More</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>• Proposal Requirements
 1. Company Background and Details
@@ -6881,9 +6159,9 @@
 Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
 For detailed information, please check the complete version of the RFP attached below.
 Download Attachment:
-Standalone IC RFP Technical Evaluation Response Template.docx
+Standalone ISA RFP Technical Evaluation Response Template (1).docx
 Download Attachment:
-Telugu_Standalone IC RFP Technical Evaluation Response Template.docx
+Telugu_Standalone ISA RFP Technical Evaluation Response Template.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -6894,6 +6172,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -6906,24 +6190,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -6950,54 +6216,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -7025,41 +6291,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H30" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285949</t>
+      <c r="H28" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr"/>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Hiring of an International Audit Firm</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>Coalition for Disaster Resilient Infrastructure (CDRI) | India
-International Development - RFP - Early-Stage Impact Assessment-CDRI SWP 23-26, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
+International Development - RFP - Hiring of an International Audit Firm, Coalition for Disaster Resilient Infrastructure (CDRI), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -7067,68 +6333,15 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs ... Read More</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F31" s="1" t="inlineStr">
-        <is>
-          <t>Climate, Governance</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr">
-        <is>
-          <t>09-03-2026</t>
-        </is>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287093</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr"/>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>RFP For Selection of an Implementation Support Agency (Isa) For Capacity B...</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>EAII Advisors Pvt Ltd | Andhra Pradesh
-International Development - RFP For Selection of an Implementation Support Agency (Isa) For Capacity Building Of Community Leaders To Conduct Community Engagement Activities, EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Regis ... Read More</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>• Proposal Requirements
-1. Company Background and Details
-A. Company Profile
-Overview of the firm or firms submitting the bid, including a brief history, information about organizational structure, relevant company financials, location of offices, number of employees, relevant certifications, or any other information that could be pertinent.
-Supplier Response:
-Kindly fill in the column “Bidder Response”. The current inputs are guiding inputs or choices for answers. Kindly fill in accordingly.
-For detailed information, please check the complete version of the RFP attached below.
+RFPs/Tender ... Read More</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>• Job Email ID:
+tender.projects(at)cdri.world
 Download Attachment:
-Standalone ISA RFP Technical Evaluation Response Template (1).docx
-Download Attachment:
-Telugu_Standalone ISA RFP Technical Evaluation Response Template.docx
+RFP-Hiring International Audit Firm-20 Feb'26.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -7139,6 +6352,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -7151,24 +6370,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -7195,54 +6396,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -7270,44 +6471,44 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Learning</t>
-        </is>
-      </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>09-03-2026</t>
         </is>
       </c>
-      <c r="H32" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285950</t>
+      <c r="H29" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287382</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr"/>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr"/>
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>RFP - Study On SC-DMPA In Rajasthan- Clients And Providers Perspectives On...</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>Centre For Community Economics And Development Consultants Society- CECOEDECON | Jaipur, Rajasthan
 International Development - RFP - Study On SC-DMPA In Rajasthan- Clients And Providers Perspectives On SC-DMPA In Rajasthan, Centre For Community Economics And Development Consultants Society- CECOEDE ... Read More</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>• Despite India’s achievement of replacement-level fertility, unmet need for contraception—particularly for spacing methods—remains substantial, with modern contraceptive use at 56.4% (2019–21), highlighting persistent gaps in access and choice, especially among vulnerable populations. Expanding the contraceptive method mix through innovative, user-centred approaches is therefore essential to meeting national commitments under FP2030 and the Sustainable Development Goals. In this context, the Government of India’s introduction of subcutaneous DMPA (DMPA-SC) as a self-care option under the National Family Planning Programme in 2023 represents a strategic step toward enhancing women’s autonomy, privacy, and convenience in contraceptive use. Global and national evidence indicates strong feasibility and acceptability of self-administered DMPA-SC among both users and providers; however, successful implementation requires an in-depth understanding of user experiences and health system readiness. This study, to be conducted in Jaipur-1, Jaisalmer and Sawai Madhopur districts of Rajasthan, aims to examine the perspectives &amp; experience of current SC-DMPA users and explore healthcare providers’ views on enabling and generating actionable evidence to inform effective scale-up of SC-DMPA within India’s public health system.
 CECOEDECON, with support from UNFPA, is implementing the roll-out of subcutaneous DMPA (SC-DMPA) in selected pilot districts of Rajasthan in the public health facilities, in collaboration with the Department of Health &amp; Family Welfare, Government of Rajasthan.
@@ -7380,6 +6581,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -7392,24 +6599,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -7436,54 +6625,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -7511,38 +6700,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F30" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G30" s="1" t="inlineStr">
         <is>
           <t>11-03-2026</t>
         </is>
       </c>
-      <c r="H33" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H30" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287322</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr"/>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr"/>
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Specialist – Financial Management and Compliance</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Financial Management and Compliance, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -7556,7 +6745,7 @@
 RFPs/T ... Read More</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>• will play a vital role in a program which seeks to strengthen the internal capacities of non-profit organizations in India across three building blocks of institutional functioning: governance, financial management, and compliance. These areas are deeply interconnected and together determine how effectively an organization operates, delivers programs and meets the expectations of its stakeholders. This position demands expertise in specific areas related to governance, compliance, and financial management, contributing essential guidance and support to strengthen the capabilities of participating organizations.
 Job Responsibilities:
@@ -7607,6 +6796,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -7619,24 +6814,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -7663,54 +6840,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -7738,38 +6915,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>13-03-2026</t>
         </is>
       </c>
-      <c r="H34" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H31" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287015</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr"/>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr"/>
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>RFP - Big IC+ISA RFP - Selection of a Service Provider for Supply, Instal...</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>EAII Advisors Pvt Ltd | Andhra Pradesh
 International Development - RFP - Big IC+ISA RFP -  Selection of a Service Provider for Supply, Installation and Operation &amp; Maintenance of 150 ILC Devices and Capacity Building., EAII Advisors Pvt Ltd, Andhra Pradesh - DevNetJobsIndia.org
@@ -7778,7 +6955,7 @@
 | ... Read More</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>• 2. Purpose of the RFP:
 2.1  EAII is soliciting bids for:
@@ -7825,6 +7002,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -7837,24 +7020,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -7881,54 +7046,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -7956,38 +7121,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F32" s="1" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G32" s="1" t="inlineStr">
         <is>
           <t>16-03-2026</t>
         </is>
       </c>
-      <c r="H35" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H32" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287172</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr"/>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr"/>
+      <c r="C33" s="1" t="inlineStr">
         <is>
           <t>Specialist – Communication</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist – Communication, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -8003,7 +7168,7 @@
 Eve ... Read More</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist – Communication at FMSF.
 • How to Apply:
@@ -8025,6 +7190,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -8037,24 +7208,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -8081,54 +7234,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -8156,38 +7309,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F33" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G33" s="1" t="inlineStr">
         <is>
           <t>19-03-2026</t>
         </is>
       </c>
-      <c r="H36" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H33" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287207</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr"/>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr"/>
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>Specialist - Grants</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr">
         <is>
           <t>Financial Management Service Foundation (FMSF) | Uttar Pradesh
 International Development - Specialist - Grants, Financial Management Service Foundation (FMSF), Uttar Pradesh - DevNetJobsIndia.org
@@ -8204,7 +7357,7 @@
 Job ... Read More</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>• Joining FMSF means becoming part of a passionate team dedicated to making a positive impact. We offer competitive compensation, opportunities for professional development, and a supportive work environment where your contributions are valued and recognized. If you are committed to driving positive change, promoting accountability and strengthening the development sector, we encourage you to apply for the position of Specialist - Grants at FMSF.
 You’re Resume to be accompanied with:
@@ -8226,6 +7379,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -8238,24 +7397,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -8282,54 +7423,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -8357,38 +7498,38 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F34" s="1" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G34" s="1" t="inlineStr">
         <is>
           <t>21-03-2026</t>
         </is>
       </c>
-      <c r="H37" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H34" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287318</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr"/>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr"/>
+      <c r="C35" s="1" t="inlineStr">
         <is>
           <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical An...</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>Ashray Foundation | Korba, Chattisgarh (Delivery Location), Gujarat
 International Development - EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support, Ashray Foundation, Gujarat - DevNetJobsIndia.org
@@ -8401,7 +7542,7 @@
 Broadc ... Read More</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>• Ashray Foundation invites eligible and experienced agencies to submit their Expression of Interest / for the following scope of work:
 Fabrication of Mobile Medical Units (MMUs) – 2 Units
@@ -8428,6 +7569,12 @@
 Subscribe
 Premium Jobs
 Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
 Specialist - Grants
 Financial Management Service Foundation (FMSF)
 Location:
@@ -8440,24 +7587,6 @@
 Uttar Pradesh
 Apply by:
 13 Mar 2026
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Operations Expert
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
-Public Health Specialist (Planning Section)
-The Voluntary Health Services (VHS)
-Location:
-Delhi
-Apply by:
-23 Feb 2026
 Proposal Development Associate
 Academy of Management Studies (AMS)
 Location:
@@ -8484,54 +7613,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Individual Consultant  - Consultant for triple El...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Strengthen...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant - Consultant for Promoting ...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Support SmSA, DoE and IC...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Individual Consultant -  Consultant for climate c...
-UNICEF
-Location:
-Rajasthan
-Apply by:
-02 Mar 2026
-Optometrist / Ophthalmic Technician
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-District Project Manager - Nellore
-Operation Eyesight Universal (India)
-Location:
-Andhra Pradesh
-Apply by:
-08 Mar 2026
-Consultant - Livelihoods Strategy Review and Futu...
-ChildFund India
+Teacher
+Initiative Sewa Foundation
 Location:
 India
 Apply by:
-27 Feb 2026
+26 Mar 2026
+State Maternal Health Consultant
+Inductus Limited
+Location:
+Madhya Pradesh
+Apply by:
+03 Mar 2026
+State Manager – Policy &amp; Strategic Initiatives
+ChangeInkk Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Program Coordinator
+Sampark Foundation
+Location:
+Odisha
+Apply by:
+26 Mar 2026
+Sr Manager/Manager- New Acquisitions - Corporate ...
+Smile Foundation
+Location:
+Delhi
+Apply by:
+26 Mar 2026
+One Health Advisor - Focus on One Health and Agro...
+Deutsche Gesellschaft für Internationale Zusammen...
+Location:
+Madhya Pradesh
+Apply by:
+10 Mar 2026
+Admin &amp; Finance Associate
+Quest Alliance
+Location:
+Gujarat
+Apply by:
+26 Mar 2026
+RFP - Procurement of Printing &amp; supply of IEC mat...
+Foundation for Innovative New Diagnostics India  ...
+Location:
+India
+Apply by:
+17 Mar 2026
 Jobseekers
 Register
 Login
@@ -8559,22 +7688,103 @@
 Recruitment Exchange</t>
         </is>
       </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>24-03-2026</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287319</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr"/>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr"/>
+      <c r="H36" s="1" t="inlineStr"/>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr"/>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr"/>
+      <c r="H37" s="1" t="inlineStr"/>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Nasscom</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr"/>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G38" s="1" t="inlineStr">
-        <is>
-          <t>24-03-2026</t>
-        </is>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>29</v>
-      </c>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr"/>
+      <c r="H38" s="1" t="inlineStr"/>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287319</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
         </is>
       </c>
     </row>
@@ -8587,21 +7797,21 @@
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>RFP for Endline Evaluation Study - HSBC GCC Women Entrepreneurship Program - Click here</t>
+          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr"/>
       <c r="H39" s="1" t="inlineStr"/>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/endline-evaluation-study-hsbc-gcc-women-entrepreneurship-program.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
         </is>
       </c>
     </row>
@@ -8614,21 +7824,21 @@
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps - Click here</t>
+          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr"/>
       <c r="H40" s="1" t="inlineStr"/>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
         </is>
       </c>
     </row>
@@ -8641,7 +7851,7 @@
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program - Click here | Click here</t>
+          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
@@ -8655,7 +7865,7 @@
       <c r="H41" s="1" t="inlineStr"/>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
         </is>
       </c>
     </row>
@@ -8668,21 +7878,21 @@
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>RFP for Catering Vendor - IBM Skillbuild Bootcamps - Click here</t>
+          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr"/>
       <c r="H42" s="1" t="inlineStr"/>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/rfp-for-catering-vendor-ibm-skillbuild-bootcamps.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
         </is>
       </c>
     </row>
@@ -8695,7 +7905,7 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation - Click here</t>
+          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -8709,7 +7919,7 @@
       <c r="H43" s="1" t="inlineStr"/>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
         </is>
       </c>
     </row>
@@ -8722,21 +7932,21 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposal (RFP) for Social Media Management Services - Click here</t>
+          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr"/>
       <c r="H44" s="1" t="inlineStr"/>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
         </is>
       </c>
     </row>
@@ -8749,21 +7959,21 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>RFP - TechForSociety - Evaluation Study - Click here</t>
+          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr"/>
       <c r="H45" s="1" t="inlineStr"/>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
         </is>
       </c>
     </row>
@@ -8776,21 +7986,21 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
+          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr"/>
       <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
         </is>
       </c>
     </row>
@@ -8803,21 +8013,21 @@
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
+          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr"/>
       <c r="H47" s="1" t="inlineStr"/>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
         </is>
       </c>
     </row>
@@ -8830,7 +8040,7 @@
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
+          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -8844,7 +8054,7 @@
       <c r="H48" s="1" t="inlineStr"/>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
         </is>
       </c>
     </row>
@@ -8857,7 +8067,7 @@
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -8871,7 +8081,7 @@
       <c r="H49" s="1" t="inlineStr"/>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
         </is>
       </c>
     </row>
@@ -8884,21 +8094,21 @@
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr"/>
       <c r="H50" s="1" t="inlineStr"/>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
         </is>
       </c>
     </row>
@@ -8911,7 +8121,7 @@
       <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
+          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -8925,7 +8135,7 @@
       <c r="H51" s="1" t="inlineStr"/>
       <c r="I51" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
@@ -8938,7 +8148,7 @@
       <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
+          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -8952,7 +8162,7 @@
       <c r="H52" s="1" t="inlineStr"/>
       <c r="I52" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
         </is>
       </c>
     </row>
@@ -8965,21 +8175,21 @@
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
+          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr"/>
       <c r="H53" s="1" t="inlineStr"/>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
         </is>
       </c>
     </row>
@@ -8992,7 +8202,7 @@
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -9006,74 +8216,94 @@
       <c r="H54" s="1" t="inlineStr"/>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr"/>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G55" s="1" t="inlineStr"/>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>10th Feb, 2026</t>
+        </is>
+      </c>
       <c r="H55" s="1" t="inlineStr"/>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="inlineStr"/>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G56" s="1" t="inlineStr"/>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>10th Feb, 2026</t>
+        </is>
+      </c>
       <c r="H56" s="1" t="inlineStr"/>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr"/>
+          <t>HCL Foundation</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
+          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -9083,11 +8313,15 @@
           <t>Learning</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr"/>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>15th Dec, 2025</t>
+        </is>
+      </c>
       <c r="H57" s="1" t="inlineStr"/>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
         </is>
       </c>
     </row>
@@ -9104,25 +8338,25 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards Biodiversity monitoring for Pan-India Afforestation sites</t>
+          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>10th Feb, 2026</t>
+          <t>10th Nov, 2025</t>
         </is>
       </c>
       <c r="H58" s="1" t="inlineStr"/>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Biodiversity%20monitoring%20for%20Pan-India%20Afforestation%20sites%202-DSB.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
         </is>
       </c>
     </row>
@@ -9139,25 +8373,25 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit, invites RFP from NGOs / CSR organizations/ agencies / Institutions working towards soil profiling and assessment from the restored and rejuvenated Harit sites.</t>
+          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>10th Feb, 2026</t>
+          <t>31st Oct, 2025</t>
         </is>
       </c>
       <c r="H59" s="1" t="inlineStr"/>
       <c r="I59" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2026-01/RFP_Soil%20assessment-v1%20RKS-DSB_0.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
         </is>
       </c>
     </row>
@@ -9174,25 +8408,25 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites proposals from NGOs/CSR implementing agencies for ‘Operating a Social Enterprise Cafe” under the flagship urban development programme - Uday</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>15th Dec, 2025</t>
+          <t>21st May, 2025</t>
         </is>
       </c>
       <c r="H60" s="1" t="inlineStr"/>
       <c r="I60" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-11/RfP_Social%20Enterprise%20Cafe_UDAY.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
         </is>
       </c>
     </row>
@@ -9209,25 +8443,25 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>Programme Officer/Senior Programme Officer – Environment Education</t>
+          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>10th Nov, 2025</t>
+          <t>15th May, 2025</t>
         </is>
       </c>
       <c r="H61" s="1" t="inlineStr"/>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/Harit_POSPO_EEA_Multilocation_Oct%202025.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
         </is>
       </c>
     </row>
@@ -9244,25 +8478,25 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites applications for the PO/SPO position under its flagship programme Harit by HCLFoundation</t>
+          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>31st Oct, 2025</t>
+          <t>15th May, 2025</t>
         </is>
       </c>
       <c r="H62" s="1" t="inlineStr"/>
       <c r="I62" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-10/JD_Water%20Conservation_SPO%20V4.pdf</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
         </is>
       </c>
     </row>
@@ -9279,25 +8513,25 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit by HCLFoundation, invites RFP from NGOs / CSR organizations working in Water Conservation for the development of Water Structures etc.</t>
+          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>21st May, 2025</t>
+          <t>15th May, 2025</t>
         </is>
       </c>
       <c r="H63" s="1" t="inlineStr"/>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Final_RFP%20for%20water%20structure%20rejuvenation%20.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
         </is>
       </c>
     </row>
@@ -9314,14 +8548,14 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the developing technology drive source code model mobile applications and web portals for addressing human-animal interactions under the Animal Welfare thematic of  Harit by HCLFoundation</t>
+          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
@@ -9332,112 +8566,88 @@
       <c r="H64" s="1" t="inlineStr"/>
       <c r="I64" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_AW%20Tech%20Based%20Source%20Code%20Model_V1%20%281%29.docx</t>
+          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
+          <t>NIUA</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tender</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation, under its Environment flagship programme Harit invites RFP from NGOs/CSR organizations working in the field of environment for project on the restoration of various degraded and natural habitats</t>
+          <t>Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="1" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G65" s="1" t="inlineStr">
-        <is>
-          <t>15th May, 2025</t>
-        </is>
-      </c>
+      <c r="F65" s="1" t="inlineStr"/>
+      <c r="G65" s="1" t="inlineStr"/>
       <c r="H65" s="1" t="inlineStr"/>
       <c r="I65" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/Harit_A%20HR_RFP%20.docx</t>
+          <t>https://niua.in/sites/default/files/tenders/Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
+          <t>NIUA</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tender</t>
         </is>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites EOI for conducting holistic and comprehensive Impact Assessments of environmental projects supported under Harit by HCLFoundation</t>
+          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G66" s="1" t="inlineStr">
-        <is>
-          <t>15th May, 2025</t>
-        </is>
-      </c>
+      <c r="F66" s="1" t="inlineStr"/>
+      <c r="G66" s="1" t="inlineStr"/>
       <c r="H66" s="1" t="inlineStr"/>
       <c r="I66" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_Harit%20Impact%20Assessments.docx</t>
+          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>HCL Foundation</t>
+          <t>NIUA</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tender</t>
         </is>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>HCLFoundation invites technical application abstracts for the conducting technical and highly engaging environment awareness and sustainability workshops under Harit by HCLFoundation</t>
+          <t>RfP_IGMP_Response to Pre-Bid Queries_200226.pdf</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="1" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="G67" s="1" t="inlineStr">
-        <is>
-          <t>15th May, 2025</t>
-        </is>
-      </c>
+      <c r="F67" s="1" t="inlineStr"/>
+      <c r="G67" s="1" t="inlineStr"/>
       <c r="H67" s="1" t="inlineStr"/>
       <c r="I67" s="1" t="inlineStr">
         <is>
-          <t>https://www.hclfoundation.org/sites/default/files/2025-04/EoI_EEA_Env%20%20Sus%20awareness%20workshops_FY%2025-26%20%281%29.docx</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP_IGMP_Response%20to%20Pre-Bid%20Queries_200226.pdf</t>
         </is>
       </c>
     </row>
@@ -9454,7 +8664,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
+          <t>Corrigendum_1_RfP_IGMP.pdf</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -9464,7 +8674,7 @@
       <c r="H68" s="1" t="inlineStr"/>
       <c r="I68" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Quotation_for_Rate_Contrac_Vehicle_Hiring_for_NCR_or_Outstation..pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Corrigendum_1_RfP_IGMP.pdf</t>
         </is>
       </c>
     </row>
@@ -9481,7 +8691,7 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -9491,7 +8701,7 @@
       <c r="H69" s="1" t="inlineStr"/>
       <c r="I69" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Final_RfP_UrbanShift_Preparation_of_Integrated_Green_Mobility_Plan_for_Pune.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
         </is>
       </c>
     </row>
@@ -9508,7 +8718,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>RfP_IGMP_Response to Pre-Bid Queries_200226.pdf</t>
+          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -9518,7 +8728,7 @@
       <c r="H70" s="1" t="inlineStr"/>
       <c r="I70" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP_IGMP_Response%20to%20Pre-Bid%20Queries_200226.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
         </is>
       </c>
     </row>
@@ -9535,7 +8745,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>Corrigendum_1_RfP_IGMP.pdf</t>
+          <t>RfP_SRTW.pdf</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -9545,7 +8755,7 @@
       <c r="H71" s="1" t="inlineStr"/>
       <c r="I71" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Corrigendum_1_RfP_IGMP.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
         </is>
       </c>
     </row>
@@ -9562,7 +8772,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>RFP_Engagement of GIS Expert_SCBP_2026.pdf</t>
+          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -9572,7 +8782,7 @@
       <c r="H72" s="1" t="inlineStr"/>
       <c r="I72" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RFP_Engagement%20of%20GIS%20Expert_SCBP_2026.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
         </is>
       </c>
     </row>
@@ -9589,7 +8799,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -9599,7 +8809,7 @@
       <c r="H73" s="1" t="inlineStr"/>
       <c r="I73" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Response_to_Queries_Engagement_of_GIS_Expert_Agency.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
         </is>
       </c>
     </row>
@@ -9616,7 +8826,7 @@
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>RfP_SRTW.pdf</t>
+          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -9626,7 +8836,7 @@
       <c r="H74" s="1" t="inlineStr"/>
       <c r="I74" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP_SRTW.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
         </is>
       </c>
     </row>
@@ -9643,7 +8853,7 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>Response to Pre-Bid Queries_SRTW_for Uploading.pdf</t>
+          <t>GeM-Bidding-8666471.pdf</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -9653,7 +8863,7 @@
       <c r="H75" s="1" t="inlineStr"/>
       <c r="I75" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Response%20to%20Pre-Bid%20Queries_SRTW_for%20Uploading.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
         </is>
       </c>
     </row>
@@ -9670,7 +8880,7 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+          <t>corgaudt1.pdf</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -9680,7 +8890,7 @@
       <c r="H76" s="1" t="inlineStr"/>
       <c r="I76" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/EOI_TECHNICAL_ASSISTANCE_UNDER_CITIIS_2.0_PROGRAM_DOMESTIC_POOL_OF_EXPERTS.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
         </is>
       </c>
     </row>
@@ -9697,7 +8907,7 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>Reply to Pre- Bid Queries - EOI for DE's under CITIIS 2.0.pdf</t>
+          <t>Corrigendum6959493.pdf</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -9707,7 +8917,7 @@
       <c r="H77" s="1" t="inlineStr"/>
       <c r="I77" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Reply%20to%20Pre-%20Bid%20Queries%20-%20EOI%20for%20DE%27s%20under%20CITIIS%202.0.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
         </is>
       </c>
     </row>
@@ -9724,7 +8934,7 @@
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>GeM-Bidding-8666471.pdf</t>
+          <t>ADDENDUM6959493.pdf</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -9734,7 +8944,7 @@
       <c r="H78" s="1" t="inlineStr"/>
       <c r="I78" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8666471.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
         </is>
       </c>
     </row>
@@ -9751,7 +8961,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>corgaudt1.pdf</t>
+          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -9761,7 +8971,7 @@
       <c r="H79" s="1" t="inlineStr"/>
       <c r="I79" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/corgaudt1.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
         </is>
       </c>
     </row>
@@ -9778,7 +8988,7 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>Corrigendum6959493.pdf</t>
+          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -9788,7 +8998,7 @@
       <c r="H80" s="1" t="inlineStr"/>
       <c r="I80" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Corrigendum6959493.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
         </is>
       </c>
     </row>
@@ -9805,7 +9015,7 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>ADDENDUM6959493.pdf</t>
+          <t>GeM-Bidding-8478801.pdf</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -9815,7 +9025,7 @@
       <c r="H81" s="1" t="inlineStr"/>
       <c r="I81" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/ADDENDUM6959493.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
         </is>
       </c>
     </row>
@@ -9832,7 +9042,7 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>RfP CJ&amp;IP Package 03_UrbanShift.pdf</t>
+          <t>GeM-Bidding-8476974.pdf</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -9842,7 +9052,7 @@
       <c r="H82" s="1" t="inlineStr"/>
       <c r="I82" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/RfP%20CJ%26IP%20Package%2003_UrbanShift.pdf</t>
+          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
         </is>
       </c>
     </row>
@@ -9859,7 +9069,7 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>Prebid reply Cj&amp;IP package 3_18.12.2025.pdf</t>
+          <t>GeM-Bidding-8497150.pdf</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -9869,87 +9079,6 @@
       <c r="H83" s="1" t="inlineStr"/>
       <c r="I83" s="1" t="inlineStr">
         <is>
-          <t>https://niua.in/sites/default/files/tenders/Prebid%20reply%20Cj%26IP%20package%203_18.12.2025.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C84" s="1" t="inlineStr">
-        <is>
-          <t>GeM-Bidding-8478801.pdf</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="inlineStr"/>
-      <c r="E84" s="2" t="inlineStr"/>
-      <c r="F84" s="1" t="inlineStr"/>
-      <c r="G84" s="1" t="inlineStr"/>
-      <c r="H84" s="1" t="inlineStr"/>
-      <c r="I84" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8478801.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C85" s="1" t="inlineStr">
-        <is>
-          <t>GeM-Bidding-8476974.pdf</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr"/>
-      <c r="E85" s="2" t="inlineStr"/>
-      <c r="F85" s="1" t="inlineStr"/>
-      <c r="G85" s="1" t="inlineStr"/>
-      <c r="H85" s="1" t="inlineStr"/>
-      <c r="I85" s="1" t="inlineStr">
-        <is>
-          <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8476974.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>NIUA</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="inlineStr">
-        <is>
-          <t>Tender</t>
-        </is>
-      </c>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>GeM-Bidding-8497150.pdf</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr"/>
-      <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="1" t="inlineStr"/>
-      <c r="G86" s="1" t="inlineStr"/>
-      <c r="H86" s="1" t="inlineStr"/>
-      <c r="I86" s="1" t="inlineStr">
-        <is>
           <t>https://niua.in/sites/default/files/tenders/GeM-Bidding-8497150.pdf</t>
         </is>
       </c>

--- a/all_grants.xlsx
+++ b/all_grants.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,37 +494,32 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>RFQ: Construction of New gated check dams, De-siltation, and retrofitting ...</t>
+          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>WaterAid India | Telangana
-International Development - RFQ: Construction of New gated check dams, De-siltation, and retrofitting of check dam in 6 villages - Telangana, WaterAid India, Telangana - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-S ... Read More</t>
+          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
+International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>• Terms and Conditions:
-Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
-Please quote for WaterAid (Jal Seva Charitable Foundation) contributed works only and community contribution part will be taken care by the community - either in cash or kind.
-Details of community contribution and WaterAid contribution is given in enclosed estimations for your reference.
-Quotation should send to
-WAIProcurementAP@wateraid.org
-For detailed information, please check the complete version of the RFQ attached below.
+          <t>• Scope of work
+The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
+Key responsibilities include:
+Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
+• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
+Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
+Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
+Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
+Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
+Deliverables:
+For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
-waiprocurementap(at)wateraid.org
+woscaprocurement(at)gmail.com
 Download Attachment:
-Tender Notice-JSCF-Jalsankalp-19.02.26_organized1.pdf
+RFP.docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -579,54 +574,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -656,7 +651,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -665,11 +660,11 @@
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287375</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
         </is>
       </c>
     </row>
@@ -682,32 +677,37 @@
       <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photo...</t>
+          <t>RFQ: Construction of New gated check dams, De-siltation, and retrofitting ...</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Women's Organisation For Socio-Cultural Awareness (Wosca) | Kendujhar, Odisha
-International Development - RFP - Design, Supply, Installation, And Commissioning Of A 1 Mw Agri Photovoltaics At Kulabir, Koraput, Odisha, Women's Organisation For Socio-Cultural Awareness (Wosca), Odisha - DevNetJobsInd ... Read More</t>
+          <t>WaterAid India | Telangana
+International Development - RFQ: Construction of New gated check dams, De-siltation, and retrofitting of check dam in 6 villages - Telangana, WaterAid India, Telangana - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+S ... Read More</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>• Scope of work
-The selected bidder will be responsible for delivering a complete, high-quality APV solution, covering end-to-end design, engineering, construction, and operational support.
-Key responsibilities include:
-Design and Engineering: Development of comprehensive engineering designs for a 1 MW overhead stilted APV system, including detailed layouts, structural engineering, and electrical drawings. It is to be ensured that a minimum ground clearance of 3-4 metres is maintained and the provision for agricultural activities under the panels is incorporated. All designs must comply with Ministry of New and Renewable Energy (MNRE) guidelines, relevant Bureau of Indian Standards (BIS), and PM-KUSUM Component A specifications.
-• Procurement and Installation: Supply all system components, including PV modules, inverters, elevated mounting structures, Balance of System (BOS) items and protection systems. Execute complete civil, structural, mechanical and electrical works necessary for installation and commissioning. Ensure quality assurance and testing of all components as per national and international standards. Detailed technical specification benchmarks, component-wise requirements, applicable standards, testing protocols, and minimum warranty obligations are provided in the Annexure 1 of this RFP. The EPC Contractor shall ensure full compliance with all parameters outlined therein, and any deviations must be clearly stated in the bid submission.
-Grid Interconnection and Power Evacuation: Designing and construction the evacuation infrastructure up to the designated interconnection point, following local DISCOM norms. Coordination with DISCOM for inspections, approvals, synchronization and commissioning of the plant.
-Agriculture Integration Irrigation Systems: Support the development of the panel farming plan, including layout for crops such as turmeric, ginger, and other shade-tolerant species. Install efficient water management systems, including drip irrigation pipelines, pumps, filtration units, and automation (if any). Ensure structural layout allows optimal light transmission and accessibility for farming operations.
-Operation and Maintenance (O&amp;M): Provide comprehensive O&amp;M services for a period of 5 years, including routine inspections, inverter and equipment maintenance, and fault rectification. Maintain system performance monitoring through Supervisory Control and Data Acquisition (SCADA) or equivalent real-time monitoring systems and ensure minimum guaranteed plant uptime and CUF.
-Training and Capacity Building: Conduct structured training programs for local FPO members, farmers on system operation, safety protocols, routine maintenance, and agricultural best practices under APV systems. Prepare user manuals, O&amp;M checklists, and training materials
-Deliverables:
-For detailed information, please check the complete version of the RFP attached below.
+          <t>• Terms and Conditions:
+Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
+Please quote for WaterAid (Jal Seva Charitable Foundation) contributed works only and community contribution part will be taken care by the community - either in cash or kind.
+Details of community contribution and WaterAid contribution is given in enclosed estimations for your reference.
+Quotation should send to
+WAIProcurementAP@wateraid.org
+For detailed information, please check the complete version of the RFQ attached below.
 • Job Email ID:
-woscaprocurement(at)gmail.com
+waiprocurementap(at)wateraid.org
 Download Attachment:
-RFP.docx
+Tender Notice-JSCF-Jalsankalp-19.02.26_organized1.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -762,54 +762,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -839,7 +839,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -848,11 +848,11 @@
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285841</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287375</t>
         </is>
       </c>
     </row>
@@ -865,13 +865,13 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Lords Education and Health Society (LEHS) | Gujarat
-International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
+          <t>Lords Education and Health Society (LEHS) | Odisha
+International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -879,7 +879,8 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tender ... Read More</t>
+RFPs/Tenders
+Sear ... Read More</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -889,13 +890,13 @@
 &lt;February 27th&gt;.
 The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
 rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
+. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
 Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
 rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-RFP for English Annotation of Student Voice Recordings 1.pdf
+RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -950,54 +951,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -1036,11 +1037,11 @@
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
         </is>
       </c>
     </row>
@@ -1053,13 +1054,13 @@
       <c r="B5" s="1" t="inlineStr"/>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Lords Education and Health Society (LEHS) | Odisha
-International Development - RFP - Odia Annotation of Student Voice Recordings from Odisha, Lords Education and Health Society (LEHS), Odisha - DevNetJobsIndia.org
+          <t>Lords Education and Health Society (LEHS) | Gujarat
+International Development - RFP - English Annotation of Student Voice Recordings from Gujarat, Lords Education and Health Society (LEHS), Gujarat - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -1067,8 +1068,7 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tenders
-Sear ... Read More</t>
+RFPs/Tender ... Read More</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -1078,13 +1078,13 @@
 &lt;February 27th&gt;.
 The proposal should be submitted only through e-mail in PDF format addressed to The Procurement Team at the below-given e-mail id:
 rfp.lehs@wadhwaniai.org
-. The email's subject line must contain the reference number and title of the RFP: Odia Transcriptions of Student Voice Recordings of Reading - Odisha (Name of the partner).
+. The email's subject line must contain the reference number and title of the RFP: English Transcriptions of Student Voice Recordings of Reading - Gujarat (Name of the partner).
 Any proposals received by Wadhwani-AI after the deadline for submission of proposals prescribed in the timeline of this document are liable to be rejected.
 For detailed information, please check the complete version of the RFP attached below.
 • Job Email ID:
 rfp.lehs(at)wadhwaniai.org
 Download Attachment:
-RFP for Odia Annotation of Student Voice Recordings from Odisha.pdf
+RFP for English Annotation of Student Voice Recordings 1.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -1139,54 +1139,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -1225,11 +1225,11 @@
         </is>
       </c>
       <c r="H5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287187</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287186</t>
         </is>
       </c>
     </row>
@@ -1335,54 +1335,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
@@ -1512,54 +1512,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="H7" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
@@ -1615,13 +1615,13 @@
       <c r="B8" s="1" t="inlineStr"/>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>RFP - Construction of New gated check dams, De-siltation, and retrofittin...</t>
+          <t>RFP - for Quarterly Internal Audits-State Office</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>WaterAid India | Hyderabad, Telangana
-International Development - RFP - Construction of New gated check dams, De-siltation, and  retrofitting of check dam in 6 villages, WaterAid India, Telangana - DevNetJobsIndia.org
+          <t>Foundation for Ecological Security (FES) | India
+International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -1629,22 +1629,45 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tenders ... Read More</t>
+RFPs/Tenders
+Search Jobs
+Events
+Jo ... Read More</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>• Terms and Conditions:
-Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
-Quotation should send to
-WAIProcurementAP@wateraid.org
-For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-WAIProcurementAP(at)wateraid.org
-Download Attachment:
-Tender Invitation - 15  Check dams- Amruthavarshini._compressed.pdf
-Download Attachment:
-Tender Invitation - 15  Check dams- Amruthavarshini..docx
+          <t>• Eligibility Criteria
+Registered CA firm in India with 5+ years NGO audit experience
+Having offices in Vicinity of FES Office locations.
+Familiarity with NGO specific audit norms
+Qualified team with sectoral knowledge
+No conflict of interest with FES
+At least three professional references from client.
+Proposal Must Include
+Audit methodology
+Team composition &amp; CVs
+Past NGO audit experience
+Detailed fee quotations, Project/state- wise (Listed above).
+Audit timelines
+Declaration of independence
+Contact
+Vishal Prajapati:
+vishal.prajapati@fes.org.in
+|
++91 7405396926
+Pankaj Garg:
+pankaj.garg@fes.org.in
+|
++91 9687606949
+Important Dates
+Submission Deadline: February 28th, 2025
+Selection Notification: Within 30 working days
+Mention
+“Proposal for Quarterly Internal Audits-State Office
+”
+in the subject Line.
+FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -1699,54 +1722,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -1776,7 +1799,7 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -1785,11 +1808,11 @@
         </is>
       </c>
       <c r="H8" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287360</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
         </is>
       </c>
     </row>
@@ -1802,10 +1825,218 @@
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" s="1" t="inlineStr">
         <is>
+          <t>RFP - for Internal Audit -FES Anand</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Foundation for Ecological Security (FES) | Gujarat
+International Development - RFP - for Internal Audit -FES Anand, Foundation for Ecological Security (FES), Gujarat - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders
+Search Jobs
+Events
+Jobseekers: ... Read More</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>• Eligibility Criteria
+Registered CA firm in India with 5+ years NGO audit experience
+Having offices in Vicinity of FES Office locations.
+Familiarity with NGO specific audit norms
+Qualified team with sectoral knowledge
+No conflict of interest with FES
+At least three professional references from client.
+Proposal Must Include
+Audit methodology
+Team composition &amp; CVs
+Past NGO audit experience
+Detailed fee quotations, either state- wise or in Consolidated format.
+Audit timelines
+Declaration of independence
+Contact
+Hemant@fes.org.in
+|
++91 7405396926
+Pankaj Garg:
+pankaj.garg@fes.org.in
+|
++91 9687606949
+Important Dates
+Submission Deadline: February 28th, 2026
+Selection Notification: Within 30 working days
+Please mention “
+Proposal for Internal Audit -FES Anand
+” in the subject line.
+FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+28 Feb 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
+Apply by:
+10 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &amp; Conditions
+Powered by
+Recruitment Exchange</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>28-02-2026</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287266</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>DevNetJobsIndia</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
           <t>RFP - for End line Assessment of Access to Iron-Contamination-Free and Flu...</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>WaterAid India | India
 International Development - RFP - for End line Assessment of Access to Iron-Contamination-Free and Fluoride-Contamination-Free Drinking Water, WaterAid India, India - DevNetJobsIndia.org
@@ -1820,7 +2051,7 @@
 Search J ... Read More</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>• 3. Scope of Work
 The selected consultant/firm will undertake the following tasks:
@@ -1957,54 +2188,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -2032,41 +2263,41 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>Learning, Safety</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
         <is>
           <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287361</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>DevNetJobsIndia</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>RFP - for Internal Audit -FES Anand</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Foundation for Ecological Security (FES) | Gujarat
-International Development - RFP - for Internal Audit -FES Anand, Foundation for Ecological Security (FES), Gujarat - DevNetJobsIndia.org
+      <c r="B11" s="1" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Construction of New gated check dams, De-siltation, and retrofittin...</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>WaterAid India | Hyderabad, Telangana
+International Development - RFP - Construction of New gated check dams, De-siltation, and  retrofitting of check dam in 6 villages, WaterAid India, Telangana - DevNetJobsIndia.org
 Jobseekers:
 Login
 |
@@ -2074,43 +2305,22 @@
 Home
 Value Membership
 Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jobseekers: ... Read More</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Registered CA firm in India with 5+ years NGO audit experience
-Having offices in Vicinity of FES Office locations.
-Familiarity with NGO specific audit norms
-Qualified team with sectoral knowledge
-No conflict of interest with FES
-At least three professional references from client.
-Proposal Must Include
-Audit methodology
-Team composition &amp; CVs
-Past NGO audit experience
-Detailed fee quotations, either state- wise or in Consolidated format.
-Audit timelines
-Declaration of independence
-Contact
-Hemant@fes.org.in
-|
-+91 7405396926
-Pankaj Garg:
-pankaj.garg@fes.org.in
-|
-+91 9687606949
-Important Dates
-Submission Deadline: February 28th, 2026
-Selection Notification: Within 30 working days
-Please mention “
-Proposal for Internal Audit -FES Anand
-” in the subject line.
-FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
+RFPs/Tenders ... Read More</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>• Terms and Conditions:
+Selected vendor will be received the bidding confirmation within 10 days from the last day of RFQ (last day of quotation submission date) and the other vendors can consider the bidding has been closed and work assignment has been completed, no specified mails will be sent about selection of vendors
+Quotation should send to
+WAIProcurementAP@wateraid.org
+For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+WAIProcurementAP(at)wateraid.org
+Download Attachment:
+Tender Invitation - 15  Check dams- Amruthavarshini._compressed.pdf
+Download Attachment:
+Tender Invitation - 15  Check dams- Amruthavarshini..docx
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -2165,54 +2375,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -2240,232 +2450,22 @@
 Recruitment Exchange</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>28-02-2026</t>
         </is>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287266</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>DevNetJobsIndia</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>RFP - for Quarterly Internal Audits-State Office</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Foundation for Ecological Security (FES) | India
-International Development - RFP - for Quarterly Internal Audits-State Office, Foundation for Ecological Security (FES), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Register
-Home
-Value Membership
-Broadcast Resume
-RFPs/Tenders
-Search Jobs
-Events
-Jo ... Read More</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>• Eligibility Criteria
-Registered CA firm in India with 5+ years NGO audit experience
-Having offices in Vicinity of FES Office locations.
-Familiarity with NGO specific audit norms
-Qualified team with sectoral knowledge
-No conflict of interest with FES
-At least three professional references from client.
-Proposal Must Include
-Audit methodology
-Team composition &amp; CVs
-Past NGO audit experience
-Detailed fee quotations, Project/state- wise (Listed above).
-Audit timelines
-Declaration of independence
-Contact
-Vishal Prajapati:
-vishal.prajapati@fes.org.in
-|
-+91 7405396926
-Pankaj Garg:
-pankaj.garg@fes.org.in
-|
-+91 9687606949
-Important Dates
-Submission Deadline: February 28th, 2025
-Selection Notification: Within 30 working days
-Mention
-“Proposal for Quarterly Internal Audits-State Office
-”
-in the subject Line.
-FES seeks a credible audit partner to ensure transparency, accountability, and donor confidence.
-View Similar Jobs:
-Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
-Subscribe
-Apply by:
-28 Feb 2026
-Access all the jobs and get ahead!
-Subscribe to Value Membership Now!
-Subscribe
-Premium Jobs
-Post your premium jobs here
-Specialist – Communication
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-19 Mar 2026
-Specialist - Grants
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-21 Mar 2026
-Specialist – Financial Management and Compliance
-Financial Management Service Foundation (FMSF)
-Location:
-Uttar Pradesh
-Apply by:
-13 Mar 2026
-Proposal Development Associate
-Academy of Management Studies (AMS)
-Location:
-Uttar Pradesh
-Apply by:
-28 Feb 2026
-Associate (Programme Management)
-Indian Institute For Human Settlements (Iihs)
-Location:
-Karnataka
-Apply by:
-07 Mar 2026
-Chief Programs Officer for Project Potential
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Program Lead- Finance &amp; Compliance for Project Po...
-Project Potential
-Location:
-Bihar
-Apply by:
-11 Mar 2026
-Latest Jobs
-Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
-Apply by:
-10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
-Jobseekers
-Register
-Login
-Subscribe to Value Membership
-Broadcast Resume
-Contact Us
-Recruiters
-Recruiters Zone
-Post a Free Job
-Post a Highlighted Job (With Logo)
-Post a Highlighted Job (Without Logo)
-Post a Premium Job
-More Job Posting Options
-Rates
-Contact Us
-Advertisers
-Networks
-Advertise Your Banner
-Submit Events &amp; Notices
-© 2025 M-Power Jobs. All rights reserved.
-Disclaimer
-Privacy Policy
-Terms &amp; Conditions
-Powered by
-Recruitment Exchange</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>28-02-2026</t>
-        </is>
-      </c>
       <c r="H11" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287267</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287360</t>
         </is>
       </c>
     </row>
@@ -2688,54 +2688,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="H12" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
@@ -2791,32 +2791,36 @@
       <c r="B13" s="1" t="inlineStr"/>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
+          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Centre for Catalyzing Change (C3) | India
-International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
-Jobseekers:
-Login
-|
-Registe ... Read More</t>
+          <t>Project Concern International India (PCI India) | India
+International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>• b. Proposal Submission Guidelines
-The applicant should submit the Technical and Financial Proposal in two separate pdf documents
-Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
-X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
-All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
-procument@c3india.org
-on or before the proposal submission time
-The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
+          <t>• Last   Date for Submission of bids
+02
+nd
+March 2026
+Proposals   to be submitted at
+procdelhi@pciglobal.in
+Receipt of Proposals
+Technical and Financial   proposals should be submitted as separate attachments
+and to be submitted
+in a single email
+attachments.
+NOTE
+:
+(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
 For detailed information, please check the complete version of the RFP attached below.
+• Job Email ID:
+procdelhi(at)pciglobal.in
 Download Attachment:
-RFP for education initiatives_C3.pdf
+RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -2871,54 +2875,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -2948,7 +2952,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -2957,11 +2961,11 @@
         </is>
       </c>
       <c r="H13" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
         </is>
       </c>
     </row>
@@ -3062,54 +3066,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -3148,7 +3152,7 @@
         </is>
       </c>
       <c r="H14" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
@@ -3399,54 +3403,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -3485,7 +3489,7 @@
         </is>
       </c>
       <c r="H15" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
@@ -3502,36 +3506,32 @@
       <c r="B16" s="1" t="inlineStr"/>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Interv...</t>
+          <t>RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of Co...</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Project Concern International India (PCI India) | India
-International Development - RFP - Hiring an Agency to Conduct Evidence Synthesis, Co-Design Key Intervention Components, and Develop a Scalable and Operational Implementation, Project Concern International India (PCI India), India - DevNetJobs ... Read More</t>
+          <t>Centre for Catalyzing Change (C3) | India
+International Development - RFP - Evaluation of Centre for Catalyzing Change’s Program at Scale of  Completion of Education and Delayed marriage of Adolescents Girls, Centre for Catalyzing Change (C3), India - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Registe ... Read More</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>• Last   Date for Submission of bids
-02
-nd
-March 2026
-Proposals   to be submitted at
-procdelhi@pciglobal.in
-Receipt of Proposals
-Technical and Financial   proposals should be submitted as separate attachments
-and to be submitted
-in a single email
-attachments.
-NOTE
-:
-(a) The agencies registered under the Societies/Trust/Foreign Contribution (Regulation) Act, 2010, are not required to submit applications. Proposals from these agencies will not be considered.
+          <t>• b. Proposal Submission Guidelines
+The applicant should submit the Technical and Financial Proposal in two separate pdf documents
+Each proposal (Technical and Financial) should be saved in a separate pdf file marked as &lt;Agency name&gt;_&lt;proposal type&gt;_C3_Education Initiative Evaluation e.g. the technical proposal of X agency well be will be saved as
+X_Technical Proposal_C3_Education initiatives_ Evaluation.pdf
+All the proposals to be zipped together in one folder named &lt;Agency name&gt;_C3_Education initiative Evaluation should be emailed to
+procument@c3india.org
+on or before the proposal submission time
+The email containing the proposal should quote &lt;Agency name&gt;_Proposal_C3_Education initiative Evaluation in the subject line
 For detailed information, please check the complete version of the RFP attached below.
-• Job Email ID:
-procdelhi(at)pciglobal.in
 Download Attachment:
-RFP-AGENCY TO CONDUCT EVIDENCE SYNTHESIS, CO-DESIGN KEY INTERVENTION ..........doc
+RFP for education initiatives_C3.pdf
 View Similar Jobs:
 Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
 Subscribe
@@ -3586,54 +3586,54 @@
 11 Mar 2026
 Latest Jobs
 Post your highlighted jobs here
-Teacher
-Initiative Sewa Foundation
-Location:
-India
-Apply by:
-26 Mar 2026
-State Maternal Health Consultant
-Inductus Limited
-Location:
-Madhya Pradesh
-Apply by:
-03 Mar 2026
-State Manager – Policy &amp; Strategic Initiatives
-ChangeInkk Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Program Coordinator
-Sampark Foundation
-Location:
-Odisha
-Apply by:
-26 Mar 2026
-Sr Manager/Manager- New Acquisitions - Corporate ...
-Smile Foundation
-Location:
-Delhi
-Apply by:
-26 Mar 2026
-One Health Advisor - Focus on One Health and Agro...
-Deutsche Gesellschaft für Internationale Zusammen...
-Location:
-Madhya Pradesh
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
 Apply by:
 10 Mar 2026
-Admin &amp; Finance Associate
-Quest Alliance
-Location:
-Gujarat
-Apply by:
-26 Mar 2026
-RFP - Procurement of Printing &amp; supply of IEC mat...
-Foundation for Innovative New Diagnostics India  ...
-Location:
-India
-Apply by:
-17 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
 Jobseekers
 Register
 Login
@@ -3663,7 +3663,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -3672,11 +3672,11 @@
         </is>
       </c>
       <c r="H16" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=287312</t>
+          <t>https://www.devnetjobsindia.org/JobDescription.aspx?Job_Id=285557</t>
         </is>
       </c>
     </row>
@@ -3689,10 +3689,213 @@
       <c r="B17" s="1" t="inlineStr"/>
       <c r="C17" s="1" t="inlineStr">
         <is>
+          <t>RFP – EOI for the Establishment of Recharge Shaft</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>PHD Rural Development Foundation | Alwar and Jaipur districts, Rajasthan
+International Development - RFP – EOI for the Establishment of Recharge Shaft, PHD Rural Development Foundation, Rajasthan - DevNetJobsIndia.org
+Jobseekers:
+Login
+|
+Register
+Home
+Value Membership
+Broadcast Resume
+RFPs/Tenders ... Read More</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>• Only those firms that qualify in the technical bid will be considered for the price bid. The price bid will have to be submitted separately in a sealed envelope later, based on the scope of work, which will be shared with the successful technical bidders.
+Therefore, experienced vendors are invited to submit the technical bid as follows. The technical bid must include the following relevant documents (items (i) to (xi):
+Technical criteria required to be submitted by the bidder:
+a. The vendor must have relevant work experience.
+b. The vendor must have experience of successful completion of at least one similar project/work order of a minimum value of Rs. 2-5.0 lakhs during the last 2 years.
+The bidder must submit the following documents:
+Company Profile/List of projects completed in the last 3 years
+GST Certificate
+PAN Card
+Aadhaar Card
+Certified Balance Sheet/Turnover
+MSME Registration Certificate (In case of non-registration, please share a declaration)
+PF Registration (In case of non-registration, please share a declaration)
+ESIC Registration (In case of non-registration, please share a declaration)
+Registration under the Contract Labour (Regulation and Abolition) Act, 1970
+Whether the firm has any legal suit/criminal case pending against it for violation of EPF/ESI, Minimum Wages Act or other laws (provide details). The bidder must attach a certificate (in the technical bid) stating that no criminal/legal case is pending or under consideration against them.
+Work orders/Purchase orders/Relevant documents for experience in similar/relevant work (Minimum 3 work orders should be shared for the last 2 years only, at least one work order should be of a minimum value of Rs. 2-5.0 lakhs)
+• How to apply:
+• Send all relevant documents to the email ID:
+rdf@phdcci.in
+Note:
+Last date for submission of documents is on or before 3
+rd
+March , 2026
+The successful bidder will have to enter into a detailed contract agreement with PHDRDF on a non-judicial stamp paper of Rs. (in figures) (in words) for each work.
+• Job Email ID:
+rdf(at)phdcci.in
+View Similar Jobs:
+Was this job of interest to you? Subscribe to Value Membership to get access to similar jobs and hundreds of other member-only jobs.
+Subscribe
+Apply by:
+03 Mar 2026
+Access all the jobs and get ahead!
+Subscribe to Value Membership Now!
+Subscribe
+Premium Jobs
+Post your premium jobs here
+Specialist – Communication
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+19 Mar 2026
+Specialist - Grants
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+21 Mar 2026
+Specialist – Financial Management and Compliance
+Financial Management Service Foundation (FMSF)
+Location:
+Uttar Pradesh
+Apply by:
+13 Mar 2026
+Proposal Development Associate
+Academy of Management Studies (AMS)
+Location:
+Uttar Pradesh
+Apply by:
+28 Feb 2026
+Associate (Programme Management)
+Indian Institute For Human Settlements (Iihs)
+Location:
+Karnataka
+Apply by:
+07 Mar 2026
+Chief Programs Officer for Project Potential
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Program Lead- Finance &amp; Compliance for Project Po...
+Project Potential
+Location:
+Bihar
+Apply by:
+11 Mar 2026
+Latest Jobs
+Post your highlighted jobs here
+RFP - for Supply of Skill Lab Items
+TeamLease Foundation
+Location:
+India
+Apply by:
+11 Mar 2026
+Case Worker (Project Coordinator)
+Prerana
+Location:
+Maharashtra
+Apply by:
+10 Mar 2026
+Intern-cum-Consultant – Business Development Supp...
+Pathfinder International India
+Location:
+India
+Apply by:
+08 Mar 2026
+District Support Manager - Maharashtra
+IPE Global Centre for Knowledge and Development (...
+Location:
+Maharashtra
+Apply by:
+27 Mar 2026
+LGT Impact Fellowship
+LGT Venture Philanthropy
+Location:
+Regional / Global
+Apply by:
+31 Mar 2026
+Programme Manager
+Cancer Foundation Of India
+Location:
+West Bengal
+Apply by:
+15 Mar 2026
+Senior Executive - Projects
+Echo India
+Location:
+Assam, Andhra Pradesh, Uttar Pradesh
+Apply by:
+27 Mar 2026
+RFQ - Digital agency for Digital Performance Mark...
+UNFPA
+Location:
+India
+Apply by:
+11 Mar 2026
+Jobseekers
+Register
+Login
+Subscribe to Value Membership
+Broadcast Resume
+Contact Us
+Recruiters
+Recruiters Zone
+Post a Free Job
+Post a Highlighted Job (With Logo)
+Post a Highlighted Job (Without Logo)
+Post a Premium Job
+More Job Posting Options
+Rates
+Contact Us
+Advertisers
+Networks
+Advertise Your Banner
+Submit Events &amp; Notices
+© 2025 M-Power Jobs. All rights reserved.
+Disclaimer
+Privacy Policy
+Terms &am